--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,27 @@
     <t>['21', '53']</t>
   </si>
   <si>
+    <t>['3', '61', '69', '90+2']</t>
+  </si>
+  <si>
+    <t>['67', '82']</t>
+  </si>
+  <si>
+    <t>['5', '33', '48', '62', '78']</t>
+  </si>
+  <si>
+    <t>['48', '67']</t>
+  </si>
+  <si>
+    <t>['38', '65', '76']</t>
+  </si>
+  <si>
+    <t>['21', '38', '69']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -638,6 +659,18 @@
   </si>
   <si>
     <t>['50']</t>
+  </si>
+  <si>
+    <t>['12', '65']</t>
+  </si>
+  <si>
+    <t>['45', '57']</t>
+  </si>
+  <si>
+    <t>['18', '36', '49', '86', '88']</t>
+  </si>
+  <si>
+    <t>['18', '24']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1276,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1330,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT2">
         <v>1.67</v>
@@ -1434,7 +1467,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1521,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1712,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>1.17</v>
@@ -1816,7 +1849,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1906,7 +1939,7 @@
         <v>1.17</v>
       </c>
       <c r="AT5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2007,7 +2040,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2097,7 +2130,7 @@
         <v>0.8</v>
       </c>
       <c r="AT6">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2476,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -2667,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT9">
         <v>1.5</v>
@@ -2771,7 +2804,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2861,7 +2894,7 @@
         <v>2.67</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3052,7 +3085,7 @@
         <v>2.2</v>
       </c>
       <c r="AT11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3240,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT12">
         <v>1.17</v>
@@ -3535,7 +3568,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -3625,7 +3658,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3816,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4004,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT16">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4108,7 +4141,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4490,7 +4523,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4580,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="AT19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4681,7 +4714,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4768,7 +4801,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -4872,7 +4905,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5254,7 +5287,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5532,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT24">
         <v>1.17</v>
@@ -5636,7 +5669,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5723,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5827,7 +5860,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5914,10 +5947,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT26">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU26">
         <v>1.18</v>
@@ -6018,7 +6051,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6105,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT27">
         <v>1.5</v>
@@ -6209,7 +6242,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6299,7 +6332,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU28">
         <v>1.95</v>
@@ -6400,7 +6433,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6490,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="AT29">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU29">
         <v>2.86</v>
@@ -6591,7 +6624,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6681,7 +6714,7 @@
         <v>1.17</v>
       </c>
       <c r="AT30">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -6872,7 +6905,7 @@
         <v>2.2</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU31">
         <v>3.35</v>
@@ -6973,7 +7006,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7254,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>0.82</v>
@@ -7442,10 +7475,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU34">
         <v>1.52</v>
@@ -7827,7 +7860,7 @@
         <v>1.83</v>
       </c>
       <c r="AT36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>0.86</v>
@@ -7928,7 +7961,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8015,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>0.6</v>
@@ -8119,7 +8152,7 @@
         <v>84</v>
       </c>
       <c r="P38" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8206,7 +8239,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT38">
         <v>1.67</v>
@@ -8397,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8588,10 +8621,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT40">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU40">
         <v>1.82</v>
@@ -9164,7 +9197,7 @@
         <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU43">
         <v>1.75</v>
@@ -9265,7 +9298,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9352,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT44">
         <v>1.6</v>
@@ -9456,7 +9489,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9647,7 +9680,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9928,7 +9961,7 @@
         <v>1.83</v>
       </c>
       <c r="AT47">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU47">
         <v>2.12</v>
@@ -10119,7 +10152,7 @@
         <v>1.83</v>
       </c>
       <c r="AT48">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10220,7 +10253,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10310,7 +10343,7 @@
         <v>1.17</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU49">
         <v>1.76</v>
@@ -10498,7 +10531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1.17</v>
@@ -10692,7 +10725,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU51">
         <v>2.3</v>
@@ -10793,7 +10826,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11071,10 +11104,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU53">
         <v>1.51</v>
@@ -11262,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>1.75</v>
@@ -11366,7 +11399,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11557,7 +11590,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11748,7 +11781,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11939,7 +11972,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12026,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT58">
         <v>1.33</v>
@@ -12130,7 +12163,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12220,7 +12253,7 @@
         <v>1.17</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU59">
         <v>1.8</v>
@@ -12321,7 +12354,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12408,7 +12441,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT60">
         <v>1.6</v>
@@ -12512,7 +12545,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -12790,7 +12823,7 @@
         <v>0.5</v>
       </c>
       <c r="AS62">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -12894,7 +12927,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12981,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT63">
         <v>0.6</v>
@@ -13175,7 +13208,7 @@
         <v>2.67</v>
       </c>
       <c r="AT64">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU64">
         <v>1.93</v>
@@ -13467,7 +13500,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13554,7 +13587,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT66">
         <v>1.67</v>
@@ -13658,7 +13691,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13745,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT67">
         <v>1.75</v>
@@ -14040,7 +14073,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q69">
         <v>11</v>
@@ -14130,7 +14163,7 @@
         <v>1.83</v>
       </c>
       <c r="AT69">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU69">
         <v>1.99</v>
@@ -14231,7 +14264,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q70">
         <v>12</v>
@@ -14318,10 +14351,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU70">
         <v>1.43</v>
@@ -14512,7 +14545,7 @@
         <v>1.83</v>
       </c>
       <c r="AT71">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU71">
         <v>1.35</v>
@@ -14700,10 +14733,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT72">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>2.58</v>
@@ -14804,7 +14837,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14995,7 +15028,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15085,7 +15118,7 @@
         <v>2</v>
       </c>
       <c r="AT74">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU74">
         <v>1.89</v>
@@ -15186,7 +15219,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15273,10 +15306,10 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT75">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU75">
         <v>1.24</v>
@@ -15568,7 +15601,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15759,7 +15792,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15846,7 +15879,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT78">
         <v>1.17</v>
@@ -16040,7 +16073,7 @@
         <v>1.4</v>
       </c>
       <c r="AT79">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU79">
         <v>1.78</v>
@@ -16141,7 +16174,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16523,7 +16556,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16610,7 +16643,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT82">
         <v>0.6</v>
@@ -16714,7 +16747,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16804,7 +16837,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -16995,7 +17028,7 @@
         <v>1.17</v>
       </c>
       <c r="AT84">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU84">
         <v>1.56</v>
@@ -17096,7 +17129,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17186,7 +17219,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU85">
         <v>1.4</v>
@@ -17478,7 +17511,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17565,7 +17598,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT87">
         <v>2</v>
@@ -17756,7 +17789,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT88">
         <v>1.17</v>
@@ -17860,7 +17893,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17947,7 +17980,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT89">
         <v>1.67</v>
@@ -18138,10 +18171,10 @@
         <v>1.25</v>
       </c>
       <c r="AS90">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU90">
         <v>1.79</v>
@@ -18242,7 +18275,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18329,10 +18362,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU91">
         <v>1.41</v>
@@ -18433,7 +18466,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18624,7 +18657,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18711,7 +18744,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -19197,7 +19230,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19388,7 +19421,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19579,7 +19612,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19669,7 +19702,7 @@
         <v>1.75</v>
       </c>
       <c r="AT98">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU98">
         <v>2.32</v>
@@ -19860,7 +19893,7 @@
         <v>0.8</v>
       </c>
       <c r="AT99">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU99">
         <v>1.71</v>
@@ -19961,7 +19994,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20152,7 +20185,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20343,16 +20376,16 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R102">
         <v>2</v>
       </c>
       <c r="S102">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T102">
         <v>2.3</v>
@@ -20676,6 +20709,1534 @@
       </c>
       <c r="BK103">
         <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:63">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>2831225</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="2">
+        <v>44864.35416666666</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>72</v>
+      </c>
+      <c r="H104" t="s">
+        <v>83</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104" t="s">
+        <v>157</v>
+      </c>
+      <c r="P104" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q104">
+        <v>5</v>
+      </c>
+      <c r="R104">
+        <v>5</v>
+      </c>
+      <c r="S104">
+        <v>10</v>
+      </c>
+      <c r="T104">
+        <v>2.6</v>
+      </c>
+      <c r="U104">
+        <v>2.15</v>
+      </c>
+      <c r="V104">
+        <v>3.75</v>
+      </c>
+      <c r="W104">
+        <v>1.36</v>
+      </c>
+      <c r="X104">
+        <v>2.9</v>
+      </c>
+      <c r="Y104">
+        <v>2.6</v>
+      </c>
+      <c r="Z104">
+        <v>1.43</v>
+      </c>
+      <c r="AA104">
+        <v>6.5</v>
+      </c>
+      <c r="AB104">
+        <v>1.1</v>
+      </c>
+      <c r="AC104">
+        <v>1.98</v>
+      </c>
+      <c r="AD104">
+        <v>3.6</v>
+      </c>
+      <c r="AE104">
+        <v>3.4</v>
+      </c>
+      <c r="AF104">
+        <v>1.05</v>
+      </c>
+      <c r="AG104">
+        <v>10</v>
+      </c>
+      <c r="AH104">
+        <v>1.25</v>
+      </c>
+      <c r="AI104">
+        <v>3.6</v>
+      </c>
+      <c r="AJ104">
+        <v>1.83</v>
+      </c>
+      <c r="AK104">
+        <v>1.98</v>
+      </c>
+      <c r="AL104">
+        <v>1.66</v>
+      </c>
+      <c r="AM104">
+        <v>2.05</v>
+      </c>
+      <c r="AN104">
+        <v>1.3</v>
+      </c>
+      <c r="AO104">
+        <v>1.29</v>
+      </c>
+      <c r="AP104">
+        <v>1.73</v>
+      </c>
+      <c r="AQ104">
+        <v>0.8</v>
+      </c>
+      <c r="AR104">
+        <v>0.6</v>
+      </c>
+      <c r="AS104">
+        <v>1.17</v>
+      </c>
+      <c r="AT104">
+        <v>0.5</v>
+      </c>
+      <c r="AU104">
+        <v>1.42</v>
+      </c>
+      <c r="AV104">
+        <v>1.16</v>
+      </c>
+      <c r="AW104">
+        <v>2.58</v>
+      </c>
+      <c r="AX104">
+        <v>1.45</v>
+      </c>
+      <c r="AY104">
+        <v>8.5</v>
+      </c>
+      <c r="AZ104">
+        <v>3.2</v>
+      </c>
+      <c r="BA104">
+        <v>1.27</v>
+      </c>
+      <c r="BB104">
+        <v>1.53</v>
+      </c>
+      <c r="BC104">
+        <v>1.95</v>
+      </c>
+      <c r="BD104">
+        <v>2.53</v>
+      </c>
+      <c r="BE104">
+        <v>3.42</v>
+      </c>
+      <c r="BF104">
+        <v>3</v>
+      </c>
+      <c r="BG104">
+        <v>11</v>
+      </c>
+      <c r="BH104">
+        <v>6</v>
+      </c>
+      <c r="BI104">
+        <v>6</v>
+      </c>
+      <c r="BJ104">
+        <v>9</v>
+      </c>
+      <c r="BK104">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:63">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2831229</v>
+      </c>
+      <c r="C105" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F105">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>75</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105" t="s">
+        <v>158</v>
+      </c>
+      <c r="P105" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q105">
+        <v>8</v>
+      </c>
+      <c r="R105">
+        <v>3</v>
+      </c>
+      <c r="S105">
+        <v>11</v>
+      </c>
+      <c r="T105">
+        <v>3.25</v>
+      </c>
+      <c r="U105">
+        <v>2.25</v>
+      </c>
+      <c r="V105">
+        <v>3</v>
+      </c>
+      <c r="W105">
+        <v>1.33</v>
+      </c>
+      <c r="X105">
+        <v>3.25</v>
+      </c>
+      <c r="Y105">
+        <v>2.63</v>
+      </c>
+      <c r="Z105">
+        <v>1.44</v>
+      </c>
+      <c r="AA105">
+        <v>6.5</v>
+      </c>
+      <c r="AB105">
+        <v>1.11</v>
+      </c>
+      <c r="AC105">
+        <v>2.7</v>
+      </c>
+      <c r="AD105">
+        <v>3.25</v>
+      </c>
+      <c r="AE105">
+        <v>2.5</v>
+      </c>
+      <c r="AF105">
+        <v>1.05</v>
+      </c>
+      <c r="AG105">
+        <v>13</v>
+      </c>
+      <c r="AH105">
+        <v>1.22</v>
+      </c>
+      <c r="AI105">
+        <v>4.12</v>
+      </c>
+      <c r="AJ105">
+        <v>1.73</v>
+      </c>
+      <c r="AK105">
+        <v>2.1</v>
+      </c>
+      <c r="AL105">
+        <v>1.62</v>
+      </c>
+      <c r="AM105">
+        <v>2.2</v>
+      </c>
+      <c r="AN105">
+        <v>1.53</v>
+      </c>
+      <c r="AO105">
+        <v>1.3</v>
+      </c>
+      <c r="AP105">
+        <v>1.42</v>
+      </c>
+      <c r="AQ105">
+        <v>2.4</v>
+      </c>
+      <c r="AR105">
+        <v>1.83</v>
+      </c>
+      <c r="AS105">
+        <v>2.17</v>
+      </c>
+      <c r="AT105">
+        <v>1.71</v>
+      </c>
+      <c r="AU105">
+        <v>1.5</v>
+      </c>
+      <c r="AV105">
+        <v>1.85</v>
+      </c>
+      <c r="AW105">
+        <v>3.35</v>
+      </c>
+      <c r="AX105">
+        <v>1.95</v>
+      </c>
+      <c r="AY105">
+        <v>8</v>
+      </c>
+      <c r="AZ105">
+        <v>2.1</v>
+      </c>
+      <c r="BA105">
+        <v>1.28</v>
+      </c>
+      <c r="BB105">
+        <v>1.55</v>
+      </c>
+      <c r="BC105">
+        <v>1.98</v>
+      </c>
+      <c r="BD105">
+        <v>2.59</v>
+      </c>
+      <c r="BE105">
+        <v>3.48</v>
+      </c>
+      <c r="BF105">
+        <v>6</v>
+      </c>
+      <c r="BG105">
+        <v>6</v>
+      </c>
+      <c r="BH105">
+        <v>5</v>
+      </c>
+      <c r="BI105">
+        <v>9</v>
+      </c>
+      <c r="BJ105">
+        <v>11</v>
+      </c>
+      <c r="BK105">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:63">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>2831223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F106">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>67</v>
+      </c>
+      <c r="H106" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>7</v>
+      </c>
+      <c r="O106" t="s">
+        <v>159</v>
+      </c>
+      <c r="P106" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q106">
+        <v>9</v>
+      </c>
+      <c r="R106">
+        <v>4</v>
+      </c>
+      <c r="S106">
+        <v>13</v>
+      </c>
+      <c r="T106">
+        <v>1.8</v>
+      </c>
+      <c r="U106">
+        <v>2.6</v>
+      </c>
+      <c r="V106">
+        <v>7</v>
+      </c>
+      <c r="W106">
+        <v>1.29</v>
+      </c>
+      <c r="X106">
+        <v>3.5</v>
+      </c>
+      <c r="Y106">
+        <v>2.25</v>
+      </c>
+      <c r="Z106">
+        <v>1.57</v>
+      </c>
+      <c r="AA106">
+        <v>5.5</v>
+      </c>
+      <c r="AB106">
+        <v>1.14</v>
+      </c>
+      <c r="AC106">
+        <v>1.35</v>
+      </c>
+      <c r="AD106">
+        <v>5.1</v>
+      </c>
+      <c r="AE106">
+        <v>7</v>
+      </c>
+      <c r="AF106">
+        <v>1.03</v>
+      </c>
+      <c r="AG106">
+        <v>17</v>
+      </c>
+      <c r="AH106">
+        <v>1.17</v>
+      </c>
+      <c r="AI106">
+        <v>4.75</v>
+      </c>
+      <c r="AJ106">
+        <v>1.56</v>
+      </c>
+      <c r="AK106">
+        <v>2.43</v>
+      </c>
+      <c r="AL106">
+        <v>1.83</v>
+      </c>
+      <c r="AM106">
+        <v>1.83</v>
+      </c>
+      <c r="AN106">
+        <v>1.08</v>
+      </c>
+      <c r="AO106">
+        <v>1.16</v>
+      </c>
+      <c r="AP106">
+        <v>3.1</v>
+      </c>
+      <c r="AQ106">
+        <v>1.83</v>
+      </c>
+      <c r="AR106">
+        <v>0.5</v>
+      </c>
+      <c r="AS106">
+        <v>2</v>
+      </c>
+      <c r="AT106">
+        <v>0.4</v>
+      </c>
+      <c r="AU106">
+        <v>2.38</v>
+      </c>
+      <c r="AV106">
+        <v>1.84</v>
+      </c>
+      <c r="AW106">
+        <v>4.22</v>
+      </c>
+      <c r="AX106">
+        <v>1.22</v>
+      </c>
+      <c r="AY106">
+        <v>10</v>
+      </c>
+      <c r="AZ106">
+        <v>5</v>
+      </c>
+      <c r="BA106">
+        <v>1.23</v>
+      </c>
+      <c r="BB106">
+        <v>1.46</v>
+      </c>
+      <c r="BC106">
+        <v>1.83</v>
+      </c>
+      <c r="BD106">
+        <v>2.35</v>
+      </c>
+      <c r="BE106">
+        <v>3.14</v>
+      </c>
+      <c r="BF106">
+        <v>11</v>
+      </c>
+      <c r="BG106">
+        <v>5</v>
+      </c>
+      <c r="BH106">
+        <v>6</v>
+      </c>
+      <c r="BI106">
+        <v>5</v>
+      </c>
+      <c r="BJ106">
+        <v>17</v>
+      </c>
+      <c r="BK106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:63">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>2831227</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="2">
+        <v>44864.58333333334</v>
+      </c>
+      <c r="F107">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>65</v>
+      </c>
+      <c r="H107" t="s">
+        <v>73</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>7</v>
+      </c>
+      <c r="O107" t="s">
+        <v>160</v>
+      </c>
+      <c r="P107" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>4</v>
+      </c>
+      <c r="T107">
+        <v>6</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>2</v>
+      </c>
+      <c r="W107">
+        <v>1.3</v>
+      </c>
+      <c r="X107">
+        <v>3.4</v>
+      </c>
+      <c r="Y107">
+        <v>2.5</v>
+      </c>
+      <c r="Z107">
+        <v>1.5</v>
+      </c>
+      <c r="AA107">
+        <v>6</v>
+      </c>
+      <c r="AB107">
+        <v>1.13</v>
+      </c>
+      <c r="AC107">
+        <v>5.3</v>
+      </c>
+      <c r="AD107">
+        <v>4.4</v>
+      </c>
+      <c r="AE107">
+        <v>1.48</v>
+      </c>
+      <c r="AF107">
+        <v>1.04</v>
+      </c>
+      <c r="AG107">
+        <v>15</v>
+      </c>
+      <c r="AH107">
+        <v>1.19</v>
+      </c>
+      <c r="AI107">
+        <v>4.5</v>
+      </c>
+      <c r="AJ107">
+        <v>1.61</v>
+      </c>
+      <c r="AK107">
+        <v>2.23</v>
+      </c>
+      <c r="AL107">
+        <v>1.8</v>
+      </c>
+      <c r="AM107">
+        <v>1.91</v>
+      </c>
+      <c r="AN107">
+        <v>2.55</v>
+      </c>
+      <c r="AO107">
+        <v>1.2</v>
+      </c>
+      <c r="AP107">
+        <v>1.12</v>
+      </c>
+      <c r="AQ107">
+        <v>0.25</v>
+      </c>
+      <c r="AR107">
+        <v>1.75</v>
+      </c>
+      <c r="AS107">
+        <v>0.2</v>
+      </c>
+      <c r="AT107">
+        <v>2</v>
+      </c>
+      <c r="AU107">
+        <v>1.24</v>
+      </c>
+      <c r="AV107">
+        <v>1.61</v>
+      </c>
+      <c r="AW107">
+        <v>2.85</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>9</v>
+      </c>
+      <c r="AZ107">
+        <v>1.33</v>
+      </c>
+      <c r="BA107">
+        <v>1.32</v>
+      </c>
+      <c r="BB107">
+        <v>1.62</v>
+      </c>
+      <c r="BC107">
+        <v>2.1</v>
+      </c>
+      <c r="BD107">
+        <v>2.77</v>
+      </c>
+      <c r="BE107">
+        <v>3.86</v>
+      </c>
+      <c r="BF107">
+        <v>5</v>
+      </c>
+      <c r="BG107">
+        <v>8</v>
+      </c>
+      <c r="BH107">
+        <v>2</v>
+      </c>
+      <c r="BI107">
+        <v>6</v>
+      </c>
+      <c r="BJ107">
+        <v>7</v>
+      </c>
+      <c r="BK107">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:63">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2831224</v>
+      </c>
+      <c r="C108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2">
+        <v>44865.58333333334</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>66</v>
+      </c>
+      <c r="H108" t="s">
+        <v>70</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>2</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>84</v>
+      </c>
+      <c r="P108" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q108">
+        <v>2</v>
+      </c>
+      <c r="R108">
+        <v>3</v>
+      </c>
+      <c r="S108">
+        <v>5</v>
+      </c>
+      <c r="T108">
+        <v>3</v>
+      </c>
+      <c r="U108">
+        <v>2.1</v>
+      </c>
+      <c r="V108">
+        <v>3.75</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>2.63</v>
+      </c>
+      <c r="Y108">
+        <v>3</v>
+      </c>
+      <c r="Z108">
+        <v>1.36</v>
+      </c>
+      <c r="AA108">
+        <v>9</v>
+      </c>
+      <c r="AB108">
+        <v>1.07</v>
+      </c>
+      <c r="AC108">
+        <v>2.25</v>
+      </c>
+      <c r="AD108">
+        <v>3.3</v>
+      </c>
+      <c r="AE108">
+        <v>3.1</v>
+      </c>
+      <c r="AF108">
+        <v>1.05</v>
+      </c>
+      <c r="AG108">
+        <v>9</v>
+      </c>
+      <c r="AH108">
+        <v>1.32</v>
+      </c>
+      <c r="AI108">
+        <v>3.25</v>
+      </c>
+      <c r="AJ108">
+        <v>2.02</v>
+      </c>
+      <c r="AK108">
+        <v>1.88</v>
+      </c>
+      <c r="AL108">
+        <v>1.8</v>
+      </c>
+      <c r="AM108">
+        <v>1.91</v>
+      </c>
+      <c r="AN108">
+        <v>1.35</v>
+      </c>
+      <c r="AO108">
+        <v>1.32</v>
+      </c>
+      <c r="AP108">
+        <v>1.6</v>
+      </c>
+      <c r="AQ108">
+        <v>1.17</v>
+      </c>
+      <c r="AR108">
+        <v>0.75</v>
+      </c>
+      <c r="AS108">
+        <v>1</v>
+      </c>
+      <c r="AT108">
+        <v>1.2</v>
+      </c>
+      <c r="AU108">
+        <v>1.82</v>
+      </c>
+      <c r="AV108">
+        <v>1.53</v>
+      </c>
+      <c r="AW108">
+        <v>3.35</v>
+      </c>
+      <c r="AX108">
+        <v>1.78</v>
+      </c>
+      <c r="AY108">
+        <v>7.3</v>
+      </c>
+      <c r="AZ108">
+        <v>2.5</v>
+      </c>
+      <c r="BA108">
+        <v>1.36</v>
+      </c>
+      <c r="BB108">
+        <v>1.63</v>
+      </c>
+      <c r="BC108">
+        <v>2.05</v>
+      </c>
+      <c r="BD108">
+        <v>2.7</v>
+      </c>
+      <c r="BE108">
+        <v>3.7</v>
+      </c>
+      <c r="BF108">
+        <v>0</v>
+      </c>
+      <c r="BG108">
+        <v>5</v>
+      </c>
+      <c r="BH108">
+        <v>5</v>
+      </c>
+      <c r="BI108">
+        <v>5</v>
+      </c>
+      <c r="BJ108">
+        <v>5</v>
+      </c>
+      <c r="BK108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2831226</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44865.58333333334</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>71</v>
+      </c>
+      <c r="H109" t="s">
+        <v>69</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>161</v>
+      </c>
+      <c r="P109" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q109">
+        <v>2</v>
+      </c>
+      <c r="R109">
+        <v>4</v>
+      </c>
+      <c r="S109">
+        <v>6</v>
+      </c>
+      <c r="T109">
+        <v>2.05</v>
+      </c>
+      <c r="U109">
+        <v>2.2</v>
+      </c>
+      <c r="V109">
+        <v>7</v>
+      </c>
+      <c r="W109">
+        <v>1.4</v>
+      </c>
+      <c r="X109">
+        <v>2.75</v>
+      </c>
+      <c r="Y109">
+        <v>3</v>
+      </c>
+      <c r="Z109">
+        <v>1.36</v>
+      </c>
+      <c r="AA109">
+        <v>8</v>
+      </c>
+      <c r="AB109">
+        <v>1.08</v>
+      </c>
+      <c r="AC109">
+        <v>1.53</v>
+      </c>
+      <c r="AD109">
+        <v>3.95</v>
+      </c>
+      <c r="AE109">
+        <v>6.25</v>
+      </c>
+      <c r="AF109">
+        <v>1.04</v>
+      </c>
+      <c r="AG109">
+        <v>10.06</v>
+      </c>
+      <c r="AH109">
+        <v>1.31</v>
+      </c>
+      <c r="AI109">
+        <v>3.33</v>
+      </c>
+      <c r="AJ109">
+        <v>1.92</v>
+      </c>
+      <c r="AK109">
+        <v>1.98</v>
+      </c>
+      <c r="AL109">
+        <v>2.2</v>
+      </c>
+      <c r="AM109">
+        <v>1.62</v>
+      </c>
+      <c r="AN109">
+        <v>1.11</v>
+      </c>
+      <c r="AO109">
+        <v>1.23</v>
+      </c>
+      <c r="AP109">
+        <v>2.5</v>
+      </c>
+      <c r="AQ109">
+        <v>2.17</v>
+      </c>
+      <c r="AR109">
+        <v>1</v>
+      </c>
+      <c r="AS109">
+        <v>2.29</v>
+      </c>
+      <c r="AT109">
+        <v>0.83</v>
+      </c>
+      <c r="AU109">
+        <v>1.76</v>
+      </c>
+      <c r="AV109">
+        <v>1.24</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>1.27</v>
+      </c>
+      <c r="AY109">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ109">
+        <v>5.1</v>
+      </c>
+      <c r="BA109">
+        <v>1.32</v>
+      </c>
+      <c r="BB109">
+        <v>1.57</v>
+      </c>
+      <c r="BC109">
+        <v>1.95</v>
+      </c>
+      <c r="BD109">
+        <v>2.55</v>
+      </c>
+      <c r="BE109">
+        <v>3.4</v>
+      </c>
+      <c r="BF109">
+        <v>6</v>
+      </c>
+      <c r="BG109">
+        <v>7</v>
+      </c>
+      <c r="BH109">
+        <v>8</v>
+      </c>
+      <c r="BI109">
+        <v>5</v>
+      </c>
+      <c r="BJ109">
+        <v>14</v>
+      </c>
+      <c r="BK109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2831231</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44869.58333333334</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>162</v>
+      </c>
+      <c r="P110" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>7</v>
+      </c>
+      <c r="S110">
+        <v>11</v>
+      </c>
+      <c r="T110">
+        <v>3.5</v>
+      </c>
+      <c r="U110">
+        <v>2.25</v>
+      </c>
+      <c r="V110">
+        <v>2.9</v>
+      </c>
+      <c r="W110">
+        <v>1.38</v>
+      </c>
+      <c r="X110">
+        <v>3.25</v>
+      </c>
+      <c r="Y110">
+        <v>2.7</v>
+      </c>
+      <c r="Z110">
+        <v>1.52</v>
+      </c>
+      <c r="AA110">
+        <v>7</v>
+      </c>
+      <c r="AB110">
+        <v>1.12</v>
+      </c>
+      <c r="AC110">
+        <v>2.95</v>
+      </c>
+      <c r="AD110">
+        <v>3.5</v>
+      </c>
+      <c r="AE110">
+        <v>2.15</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>13</v>
+      </c>
+      <c r="AH110">
+        <v>1.22</v>
+      </c>
+      <c r="AI110">
+        <v>4.12</v>
+      </c>
+      <c r="AJ110">
+        <v>1.7</v>
+      </c>
+      <c r="AK110">
+        <v>2</v>
+      </c>
+      <c r="AL110">
+        <v>1.62</v>
+      </c>
+      <c r="AM110">
+        <v>2.25</v>
+      </c>
+      <c r="AN110">
+        <v>1.66</v>
+      </c>
+      <c r="AO110">
+        <v>1.33</v>
+      </c>
+      <c r="AP110">
+        <v>1.44</v>
+      </c>
+      <c r="AQ110">
+        <v>0.17</v>
+      </c>
+      <c r="AR110">
+        <v>0.83</v>
+      </c>
+      <c r="AS110">
+        <v>0.57</v>
+      </c>
+      <c r="AT110">
+        <v>0.71</v>
+      </c>
+      <c r="AU110">
+        <v>1.63</v>
+      </c>
+      <c r="AV110">
+        <v>1.53</v>
+      </c>
+      <c r="AW110">
+        <v>3.16</v>
+      </c>
+      <c r="AX110">
+        <v>2.35</v>
+      </c>
+      <c r="AY110">
+        <v>6</v>
+      </c>
+      <c r="AZ110">
+        <v>1.76</v>
+      </c>
+      <c r="BA110">
+        <v>1.18</v>
+      </c>
+      <c r="BB110">
+        <v>1.35</v>
+      </c>
+      <c r="BC110">
+        <v>1.63</v>
+      </c>
+      <c r="BD110">
+        <v>2.1</v>
+      </c>
+      <c r="BE110">
+        <v>2.8</v>
+      </c>
+      <c r="BF110">
+        <v>10</v>
+      </c>
+      <c r="BG110">
+        <v>5</v>
+      </c>
+      <c r="BH110">
+        <v>3</v>
+      </c>
+      <c r="BI110">
+        <v>3</v>
+      </c>
+      <c r="BJ110">
+        <v>13</v>
+      </c>
+      <c r="BK110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2831235</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44869.58333333334</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" t="s">
+        <v>72</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>163</v>
+      </c>
+      <c r="P111" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q111">
+        <v>5</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>5</v>
+      </c>
+      <c r="T111">
+        <v>2.7</v>
+      </c>
+      <c r="U111">
+        <v>2.1</v>
+      </c>
+      <c r="V111">
+        <v>3.6</v>
+      </c>
+      <c r="W111">
+        <v>1.38</v>
+      </c>
+      <c r="X111">
+        <v>2.8</v>
+      </c>
+      <c r="Y111">
+        <v>2.7</v>
+      </c>
+      <c r="Z111">
+        <v>1.4</v>
+      </c>
+      <c r="AA111">
+        <v>6.75</v>
+      </c>
+      <c r="AB111">
+        <v>1.09</v>
+      </c>
+      <c r="AC111">
+        <v>2.1</v>
+      </c>
+      <c r="AD111">
+        <v>3.25</v>
+      </c>
+      <c r="AE111">
+        <v>3.25</v>
+      </c>
+      <c r="AF111">
+        <v>1.03</v>
+      </c>
+      <c r="AG111">
+        <v>10.65</v>
+      </c>
+      <c r="AH111">
+        <v>1.27</v>
+      </c>
+      <c r="AI111">
+        <v>3.61</v>
+      </c>
+      <c r="AJ111">
+        <v>1.85</v>
+      </c>
+      <c r="AK111">
+        <v>1.85</v>
+      </c>
+      <c r="AL111">
+        <v>1.7</v>
+      </c>
+      <c r="AM111">
+        <v>2</v>
+      </c>
+      <c r="AN111">
+        <v>1.33</v>
+      </c>
+      <c r="AO111">
+        <v>1.29</v>
+      </c>
+      <c r="AP111">
+        <v>1.66</v>
+      </c>
+      <c r="AQ111">
+        <v>1</v>
+      </c>
+      <c r="AR111">
+        <v>0.8</v>
+      </c>
+      <c r="AS111">
+        <v>1</v>
+      </c>
+      <c r="AT111">
+        <v>0.83</v>
+      </c>
+      <c r="AU111">
+        <v>1.84</v>
+      </c>
+      <c r="AV111">
+        <v>1.59</v>
+      </c>
+      <c r="AW111">
+        <v>3.43</v>
+      </c>
+      <c r="AX111">
+        <v>1.8</v>
+      </c>
+      <c r="AY111">
+        <v>8</v>
+      </c>
+      <c r="AZ111">
+        <v>2.38</v>
+      </c>
+      <c r="BA111">
+        <v>1.28</v>
+      </c>
+      <c r="BB111">
+        <v>1.55</v>
+      </c>
+      <c r="BC111">
+        <v>2</v>
+      </c>
+      <c r="BD111">
+        <v>2.59</v>
+      </c>
+      <c r="BE111">
+        <v>3.48</v>
+      </c>
+      <c r="BF111">
+        <v>4</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>5</v>
+      </c>
+      <c r="BI111">
+        <v>8</v>
+      </c>
+      <c r="BJ111">
+        <v>9</v>
+      </c>
+      <c r="BK111">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,39 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['45+2', '48', '56']</t>
+  </si>
+  <si>
+    <t>['18', '59']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['35', '41', '45+2', '84']</t>
+  </si>
+  <si>
+    <t>['14', '27']</t>
+  </si>
+  <si>
+    <t>['12', '75', '81']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['31', '59']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['32', '52', '69']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -671,6 +704,42 @@
   </si>
   <si>
     <t>['18', '24']</t>
+  </si>
+  <si>
+    <t>['18', '87']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['41', '88']</t>
+  </si>
+  <si>
+    <t>['4', '19']</t>
+  </si>
+  <si>
+    <t>['45+8', '54']</t>
+  </si>
+  <si>
+    <t>['60', '65', '90+1']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['27', '83']</t>
+  </si>
+  <si>
+    <t>['71', '83']</t>
+  </si>
+  <si>
+    <t>['14', '45', '45+4', '59', '65', '85', '88']</t>
+  </si>
+  <si>
+    <t>['13', '20', '65']</t>
+  </si>
+  <si>
+    <t>['9', '22']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1345,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1363,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT2">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1467,7 +1536,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1748,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="AT4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1849,7 +1918,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -1936,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT5">
         <v>0.71</v>
@@ -2040,7 +2109,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2127,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT6">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2318,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT7">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2509,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -2700,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT9">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2804,7 +2873,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2891,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AT10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3082,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3273,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3467,7 +3536,7 @@
         <v>2.2</v>
       </c>
       <c r="AT13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3568,7 +3637,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -3655,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3846,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT15">
         <v>0.83</v>
@@ -4141,7 +4210,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4228,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT17">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4422,7 +4491,7 @@
         <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4523,7 +4592,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4714,7 +4783,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4804,7 +4873,7 @@
         <v>0.57</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU20">
         <v>1.97</v>
@@ -4905,7 +4974,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -4992,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
         <v>1</v>
@@ -5183,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
         <v>1.33</v>
@@ -5287,7 +5356,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5374,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT23">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU23">
         <v>1.54</v>
@@ -5565,10 +5634,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU24">
         <v>1.84</v>
@@ -5669,7 +5738,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5759,7 +5828,7 @@
         <v>2</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU25">
         <v>2.6</v>
@@ -5860,7 +5929,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6051,7 +6120,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6138,10 +6207,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT27">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AU27">
         <v>0.73</v>
@@ -6242,7 +6311,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6329,10 +6398,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AT28">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU28">
         <v>1.95</v>
@@ -6433,7 +6502,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6520,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
         <v>1.2</v>
@@ -6624,7 +6693,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -6711,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT30">
         <v>0.83</v>
@@ -6905,7 +6974,7 @@
         <v>2.2</v>
       </c>
       <c r="AT31">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU31">
         <v>3.35</v>
@@ -7006,7 +7075,7 @@
         <v>84</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -7093,10 +7162,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT32">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>2.23</v>
@@ -7287,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU33">
         <v>0.82</v>
@@ -7475,10 +7544,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT34">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU34">
         <v>1.52</v>
@@ -7666,10 +7735,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU35">
         <v>2.23</v>
@@ -7961,7 +8030,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8051,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="AT37">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU37">
         <v>2.55</v>
@@ -8152,7 +8221,7 @@
         <v>84</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -8242,7 +8311,7 @@
         <v>0.57</v>
       </c>
       <c r="AT38">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU38">
         <v>1.88</v>
@@ -8433,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU39">
         <v>1.26</v>
@@ -8621,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>0.71</v>
@@ -8812,10 +8881,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AT41">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU41">
         <v>1.86</v>
@@ -9003,10 +9072,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AU42">
         <v>2.13</v>
@@ -9194,10 +9263,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU43">
         <v>1.75</v>
@@ -9298,7 +9367,7 @@
         <v>113</v>
       </c>
       <c r="P44" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -9385,10 +9454,10 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT44">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>1.69</v>
@@ -9489,7 +9558,7 @@
         <v>84</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9576,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT45">
         <v>1.33</v>
@@ -9680,7 +9749,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9767,7 +9836,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -9958,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
         <v>0.83</v>
@@ -10152,7 +10221,7 @@
         <v>1.83</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10253,7 +10322,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10340,10 +10409,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU49">
         <v>1.76</v>
@@ -10534,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.28</v>
@@ -10722,10 +10791,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT51">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU51">
         <v>2.3</v>
@@ -10826,7 +10895,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -10916,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU52">
         <v>1.04</v>
@@ -11104,7 +11173,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT53">
         <v>1.2</v>
@@ -11298,7 +11367,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU54">
         <v>2.54</v>
@@ -11399,7 +11468,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11489,7 +11558,7 @@
         <v>2.2</v>
       </c>
       <c r="AT55">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU55">
         <v>2.46</v>
@@ -11590,7 +11659,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11677,10 +11746,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AU56">
         <v>2.33</v>
@@ -11781,7 +11850,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11868,10 +11937,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>1.66</v>
@@ -11972,7 +12041,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12163,7 +12232,7 @@
         <v>84</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12250,10 +12319,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU59">
         <v>1.8</v>
@@ -12354,7 +12423,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -12441,10 +12510,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT60">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU60">
         <v>1.27</v>
@@ -12545,7 +12614,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>9</v>
@@ -12632,7 +12701,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12823,10 +12892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS62">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU62">
         <v>1.66</v>
@@ -12927,7 +12996,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13014,10 +13083,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT63">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU63">
         <v>1.33</v>
@@ -13205,7 +13274,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AT64">
         <v>0.71</v>
@@ -13500,7 +13569,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13587,10 +13656,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU66">
         <v>1.42</v>
@@ -13691,7 +13760,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13778,10 +13847,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU67">
         <v>1.39</v>
@@ -13972,7 +14041,7 @@
         <v>2.2</v>
       </c>
       <c r="AT68">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU68">
         <v>2.39</v>
@@ -14073,7 +14142,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>11</v>
@@ -14160,10 +14229,10 @@
         <v>1.33</v>
       </c>
       <c r="AS69">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT69">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU69">
         <v>1.99</v>
@@ -14264,7 +14333,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>12</v>
@@ -14354,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU70">
         <v>1.43</v>
@@ -14545,7 +14614,7 @@
         <v>1.83</v>
       </c>
       <c r="AT71">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU71">
         <v>1.35</v>
@@ -14837,7 +14906,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14924,10 +14993,10 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT73">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.61</v>
@@ -15028,7 +15097,7 @@
         <v>135</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15115,10 +15184,10 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT74">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU74">
         <v>1.89</v>
@@ -15219,7 +15288,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15306,7 +15375,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT75">
         <v>0.83</v>
@@ -15497,10 +15566,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT76">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AU76">
         <v>1.61</v>
@@ -15601,7 +15670,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15688,10 +15757,10 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT77">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15792,7 +15861,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -15882,7 +15951,7 @@
         <v>0.57</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16070,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
         <v>0.71</v>
@@ -16174,7 +16243,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16261,10 +16330,10 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU80">
         <v>2</v>
@@ -16452,7 +16521,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT81">
         <v>1.33</v>
@@ -16556,7 +16625,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -16643,10 +16712,10 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT82">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU82">
         <v>1.62</v>
@@ -16747,7 +16816,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -16834,7 +16903,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT83">
         <v>1.2</v>
@@ -17025,10 +17094,10 @@
         <v>0.75</v>
       </c>
       <c r="AS84">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT84">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU84">
         <v>1.56</v>
@@ -17129,7 +17198,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17219,7 +17288,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU85">
         <v>1.4</v>
@@ -17511,7 +17580,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17598,10 +17667,10 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -17789,10 +17858,10 @@
         <v>1.75</v>
       </c>
       <c r="AS88">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.79</v>
@@ -17893,7 +17962,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17983,7 +18052,7 @@
         <v>2</v>
       </c>
       <c r="AT89">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AU89">
         <v>2.33</v>
@@ -18174,7 +18243,7 @@
         <v>1</v>
       </c>
       <c r="AT90">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU90">
         <v>1.79</v>
@@ -18275,7 +18344,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18362,7 +18431,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT91">
         <v>2</v>
@@ -18466,7 +18535,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18553,10 +18622,10 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT92">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU92">
         <v>1.56</v>
@@ -18657,7 +18726,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18747,7 +18816,7 @@
         <v>0.57</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU93">
         <v>1.69</v>
@@ -18935,10 +19004,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>2.15</v>
@@ -19126,10 +19195,10 @@
         <v>2.33</v>
       </c>
       <c r="AS95">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="AT95">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AU95">
         <v>2.04</v>
@@ -19230,7 +19299,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19320,7 +19389,7 @@
         <v>1</v>
       </c>
       <c r="AT96">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19421,7 +19490,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19511,7 +19580,7 @@
         <v>2.2</v>
       </c>
       <c r="AT97">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AU97">
         <v>2.15</v>
@@ -19612,7 +19681,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19699,7 +19768,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT98">
         <v>0.71</v>
@@ -19890,7 +19959,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT99">
         <v>0.83</v>
@@ -19994,7 +20063,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>1</v>
@@ -20081,10 +20150,10 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT100">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU100">
         <v>1.74</v>
@@ -20185,7 +20254,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20272,10 +20341,10 @@
         <v>1.83</v>
       </c>
       <c r="AS101">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT101">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -20376,7 +20445,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20654,7 +20723,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20758,7 +20827,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -20845,10 +20914,10 @@
         <v>0.6</v>
       </c>
       <c r="AS104">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -20949,7 +21018,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21036,10 +21105,10 @@
         <v>1.83</v>
       </c>
       <c r="AS105">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AT105">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU105">
         <v>1.5</v>
@@ -21140,7 +21209,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21230,7 +21299,7 @@
         <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AU106">
         <v>2.38</v>
@@ -21331,7 +21400,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21418,7 +21487,7 @@
         <v>1.75</v>
       </c>
       <c r="AS107">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AT107">
         <v>2</v>
@@ -21522,7 +21591,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>2</v>
@@ -21800,10 +21869,10 @@
         <v>1</v>
       </c>
       <c r="AS109">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT109">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU109">
         <v>1.76</v>
@@ -22098,13 +22167,13 @@
         <v>153</v>
       </c>
       <c r="Q111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R111">
         <v>0</v>
       </c>
       <c r="S111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T111">
         <v>2.7</v>
@@ -22237,6 +22306,2871 @@
       </c>
       <c r="BK111">
         <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2831237</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44870.35416666666</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>69</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>164</v>
+      </c>
+      <c r="P112" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q112">
+        <v>9</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>11</v>
+      </c>
+      <c r="T112">
+        <v>2.5</v>
+      </c>
+      <c r="U112">
+        <v>2.1</v>
+      </c>
+      <c r="V112">
+        <v>4.2</v>
+      </c>
+      <c r="W112">
+        <v>1.39</v>
+      </c>
+      <c r="X112">
+        <v>2.75</v>
+      </c>
+      <c r="Y112">
+        <v>2.75</v>
+      </c>
+      <c r="Z112">
+        <v>1.39</v>
+      </c>
+      <c r="AA112">
+        <v>7</v>
+      </c>
+      <c r="AB112">
+        <v>1.08</v>
+      </c>
+      <c r="AC112">
+        <v>1.99</v>
+      </c>
+      <c r="AD112">
+        <v>3.35</v>
+      </c>
+      <c r="AE112">
+        <v>3.25</v>
+      </c>
+      <c r="AF112">
+        <v>1.04</v>
+      </c>
+      <c r="AG112">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH112">
+        <v>1.29</v>
+      </c>
+      <c r="AI112">
+        <v>3.44</v>
+      </c>
+      <c r="AJ112">
+        <v>1.93</v>
+      </c>
+      <c r="AK112">
+        <v>1.93</v>
+      </c>
+      <c r="AL112">
+        <v>1.78</v>
+      </c>
+      <c r="AM112">
+        <v>1.9</v>
+      </c>
+      <c r="AN112">
+        <v>1.24</v>
+      </c>
+      <c r="AO112">
+        <v>1.29</v>
+      </c>
+      <c r="AP112">
+        <v>1.85</v>
+      </c>
+      <c r="AQ112">
+        <v>0.8</v>
+      </c>
+      <c r="AR112">
+        <v>1.17</v>
+      </c>
+      <c r="AS112">
+        <v>1.17</v>
+      </c>
+      <c r="AT112">
+        <v>1</v>
+      </c>
+      <c r="AU112">
+        <v>1.82</v>
+      </c>
+      <c r="AV112">
+        <v>1.42</v>
+      </c>
+      <c r="AW112">
+        <v>3.24</v>
+      </c>
+      <c r="AX112">
+        <v>1.33</v>
+      </c>
+      <c r="AY112">
+        <v>9.5</v>
+      </c>
+      <c r="AZ112">
+        <v>3.74</v>
+      </c>
+      <c r="BA112">
+        <v>1.23</v>
+      </c>
+      <c r="BB112">
+        <v>1.43</v>
+      </c>
+      <c r="BC112">
+        <v>1.8</v>
+      </c>
+      <c r="BD112">
+        <v>2.3</v>
+      </c>
+      <c r="BE112">
+        <v>3.2</v>
+      </c>
+      <c r="BF112">
+        <v>5</v>
+      </c>
+      <c r="BG112">
+        <v>5</v>
+      </c>
+      <c r="BH112">
+        <v>13</v>
+      </c>
+      <c r="BI112">
+        <v>6</v>
+      </c>
+      <c r="BJ112">
+        <v>18</v>
+      </c>
+      <c r="BK112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2831232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44870.58333333334</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>67</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>165</v>
+      </c>
+      <c r="P113" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q113">
+        <v>10</v>
+      </c>
+      <c r="R113">
+        <v>7</v>
+      </c>
+      <c r="S113">
+        <v>17</v>
+      </c>
+      <c r="T113">
+        <v>2.55</v>
+      </c>
+      <c r="U113">
+        <v>2.15</v>
+      </c>
+      <c r="V113">
+        <v>3.6</v>
+      </c>
+      <c r="W113">
+        <v>1.33</v>
+      </c>
+      <c r="X113">
+        <v>3</v>
+      </c>
+      <c r="Y113">
+        <v>2.5</v>
+      </c>
+      <c r="Z113">
+        <v>1.46</v>
+      </c>
+      <c r="AA113">
+        <v>6</v>
+      </c>
+      <c r="AB113">
+        <v>1.11</v>
+      </c>
+      <c r="AC113">
+        <v>2.46</v>
+      </c>
+      <c r="AD113">
+        <v>3.66</v>
+      </c>
+      <c r="AE113">
+        <v>2.69</v>
+      </c>
+      <c r="AF113">
+        <v>1.05</v>
+      </c>
+      <c r="AG113">
+        <v>13</v>
+      </c>
+      <c r="AH113">
+        <v>1.22</v>
+      </c>
+      <c r="AI113">
+        <v>4.12</v>
+      </c>
+      <c r="AJ113">
+        <v>1.68</v>
+      </c>
+      <c r="AK113">
+        <v>2.17</v>
+      </c>
+      <c r="AL113">
+        <v>1.61</v>
+      </c>
+      <c r="AM113">
+        <v>2.15</v>
+      </c>
+      <c r="AN113">
+        <v>1.31</v>
+      </c>
+      <c r="AO113">
+        <v>1.27</v>
+      </c>
+      <c r="AP113">
+        <v>1.73</v>
+      </c>
+      <c r="AQ113">
+        <v>1.75</v>
+      </c>
+      <c r="AR113">
+        <v>1.6</v>
+      </c>
+      <c r="AS113">
+        <v>2</v>
+      </c>
+      <c r="AT113">
+        <v>1.33</v>
+      </c>
+      <c r="AU113">
+        <v>2.39</v>
+      </c>
+      <c r="AV113">
+        <v>1.63</v>
+      </c>
+      <c r="AW113">
+        <v>4.02</v>
+      </c>
+      <c r="AX113">
+        <v>1.62</v>
+      </c>
+      <c r="AY113">
+        <v>8.5</v>
+      </c>
+      <c r="AZ113">
+        <v>2.63</v>
+      </c>
+      <c r="BA113">
+        <v>1.2</v>
+      </c>
+      <c r="BB113">
+        <v>1.39</v>
+      </c>
+      <c r="BC113">
+        <v>1.7</v>
+      </c>
+      <c r="BD113">
+        <v>2.2</v>
+      </c>
+      <c r="BE113">
+        <v>2.95</v>
+      </c>
+      <c r="BF113">
+        <v>7</v>
+      </c>
+      <c r="BG113">
+        <v>7</v>
+      </c>
+      <c r="BH113">
+        <v>11</v>
+      </c>
+      <c r="BI113">
+        <v>5</v>
+      </c>
+      <c r="BJ113">
+        <v>18</v>
+      </c>
+      <c r="BK113">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2831234</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44871.35416666666</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>78</v>
+      </c>
+      <c r="H114" t="s">
+        <v>75</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>166</v>
+      </c>
+      <c r="P114" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="R114">
+        <v>6</v>
+      </c>
+      <c r="S114">
+        <v>10</v>
+      </c>
+      <c r="T114">
+        <v>2.9</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>3.6</v>
+      </c>
+      <c r="W114">
+        <v>1.42</v>
+      </c>
+      <c r="X114">
+        <v>3.1</v>
+      </c>
+      <c r="Y114">
+        <v>2.85</v>
+      </c>
+      <c r="Z114">
+        <v>1.47</v>
+      </c>
+      <c r="AA114">
+        <v>7.5</v>
+      </c>
+      <c r="AB114">
+        <v>1.12</v>
+      </c>
+      <c r="AC114">
+        <v>2.07</v>
+      </c>
+      <c r="AD114">
+        <v>3.54</v>
+      </c>
+      <c r="AE114">
+        <v>3.34</v>
+      </c>
+      <c r="AF114">
+        <v>1.03</v>
+      </c>
+      <c r="AG114">
+        <v>10.65</v>
+      </c>
+      <c r="AH114">
+        <v>1.25</v>
+      </c>
+      <c r="AI114">
+        <v>3.82</v>
+      </c>
+      <c r="AJ114">
+        <v>1.75</v>
+      </c>
+      <c r="AK114">
+        <v>1.95</v>
+      </c>
+      <c r="AL114">
+        <v>1.66</v>
+      </c>
+      <c r="AM114">
+        <v>2.2</v>
+      </c>
+      <c r="AN114">
+        <v>1.4</v>
+      </c>
+      <c r="AO114">
+        <v>1.33</v>
+      </c>
+      <c r="AP114">
+        <v>1.68</v>
+      </c>
+      <c r="AQ114">
+        <v>2</v>
+      </c>
+      <c r="AR114">
+        <v>1.17</v>
+      </c>
+      <c r="AS114">
+        <v>1.6</v>
+      </c>
+      <c r="AT114">
+        <v>1.43</v>
+      </c>
+      <c r="AU114">
+        <v>1.66</v>
+      </c>
+      <c r="AV114">
+        <v>1.07</v>
+      </c>
+      <c r="AW114">
+        <v>2.73</v>
+      </c>
+      <c r="AX114">
+        <v>1.62</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>2.63</v>
+      </c>
+      <c r="BA114">
+        <v>1.24</v>
+      </c>
+      <c r="BB114">
+        <v>1.46</v>
+      </c>
+      <c r="BC114">
+        <v>1.95</v>
+      </c>
+      <c r="BD114">
+        <v>2.4</v>
+      </c>
+      <c r="BE114">
+        <v>3.3</v>
+      </c>
+      <c r="BF114">
+        <v>9</v>
+      </c>
+      <c r="BG114">
+        <v>7</v>
+      </c>
+      <c r="BH114">
+        <v>11</v>
+      </c>
+      <c r="BI114">
+        <v>6</v>
+      </c>
+      <c r="BJ114">
+        <v>20</v>
+      </c>
+      <c r="BK114">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2831230</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>70</v>
+      </c>
+      <c r="H115" t="s">
+        <v>68</v>
+      </c>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115">
+        <v>5</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>6</v>
+      </c>
+      <c r="O115" t="s">
+        <v>167</v>
+      </c>
+      <c r="P115" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q115">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>1</v>
+      </c>
+      <c r="S115">
+        <v>10</v>
+      </c>
+      <c r="T115">
+        <v>2.6</v>
+      </c>
+      <c r="U115">
+        <v>2.25</v>
+      </c>
+      <c r="V115">
+        <v>4.33</v>
+      </c>
+      <c r="W115">
+        <v>1.36</v>
+      </c>
+      <c r="X115">
+        <v>3</v>
+      </c>
+      <c r="Y115">
+        <v>2.63</v>
+      </c>
+      <c r="Z115">
+        <v>1.44</v>
+      </c>
+      <c r="AA115">
+        <v>7</v>
+      </c>
+      <c r="AB115">
+        <v>1.1</v>
+      </c>
+      <c r="AC115">
+        <v>2.15</v>
+      </c>
+      <c r="AD115">
+        <v>3.51</v>
+      </c>
+      <c r="AE115">
+        <v>3.17</v>
+      </c>
+      <c r="AF115">
+        <v>1.05</v>
+      </c>
+      <c r="AG115">
+        <v>12.5</v>
+      </c>
+      <c r="AH115">
+        <v>1.26</v>
+      </c>
+      <c r="AI115">
+        <v>3.72</v>
+      </c>
+      <c r="AJ115">
+        <v>1.85</v>
+      </c>
+      <c r="AK115">
+        <v>1.85</v>
+      </c>
+      <c r="AL115">
+        <v>1.73</v>
+      </c>
+      <c r="AM115">
+        <v>2</v>
+      </c>
+      <c r="AN115">
+        <v>1.22</v>
+      </c>
+      <c r="AO115">
+        <v>1.3</v>
+      </c>
+      <c r="AP115">
+        <v>1.85</v>
+      </c>
+      <c r="AQ115">
+        <v>1.17</v>
+      </c>
+      <c r="AR115">
+        <v>1</v>
+      </c>
+      <c r="AS115">
+        <v>1.43</v>
+      </c>
+      <c r="AT115">
+        <v>0.83</v>
+      </c>
+      <c r="AU115">
+        <v>1.77</v>
+      </c>
+      <c r="AV115">
+        <v>1.32</v>
+      </c>
+      <c r="AW115">
+        <v>3.09</v>
+      </c>
+      <c r="AX115">
+        <v>1.53</v>
+      </c>
+      <c r="AY115">
+        <v>8</v>
+      </c>
+      <c r="AZ115">
+        <v>3</v>
+      </c>
+      <c r="BA115">
+        <v>1.37</v>
+      </c>
+      <c r="BB115">
+        <v>1.68</v>
+      </c>
+      <c r="BC115">
+        <v>2.2</v>
+      </c>
+      <c r="BD115">
+        <v>3.1</v>
+      </c>
+      <c r="BE115">
+        <v>4.35</v>
+      </c>
+      <c r="BF115">
+        <v>7</v>
+      </c>
+      <c r="BG115">
+        <v>8</v>
+      </c>
+      <c r="BH115">
+        <v>7</v>
+      </c>
+      <c r="BI115">
+        <v>7</v>
+      </c>
+      <c r="BJ115">
+        <v>14</v>
+      </c>
+      <c r="BK115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2831233</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44871.58333333334</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s">
+        <v>81</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>168</v>
+      </c>
+      <c r="P116" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>8</v>
+      </c>
+      <c r="T116">
+        <v>2.6</v>
+      </c>
+      <c r="U116">
+        <v>2.1</v>
+      </c>
+      <c r="V116">
+        <v>4.5</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>3</v>
+      </c>
+      <c r="Z116">
+        <v>1.36</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>1.92</v>
+      </c>
+      <c r="AD116">
+        <v>3.5</v>
+      </c>
+      <c r="AE116">
+        <v>3.65</v>
+      </c>
+      <c r="AF116">
+        <v>1.06</v>
+      </c>
+      <c r="AG116">
+        <v>9</v>
+      </c>
+      <c r="AH116">
+        <v>1.29</v>
+      </c>
+      <c r="AI116">
+        <v>3.25</v>
+      </c>
+      <c r="AJ116">
+        <v>2.05</v>
+      </c>
+      <c r="AK116">
+        <v>1.85</v>
+      </c>
+      <c r="AL116">
+        <v>1.83</v>
+      </c>
+      <c r="AM116">
+        <v>1.83</v>
+      </c>
+      <c r="AN116">
+        <v>1.24</v>
+      </c>
+      <c r="AO116">
+        <v>1.28</v>
+      </c>
+      <c r="AP116">
+        <v>1.87</v>
+      </c>
+      <c r="AQ116">
+        <v>2.2</v>
+      </c>
+      <c r="AR116">
+        <v>1.5</v>
+      </c>
+      <c r="AS116">
+        <v>2</v>
+      </c>
+      <c r="AT116">
+        <v>1.63</v>
+      </c>
+      <c r="AU116">
+        <v>2.04</v>
+      </c>
+      <c r="AV116">
+        <v>1.73</v>
+      </c>
+      <c r="AW116">
+        <v>3.77</v>
+      </c>
+      <c r="AX116">
+        <v>1.62</v>
+      </c>
+      <c r="AY116">
+        <v>8</v>
+      </c>
+      <c r="AZ116">
+        <v>2.63</v>
+      </c>
+      <c r="BA116">
+        <v>1.23</v>
+      </c>
+      <c r="BB116">
+        <v>1.43</v>
+      </c>
+      <c r="BC116">
+        <v>1.83</v>
+      </c>
+      <c r="BD116">
+        <v>2.3</v>
+      </c>
+      <c r="BE116">
+        <v>3.2</v>
+      </c>
+      <c r="BF116">
+        <v>9</v>
+      </c>
+      <c r="BG116">
+        <v>5</v>
+      </c>
+      <c r="BH116">
+        <v>12</v>
+      </c>
+      <c r="BI116">
+        <v>4</v>
+      </c>
+      <c r="BJ116">
+        <v>21</v>
+      </c>
+      <c r="BK116">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2831236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44872.58333333334</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" t="s">
+        <v>66</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>130</v>
+      </c>
+      <c r="P117" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+      <c r="R117">
+        <v>3</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>1.83</v>
+      </c>
+      <c r="U117">
+        <v>2.6</v>
+      </c>
+      <c r="V117">
+        <v>7</v>
+      </c>
+      <c r="W117">
+        <v>1.29</v>
+      </c>
+      <c r="X117">
+        <v>3.5</v>
+      </c>
+      <c r="Y117">
+        <v>2.38</v>
+      </c>
+      <c r="Z117">
+        <v>1.53</v>
+      </c>
+      <c r="AA117">
+        <v>5.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.14</v>
+      </c>
+      <c r="AC117">
+        <v>1.36</v>
+      </c>
+      <c r="AD117">
+        <v>5</v>
+      </c>
+      <c r="AE117">
+        <v>7.5</v>
+      </c>
+      <c r="AF117">
+        <v>1.02</v>
+      </c>
+      <c r="AG117">
+        <v>18</v>
+      </c>
+      <c r="AH117">
+        <v>1.17</v>
+      </c>
+      <c r="AI117">
+        <v>5.25</v>
+      </c>
+      <c r="AJ117">
+        <v>1.58</v>
+      </c>
+      <c r="AK117">
+        <v>2.19</v>
+      </c>
+      <c r="AL117">
+        <v>1.83</v>
+      </c>
+      <c r="AM117">
+        <v>1.83</v>
+      </c>
+      <c r="AN117">
+        <v>1.06</v>
+      </c>
+      <c r="AO117">
+        <v>1.16</v>
+      </c>
+      <c r="AP117">
+        <v>3.3</v>
+      </c>
+      <c r="AQ117">
+        <v>2.67</v>
+      </c>
+      <c r="AR117">
+        <v>0.6</v>
+      </c>
+      <c r="AS117">
+        <v>2.38</v>
+      </c>
+      <c r="AT117">
+        <v>0.5</v>
+      </c>
+      <c r="AU117">
+        <v>1.96</v>
+      </c>
+      <c r="AV117">
+        <v>1.27</v>
+      </c>
+      <c r="AW117">
+        <v>3.23</v>
+      </c>
+      <c r="AX117">
+        <v>1.28</v>
+      </c>
+      <c r="AY117">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ117">
+        <v>4.9</v>
+      </c>
+      <c r="BA117">
+        <v>1.32</v>
+      </c>
+      <c r="BB117">
+        <v>1.57</v>
+      </c>
+      <c r="BC117">
+        <v>1.95</v>
+      </c>
+      <c r="BD117">
+        <v>2.55</v>
+      </c>
+      <c r="BE117">
+        <v>3.4</v>
+      </c>
+      <c r="BF117">
+        <v>4</v>
+      </c>
+      <c r="BG117">
+        <v>4</v>
+      </c>
+      <c r="BH117">
+        <v>9</v>
+      </c>
+      <c r="BI117">
+        <v>6</v>
+      </c>
+      <c r="BJ117">
+        <v>13</v>
+      </c>
+      <c r="BK117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2831238</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44872.58333333334</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>6</v>
+      </c>
+      <c r="O118" t="s">
+        <v>169</v>
+      </c>
+      <c r="P118" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>5</v>
+      </c>
+      <c r="S118">
+        <v>6</v>
+      </c>
+      <c r="T118">
+        <v>4.5</v>
+      </c>
+      <c r="U118">
+        <v>2.15</v>
+      </c>
+      <c r="V118">
+        <v>2.55</v>
+      </c>
+      <c r="W118">
+        <v>1.47</v>
+      </c>
+      <c r="X118">
+        <v>2.85</v>
+      </c>
+      <c r="Y118">
+        <v>3.2</v>
+      </c>
+      <c r="Z118">
+        <v>1.4</v>
+      </c>
+      <c r="AA118">
+        <v>9</v>
+      </c>
+      <c r="AB118">
+        <v>1.09</v>
+      </c>
+      <c r="AC118">
+        <v>4.2</v>
+      </c>
+      <c r="AD118">
+        <v>3.4</v>
+      </c>
+      <c r="AE118">
+        <v>1.9</v>
+      </c>
+      <c r="AF118">
+        <v>1.05</v>
+      </c>
+      <c r="AG118">
+        <v>9</v>
+      </c>
+      <c r="AH118">
+        <v>1.32</v>
+      </c>
+      <c r="AI118">
+        <v>3.25</v>
+      </c>
+      <c r="AJ118">
+        <v>1.89</v>
+      </c>
+      <c r="AK118">
+        <v>1.97</v>
+      </c>
+      <c r="AL118">
+        <v>1.87</v>
+      </c>
+      <c r="AM118">
+        <v>1.9</v>
+      </c>
+      <c r="AN118">
+        <v>2</v>
+      </c>
+      <c r="AO118">
+        <v>1.33</v>
+      </c>
+      <c r="AP118">
+        <v>1.25</v>
+      </c>
+      <c r="AQ118">
+        <v>1.4</v>
+      </c>
+      <c r="AR118">
+        <v>1.75</v>
+      </c>
+      <c r="AS118">
+        <v>1.33</v>
+      </c>
+      <c r="AT118">
+        <v>1.6</v>
+      </c>
+      <c r="AU118">
+        <v>1.6</v>
+      </c>
+      <c r="AV118">
+        <v>1.19</v>
+      </c>
+      <c r="AW118">
+        <v>2.79</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>7.5</v>
+      </c>
+      <c r="AZ118">
+        <v>1.58</v>
+      </c>
+      <c r="BA118">
+        <v>1.34</v>
+      </c>
+      <c r="BB118">
+        <v>1.6</v>
+      </c>
+      <c r="BC118">
+        <v>2</v>
+      </c>
+      <c r="BD118">
+        <v>2.6</v>
+      </c>
+      <c r="BE118">
+        <v>3.6</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>2</v>
+      </c>
+      <c r="BI118">
+        <v>7</v>
+      </c>
+      <c r="BJ118">
+        <v>8</v>
+      </c>
+      <c r="BK118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2831243</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44876.58333333334</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>72</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119" t="s">
+        <v>170</v>
+      </c>
+      <c r="P119" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q119">
+        <v>5</v>
+      </c>
+      <c r="R119">
+        <v>4</v>
+      </c>
+      <c r="S119">
+        <v>9</v>
+      </c>
+      <c r="T119">
+        <v>3.8</v>
+      </c>
+      <c r="U119">
+        <v>2.2</v>
+      </c>
+      <c r="V119">
+        <v>2.45</v>
+      </c>
+      <c r="W119">
+        <v>1.36</v>
+      </c>
+      <c r="X119">
+        <v>3</v>
+      </c>
+      <c r="Y119">
+        <v>2.5</v>
+      </c>
+      <c r="Z119">
+        <v>1.5</v>
+      </c>
+      <c r="AA119">
+        <v>6</v>
+      </c>
+      <c r="AB119">
+        <v>1.11</v>
+      </c>
+      <c r="AC119">
+        <v>3.1</v>
+      </c>
+      <c r="AD119">
+        <v>3.6</v>
+      </c>
+      <c r="AE119">
+        <v>2.09</v>
+      </c>
+      <c r="AF119">
+        <v>1.03</v>
+      </c>
+      <c r="AG119">
+        <v>10.65</v>
+      </c>
+      <c r="AH119">
+        <v>1.27</v>
+      </c>
+      <c r="AI119">
+        <v>3.61</v>
+      </c>
+      <c r="AJ119">
+        <v>1.77</v>
+      </c>
+      <c r="AK119">
+        <v>1.94</v>
+      </c>
+      <c r="AL119">
+        <v>1.73</v>
+      </c>
+      <c r="AM119">
+        <v>2.05</v>
+      </c>
+      <c r="AN119">
+        <v>1.7</v>
+      </c>
+      <c r="AO119">
+        <v>1.3</v>
+      </c>
+      <c r="AP119">
+        <v>1.29</v>
+      </c>
+      <c r="AQ119">
+        <v>1.17</v>
+      </c>
+      <c r="AR119">
+        <v>1.67</v>
+      </c>
+      <c r="AS119">
+        <v>1.14</v>
+      </c>
+      <c r="AT119">
+        <v>1.57</v>
+      </c>
+      <c r="AU119">
+        <v>1.37</v>
+      </c>
+      <c r="AV119">
+        <v>1.91</v>
+      </c>
+      <c r="AW119">
+        <v>3.28</v>
+      </c>
+      <c r="AX119">
+        <v>2.4</v>
+      </c>
+      <c r="AY119">
+        <v>8</v>
+      </c>
+      <c r="AZ119">
+        <v>1.73</v>
+      </c>
+      <c r="BA119">
+        <v>1.3</v>
+      </c>
+      <c r="BB119">
+        <v>1.53</v>
+      </c>
+      <c r="BC119">
+        <v>1.87</v>
+      </c>
+      <c r="BD119">
+        <v>2.4</v>
+      </c>
+      <c r="BE119">
+        <v>3.2</v>
+      </c>
+      <c r="BF119">
+        <v>4</v>
+      </c>
+      <c r="BG119">
+        <v>4</v>
+      </c>
+      <c r="BH119">
+        <v>6</v>
+      </c>
+      <c r="BI119">
+        <v>7</v>
+      </c>
+      <c r="BJ119">
+        <v>10</v>
+      </c>
+      <c r="BK119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2831239</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44876.58333333334</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>80</v>
+      </c>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>84</v>
+      </c>
+      <c r="P120" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>6</v>
+      </c>
+      <c r="S120">
+        <v>10</v>
+      </c>
+      <c r="T120">
+        <v>3</v>
+      </c>
+      <c r="U120">
+        <v>2.25</v>
+      </c>
+      <c r="V120">
+        <v>2.9</v>
+      </c>
+      <c r="W120">
+        <v>1.3</v>
+      </c>
+      <c r="X120">
+        <v>3.2</v>
+      </c>
+      <c r="Y120">
+        <v>2.3</v>
+      </c>
+      <c r="Z120">
+        <v>1.53</v>
+      </c>
+      <c r="AA120">
+        <v>5.5</v>
+      </c>
+      <c r="AB120">
+        <v>1.13</v>
+      </c>
+      <c r="AC120">
+        <v>2.46</v>
+      </c>
+      <c r="AD120">
+        <v>3.9</v>
+      </c>
+      <c r="AE120">
+        <v>2.38</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>15</v>
+      </c>
+      <c r="AH120">
+        <v>1.17</v>
+      </c>
+      <c r="AI120">
+        <v>4.75</v>
+      </c>
+      <c r="AJ120">
+        <v>1.6</v>
+      </c>
+      <c r="AK120">
+        <v>2.2</v>
+      </c>
+      <c r="AL120">
+        <v>1.57</v>
+      </c>
+      <c r="AM120">
+        <v>2.3</v>
+      </c>
+      <c r="AN120">
+        <v>1.5</v>
+      </c>
+      <c r="AO120">
+        <v>1.3</v>
+      </c>
+      <c r="AP120">
+        <v>1.44</v>
+      </c>
+      <c r="AQ120">
+        <v>1.83</v>
+      </c>
+      <c r="AR120">
+        <v>1.71</v>
+      </c>
+      <c r="AS120">
+        <v>1.71</v>
+      </c>
+      <c r="AT120">
+        <v>1.63</v>
+      </c>
+      <c r="AU120">
+        <v>1.8</v>
+      </c>
+      <c r="AV120">
+        <v>1.83</v>
+      </c>
+      <c r="AW120">
+        <v>3.63</v>
+      </c>
+      <c r="AX120">
+        <v>1.8</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
+        <v>2.3</v>
+      </c>
+      <c r="BA120">
+        <v>1.32</v>
+      </c>
+      <c r="BB120">
+        <v>1.55</v>
+      </c>
+      <c r="BC120">
+        <v>1.92</v>
+      </c>
+      <c r="BD120">
+        <v>2.45</v>
+      </c>
+      <c r="BE120">
+        <v>3.24</v>
+      </c>
+      <c r="BF120">
+        <v>5</v>
+      </c>
+      <c r="BG120">
+        <v>4</v>
+      </c>
+      <c r="BH120">
+        <v>8</v>
+      </c>
+      <c r="BI120">
+        <v>7</v>
+      </c>
+      <c r="BJ120">
+        <v>13</v>
+      </c>
+      <c r="BK120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2831242</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44877.35416666666</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>66</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>171</v>
+      </c>
+      <c r="P121" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q121">
+        <v>6</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="S121">
+        <v>11</v>
+      </c>
+      <c r="T121">
+        <v>2.3</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>4.2</v>
+      </c>
+      <c r="W121">
+        <v>1.37</v>
+      </c>
+      <c r="X121">
+        <v>2.99</v>
+      </c>
+      <c r="Y121">
+        <v>2.7</v>
+      </c>
+      <c r="Z121">
+        <v>1.44</v>
+      </c>
+      <c r="AA121">
+        <v>6.7</v>
+      </c>
+      <c r="AB121">
+        <v>1.09</v>
+      </c>
+      <c r="AC121">
+        <v>1.88</v>
+      </c>
+      <c r="AD121">
+        <v>3.74</v>
+      </c>
+      <c r="AE121">
+        <v>3.94</v>
+      </c>
+      <c r="AF121">
+        <v>1.03</v>
+      </c>
+      <c r="AG121">
+        <v>10.65</v>
+      </c>
+      <c r="AH121">
+        <v>1.27</v>
+      </c>
+      <c r="AI121">
+        <v>3.61</v>
+      </c>
+      <c r="AJ121">
+        <v>1.83</v>
+      </c>
+      <c r="AK121">
+        <v>1.98</v>
+      </c>
+      <c r="AL121">
+        <v>1.73</v>
+      </c>
+      <c r="AM121">
+        <v>2.06</v>
+      </c>
+      <c r="AN121">
+        <v>1.25</v>
+      </c>
+      <c r="AO121">
+        <v>1.29</v>
+      </c>
+      <c r="AP121">
+        <v>1.83</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>0.4</v>
+      </c>
+      <c r="AS121">
+        <v>1</v>
+      </c>
+      <c r="AT121">
+        <v>0.5</v>
+      </c>
+      <c r="AU121">
+        <v>1.68</v>
+      </c>
+      <c r="AV121">
+        <v>1.73</v>
+      </c>
+      <c r="AW121">
+        <v>3.41</v>
+      </c>
+      <c r="AX121">
+        <v>1.47</v>
+      </c>
+      <c r="AY121">
+        <v>6</v>
+      </c>
+      <c r="AZ121">
+        <v>3.1</v>
+      </c>
+      <c r="BA121">
+        <v>1.26</v>
+      </c>
+      <c r="BB121">
+        <v>1.51</v>
+      </c>
+      <c r="BC121">
+        <v>1.83</v>
+      </c>
+      <c r="BD121">
+        <v>2.42</v>
+      </c>
+      <c r="BE121">
+        <v>3.2</v>
+      </c>
+      <c r="BF121">
+        <v>9</v>
+      </c>
+      <c r="BG121">
+        <v>7</v>
+      </c>
+      <c r="BH121">
+        <v>3</v>
+      </c>
+      <c r="BI121">
+        <v>6</v>
+      </c>
+      <c r="BJ121">
+        <v>12</v>
+      </c>
+      <c r="BK121">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2831246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>73</v>
+      </c>
+      <c r="H122" t="s">
+        <v>69</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>172</v>
+      </c>
+      <c r="P122" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q122">
+        <v>6</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+      <c r="S122">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>1.75</v>
+      </c>
+      <c r="U122">
+        <v>2.7</v>
+      </c>
+      <c r="V122">
+        <v>7.5</v>
+      </c>
+      <c r="W122">
+        <v>1.3</v>
+      </c>
+      <c r="X122">
+        <v>3.75</v>
+      </c>
+      <c r="Y122">
+        <v>2.4</v>
+      </c>
+      <c r="Z122">
+        <v>1.63</v>
+      </c>
+      <c r="AA122">
+        <v>5.5</v>
+      </c>
+      <c r="AB122">
+        <v>1.17</v>
+      </c>
+      <c r="AC122">
+        <v>1.35</v>
+      </c>
+      <c r="AD122">
+        <v>5.2</v>
+      </c>
+      <c r="AE122">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF122">
+        <v>1.03</v>
+      </c>
+      <c r="AG122">
+        <v>19</v>
+      </c>
+      <c r="AH122">
+        <v>1.17</v>
+      </c>
+      <c r="AI122">
+        <v>4.75</v>
+      </c>
+      <c r="AJ122">
+        <v>1.57</v>
+      </c>
+      <c r="AK122">
+        <v>2.25</v>
+      </c>
+      <c r="AL122">
+        <v>1.9</v>
+      </c>
+      <c r="AM122">
+        <v>1.87</v>
+      </c>
+      <c r="AN122">
+        <v>1.08</v>
+      </c>
+      <c r="AO122">
+        <v>1.17</v>
+      </c>
+      <c r="AP122">
+        <v>3.75</v>
+      </c>
+      <c r="AQ122">
+        <v>2.71</v>
+      </c>
+      <c r="AR122">
+        <v>0.83</v>
+      </c>
+      <c r="AS122">
+        <v>2.38</v>
+      </c>
+      <c r="AT122">
+        <v>1.14</v>
+      </c>
+      <c r="AU122">
+        <v>1.87</v>
+      </c>
+      <c r="AV122">
+        <v>1.3</v>
+      </c>
+      <c r="AW122">
+        <v>3.17</v>
+      </c>
+      <c r="AX122">
+        <v>1.09</v>
+      </c>
+      <c r="AY122">
+        <v>13.5</v>
+      </c>
+      <c r="AZ122">
+        <v>10</v>
+      </c>
+      <c r="BA122">
+        <v>1.31</v>
+      </c>
+      <c r="BB122">
+        <v>1.61</v>
+      </c>
+      <c r="BC122">
+        <v>2.07</v>
+      </c>
+      <c r="BD122">
+        <v>2.73</v>
+      </c>
+      <c r="BE122">
+        <v>3.74</v>
+      </c>
+      <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>9</v>
+      </c>
+      <c r="BI122">
+        <v>3</v>
+      </c>
+      <c r="BJ122">
+        <v>14</v>
+      </c>
+      <c r="BK122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2831244</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44877.58333333334</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>77</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>3</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>7</v>
+      </c>
+      <c r="N123">
+        <v>7</v>
+      </c>
+      <c r="O123" t="s">
+        <v>84</v>
+      </c>
+      <c r="P123" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>8</v>
+      </c>
+      <c r="T123">
+        <v>3.25</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>3.2</v>
+      </c>
+      <c r="W123">
+        <v>1.42</v>
+      </c>
+      <c r="X123">
+        <v>3.1</v>
+      </c>
+      <c r="Y123">
+        <v>2.85</v>
+      </c>
+      <c r="Z123">
+        <v>1.47</v>
+      </c>
+      <c r="AA123">
+        <v>7.5</v>
+      </c>
+      <c r="AB123">
+        <v>1.12</v>
+      </c>
+      <c r="AC123">
+        <v>2.8</v>
+      </c>
+      <c r="AD123">
+        <v>3.4</v>
+      </c>
+      <c r="AE123">
+        <v>2.5</v>
+      </c>
+      <c r="AF123">
+        <v>1.03</v>
+      </c>
+      <c r="AG123">
+        <v>10.65</v>
+      </c>
+      <c r="AH123">
+        <v>1.25</v>
+      </c>
+      <c r="AI123">
+        <v>3.82</v>
+      </c>
+      <c r="AJ123">
+        <v>1.85</v>
+      </c>
+      <c r="AK123">
+        <v>1.93</v>
+      </c>
+      <c r="AL123">
+        <v>1.65</v>
+      </c>
+      <c r="AM123">
+        <v>2.2</v>
+      </c>
+      <c r="AN123">
+        <v>1.53</v>
+      </c>
+      <c r="AO123">
+        <v>1.35</v>
+      </c>
+      <c r="AP123">
+        <v>1.52</v>
+      </c>
+      <c r="AQ123">
+        <v>2.29</v>
+      </c>
+      <c r="AR123">
+        <v>2</v>
+      </c>
+      <c r="AS123">
+        <v>2</v>
+      </c>
+      <c r="AT123">
+        <v>2.13</v>
+      </c>
+      <c r="AU123">
+        <v>1.76</v>
+      </c>
+      <c r="AV123">
+        <v>2.35</v>
+      </c>
+      <c r="AW123">
+        <v>4.11</v>
+      </c>
+      <c r="AX123">
+        <v>2.01</v>
+      </c>
+      <c r="AY123">
+        <v>7.8</v>
+      </c>
+      <c r="AZ123">
+        <v>2.17</v>
+      </c>
+      <c r="BA123">
+        <v>1.18</v>
+      </c>
+      <c r="BB123">
+        <v>1.38</v>
+      </c>
+      <c r="BC123">
+        <v>1.71</v>
+      </c>
+      <c r="BD123">
+        <v>2.13</v>
+      </c>
+      <c r="BE123">
+        <v>2.79</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>11</v>
+      </c>
+      <c r="BH123">
+        <v>5</v>
+      </c>
+      <c r="BI123">
+        <v>6</v>
+      </c>
+      <c r="BJ123">
+        <v>9</v>
+      </c>
+      <c r="BK123">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2831240</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44878.35416666666</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>68</v>
+      </c>
+      <c r="H124" t="s">
+        <v>78</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>2</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124" t="s">
+        <v>173</v>
+      </c>
+      <c r="P124" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q124">
+        <v>7</v>
+      </c>
+      <c r="R124">
+        <v>5</v>
+      </c>
+      <c r="S124">
+        <v>12</v>
+      </c>
+      <c r="T124">
+        <v>2.63</v>
+      </c>
+      <c r="U124">
+        <v>2.25</v>
+      </c>
+      <c r="V124">
+        <v>3.75</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.25</v>
+      </c>
+      <c r="Y124">
+        <v>2.63</v>
+      </c>
+      <c r="Z124">
+        <v>1.44</v>
+      </c>
+      <c r="AA124">
+        <v>6.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.11</v>
+      </c>
+      <c r="AC124">
+        <v>2.1</v>
+      </c>
+      <c r="AD124">
+        <v>3.3</v>
+      </c>
+      <c r="AE124">
+        <v>3.25</v>
+      </c>
+      <c r="AF124">
+        <v>1.02</v>
+      </c>
+      <c r="AG124">
+        <v>10</v>
+      </c>
+      <c r="AH124">
+        <v>1.22</v>
+      </c>
+      <c r="AI124">
+        <v>3.8</v>
+      </c>
+      <c r="AJ124">
+        <v>1.82</v>
+      </c>
+      <c r="AK124">
+        <v>1.93</v>
+      </c>
+      <c r="AL124">
+        <v>1.62</v>
+      </c>
+      <c r="AM124">
+        <v>2.2</v>
+      </c>
+      <c r="AN124">
+        <v>1.31</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.71</v>
+      </c>
+      <c r="AQ124">
+        <v>1.17</v>
+      </c>
+      <c r="AR124">
+        <v>1</v>
+      </c>
+      <c r="AS124">
+        <v>1.14</v>
+      </c>
+      <c r="AT124">
+        <v>1</v>
+      </c>
+      <c r="AU124">
+        <v>1.52</v>
+      </c>
+      <c r="AV124">
+        <v>1.33</v>
+      </c>
+      <c r="AW124">
+        <v>2.85</v>
+      </c>
+      <c r="AX124">
+        <v>2.01</v>
+      </c>
+      <c r="AY124">
+        <v>7.4</v>
+      </c>
+      <c r="AZ124">
+        <v>2.2</v>
+      </c>
+      <c r="BA124">
+        <v>1.36</v>
+      </c>
+      <c r="BB124">
+        <v>1.67</v>
+      </c>
+      <c r="BC124">
+        <v>2.13</v>
+      </c>
+      <c r="BD124">
+        <v>2.79</v>
+      </c>
+      <c r="BE124">
+        <v>3.5</v>
+      </c>
+      <c r="BF124">
+        <v>8</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>9</v>
+      </c>
+      <c r="BI124">
+        <v>5</v>
+      </c>
+      <c r="BJ124">
+        <v>17</v>
+      </c>
+      <c r="BK124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2831245</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>65</v>
+      </c>
+      <c r="H125" t="s">
+        <v>83</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>84</v>
+      </c>
+      <c r="P125" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>8</v>
+      </c>
+      <c r="T125">
+        <v>2.81</v>
+      </c>
+      <c r="U125">
+        <v>2.17</v>
+      </c>
+      <c r="V125">
+        <v>3.4</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>2.9</v>
+      </c>
+      <c r="Y125">
+        <v>2.6</v>
+      </c>
+      <c r="Z125">
+        <v>1.44</v>
+      </c>
+      <c r="AA125">
+        <v>5.75</v>
+      </c>
+      <c r="AB125">
+        <v>1.1</v>
+      </c>
+      <c r="AC125">
+        <v>2.45</v>
+      </c>
+      <c r="AD125">
+        <v>3.25</v>
+      </c>
+      <c r="AE125">
+        <v>2.75</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>9</v>
+      </c>
+      <c r="AH125">
+        <v>1.25</v>
+      </c>
+      <c r="AI125">
+        <v>3.6</v>
+      </c>
+      <c r="AJ125">
+        <v>1.78</v>
+      </c>
+      <c r="AK125">
+        <v>1.96</v>
+      </c>
+      <c r="AL125">
+        <v>1.67</v>
+      </c>
+      <c r="AM125">
+        <v>2.1</v>
+      </c>
+      <c r="AN125">
+        <v>1.38</v>
+      </c>
+      <c r="AO125">
+        <v>1.32</v>
+      </c>
+      <c r="AP125">
+        <v>1.56</v>
+      </c>
+      <c r="AQ125">
+        <v>0.2</v>
+      </c>
+      <c r="AR125">
+        <v>0.5</v>
+      </c>
+      <c r="AS125">
+        <v>0.17</v>
+      </c>
+      <c r="AT125">
+        <v>0.86</v>
+      </c>
+      <c r="AU125">
+        <v>1.2</v>
+      </c>
+      <c r="AV125">
+        <v>1.33</v>
+      </c>
+      <c r="AW125">
+        <v>2.53</v>
+      </c>
+      <c r="AX125">
+        <v>1.9</v>
+      </c>
+      <c r="AY125">
+        <v>7.7</v>
+      </c>
+      <c r="AZ125">
+        <v>2.32</v>
+      </c>
+      <c r="BA125">
+        <v>1.21</v>
+      </c>
+      <c r="BB125">
+        <v>1.42</v>
+      </c>
+      <c r="BC125">
+        <v>1.76</v>
+      </c>
+      <c r="BD125">
+        <v>2.22</v>
+      </c>
+      <c r="BE125">
+        <v>2.93</v>
+      </c>
+      <c r="BF125">
+        <v>3</v>
+      </c>
+      <c r="BG125">
+        <v>6</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>7</v>
+      </c>
+      <c r="BK125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2831247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>75</v>
+      </c>
+      <c r="H126" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>2</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>174</v>
+      </c>
+      <c r="P126" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q126">
+        <v>9</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>11</v>
+      </c>
+      <c r="T126">
+        <v>3.1</v>
+      </c>
+      <c r="U126">
+        <v>2.11</v>
+      </c>
+      <c r="V126">
+        <v>3.17</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>3</v>
+      </c>
+      <c r="Y126">
+        <v>2.62</v>
+      </c>
+      <c r="Z126">
+        <v>1.44</v>
+      </c>
+      <c r="AA126">
+        <v>6.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.1</v>
+      </c>
+      <c r="AC126">
+        <v>2.6</v>
+      </c>
+      <c r="AD126">
+        <v>3.25</v>
+      </c>
+      <c r="AE126">
+        <v>2.6</v>
+      </c>
+      <c r="AF126">
+        <v>1.05</v>
+      </c>
+      <c r="AG126">
+        <v>9</v>
+      </c>
+      <c r="AH126">
+        <v>1.3</v>
+      </c>
+      <c r="AI126">
+        <v>3.4</v>
+      </c>
+      <c r="AJ126">
+        <v>1.95</v>
+      </c>
+      <c r="AK126">
+        <v>1.9</v>
+      </c>
+      <c r="AL126">
+        <v>1.67</v>
+      </c>
+      <c r="AM126">
+        <v>2.1</v>
+      </c>
+      <c r="AN126">
+        <v>1.5</v>
+      </c>
+      <c r="AO126">
+        <v>1.3</v>
+      </c>
+      <c r="AP126">
+        <v>1.5</v>
+      </c>
+      <c r="AQ126">
+        <v>2.17</v>
+      </c>
+      <c r="AR126">
+        <v>1.43</v>
+      </c>
+      <c r="AS126">
+        <v>1.86</v>
+      </c>
+      <c r="AT126">
+        <v>1.63</v>
+      </c>
+      <c r="AU126">
+        <v>1.51</v>
+      </c>
+      <c r="AV126">
+        <v>1.66</v>
+      </c>
+      <c r="AW126">
+        <v>3.17</v>
+      </c>
+      <c r="AX126">
+        <v>2.09</v>
+      </c>
+      <c r="AY126">
+        <v>7.7</v>
+      </c>
+      <c r="AZ126">
+        <v>2.09</v>
+      </c>
+      <c r="BA126">
+        <v>1.24</v>
+      </c>
+      <c r="BB126">
+        <v>1.48</v>
+      </c>
+      <c r="BC126">
+        <v>1.86</v>
+      </c>
+      <c r="BD126">
+        <v>2.38</v>
+      </c>
+      <c r="BE126">
+        <v>3.2</v>
+      </c>
+      <c r="BF126">
+        <v>3</v>
+      </c>
+      <c r="BG126">
+        <v>3</v>
+      </c>
+      <c r="BH126">
+        <v>13</v>
+      </c>
+      <c r="BI126">
+        <v>3</v>
+      </c>
+      <c r="BJ126">
+        <v>16</v>
+      </c>
+      <c r="BK126">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK126"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.14</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" t="n">
         <v>2.13</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT11" t="n">
         <v>0.86</v>
@@ -2933,7 +2933,7 @@
         <v>1.86</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.2</v>
@@ -3948,7 +3948,7 @@
         <v>1.71</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT18" t="n">
         <v>1.83</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1.6</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT20" t="n">
         <v>2.13</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.57</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU25" t="n">
         <v>2.6</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU26" t="n">
         <v>1.18</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
         <v>1.2</v>
@@ -6587,7 +6587,7 @@
         <v>1.14</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT31" t="n">
         <v>0.5</v>
@@ -6993,7 +6993,7 @@
         <v>1.71</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>2.23</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT33" t="n">
         <v>0.86</v>
@@ -7399,7 +7399,7 @@
         <v>1.86</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU34" t="n">
         <v>1.52</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT35" t="n">
         <v>2.13</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU36" t="n">
         <v>0.86</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU37" t="n">
         <v>2.55</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT38" t="n">
         <v>1.57</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>1.26</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.82</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT43" t="n">
         <v>1.63</v>
@@ -9429,7 +9429,7 @@
         <v>1.14</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU44" t="n">
         <v>1.69</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT45" t="n">
         <v>1.33</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -10038,7 +10038,7 @@
         <v>1.71</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU47" t="n">
         <v>2.12</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT48" t="n">
         <v>0.86</v>
@@ -10444,7 +10444,7 @@
         <v>1.14</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU49" t="n">
         <v>1.76</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU50" t="n">
         <v>1.28</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>0.5</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT52" t="n">
         <v>2.13</v>
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU54" t="n">
         <v>2.54</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1.57</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT56" t="n">
         <v>1.63</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT57" t="n">
         <v>1.43</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT58" t="n">
         <v>1.33</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT59" t="n">
         <v>1.63</v>
@@ -12677,7 +12677,7 @@
         <v>0.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU60" t="n">
         <v>1.27</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13286,7 +13286,7 @@
         <v>1.14</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU63" t="n">
         <v>1.33</v>
@@ -13489,7 +13489,7 @@
         <v>2.38</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT65" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1.14</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -14298,7 +14298,7 @@
         <v>2.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT68" t="n">
         <v>2.13</v>
@@ -14504,7 +14504,7 @@
         <v>1.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU69" t="n">
         <v>1.99</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT71" t="n">
         <v>0.5</v>
@@ -15113,7 +15113,7 @@
         <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU72" t="n">
         <v>2.58</v>
@@ -15316,7 +15316,7 @@
         <v>1.14</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1.63</v>
@@ -15722,7 +15722,7 @@
         <v>0.17</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU75" t="n">
         <v>1.24</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
         <v>1.63</v>
@@ -16128,7 +16128,7 @@
         <v>1.17</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT78" t="n">
         <v>1.43</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -16737,7 +16737,7 @@
         <v>2.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU80" t="n">
         <v>2</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT81" t="n">
         <v>1.33</v>
@@ -17143,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU82" t="n">
         <v>1.62</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT85" t="n">
         <v>1.63</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT86" t="n">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU90" t="n">
         <v>1.79</v>
@@ -18970,7 +18970,7 @@
         <v>1.14</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19170,10 +19170,10 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19373,10 +19373,10 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU93" t="n">
         <v>1.69</v>
@@ -19576,10 +19576,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU94" t="n">
         <v>2.15</v>
@@ -19782,7 +19782,7 @@
         <v>2.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU95" t="n">
         <v>2.04</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT96" t="n">
         <v>1.43</v>
@@ -20185,7 +20185,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT97" t="n">
         <v>1.63</v>
@@ -20388,10 +20388,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU98" t="n">
         <v>2.32</v>
@@ -20594,7 +20594,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU99" t="n">
         <v>1.71</v>
@@ -20794,10 +20794,10 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU100" t="n">
         <v>1.74</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT102" t="n">
         <v>1.33</v>
@@ -22218,7 +22218,7 @@
         <v>0.17</v>
       </c>
       <c r="AT107" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -22624,7 +22624,7 @@
         <v>2</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU109" t="n">
         <v>1.76</v>
@@ -22824,10 +22824,10 @@
         <v>0.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU110" t="n">
         <v>1.63</v>
@@ -23027,10 +23027,10 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AU111" t="n">
         <v>1.84</v>
@@ -23233,7 +23233,7 @@
         <v>1.17</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU112" t="n">
         <v>1.82</v>
@@ -23433,10 +23433,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU113" t="n">
         <v>2.39</v>
@@ -23636,7 +23636,7 @@
         <v>1.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT114" t="n">
         <v>1.43</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU115" t="n">
         <v>1.77</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT116" t="n">
         <v>1.63</v>
@@ -24248,7 +24248,7 @@
         <v>2.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU117" t="n">
         <v>1.96</v>
@@ -24448,10 +24448,10 @@
         <v>1.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU118" t="n">
         <v>1.6</v>
@@ -25263,7 +25263,7 @@
         <v>2.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AU122" t="n">
         <v>1.87</v>
@@ -26127,6 +26127,1833 @@
       </c>
       <c r="BK126" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2831248</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44918.58333333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['64', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="n">
+        <v>6</v>
+      </c>
+      <c r="S127" t="n">
+        <v>7</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V127" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X127" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2831249</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44918.58333333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>15</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3</v>
+      </c>
+      <c r="N128" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['2', '57', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" t="n">
+        <v>2</v>
+      </c>
+      <c r="S128" t="n">
+        <v>3</v>
+      </c>
+      <c r="T128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2831256</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44919.3125</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>2</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>4</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4</v>
+      </c>
+      <c r="S129" t="n">
+        <v>8</v>
+      </c>
+      <c r="T129" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V129" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X129" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2831254</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44919.41666666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['14', '65']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>4</v>
+      </c>
+      <c r="R130" t="n">
+        <v>6</v>
+      </c>
+      <c r="S130" t="n">
+        <v>10</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2831251</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44919.54166666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['61', '90+11']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>5</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>7</v>
+      </c>
+      <c r="T131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2831253</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44920.3125</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['11', '43']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>4</v>
+      </c>
+      <c r="R132" t="n">
+        <v>4</v>
+      </c>
+      <c r="S132" t="n">
+        <v>8</v>
+      </c>
+      <c r="T132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2831255</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44920.41666666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2</v>
+      </c>
+      <c r="N133" t="n">
+        <v>4</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['22', '90+11']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['65', '78']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>4</v>
+      </c>
+      <c r="R133" t="n">
+        <v>5</v>
+      </c>
+      <c r="S133" t="n">
+        <v>9</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2831252</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44920.41666666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>2</v>
+      </c>
+      <c r="R134" t="n">
+        <v>4</v>
+      </c>
+      <c r="S134" t="n">
+        <v>6</v>
+      </c>
+      <c r="T134" t="n">
+        <v>4</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>19</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2831250</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44920.54166666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>15</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['15', '37']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>12</v>
+      </c>
+      <c r="R135" t="n">
+        <v>5</v>
+      </c>
+      <c r="S135" t="n">
+        <v>17</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V135" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT5" t="n">
         <v>0.75</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.63</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT17" t="n">
         <v>1.29</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -5166,7 +5166,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU23" t="n">
         <v>1.54</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT27" t="n">
         <v>1.63</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT28" t="n">
         <v>1.63</v>
@@ -6384,7 +6384,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>2.86</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT30" t="n">
         <v>1.14</v>
@@ -6790,7 +6790,7 @@
         <v>2.33</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU31" t="n">
         <v>3.35</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT32" t="n">
         <v>0.88</v>
@@ -7196,7 +7196,7 @@
         <v>0.88</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -8211,7 +8211,7 @@
         <v>0.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU38" t="n">
         <v>1.88</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT40" t="n">
         <v>0.75</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.86</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
         <v>1.29</v>
@@ -9632,7 +9632,7 @@
         <v>1.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU45" t="n">
         <v>1.51</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT47" t="n">
         <v>1.14</v>
@@ -10241,7 +10241,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
         <v>1.13</v>
@@ -10850,7 +10850,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU51" t="n">
         <v>2.3</v>
@@ -11256,7 +11256,7 @@
         <v>1.86</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.51</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU55" t="n">
         <v>2.46</v>
@@ -12068,7 +12068,7 @@
         <v>1.29</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU57" t="n">
         <v>1.66</v>
@@ -12271,7 +12271,7 @@
         <v>0.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU58" t="n">
         <v>1.64</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT60" t="n">
         <v>1.29</v>
@@ -13080,7 +13080,7 @@
         <v>0.5</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT62" t="n">
         <v>0.71</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>0.86</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT64" t="n">
         <v>0.75</v>
@@ -13895,7 +13895,7 @@
         <v>1.86</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
         <v>1.83</v>
@@ -14501,7 +14501,7 @@
         <v>1.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT69" t="n">
         <v>1.13</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU70" t="n">
         <v>1.43</v>
@@ -14910,7 +14910,7 @@
         <v>1.71</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT73" t="n">
         <v>0.88</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT75" t="n">
         <v>1.14</v>
@@ -16331,7 +16331,7 @@
         <v>0.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT80" t="n">
         <v>0.71</v>
@@ -16940,7 +16940,7 @@
         <v>2.14</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU81" t="n">
         <v>2.11</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT82" t="n">
         <v>0.86</v>
@@ -17343,10 +17343,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17546,10 +17546,10 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU84" t="n">
         <v>1.56</v>
@@ -18358,7 +18358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT88" t="n">
         <v>0.88</v>
@@ -18564,7 +18564,7 @@
         <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU89" t="n">
         <v>2.33</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
         <v>1.67</v>
@@ -19779,7 +19779,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT95" t="n">
         <v>1.83</v>
@@ -19985,7 +19985,7 @@
         <v>0.88</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20997,7 +20997,7 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT101" t="n">
         <v>2.13</v>
@@ -21203,7 +21203,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU102" t="n">
         <v>1.42</v>
@@ -21403,7 +21403,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -21606,10 +21606,10 @@
         <v>0.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -22015,7 +22015,7 @@
         <v>2</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU106" t="n">
         <v>2.38</v>
@@ -22215,7 +22215,7 @@
         <v>1.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT107" t="n">
         <v>1.67</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.82</v>
@@ -22621,7 +22621,7 @@
         <v>1</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT109" t="n">
         <v>1.13</v>
@@ -23639,7 +23639,7 @@
         <v>1.5</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU114" t="n">
         <v>1.66</v>
@@ -24245,7 +24245,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT117" t="n">
         <v>0.86</v>
@@ -24651,10 +24651,10 @@
         <v>1.67</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU119" t="n">
         <v>1.37</v>
@@ -24854,7 +24854,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT120" t="n">
         <v>1.63</v>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT122" t="n">
         <v>1.13</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT123" t="n">
         <v>2.13</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25869,10 +25869,10 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU125" t="n">
         <v>1.2</v>
@@ -27954,6 +27954,1224 @@
       </c>
       <c r="BK135" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2831261</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44922.45833333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>16</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['9', '55']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>8</v>
+      </c>
+      <c r="R136" t="n">
+        <v>5</v>
+      </c>
+      <c r="S136" t="n">
+        <v>13</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2831262</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44922.45833333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>16</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['57', '66']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>1</v>
+      </c>
+      <c r="R137" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" t="n">
+        <v>4</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V137" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2831264</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44922.58333333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>16</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>4</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['20', '26', '86', '90+5']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>11</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>11</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V138" t="n">
+        <v>7</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2831257</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44923.45833333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
+        <v>4</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['21', '36', '72']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>7</v>
+      </c>
+      <c r="S139" t="n">
+        <v>7</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2831263</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44923.45833333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>16</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['29', '78']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>3</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5</v>
+      </c>
+      <c r="S140" t="n">
+        <v>8</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X140" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2831258</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44923.58333333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>3</v>
+      </c>
+      <c r="L141" t="n">
+        <v>4</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['6', '34', '67', '87']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>4</v>
+      </c>
+      <c r="R141" t="n">
+        <v>4</v>
+      </c>
+      <c r="S141" t="n">
+        <v>8</v>
+      </c>
+      <c r="T141" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT4" t="n">
         <v>1.25</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU20" t="n">
         <v>1.97</v>
@@ -4760,7 +4760,7 @@
         <v>1.29</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT22" t="n">
         <v>1.14</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT25" t="n">
         <v>0.71</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT26" t="n">
         <v>0.75</v>
@@ -6181,7 +6181,7 @@
         <v>2.44</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU28" t="n">
         <v>1.95</v>
@@ -7602,7 +7602,7 @@
         <v>2.14</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU35" t="n">
         <v>2.23</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT37" t="n">
         <v>0.86</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT39" t="n">
         <v>0.71</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT42" t="n">
         <v>1.63</v>
@@ -9226,7 +9226,7 @@
         <v>1.29</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU43" t="n">
         <v>1.75</v>
@@ -9835,7 +9835,7 @@
         <v>2.17</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU46" t="n">
         <v>2.06</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT50" t="n">
         <v>0.88</v>
@@ -11053,7 +11053,7 @@
         <v>0.88</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU52" t="n">
         <v>1.04</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT54" t="n">
         <v>1.83</v>
@@ -12474,7 +12474,7 @@
         <v>1.25</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU59" t="n">
         <v>1.8</v>
@@ -12880,7 +12880,7 @@
         <v>2.14</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU61" t="n">
         <v>1.85</v>
@@ -13692,7 +13692,7 @@
         <v>0.88</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU65" t="n">
         <v>1.31</v>
@@ -14301,7 +14301,7 @@
         <v>2.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU68" t="n">
         <v>2.39</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT70" t="n">
         <v>0.75</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT72" t="n">
         <v>1.67</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU74" t="n">
         <v>1.89</v>
@@ -16125,7 +16125,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT77" t="n">
         <v>1.29</v>
@@ -17752,7 +17752,7 @@
         <v>0.88</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU85" t="n">
         <v>1.4</v>
@@ -17955,7 +17955,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU86" t="n">
         <v>1.34</v>
@@ -18158,7 +18158,7 @@
         <v>1.86</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU87" t="n">
         <v>1.39</v>
@@ -18561,7 +18561,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
         <v>1.38</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT90" t="n">
         <v>1.13</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT99" t="n">
         <v>1.14</v>
@@ -21000,7 +21000,7 @@
         <v>1.38</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>1.88</v>
       </c>
       <c r="AT103" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU103" t="n">
         <v>1.83</v>
@@ -21812,7 +21812,7 @@
         <v>1.86</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.5</v>
@@ -22012,7 +22012,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT106" t="n">
         <v>0.86</v>
@@ -22418,7 +22418,7 @@
         <v>0.75</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT112" t="n">
         <v>0.88</v>
@@ -24857,7 +24857,7 @@
         <v>1.88</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU120" t="n">
         <v>1.8</v>
@@ -25057,7 +25057,7 @@
         <v>0.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT121" t="n">
         <v>0.86</v>
@@ -25466,7 +25466,7 @@
         <v>2.11</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU123" t="n">
         <v>1.76</v>
@@ -25669,7 +25669,7 @@
         <v>1.38</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -29172,6 +29172,615 @@
       </c>
       <c r="BK141" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2831265</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44924.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>16</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['24', '90+5']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>6</v>
+      </c>
+      <c r="R142" t="n">
+        <v>3</v>
+      </c>
+      <c r="S142" t="n">
+        <v>9</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2831260</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44924.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2</v>
+      </c>
+      <c r="N143" t="n">
+        <v>3</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['27', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2</v>
+      </c>
+      <c r="R143" t="n">
+        <v>3</v>
+      </c>
+      <c r="S143" t="n">
+        <v>5</v>
+      </c>
+      <c r="T143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2831259</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44924.58333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>5</v>
+      </c>
+      <c r="T144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X144" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -29562,22 +29562,22 @@
         <v>3.28</v>
       </c>
       <c r="BF143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG143" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH143" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI143" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ143" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK143" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -29642,13 +29642,13 @@
         </is>
       </c>
       <c r="Q144" t="n">
+        <v>7</v>
+      </c>
+      <c r="R144" t="n">
         <v>4</v>
       </c>
-      <c r="R144" t="n">
-        <v>1</v>
-      </c>
       <c r="S144" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T144" t="n">
         <v>2.3</v>
@@ -29765,22 +29765,22 @@
         <v>3.28</v>
       </c>
       <c r="BF144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG144" t="n">
         <v>4</v>
       </c>
-      <c r="BG144" t="n">
-        <v>3</v>
-      </c>
       <c r="BH144" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI144" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ144" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK144" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.38</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT7" t="n">
         <v>2.22</v>
@@ -2730,7 +2730,7 @@
         <v>2.14</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
         <v>0.88</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT20" t="n">
         <v>2.22</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT23" t="n">
         <v>1.38</v>
@@ -5572,7 +5572,7 @@
         <v>2.13</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>2.6</v>
@@ -5775,7 +5775,7 @@
         <v>0.89</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU26" t="n">
         <v>1.18</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT34" t="n">
         <v>1.13</v>
@@ -7805,7 +7805,7 @@
         <v>1.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU36" t="n">
         <v>0.86</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT38" t="n">
         <v>1.38</v>
@@ -8414,7 +8414,7 @@
         <v>0.89</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.26</v>
@@ -8617,7 +8617,7 @@
         <v>2.11</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.82</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT45" t="n">
         <v>1.14</v>
@@ -10241,7 +10241,7 @@
         <v>1.71</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT52" t="n">
         <v>2.22</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT58" t="n">
         <v>1.14</v>
@@ -12471,7 +12471,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT59" t="n">
         <v>1.44</v>
@@ -13083,7 +13083,7 @@
         <v>2.11</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.66</v>
@@ -13489,7 +13489,7 @@
         <v>2.44</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT65" t="n">
         <v>0.89</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>1.38</v>
@@ -14707,7 +14707,7 @@
         <v>0.89</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU70" t="n">
         <v>1.43</v>
@@ -15113,7 +15113,7 @@
         <v>2.13</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU72" t="n">
         <v>2.58</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT76" t="n">
         <v>1.63</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT78" t="n">
         <v>1.25</v>
@@ -16534,7 +16534,7 @@
         <v>1.29</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -16737,7 +16737,7 @@
         <v>2.44</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>2</v>
@@ -17549,7 +17549,7 @@
         <v>1.38</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.56</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT85" t="n">
         <v>1.44</v>
@@ -18155,7 +18155,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT87" t="n">
         <v>2.22</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT92" t="n">
         <v>0.88</v>
@@ -19373,10 +19373,10 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU93" t="n">
         <v>1.69</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT96" t="n">
         <v>1.25</v>
@@ -20391,7 +20391,7 @@
         <v>2.17</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU98" t="n">
         <v>2.32</v>
@@ -21609,7 +21609,7 @@
         <v>1</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -21809,7 +21809,7 @@
         <v>1.83</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT105" t="n">
         <v>1.44</v>
@@ -22218,7 +22218,7 @@
         <v>0.57</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -22824,10 +22824,10 @@
         <v>0.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.63</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT111" t="n">
         <v>1.14</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.77</v>
@@ -25872,7 +25872,7 @@
         <v>0.57</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU125" t="n">
         <v>1.2</v>
@@ -26072,7 +26072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT126" t="n">
         <v>1.63</v>
@@ -26275,7 +26275,7 @@
         <v>0.83</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT127" t="n">
         <v>1.14</v>
@@ -26478,7 +26478,7 @@
         <v>1.6</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT128" t="n">
         <v>1.83</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT130" t="n">
         <v>0.86</v>
@@ -27090,7 +27090,7 @@
         <v>2.14</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU131" t="n">
         <v>2.11</v>
@@ -27293,7 +27293,7 @@
         <v>2.33</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AU132" t="n">
         <v>2.19</v>
@@ -27496,7 +27496,7 @@
         <v>1.71</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -28511,7 +28511,7 @@
         <v>2.44</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU138" t="n">
         <v>1.86</v>
@@ -29781,6 +29781,818 @@
       </c>
       <c r="BK144" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2831267</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44929.45833333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>17</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>2</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['39', '67']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['24', '53']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>5</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2</v>
+      </c>
+      <c r="S145" t="n">
+        <v>7</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2831266</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>44929.58333333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['55', '62']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>3</v>
+      </c>
+      <c r="R146" t="n">
+        <v>8</v>
+      </c>
+      <c r="S146" t="n">
+        <v>11</v>
+      </c>
+      <c r="T146" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2831274</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>44930.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>17</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2</v>
+      </c>
+      <c r="M147" t="n">
+        <v>4</v>
+      </c>
+      <c r="N147" t="n">
+        <v>6</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['57', '72']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['1', '12', '47', '63']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2</v>
+      </c>
+      <c r="S147" t="n">
+        <v>6</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2831272</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>44930.45833333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>4</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>5</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['11', '32', '67', '83']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>1</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4</v>
+      </c>
+      <c r="S148" t="n">
+        <v>5</v>
+      </c>
+      <c r="T148" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK148"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT14" t="n">
         <v>1.13</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT18" t="n">
         <v>1.71</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>1.83</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.38</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT36" t="n">
         <v>1.86</v>
@@ -8008,7 +8008,7 @@
         <v>2.13</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU37" t="n">
         <v>2.55</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT46" t="n">
         <v>0.89</v>
@@ -10038,7 +10038,7 @@
         <v>1.88</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>2.12</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT48" t="n">
         <v>0.78</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT51" t="n">
         <v>0.86</v>
@@ -11459,7 +11459,7 @@
         <v>2.13</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU54" t="n">
         <v>2.54</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT56" t="n">
         <v>1.63</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>1.33</v>
@@ -14098,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT71" t="n">
         <v>0.86</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT74" t="n">
         <v>1.44</v>
@@ -15722,7 +15722,7 @@
         <v>0.57</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.24</v>
@@ -17143,7 +17143,7 @@
         <v>2.11</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU82" t="n">
         <v>1.62</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT86" t="n">
         <v>0.89</v>
@@ -19579,7 +19579,7 @@
         <v>2.14</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU94" t="n">
         <v>2.15</v>
@@ -19782,7 +19782,7 @@
         <v>2.44</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU95" t="n">
         <v>2.04</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT98" t="n">
         <v>0.67</v>
@@ -20594,7 +20594,7 @@
         <v>1.43</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.71</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT102" t="n">
         <v>1.14</v>
@@ -23030,7 +23030,7 @@
         <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.84</v>
@@ -23433,7 +23433,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT113" t="n">
         <v>1.29</v>
@@ -23636,7 +23636,7 @@
         <v>1.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT114" t="n">
         <v>1.25</v>
@@ -24248,7 +24248,7 @@
         <v>2.44</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU117" t="n">
         <v>1.96</v>
@@ -24451,7 +24451,7 @@
         <v>1.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU118" t="n">
         <v>1.6</v>
@@ -26278,7 +26278,7 @@
         <v>1.11</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU127" t="n">
         <v>1.78</v>
@@ -26481,7 +26481,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AU128" t="n">
         <v>1.68</v>
@@ -26887,7 +26887,7 @@
         <v>1.11</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU130" t="n">
         <v>1.76</v>
@@ -27493,7 +27493,7 @@
         <v>0.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT133" t="n">
         <v>0.67</v>
@@ -27696,7 +27696,7 @@
         <v>1.33</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT134" t="n">
         <v>1.29</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT135" t="n">
         <v>0.88</v>
@@ -30251,13 +30251,13 @@
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R147" t="n">
         <v>2</v>
       </c>
       <c r="S147" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T147" t="n">
         <v>2.6</v>
@@ -30374,22 +30374,22 @@
         <v>3</v>
       </c>
       <c r="BF147" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG147" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI147" t="n">
         <v>3</v>
       </c>
-      <c r="BI147" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ147" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BK147" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -30457,10 +30457,10 @@
         <v>1</v>
       </c>
       <c r="R148" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S148" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T148" t="n">
         <v>2.95</v>
@@ -30577,22 +30577,631 @@
         <v>2.8</v>
       </c>
       <c r="BF148" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2831273</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>44930.58333333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2</v>
+      </c>
+      <c r="N149" t="n">
+        <v>4</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['22', '56']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['34', '79']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>4</v>
+      </c>
+      <c r="R149" t="n">
         <v>3</v>
       </c>
-      <c r="BG148" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH148" t="n">
+      <c r="S149" t="n">
+        <v>7</v>
+      </c>
+      <c r="T149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V149" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG149" t="n">
         <v>5</v>
       </c>
-      <c r="BI148" t="n">
+      <c r="BH149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2831268</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>44930.58333333334</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>3</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['16', '30']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
         <v>6</v>
       </c>
-      <c r="BJ148" t="n">
+      <c r="R150" t="n">
+        <v>4</v>
+      </c>
+      <c r="S150" t="n">
+        <v>10</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V150" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK150" t="n">
         <v>8</v>
       </c>
-      <c r="BK148" t="n">
-        <v>6</v>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2831270</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>44931.45833333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>5</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>10</v>
+      </c>
+      <c r="T151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X151" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT11" t="n">
         <v>0.78</v>
@@ -2933,7 +2933,7 @@
         <v>1.63</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT13" t="n">
         <v>0.88</v>
@@ -3339,7 +3339,7 @@
         <v>2.29</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>2831154</v>
+        <v>2831149</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -6666,182 +6666,182 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R31" t="n">
         <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD31" t="n">
         <v>2.05</v>
       </c>
-      <c r="U31" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V31" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>2.3</v>
-      </c>
       <c r="BE31" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="BF31" t="n">
         <v>6</v>
       </c>
       <c r="BG31" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK31" t="n">
         <v>11</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>2831149</v>
+        <v>2831154</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6869,182 +6869,182 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>['48']</t>
-        </is>
-      </c>
       <c r="Q32" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
         <v>1</v>
       </c>
       <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY32" t="n">
         <v>10</v>
       </c>
-      <c r="T32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y32" t="n">
+      <c r="AZ32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD32" t="n">
         <v>2.3</v>
       </c>
-      <c r="Z32" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>2.05</v>
-      </c>
       <c r="BE32" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="BF32" t="n">
         <v>6</v>
       </c>
       <c r="BG32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BI32" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BJ32" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK32" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -7052,7 +7052,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>2831155</v>
+        <v>2831157</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -7090,17 +7090,17 @@
         <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>['22', '72', '87']</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -7109,145 +7109,145 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T33" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
         <v>3.75</v>
       </c>
       <c r="W33" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X33" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AD33" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE33" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AF33" t="n">
         <v>1.04</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>10.06</v>
       </c>
       <c r="AH33" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AI33" t="n">
-        <v>4</v>
+        <v>3.44</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="AK33" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="AL33" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="AM33" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AO33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA33" t="n">
         <v>1.28</v>
       </c>
-      <c r="AP33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>1.26</v>
-      </c>
       <c r="BB33" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BC33" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BD33" t="n">
-        <v>2.45</v>
+        <v>2.59</v>
       </c>
       <c r="BE33" t="n">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="BF33" t="n">
         <v>4</v>
       </c>
       <c r="BG33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BH33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BI33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ33" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK33" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -7255,7 +7255,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>2831157</v>
+        <v>2831155</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -7275,12 +7275,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -7293,17 +7293,17 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>['22', '72', '87']</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -7312,145 +7312,145 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T34" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="U34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
         <v>3.75</v>
       </c>
       <c r="W34" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AA34" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AC34" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AF34" t="n">
         <v>1.04</v>
       </c>
       <c r="AG34" t="n">
-        <v>10.06</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AI34" t="n">
-        <v>3.44</v>
+        <v>4</v>
       </c>
       <c r="AJ34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC34" t="n">
         <v>1.9</v>
       </c>
-      <c r="AK34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>1.98</v>
-      </c>
       <c r="BD34" t="n">
-        <v>2.59</v>
+        <v>2.45</v>
       </c>
       <c r="BE34" t="n">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="BF34" t="n">
         <v>4</v>
       </c>
       <c r="BG34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK34" t="n">
         <v>10</v>
-      </c>
-      <c r="BH34" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI34" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ34" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK34" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT35" t="n">
         <v>2.22</v>
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2831162</v>
+        <v>2831158</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,86 +9305,86 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['45+6', '61']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>8</v>
+      </c>
+      <c r="R44" t="n">
         <v>3</v>
       </c>
-      <c r="L44" t="n">
-        <v>2</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>['26', '47']</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>['30', '35', '74']</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1</v>
-      </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T44" t="n">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="U44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V44" t="n">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="W44" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X44" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="AB44" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AC44" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="AD44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="AF44" t="n">
         <v>1.05</v>
@@ -9393,94 +9393,94 @@
         <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AI44" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK44" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AM44" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.88</v>
+        <v>1.23</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="AW44" t="n">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="AX44" t="n">
-        <v>2.95</v>
+        <v>1.39</v>
       </c>
       <c r="AY44" t="n">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="AZ44" t="n">
-        <v>1.61</v>
+        <v>3.4</v>
       </c>
       <c r="BA44" t="n">
         <v>1.28</v>
       </c>
       <c r="BB44" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BC44" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BD44" t="n">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="BE44" t="n">
         <v>3.48</v>
       </c>
       <c r="BF44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI44" t="n">
         <v>3</v>
       </c>
-      <c r="BG44" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ44" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BK44" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -9488,7 +9488,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>2831158</v>
+        <v>2831162</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -9508,86 +9508,86 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['26', '47']</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>['45+6', '61']</t>
+          <t>['30', '35', '74']</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
         <v>3</v>
       </c>
-      <c r="S45" t="n">
-        <v>11</v>
-      </c>
       <c r="T45" t="n">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="U45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V45" t="n">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="W45" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X45" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE45" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>3.8</v>
       </c>
       <c r="AF45" t="n">
         <v>1.05</v>
@@ -9596,94 +9596,94 @@
         <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AI45" t="n">
-        <v>4.12</v>
+        <v>4.22</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK45" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AL45" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AM45" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AN45" t="n">
-        <v>1.23</v>
+        <v>1.88</v>
       </c>
       <c r="AO45" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AU45" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="AV45" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="AW45" t="n">
-        <v>2.85</v>
+        <v>2.79</v>
       </c>
       <c r="AX45" t="n">
-        <v>1.39</v>
+        <v>2.95</v>
       </c>
       <c r="AY45" t="n">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="AZ45" t="n">
-        <v>3.4</v>
+        <v>1.61</v>
       </c>
       <c r="BA45" t="n">
         <v>1.28</v>
       </c>
       <c r="BB45" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="BC45" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BD45" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="BE45" t="n">
         <v>3.48</v>
       </c>
       <c r="BF45" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG45" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BH45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ45" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BK45" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.76</v>
@@ -10647,7 +10647,7 @@
         <v>0.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU50" t="n">
         <v>1.28</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT55" t="n">
         <v>1.38</v>
@@ -11721,7 +11721,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>2831178</v>
+        <v>2831184</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -11741,65 +11741,65 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['5', '44', '87', '90']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>8</v>
+      </c>
+      <c r="R56" t="n">
         <v>3</v>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>['1', '82']</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>['15']</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>6</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T56" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="U56" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V56" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="W56" t="n">
         <v>1.36</v>
       </c>
       <c r="X56" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="Y56" t="n">
         <v>2.6</v>
@@ -11814,109 +11814,109 @@
         <v>1.1</v>
       </c>
       <c r="AC56" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AD56" t="n">
         <v>3.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AF56" t="n">
         <v>1.05</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AI56" t="n">
-        <v>4.12</v>
+        <v>3.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="AK56" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AL56" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AM56" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN56" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AO56" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AP56" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR56" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="AU56" t="n">
-        <v>2.33</v>
+        <v>1.66</v>
       </c>
       <c r="AV56" t="n">
-        <v>1.83</v>
+        <v>0.89</v>
       </c>
       <c r="AW56" t="n">
-        <v>4.16</v>
+        <v>2.55</v>
       </c>
       <c r="AX56" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AY56" t="n">
         <v>7</v>
       </c>
       <c r="AZ56" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="BA56" t="n">
         <v>1.22</v>
       </c>
       <c r="BB56" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BC56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="BD56" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BE56" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="BF56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG56" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK56" t="n">
         <v>7</v>
-      </c>
-      <c r="BH56" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI56" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>22</v>
-      </c>
-      <c r="BK56" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -11924,7 +11924,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>2831184</v>
+        <v>2831178</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -11944,65 +11944,65 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['1', '82']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" t="n">
         <v>4</v>
       </c>
-      <c r="N57" t="n">
-        <v>4</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>['5', '44', '87', '90']</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>8</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
       <c r="S57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T57" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="U57" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="V57" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="W57" t="n">
         <v>1.36</v>
       </c>
       <c r="X57" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Y57" t="n">
         <v>2.6</v>
@@ -12017,109 +12017,109 @@
         <v>1.1</v>
       </c>
       <c r="AC57" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AD57" t="n">
         <v>3.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="AF57" t="n">
         <v>1.05</v>
       </c>
       <c r="AG57" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO57" t="n">
         <v>1.26</v>
       </c>
-      <c r="AI57" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AP57" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR57" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.29</v>
+        <v>2.29</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AU57" t="n">
-        <v>1.66</v>
+        <v>2.33</v>
       </c>
       <c r="AV57" t="n">
-        <v>0.89</v>
+        <v>1.83</v>
       </c>
       <c r="AW57" t="n">
-        <v>2.55</v>
+        <v>4.16</v>
       </c>
       <c r="AX57" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AY57" t="n">
         <v>7</v>
       </c>
       <c r="AZ57" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="BA57" t="n">
         <v>1.22</v>
       </c>
       <c r="BB57" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BC57" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="BD57" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="BE57" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="BF57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH57" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI57" t="n">
         <v>11</v>
       </c>
-      <c r="BI57" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ57" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BK57" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -12330,7 +12330,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>2831176</v>
+        <v>2831182</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -12350,155 +12350,155 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['26', '86']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>['8', '39']</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
         <v>3</v>
       </c>
-      <c r="N59" t="n">
-        <v>3</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>['1', '75', '84']</t>
-        </is>
-      </c>
-      <c r="Q59" t="n">
-        <v>6</v>
-      </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
         <v>8</v>
       </c>
       <c r="T59" t="n">
-        <v>2.65</v>
+        <v>4.75</v>
       </c>
       <c r="U59" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="V59" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="W59" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X59" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC59" t="n">
-        <v>2.13</v>
+        <v>5.15</v>
       </c>
       <c r="AD59" t="n">
-        <v>3.7</v>
+        <v>4.38</v>
       </c>
       <c r="AE59" t="n">
-        <v>2.95</v>
+        <v>1.66</v>
       </c>
       <c r="AF59" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO59" t="n">
         <v>1.22</v>
       </c>
-      <c r="AI59" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>1.28</v>
-      </c>
       <c r="AP59" t="n">
-        <v>1.66</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV59" t="n">
         <v>1.33</v>
       </c>
-      <c r="AS59" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT59" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>1.84</v>
-      </c>
       <c r="AW59" t="n">
-        <v>3.64</v>
+        <v>2.6</v>
       </c>
       <c r="AX59" t="n">
-        <v>1.62</v>
+        <v>3.74</v>
       </c>
       <c r="AY59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ59" t="n">
-        <v>2.63</v>
+        <v>1.33</v>
       </c>
       <c r="BA59" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="BB59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="BC59" t="n">
         <v>2</v>
@@ -12507,25 +12507,25 @@
         <v>2.5</v>
       </c>
       <c r="BE59" t="n">
-        <v>3.74</v>
+        <v>3.64</v>
       </c>
       <c r="BF59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI59" t="n">
         <v>3</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH59" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI59" t="n">
-        <v>4</v>
       </c>
       <c r="BJ59" t="n">
         <v>8</v>
       </c>
       <c r="BK59" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -12533,7 +12533,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>2831182</v>
+        <v>2831176</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -12553,155 +12553,155 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
         <v>3</v>
       </c>
-      <c r="L60" t="n">
-        <v>2</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2</v>
-      </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>['26', '86']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>['8', '39']</t>
+          <t>['1', '75', '84']</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S60" t="n">
         <v>8</v>
       </c>
       <c r="T60" t="n">
-        <v>4.75</v>
+        <v>2.65</v>
       </c>
       <c r="U60" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V60" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="W60" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AA60" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AB60" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC60" t="n">
-        <v>5.15</v>
+        <v>2.13</v>
       </c>
       <c r="AD60" t="n">
-        <v>4.38</v>
+        <v>3.7</v>
       </c>
       <c r="AE60" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP60" t="n">
         <v>1.66</v>
       </c>
-      <c r="AF60" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.57</v>
+        <v>1.11</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AU60" t="n">
-        <v>1.27</v>
+        <v>1.8</v>
       </c>
       <c r="AV60" t="n">
-        <v>1.33</v>
+        <v>1.84</v>
       </c>
       <c r="AW60" t="n">
-        <v>2.6</v>
+        <v>3.64</v>
       </c>
       <c r="AX60" t="n">
-        <v>3.74</v>
+        <v>1.62</v>
       </c>
       <c r="AY60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ60" t="n">
-        <v>1.33</v>
+        <v>2.63</v>
       </c>
       <c r="BA60" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="BB60" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="BC60" t="n">
         <v>2</v>
@@ -12710,25 +12710,25 @@
         <v>2.5</v>
       </c>
       <c r="BE60" t="n">
-        <v>3.64</v>
+        <v>3.74</v>
       </c>
       <c r="BF60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI60" t="n">
         <v>4</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH60" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI60" t="n">
-        <v>3</v>
       </c>
       <c r="BJ60" t="n">
         <v>8</v>
       </c>
       <c r="BK60" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -12736,7 +12736,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>2831179</v>
+        <v>2831181</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -12756,59 +12756,59 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Fatih Karagümrük</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>6</v>
+      </c>
+      <c r="R61" t="n">
         <v>3</v>
       </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>['14', '42', '90+8']</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>['2', '9']</t>
-        </is>
-      </c>
-      <c r="Q61" t="n">
+      <c r="S61" t="n">
         <v>9</v>
       </c>
-      <c r="R61" t="n">
-        <v>2</v>
-      </c>
-      <c r="S61" t="n">
-        <v>11</v>
-      </c>
       <c r="T61" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V61" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="W61" t="n">
         <v>1.36</v>
@@ -12817,121 +12817,121 @@
         <v>2.87</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AA61" t="n">
         <v>6.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="AD61" t="n">
-        <v>3.66</v>
+        <v>4.06</v>
       </c>
       <c r="AE61" t="n">
-        <v>3.86</v>
+        <v>4.82</v>
       </c>
       <c r="AF61" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>10.65</v>
       </c>
       <c r="AH61" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI61" t="n">
-        <v>4.12</v>
+        <v>3.82</v>
       </c>
       <c r="AJ61" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL61" t="n">
         <v>1.85</v>
       </c>
-      <c r="AK61" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1.71</v>
-      </c>
       <c r="AM61" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AN61" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AO61" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX61" t="n">
         <v>1.33</v>
       </c>
-      <c r="AS61" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AY61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ61" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="BA61" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="BB61" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="BC61" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BD61" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="BE61" t="n">
-        <v>3.42</v>
+        <v>3.64</v>
       </c>
       <c r="BF61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG61" t="n">
         <v>4</v>
       </c>
       <c r="BH61" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ61" t="n">
         <v>11</v>
       </c>
-      <c r="BI61" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ61" t="n">
-        <v>20</v>
-      </c>
       <c r="BK61" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -12939,7 +12939,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>2831181</v>
+        <v>2831179</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -12959,59 +12959,59 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Fatih Karagümrük</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '42', '90+8']</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['2', '9']</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T62" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="U62" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V62" t="n">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="W62" t="n">
         <v>1.36</v>
@@ -13020,121 +13020,121 @@
         <v>2.87</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="Z62" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AA62" t="n">
         <v>6.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="AD62" t="n">
-        <v>4.06</v>
+        <v>3.66</v>
       </c>
       <c r="AE62" t="n">
-        <v>4.82</v>
+        <v>3.86</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG62" t="n">
-        <v>10.65</v>
+        <v>13</v>
       </c>
       <c r="AH62" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AI62" t="n">
-        <v>3.82</v>
+        <v>4.12</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="AK62" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="AL62" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU62" t="n">
         <v>1.85</v>
       </c>
-      <c r="AM62" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AQ62" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR62" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS62" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>1.66</v>
-      </c>
       <c r="AV62" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="AW62" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="AX62" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="AY62" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF62" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>2</v>
       </c>
       <c r="BG62" t="n">
         <v>4</v>
       </c>
       <c r="BH62" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BI62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ62" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BK62" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -14298,7 +14298,7 @@
         <v>2.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT68" t="n">
         <v>2.22</v>
@@ -14360,7 +14360,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>2831185</v>
+        <v>2831188</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -14380,149 +14380,149 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['14', '20']</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="T69" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="U69" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V69" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="W69" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="X69" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AA69" t="n">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="AB69" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.94</v>
+        <v>2.18</v>
       </c>
       <c r="AD69" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AE69" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AG69" t="n">
-        <v>10.65</v>
+        <v>8.75</v>
       </c>
       <c r="AH69" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AI69" t="n">
-        <v>3.61</v>
+        <v>3.2</v>
       </c>
       <c r="AJ69" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL69" t="n">
         <v>1.77</v>
       </c>
-      <c r="AK69" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AL69" t="n">
+      <c r="AM69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP69" t="n">
         <v>1.73</v>
       </c>
-      <c r="AM69" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AQ69" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.13</v>
+        <v>0.78</v>
       </c>
       <c r="AU69" t="n">
-        <v>1.99</v>
+        <v>1.43</v>
       </c>
       <c r="AV69" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AW69" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="AX69" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AY69" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ69" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="BA69" t="n">
         <v>1.24</v>
@@ -14531,7 +14531,7 @@
         <v>1.46</v>
       </c>
       <c r="BC69" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BD69" t="n">
         <v>2.4</v>
@@ -14540,22 +14540,22 @@
         <v>3.3</v>
       </c>
       <c r="BF69" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BH69" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BI69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ69" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="BK69" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -14563,7 +14563,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>2831188</v>
+        <v>2831185</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -14583,149 +14583,149 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>11</v>
+      </c>
+      <c r="R70" t="n">
         <v>3</v>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N70" t="n">
+      <c r="S70" t="n">
+        <v>14</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V70" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X70" t="n">
         <v>3</v>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>['23']</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>['14', '20']</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
-        <v>12</v>
-      </c>
-      <c r="R70" t="n">
-        <v>4</v>
-      </c>
-      <c r="S70" t="n">
-        <v>16</v>
-      </c>
-      <c r="T70" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U70" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V70" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="W70" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X70" t="n">
-        <v>2.7</v>
-      </c>
       <c r="Y70" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AA70" t="n">
-        <v>7.25</v>
+        <v>7</v>
       </c>
       <c r="AB70" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AC70" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="AD70" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AE70" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AF70" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AG70" t="n">
-        <v>8.75</v>
+        <v>10.65</v>
       </c>
       <c r="AH70" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AI70" t="n">
-        <v>3.2</v>
+        <v>3.61</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="AK70" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP70" t="n">
         <v>1.82</v>
       </c>
-      <c r="AL70" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AM70" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN70" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO70" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AP70" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR70" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.89</v>
+        <v>1.88</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
-        <v>1.43</v>
+        <v>1.99</v>
       </c>
       <c r="AV70" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AW70" t="n">
-        <v>2.6</v>
+        <v>3.15</v>
       </c>
       <c r="AX70" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AY70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ70" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="BA70" t="n">
         <v>1.24</v>
@@ -14734,7 +14734,7 @@
         <v>1.46</v>
       </c>
       <c r="BC70" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BD70" t="n">
         <v>2.4</v>
@@ -14743,22 +14743,22 @@
         <v>3.3</v>
       </c>
       <c r="BF70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK70" t="n">
         <v>9</v>
-      </c>
-      <c r="BG70" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>19</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ70" t="n">
-        <v>28</v>
-      </c>
-      <c r="BK70" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="71">
@@ -15316,7 +15316,7 @@
         <v>1.38</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT81" t="n">
         <v>1.14</v>
@@ -18361,7 +18361,7 @@
         <v>2.11</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18767,7 +18767,7 @@
         <v>0.89</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.79</v>
@@ -19173,7 +19173,7 @@
         <v>1.11</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT94" t="n">
         <v>0.88</v>
@@ -20185,7 +20185,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT97" t="n">
         <v>1.63</v>
@@ -22277,7 +22277,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>2831224</v>
+        <v>2831226</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -22297,65 +22297,65 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['38', '65', '76']</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>['18', '24']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="Q108" t="n">
         <v>2</v>
       </c>
       <c r="R108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T108" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="U108" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V108" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="W108" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X108" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y108" t="n">
         <v>3</v>
@@ -22364,115 +22364,115 @@
         <v>1.36</v>
       </c>
       <c r="AA108" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB108" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC108" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="AD108" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="AE108" t="n">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="AF108" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG108" t="n">
-        <v>9</v>
+        <v>10.06</v>
       </c>
       <c r="AH108" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA108" t="n">
         <v>1.32</v>
       </c>
-      <c r="AI108" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AL108" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM108" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN108" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AO108" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP108" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ108" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AR108" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AS108" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AT108" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU108" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AV108" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AW108" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AX108" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AY108" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AZ108" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA108" t="n">
-        <v>1.36</v>
-      </c>
       <c r="BB108" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BC108" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BD108" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BE108" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="BF108" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG108" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH108" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI108" t="n">
         <v>5</v>
       </c>
       <c r="BJ108" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BK108" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -22480,7 +22480,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>2831226</v>
+        <v>2831224</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -22500,65 +22500,65 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['18', '24']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
         <v>3</v>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="n">
-        <v>4</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>['38', '65', '76']</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>['80']</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>2</v>
-      </c>
-      <c r="R109" t="n">
-        <v>4</v>
-      </c>
       <c r="S109" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T109" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="U109" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V109" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="W109" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X109" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y109" t="n">
         <v>3</v>
@@ -22567,115 +22567,115 @@
         <v>1.36</v>
       </c>
       <c r="AA109" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB109" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AC109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV109" t="n">
         <v>1.53</v>
       </c>
-      <c r="AD109" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AF109" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG109" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="AH109" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AI109" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AK109" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AL109" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM109" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN109" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO109" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AP109" t="n">
+      <c r="AW109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ109" t="n">
         <v>2.5</v>
       </c>
-      <c r="AQ109" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AR109" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS109" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AT109" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU109" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AV109" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AW109" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX109" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AY109" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AZ109" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BA109" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BB109" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="BC109" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BD109" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BE109" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="BF109" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BG109" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH109" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI109" t="n">
         <v>5</v>
       </c>
       <c r="BJ109" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="BK109" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -23233,7 +23233,7 @@
         <v>1.43</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU112" t="n">
         <v>1.82</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT116" t="n">
         <v>1.63</v>
@@ -24104,7 +24104,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>2831236</v>
+        <v>2831238</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -24124,182 +24124,182 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>['12', '75', '81']</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60', '65', '90+1']</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R117" t="n">
+        <v>5</v>
+      </c>
+      <c r="S117" t="n">
+        <v>6</v>
+      </c>
+      <c r="T117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX117" t="n">
         <v>3</v>
       </c>
-      <c r="S117" t="n">
+      <c r="AY117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG117" t="n">
         <v>5</v>
       </c>
-      <c r="T117" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U117" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V117" t="n">
+      <c r="BH117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI117" t="n">
         <v>7</v>
       </c>
-      <c r="W117" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X117" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB117" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC117" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD117" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF117" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG117" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH117" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AI117" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AJ117" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AK117" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AL117" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM117" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN117" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AO117" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AP117" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AQ117" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AR117" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AS117" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AT117" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AU117" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AV117" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW117" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AX117" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AY117" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ117" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BA117" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BB117" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC117" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD117" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BE117" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BF117" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG117" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH117" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI117" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ117" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BK117" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -24307,7 +24307,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>2831238</v>
+        <v>2831236</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -24327,182 +24327,182 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Fenerbahçe</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>2</v>
+      </c>
+      <c r="R118" t="n">
         <v>3</v>
       </c>
-      <c r="M118" t="n">
-        <v>3</v>
-      </c>
-      <c r="N118" t="n">
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V118" t="n">
+        <v>7</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI118" t="n">
         <v>6</v>
       </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>['12', '75', '81']</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>['60', '65', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q118" t="n">
-        <v>1</v>
-      </c>
-      <c r="R118" t="n">
-        <v>5</v>
-      </c>
-      <c r="S118" t="n">
-        <v>6</v>
-      </c>
-      <c r="T118" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U118" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V118" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="W118" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="X118" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA118" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB118" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC118" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AD118" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AF118" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG118" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH118" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AJ118" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AK118" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AL118" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AM118" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN118" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO118" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP118" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ118" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR118" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AS118" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AT118" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AU118" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AV118" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AW118" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AX118" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY118" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ118" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BA118" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BB118" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC118" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD118" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BE118" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BF118" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG118" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH118" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI118" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ118" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK118" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -24510,7 +24510,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>2831243</v>
+        <v>2831239</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -24530,12 +24530,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -24548,161 +24548,161 @@
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>['70']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R119" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T119" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="U119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK119" t="n">
         <v>2.2</v>
       </c>
-      <c r="V119" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="W119" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X119" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y119" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z119" t="n">
+      <c r="AL119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN119" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AA119" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB119" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC119" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD119" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AF119" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG119" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AH119" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AI119" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AJ119" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AK119" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AL119" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM119" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AN119" t="n">
-        <v>1.7</v>
       </c>
       <c r="AO119" t="n">
         <v>1.3</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AU119" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="AV119" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AW119" t="n">
-        <v>3.28</v>
+        <v>3.63</v>
       </c>
       <c r="AX119" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AY119" t="n">
         <v>8</v>
       </c>
       <c r="AZ119" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="BA119" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BB119" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="BC119" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="BD119" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BE119" t="n">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="BF119" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG119" t="n">
         <v>4</v>
       </c>
       <c r="BH119" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI119" t="n">
         <v>7</v>
       </c>
       <c r="BJ119" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK119" t="n">
         <v>11</v>
@@ -24713,7 +24713,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>2831239</v>
+        <v>2831243</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -24733,12 +24733,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -24751,161 +24751,161 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['70']</t>
         </is>
       </c>
       <c r="Q120" t="n">
+        <v>5</v>
+      </c>
+      <c r="R120" t="n">
         <v>4</v>
       </c>
-      <c r="R120" t="n">
+      <c r="S120" t="n">
+        <v>9</v>
+      </c>
+      <c r="T120" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X120" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA120" t="n">
         <v>6</v>
       </c>
-      <c r="S120" t="n">
-        <v>10</v>
-      </c>
-      <c r="T120" t="n">
-        <v>3</v>
-      </c>
-      <c r="U120" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V120" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W120" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X120" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AB120" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AC120" t="n">
-        <v>2.46</v>
+        <v>3.1</v>
       </c>
       <c r="AD120" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AE120" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="AF120" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG120" t="n">
-        <v>15</v>
+        <v>10.65</v>
       </c>
       <c r="AH120" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AI120" t="n">
-        <v>4.75</v>
+        <v>3.61</v>
       </c>
       <c r="AJ120" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="AK120" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AL120" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AM120" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AN120" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AO120" t="n">
         <v>1.3</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AR120" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.88</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AU120" t="n">
-        <v>1.8</v>
+        <v>1.37</v>
       </c>
       <c r="AV120" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AW120" t="n">
-        <v>3.63</v>
+        <v>3.28</v>
       </c>
       <c r="AX120" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="AY120" t="n">
         <v>8</v>
       </c>
       <c r="AZ120" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="BA120" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BB120" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="BC120" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="BD120" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BE120" t="n">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="BF120" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG120" t="n">
         <v>4</v>
       </c>
       <c r="BH120" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BI120" t="n">
         <v>7</v>
       </c>
       <c r="BJ120" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK120" t="n">
         <v>11</v>
@@ -25263,7 +25263,7 @@
         <v>2.44</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.87</v>
@@ -26134,7 +26134,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>2831248</v>
+        <v>2831249</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -26154,59 +26154,59 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>['64', '90+11']</t>
+          <t>['2', '57', '90+3']</t>
         </is>
       </c>
       <c r="Q127" t="n">
         <v>1</v>
       </c>
       <c r="R127" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S127" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T127" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="U127" t="n">
         <v>2.25</v>
       </c>
       <c r="V127" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="W127" t="n">
         <v>1.36</v>
@@ -26215,10 +26215,10 @@
         <v>3</v>
       </c>
       <c r="Y127" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA127" t="n">
         <v>7</v>
@@ -26227,13 +26227,13 @@
         <v>1.1</v>
       </c>
       <c r="AC127" t="n">
-        <v>1.91</v>
+        <v>4.2</v>
       </c>
       <c r="AD127" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AE127" t="n">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="AF127" t="n">
         <v>1.05</v>
@@ -26242,94 +26242,94 @@
         <v>13</v>
       </c>
       <c r="AH127" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AI127" t="n">
-        <v>3.61</v>
+        <v>3.82</v>
       </c>
       <c r="AJ127" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AK127" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AL127" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AM127" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AN127" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO127" t="n">
         <v>1.3</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.43</v>
+        <v>0.57</v>
       </c>
       <c r="AR127" t="n">
-        <v>0.83</v>
+        <v>1.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.11</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AU127" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AV127" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="AW127" t="n">
-        <v>3.34</v>
+        <v>2.92</v>
       </c>
       <c r="AX127" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="AY127" t="n">
         <v>8</v>
       </c>
       <c r="AZ127" t="n">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="BA127" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="BB127" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="BC127" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="BD127" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="BE127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG127" t="n">
         <v>4</v>
       </c>
-      <c r="BF127" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG127" t="n">
-        <v>3</v>
-      </c>
       <c r="BH127" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI127" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ127" t="n">
         <v>12</v>
       </c>
       <c r="BK127" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128">
@@ -26337,7 +26337,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>2831249</v>
+        <v>2831248</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -26357,59 +26357,59 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>['2', '57', '90+3']</t>
+          <t>['64', '90+11']</t>
         </is>
       </c>
       <c r="Q128" t="n">
         <v>1</v>
       </c>
       <c r="R128" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S128" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T128" t="n">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="U128" t="n">
         <v>2.25</v>
       </c>
       <c r="V128" t="n">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="W128" t="n">
         <v>1.36</v>
@@ -26418,10 +26418,10 @@
         <v>3</v>
       </c>
       <c r="Y128" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z128" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA128" t="n">
         <v>7</v>
@@ -26430,13 +26430,13 @@
         <v>1.1</v>
       </c>
       <c r="AC128" t="n">
-        <v>4.2</v>
+        <v>1.91</v>
       </c>
       <c r="AD128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE128" t="n">
         <v>3.7</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>1.75</v>
       </c>
       <c r="AF128" t="n">
         <v>1.05</v>
@@ -26445,94 +26445,94 @@
         <v>13</v>
       </c>
       <c r="AH128" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AI128" t="n">
-        <v>3.82</v>
+        <v>3.61</v>
       </c>
       <c r="AJ128" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AK128" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AL128" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AM128" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AN128" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO128" t="n">
         <v>1.3</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="AQ128" t="n">
-        <v>0.57</v>
+        <v>1.43</v>
       </c>
       <c r="AR128" t="n">
-        <v>1.6</v>
+        <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AV128" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="AW128" t="n">
-        <v>2.92</v>
+        <v>3.34</v>
       </c>
       <c r="AX128" t="n">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="AY128" t="n">
         <v>8</v>
       </c>
       <c r="AZ128" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="BA128" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="BB128" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="BC128" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BD128" t="n">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="BE128" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BF128" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG128" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI128" t="n">
         <v>4</v>
-      </c>
-      <c r="BH128" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI128" t="n">
-        <v>8</v>
       </c>
       <c r="BJ128" t="n">
         <v>12</v>
       </c>
       <c r="BK128" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
@@ -26684,7 +26684,7 @@
         <v>1.29</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.53</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT131" t="n">
         <v>1.86</v>
@@ -27290,7 +27290,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27352,7 +27352,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>2831255</v>
+        <v>2831252</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -27372,182 +27372,182 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Beşiktaş</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>2</v>
+      </c>
+      <c r="R133" t="n">
         <v>4</v>
       </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>['22', '90+11']</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>['65', '78']</t>
-        </is>
-      </c>
-      <c r="Q133" t="n">
+      <c r="S133" t="n">
+        <v>6</v>
+      </c>
+      <c r="T133" t="n">
         <v>4</v>
-      </c>
-      <c r="R133" t="n">
-        <v>5</v>
-      </c>
-      <c r="S133" t="n">
-        <v>9</v>
-      </c>
-      <c r="T133" t="n">
-        <v>2.38</v>
       </c>
       <c r="U133" t="n">
         <v>2.3</v>
       </c>
       <c r="V133" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="W133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X133" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AC133" t="n">
-        <v>1.81</v>
+        <v>3.36</v>
       </c>
       <c r="AD133" t="n">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="AE133" t="n">
-        <v>4.22</v>
+        <v>2.04</v>
       </c>
       <c r="AF133" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AG133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH133" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AI133" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AJ133" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="AK133" t="n">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="AL133" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AM133" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AN133" t="n">
-        <v>1.21</v>
+        <v>1.8</v>
       </c>
       <c r="AO133" t="n">
         <v>1.27</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.98</v>
+        <v>1.29</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AR133" t="n">
-        <v>0.71</v>
+        <v>1.33</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.67</v>
+        <v>1.29</v>
       </c>
       <c r="AU133" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AV133" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="AW133" t="n">
-        <v>3.01</v>
+        <v>3.48</v>
       </c>
       <c r="AX133" t="n">
-        <v>1.57</v>
+        <v>3</v>
       </c>
       <c r="AY133" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AZ133" t="n">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="BA133" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="BB133" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="BC133" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="BD133" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="BE133" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BF133" t="n">
         <v>4</v>
       </c>
       <c r="BG133" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH133" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI133" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BJ133" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK133" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
@@ -27555,7 +27555,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>2831252</v>
+        <v>2831255</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -27575,182 +27575,182 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Beşiktaş</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="n">
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>['71']</t>
+          <t>['22', '90+11']</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['65', '78']</t>
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R134" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S134" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T134" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="U134" t="n">
         <v>2.3</v>
       </c>
       <c r="V134" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="W134" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X134" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y134" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z134" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA134" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB134" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AC134" t="n">
-        <v>3.36</v>
+        <v>1.81</v>
       </c>
       <c r="AD134" t="n">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="AE134" t="n">
-        <v>2.04</v>
+        <v>4.22</v>
       </c>
       <c r="AF134" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG134" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH134" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AI134" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AJ134" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="AK134" t="n">
-        <v>2.22</v>
+        <v>2.01</v>
       </c>
       <c r="AL134" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AM134" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AN134" t="n">
-        <v>1.8</v>
+        <v>1.21</v>
       </c>
       <c r="AO134" t="n">
         <v>1.27</v>
       </c>
       <c r="AP134" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR134" t="n">
-        <v>1.33</v>
+        <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.29</v>
+        <v>0.67</v>
       </c>
       <c r="AU134" t="n">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="AV134" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="AW134" t="n">
-        <v>3.48</v>
+        <v>3.01</v>
       </c>
       <c r="AX134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE134" t="n">
         <v>3</v>
-      </c>
-      <c r="AY134" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ134" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BA134" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB134" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BC134" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BD134" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BE134" t="n">
-        <v>3.3</v>
       </c>
       <c r="BF134" t="n">
         <v>4</v>
       </c>
       <c r="BG134" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH134" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI134" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="BJ134" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BK134" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135">
@@ -27902,7 +27902,7 @@
         <v>2.29</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU135" t="n">
         <v>2.38</v>
@@ -27961,7 +27961,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>2831261</v>
+        <v>2831262</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -27981,182 +27981,182 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>İstanbul Başakşehir</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Ümraniyespor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['57', '66']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="n">
         <v>3</v>
       </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>['2']</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>['9', '55']</t>
-        </is>
-      </c>
-      <c r="Q136" t="n">
-        <v>8</v>
-      </c>
-      <c r="R136" t="n">
-        <v>5</v>
-      </c>
       <c r="S136" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T136" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U136" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V136" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="W136" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X136" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Y136" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Z136" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AA136" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB136" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AC136" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AD136" t="n">
         <v>3.5</v>
       </c>
       <c r="AE136" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AF136" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG136" t="n">
-        <v>10.65</v>
+        <v>10.06</v>
       </c>
       <c r="AH136" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AI136" t="n">
-        <v>3.61</v>
+        <v>3.44</v>
       </c>
       <c r="AJ136" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AK136" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AL136" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="AM136" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AN136" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AO136" t="n">
         <v>1.3</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AR136" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AS136" t="n">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AU136" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="AV136" t="n">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AW136" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="AX136" t="n">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="AY136" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ136" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="BA136" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="BB136" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="BC136" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="BD136" t="n">
-        <v>2.43</v>
+        <v>2.63</v>
       </c>
       <c r="BE136" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="BF136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ136" t="n">
         <v>7</v>
       </c>
-      <c r="BG136" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH136" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI136" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ136" t="n">
-        <v>17</v>
-      </c>
       <c r="BK136" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -28164,7 +28164,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>2831262</v>
+        <v>2831261</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -28184,182 +28184,182 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>İstanbul Başakşehir</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ümraniyespor</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>['57', '66']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '55']</t>
         </is>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R137" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S137" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T137" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="U137" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V137" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="W137" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X137" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Y137" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="Z137" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AA137" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB137" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AC137" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AD137" t="n">
         <v>3.5</v>
       </c>
       <c r="AE137" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AF137" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG137" t="n">
-        <v>10.06</v>
+        <v>10.65</v>
       </c>
       <c r="AH137" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AI137" t="n">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="AJ137" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AK137" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AL137" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="AM137" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AN137" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AO137" t="n">
         <v>1.3</v>
       </c>
       <c r="AP137" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AQ137" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU137" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="AV137" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AW137" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="AX137" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="AY137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK137" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ137" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BA137" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB137" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC137" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD137" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BE137" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF137" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG137" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH137" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI137" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ137" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK137" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -28570,7 +28570,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>2831257</v>
+        <v>2831263</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -28590,71 +28590,71 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Kasımpaşa</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139" t="n">
         <v>2</v>
       </c>
       <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="n">
         <v>3</v>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="n">
-        <v>4</v>
-      </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>['21', '36', '72']</t>
+          <t>['29', '78']</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R139" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T139" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="U139" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="V139" t="n">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="W139" t="n">
         <v>1.33</v>
       </c>
       <c r="X139" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y139" t="n">
         <v>2.5</v>
       </c>
       <c r="Z139" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AA139" t="n">
         <v>6</v>
@@ -28663,109 +28663,109 @@
         <v>1.11</v>
       </c>
       <c r="AC139" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="AD139" t="n">
         <v>3.6</v>
       </c>
       <c r="AE139" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="AF139" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AG139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH139" t="n">
         <v>1.22</v>
       </c>
       <c r="AI139" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG139" t="n">
         <v>4</v>
       </c>
-      <c r="AJ139" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AM139" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN139" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AO139" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AP139" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ139" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR139" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS139" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AT139" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AU139" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AV139" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AW139" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AX139" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AY139" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ139" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BA139" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB139" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC139" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BD139" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BE139" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BF139" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG139" t="n">
+      <c r="BH139" t="n">
         <v>5</v>
-      </c>
-      <c r="BH139" t="n">
-        <v>2</v>
       </c>
       <c r="BI139" t="n">
         <v>9</v>
       </c>
       <c r="BJ139" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK139" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140">
@@ -28773,7 +28773,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>2831263</v>
+        <v>2831257</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -28793,71 +28793,71 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Kasımpaşa</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K140" t="n">
         <v>2</v>
       </c>
       <c r="L140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>['29', '78']</t>
+          <t>['21', '36', '72']</t>
         </is>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="Q140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R140" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S140" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T140" t="n">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="U140" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V140" t="n">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
       <c r="W140" t="n">
         <v>1.33</v>
       </c>
       <c r="X140" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Y140" t="n">
         <v>2.5</v>
       </c>
       <c r="Z140" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AA140" t="n">
         <v>6</v>
@@ -28866,109 +28866,109 @@
         <v>1.11</v>
       </c>
       <c r="AC140" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="AD140" t="n">
         <v>3.6</v>
       </c>
       <c r="AE140" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="AF140" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AG140" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH140" t="n">
         <v>1.22</v>
       </c>
       <c r="AI140" t="n">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="AJ140" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL140" t="n">
         <v>1.65</v>
       </c>
-      <c r="AK140" t="n">
+      <c r="AM140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD140" t="n">
         <v>2.25</v>
       </c>
-      <c r="AL140" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AM140" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AN140" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AO140" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP140" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ140" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AR140" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS140" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AT140" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AU140" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AV140" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AW140" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AX140" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AY140" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ140" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BA140" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB140" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC140" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD140" t="n">
-        <v>2.63</v>
-      </c>
       <c r="BE140" t="n">
-        <v>3.92</v>
+        <v>3.18</v>
       </c>
       <c r="BF140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG140" t="n">
         <v>5</v>
       </c>
-      <c r="BG140" t="n">
-        <v>4</v>
-      </c>
       <c r="BH140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BI140" t="n">
         <v>9</v>
       </c>
       <c r="BJ140" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BK140" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -29179,7 +29179,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>2831265</v>
+        <v>2831260</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -29199,149 +29199,149 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Giresunspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Gazişehir Gaziantep</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="n">
         <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N142" t="n">
         <v>3</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>['24', '90+5']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['27', '90+5']</t>
         </is>
       </c>
       <c r="Q142" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R142" t="n">
         <v>3</v>
       </c>
       <c r="S142" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T142" t="n">
-        <v>2.87</v>
+        <v>4.33</v>
       </c>
       <c r="U142" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="V142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
         <v>3.4</v>
-      </c>
-      <c r="W142" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X142" t="n">
-        <v>2.85</v>
       </c>
       <c r="Y142" t="n">
         <v>2.6</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AA142" t="n">
         <v>6.5</v>
       </c>
       <c r="AB142" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AC142" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="AD142" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="AE142" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="AF142" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG142" t="n">
-        <v>10.65</v>
+        <v>15</v>
       </c>
       <c r="AH142" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AI142" t="n">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
       <c r="AJ142" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AK142" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="AL142" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AM142" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AN142" t="n">
-        <v>1.39</v>
+        <v>2.1</v>
       </c>
       <c r="AO142" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR142" t="n">
-        <v>1</v>
+        <v>2.13</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.43</v>
+        <v>0.89</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.89</v>
+        <v>2.22</v>
       </c>
       <c r="AU142" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="AV142" t="n">
-        <v>1.33</v>
+        <v>2.34</v>
       </c>
       <c r="AW142" t="n">
-        <v>3.21</v>
+        <v>4.03</v>
       </c>
       <c r="AX142" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="AY142" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ142" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="BA142" t="n">
         <v>1.25</v>
@@ -29365,16 +29365,16 @@
         <v>8</v>
       </c>
       <c r="BH142" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI142" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ142" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK142" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
@@ -29382,7 +29382,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>2831260</v>
+        <v>2831265</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -29402,149 +29402,149 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Giresunspor</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Gazişehir Gaziantep</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
         <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
         <v>3</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['24', '90+5']</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>['27', '90+5']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="Q143" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R143" t="n">
         <v>3</v>
       </c>
       <c r="S143" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T143" t="n">
-        <v>4.33</v>
+        <v>2.87</v>
       </c>
       <c r="U143" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="V143" t="n">
-        <v>2.35</v>
+        <v>3.4</v>
       </c>
       <c r="W143" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X143" t="n">
-        <v>3.4</v>
+        <v>2.85</v>
       </c>
       <c r="Y143" t="n">
         <v>2.6</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AA143" t="n">
         <v>6.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AC143" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="AD143" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="AE143" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="AF143" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG143" t="n">
-        <v>15</v>
+        <v>10.65</v>
       </c>
       <c r="AH143" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AI143" t="n">
-        <v>4.5</v>
+        <v>3.61</v>
       </c>
       <c r="AJ143" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AK143" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="AL143" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AM143" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AN143" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="AO143" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR143" t="n">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="AS143" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT143" t="n">
         <v>0.89</v>
       </c>
-      <c r="AT143" t="n">
-        <v>2.22</v>
-      </c>
       <c r="AU143" t="n">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="AV143" t="n">
-        <v>2.34</v>
+        <v>1.33</v>
       </c>
       <c r="AW143" t="n">
-        <v>4.03</v>
+        <v>3.21</v>
       </c>
       <c r="AX143" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="AY143" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ143" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="BA143" t="n">
         <v>1.25</v>
@@ -29568,16 +29568,16 @@
         <v>8</v>
       </c>
       <c r="BH143" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI143" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ143" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK143" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -30600,7 +30600,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>2831273</v>
+        <v>2831268</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -30620,152 +30620,152 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Ankaragücü</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149" t="n">
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L149" t="n">
         <v>2</v>
       </c>
       <c r="M149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['16', '30']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>6</v>
+      </c>
+      <c r="R149" t="n">
         <v>4</v>
       </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>['22', '56']</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>['34', '79']</t>
-        </is>
-      </c>
-      <c r="Q149" t="n">
-        <v>4</v>
-      </c>
-      <c r="R149" t="n">
-        <v>3</v>
-      </c>
       <c r="S149" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T149" t="n">
-        <v>2.7</v>
+        <v>1.89</v>
       </c>
       <c r="U149" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="V149" t="n">
-        <v>4.33</v>
+        <v>5.8</v>
       </c>
       <c r="W149" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="X149" t="n">
-        <v>2.85</v>
+        <v>3.46</v>
       </c>
       <c r="Y149" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AA149" t="n">
-        <v>8.5</v>
+        <v>5.45</v>
       </c>
       <c r="AB149" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AC149" t="n">
-        <v>1.93</v>
+        <v>1.41</v>
       </c>
       <c r="AD149" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="AE149" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="AF149" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AG149" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AH149" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AI149" t="n">
-        <v>3.33</v>
+        <v>4.7</v>
       </c>
       <c r="AJ149" t="n">
-        <v>1.93</v>
+        <v>1.58</v>
       </c>
       <c r="AK149" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="AL149" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AM149" t="n">
         <v>2</v>
       </c>
       <c r="AN149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AX149" t="n">
         <v>1.3</v>
       </c>
-      <c r="AO149" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP149" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ149" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR149" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AS149" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AT149" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AU149" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AV149" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AW149" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AX149" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AY149" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AZ149" t="n">
-        <v>2.88</v>
+        <v>4.32</v>
       </c>
       <c r="BA149" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BB149" t="n">
         <v>1.57</v>
@@ -30777,25 +30777,25 @@
         <v>2.4</v>
       </c>
       <c r="BE149" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="BF149" t="n">
         <v>6</v>
       </c>
       <c r="BG149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH149" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI149" t="n">
         <v>4</v>
       </c>
       <c r="BJ149" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK149" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150">
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>2831268</v>
+        <v>2831273</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,152 +30823,152 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Ankaragücü</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
       </c>
       <c r="K150" t="n">
+        <v>2</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['22', '56']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['34', '79']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>4</v>
+      </c>
+      <c r="R150" t="n">
         <v>3</v>
       </c>
-      <c r="L150" t="n">
-        <v>2</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="n">
-        <v>3</v>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>['16', '30']</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>['7']</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>6</v>
-      </c>
-      <c r="R150" t="n">
-        <v>4</v>
-      </c>
       <c r="S150" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T150" t="n">
-        <v>1.89</v>
+        <v>2.7</v>
       </c>
       <c r="U150" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="V150" t="n">
-        <v>5.8</v>
+        <v>4.33</v>
       </c>
       <c r="W150" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="X150" t="n">
-        <v>3.46</v>
+        <v>2.85</v>
       </c>
       <c r="Y150" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AA150" t="n">
-        <v>5.45</v>
+        <v>8.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AC150" t="n">
-        <v>1.41</v>
+        <v>1.93</v>
       </c>
       <c r="AD150" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="AE150" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="AF150" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AG150" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AH150" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AI150" t="n">
-        <v>4.7</v>
+        <v>3.33</v>
       </c>
       <c r="AJ150" t="n">
-        <v>1.58</v>
+        <v>1.93</v>
       </c>
       <c r="AK150" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="AL150" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AM150" t="n">
         <v>2</v>
       </c>
       <c r="AN150" t="n">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="AO150" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AP150" t="n">
-        <v>2.95</v>
+        <v>1.85</v>
       </c>
       <c r="AQ150" t="n">
-        <v>2.17</v>
+        <v>1.71</v>
       </c>
       <c r="AR150" t="n">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.29</v>
+        <v>1.63</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU150" t="n">
-        <v>2.32</v>
+        <v>1.45</v>
       </c>
       <c r="AV150" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AW150" t="n">
-        <v>3.82</v>
+        <v>2.7</v>
       </c>
       <c r="AX150" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="AY150" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ150" t="n">
-        <v>4.32</v>
+        <v>2.88</v>
       </c>
       <c r="BA150" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BB150" t="n">
         <v>1.57</v>
@@ -30980,25 +30980,25 @@
         <v>2.4</v>
       </c>
       <c r="BE150" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="BF150" t="n">
         <v>6</v>
       </c>
       <c r="BG150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH150" t="n">
         <v>4</v>
-      </c>
-      <c r="BH150" t="n">
-        <v>7</v>
       </c>
       <c r="BI150" t="n">
         <v>4</v>
       </c>
       <c r="BJ150" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151">
@@ -31202,6 +31202,412 @@
       </c>
       <c r="BK151" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2831269</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>44931.58333333334</v>
+      </c>
+      <c r="F152" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>3</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['30', '69', '75']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>10</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>11</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V152" t="n">
+        <v>6</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2831271</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>44931.58333333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>6</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>6</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['29', '49', '55', '65', '79', '82']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>4</v>
+      </c>
+      <c r="R153" t="n">
+        <v>5</v>
+      </c>
+      <c r="S153" t="n">
+        <v>9</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V153" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X153" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT21" t="n">
         <v>0.89</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT43" t="n">
         <v>1.44</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT56" t="n">
         <v>1.25</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT79" t="n">
         <v>0.67</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT100" t="n">
         <v>1.29</v>
@@ -24245,7 +24245,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT117" t="n">
         <v>1.71</v>
@@ -26681,7 +26681,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -31608,6 +31608,209 @@
       </c>
       <c r="BK153" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2831283</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44933.41666666666</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>3</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2</v>
+      </c>
+      <c r="S154" t="n">
+        <v>5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT4" t="n">
         <v>1.25</v>
@@ -2121,7 +2121,7 @@
         <v>2.11</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.43</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT37" t="n">
         <v>0.88</v>
@@ -9429,7 +9429,7 @@
         <v>1.11</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU44" t="n">
         <v>1.51</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT54" t="n">
         <v>1.71</v>
@@ -12271,7 +12271,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.64</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT72" t="n">
         <v>1.86</v>
@@ -16940,7 +16940,7 @@
         <v>2.25</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU81" t="n">
         <v>2.11</v>
@@ -18561,7 +18561,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT89" t="n">
         <v>1.38</v>
@@ -21203,7 +21203,7 @@
         <v>1.63</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU102" t="n">
         <v>1.42</v>
@@ -22012,7 +22012,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT106" t="n">
         <v>0.86</v>
@@ -28714,7 +28714,7 @@
         <v>0.57</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.18</v>
@@ -29726,7 +29726,7 @@
         <v>1.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT144" t="n">
         <v>1.44</v>
@@ -31811,6 +31811,209 @@
       </c>
       <c r="BK154" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2831277</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44933.54166666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['28', '45+6']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>6</v>
+      </c>
+      <c r="R155" t="n">
+        <v>7</v>
+      </c>
+      <c r="S155" t="n">
+        <v>13</v>
+      </c>
+      <c r="T155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V155" t="n">
+        <v>5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0.89</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.22</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0.67</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.11</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>1.29</v>
@@ -4557,7 +4557,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU20" t="n">
         <v>1.97</v>
@@ -4760,7 +4760,7 @@
         <v>1.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5166,7 +5166,7 @@
         <v>1.11</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU23" t="n">
         <v>1.54</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU27" t="n">
         <v>0.73</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU28" t="n">
         <v>1.95</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>0.78</v>
@@ -6993,7 +6993,7 @@
         <v>2.43</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU32" t="n">
         <v>3.35</v>
@@ -7602,7 +7602,7 @@
         <v>2.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU35" t="n">
         <v>2.23</v>
@@ -8211,7 +8211,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU38" t="n">
         <v>1.88</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT40" t="n">
         <v>0.67</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>1.86</v>
@@ -9020,10 +9020,10 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU42" t="n">
         <v>2.13</v>
@@ -9226,7 +9226,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU43" t="n">
         <v>1.75</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT45" t="n">
         <v>1.29</v>
@@ -9835,7 +9835,7 @@
         <v>2.29</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU46" t="n">
         <v>2.06</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>1.43</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU51" t="n">
         <v>2.3</v>
@@ -11053,7 +11053,7 @@
         <v>1.11</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU52" t="n">
         <v>1.04</v>
@@ -11662,7 +11662,7 @@
         <v>2.43</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU55" t="n">
         <v>2.46</v>
@@ -11865,7 +11865,7 @@
         <v>1.25</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU56" t="n">
         <v>1.66</v>
@@ -12068,7 +12068,7 @@
         <v>2.29</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU57" t="n">
         <v>2.33</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT59" t="n">
         <v>1.29</v>
@@ -12677,7 +12677,7 @@
         <v>1.11</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU60" t="n">
         <v>1.8</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13083,7 +13083,7 @@
         <v>2.25</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU62" t="n">
         <v>1.85</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT63" t="n">
         <v>0.88</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13692,7 +13692,7 @@
         <v>1.11</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU65" t="n">
         <v>1.31</v>
@@ -13895,7 +13895,7 @@
         <v>1.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT67" t="n">
         <v>1.71</v>
@@ -14301,7 +14301,7 @@
         <v>2.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU68" t="n">
         <v>2.39</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1.63</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT73" t="n">
         <v>0.78</v>
@@ -15519,7 +15519,7 @@
         <v>1.43</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU74" t="n">
         <v>1.89</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT75" t="n">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>1.11</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU76" t="n">
         <v>1.61</v>
@@ -16125,7 +16125,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
         <v>1.29</v>
@@ -16331,7 +16331,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT82" t="n">
         <v>0.88</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17546,7 +17546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT84" t="n">
         <v>0.78</v>
@@ -17752,7 +17752,7 @@
         <v>1.11</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU85" t="n">
         <v>1.4</v>
@@ -17955,7 +17955,7 @@
         <v>1.63</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU86" t="n">
         <v>1.34</v>
@@ -18158,7 +18158,7 @@
         <v>1.63</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU87" t="n">
         <v>1.39</v>
@@ -18358,7 +18358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT88" t="n">
         <v>0.78</v>
@@ -18564,7 +18564,7 @@
         <v>2.22</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU89" t="n">
         <v>2.33</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT91" t="n">
         <v>1.86</v>
@@ -19779,7 +19779,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT95" t="n">
         <v>1.71</v>
@@ -19985,7 +19985,7 @@
         <v>1.11</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20188,7 +20188,7 @@
         <v>2.43</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU97" t="n">
         <v>2.15</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT99" t="n">
         <v>1</v>
@@ -20997,10 +20997,10 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21403,10 +21403,10 @@
         <v>1.17</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU103" t="n">
         <v>1.83</v>
@@ -21606,7 +21606,7 @@
         <v>0.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT104" t="n">
         <v>0.78</v>
@@ -21812,7 +21812,7 @@
         <v>1.63</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU105" t="n">
         <v>1.5</v>
@@ -22015,7 +22015,7 @@
         <v>2.22</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU106" t="n">
         <v>2.38</v>
@@ -22215,7 +22215,7 @@
         <v>1.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT107" t="n">
         <v>1.86</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT112" t="n">
         <v>0.78</v>
@@ -23639,7 +23639,7 @@
         <v>1.43</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU114" t="n">
         <v>1.66</v>
@@ -24045,7 +24045,7 @@
         <v>2.25</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU116" t="n">
         <v>2.04</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT118" t="n">
         <v>0.88</v>
@@ -24651,10 +24651,10 @@
         <v>1.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU119" t="n">
         <v>1.8</v>
@@ -24854,10 +24854,10 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25060,7 +25060,7 @@
         <v>0.89</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU123" t="n">
         <v>1.76</v>
@@ -25666,10 +25666,10 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -25869,7 +25869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT125" t="n">
         <v>0.78</v>
@@ -26075,7 +26075,7 @@
         <v>1.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU126" t="n">
         <v>1.51</v>
@@ -28102,7 +28102,7 @@
         <v>1.2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT136" t="n">
         <v>1</v>
@@ -28305,10 +28305,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -28508,7 +28508,7 @@
         <v>0.86</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AT138" t="n">
         <v>0.78</v>
@@ -28711,7 +28711,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28914,10 +28914,10 @@
         <v>1.43</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU140" t="n">
         <v>1.77</v>
@@ -29117,10 +29117,10 @@
         <v>1.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU141" t="n">
         <v>1.62</v>
@@ -29323,7 +29323,7 @@
         <v>0.89</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU143" t="n">
         <v>1.88</v>
@@ -29729,7 +29729,7 @@
         <v>2.22</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU144" t="n">
         <v>2.37</v>
@@ -32014,6 +32014,1427 @@
       </c>
       <c r="BK155" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2831276</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44934.3125</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>2</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>3</v>
+      </c>
+      <c r="M156" t="n">
+        <v>3</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['7', '33', '88']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['65', '72', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R156" t="n">
+        <v>6</v>
+      </c>
+      <c r="S156" t="n">
+        <v>7</v>
+      </c>
+      <c r="T156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2831278</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44934.41666666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>3</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['38', '63']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>8</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+      <c r="S157" t="n">
+        <v>10</v>
+      </c>
+      <c r="T157" t="n">
+        <v>3</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2831282</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44934.41666666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>14</v>
+      </c>
+      <c r="R158" t="n">
+        <v>7</v>
+      </c>
+      <c r="S158" t="n">
+        <v>21</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2831281</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44934.54166666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['32', '78', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>8</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>12</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2831279</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44935.45833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['52', '62']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>6</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>10</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2831275</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44935.58333333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>3</v>
+      </c>
+      <c r="L161" t="n">
+        <v>5</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['14', '36', '45+7', '75', '78']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>2</v>
+      </c>
+      <c r="R161" t="n">
+        <v>4</v>
+      </c>
+      <c r="S161" t="n">
+        <v>6</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2831280</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44935.58333333334</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['90+12']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>7</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>10</v>
+      </c>
+      <c r="T162" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT7" t="n">
         <v>2.3</v>
@@ -2730,7 +2730,7 @@
         <v>2.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT12" t="n">
         <v>0.78</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1.43</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT18" t="n">
         <v>1.71</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT23" t="n">
         <v>1.22</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT32" t="n">
         <v>1.13</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1.11</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT36" t="n">
         <v>1.86</v>
@@ -8008,7 +8008,7 @@
         <v>2.22</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU37" t="n">
         <v>2.55</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>1.22</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU45" t="n">
         <v>1.69</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT46" t="n">
         <v>0.9</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU47" t="n">
         <v>2.12</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT55" t="n">
         <v>1.22</v>
@@ -12065,7 +12065,7 @@
         <v>2.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT57" t="n">
         <v>1.56</v>
@@ -12474,7 +12474,7 @@
         <v>0.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>1.27</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT60" t="n">
         <v>1.3</v>
@@ -13286,7 +13286,7 @@
         <v>1.22</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU63" t="n">
         <v>1.33</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT66" t="n">
         <v>1.22</v>
@@ -14298,7 +14298,7 @@
         <v>2.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>2.3</v>
@@ -14504,7 +14504,7 @@
         <v>0.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU69" t="n">
         <v>1.43</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT71" t="n">
         <v>1.13</v>
@@ -15722,7 +15722,7 @@
         <v>0.63</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU75" t="n">
         <v>1.24</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT76" t="n">
         <v>1.56</v>
@@ -16128,7 +16128,7 @@
         <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -17143,7 +17143,7 @@
         <v>2.2</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU82" t="n">
         <v>1.62</v>
@@ -17549,7 +17549,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU84" t="n">
         <v>1.56</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT86" t="n">
         <v>0.9</v>
@@ -18155,7 +18155,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT87" t="n">
         <v>2.3</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.78</v>
@@ -19579,7 +19579,7 @@
         <v>2.25</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU94" t="n">
         <v>2.15</v>
@@ -20185,7 +20185,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT97" t="n">
         <v>1.56</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT98" t="n">
         <v>0.67</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU99" t="n">
         <v>1.71</v>
@@ -20797,7 +20797,7 @@
         <v>1.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.74</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -21609,7 +21609,7 @@
         <v>1.22</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -21809,7 +21809,7 @@
         <v>1.83</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT105" t="n">
         <v>1.3</v>
@@ -23030,7 +23030,7 @@
         <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU111" t="n">
         <v>1.84</v>
@@ -23433,10 +23433,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>2.39</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24451,7 +24451,7 @@
         <v>2.2</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU118" t="n">
         <v>1.96</v>
@@ -25872,7 +25872,7 @@
         <v>0.63</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU125" t="n">
         <v>1.2</v>
@@ -26072,7 +26072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT126" t="n">
         <v>1.56</v>
@@ -26478,10 +26478,10 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26887,7 +26887,7 @@
         <v>1.11</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU130" t="n">
         <v>1.76</v>
@@ -27290,7 +27290,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27496,7 +27496,7 @@
         <v>1.43</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT134" t="n">
         <v>0.67</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT135" t="n">
         <v>0.78</v>
@@ -28511,7 +28511,7 @@
         <v>2.2</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU138" t="n">
         <v>1.86</v>
@@ -29932,7 +29932,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU145" t="n">
         <v>1.66</v>
@@ -30132,7 +30132,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT146" t="n">
         <v>1.86</v>
@@ -30335,7 +30335,7 @@
         <v>0.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -30741,10 +30741,10 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU149" t="n">
         <v>2.32</v>
@@ -30944,10 +30944,10 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -31553,7 +31553,7 @@
         <v>0.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT153" t="n">
         <v>0.78</v>
@@ -33434,6 +33434,1021 @@
         <v>7</v>
       </c>
       <c r="BK162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2831292</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44939.54166666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>19</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3</v>
+      </c>
+      <c r="L163" t="n">
+        <v>4</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>5</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['23', '31', '41', '69']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>5</v>
+      </c>
+      <c r="R163" t="n">
+        <v>4</v>
+      </c>
+      <c r="S163" t="n">
+        <v>9</v>
+      </c>
+      <c r="T163" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2831286</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44939.58333333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>3</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3</v>
+      </c>
+      <c r="L164" t="n">
+        <v>4</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['9', '45+4', '45+6', '76']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>8</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>11</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2831284</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44940.3125</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['4', '59']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['40', '79']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>5</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>9</v>
+      </c>
+      <c r="T165" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2831289</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['49', '66', '77']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>5</v>
+      </c>
+      <c r="R166" t="n">
+        <v>12</v>
+      </c>
+      <c r="S166" t="n">
+        <v>17</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2831291</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44940.41666666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['67', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>3</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" t="n">
+        <v>6</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK167" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK167"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT11" t="n">
         <v>0.7</v>
@@ -2933,7 +2933,7 @@
         <v>1.78</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1.44</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT20" t="n">
         <v>2.3</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>2.23</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT35" t="n">
         <v>2.3</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT38" t="n">
         <v>1.22</v>
@@ -10647,7 +10647,7 @@
         <v>0.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.28</v>
@@ -11459,7 +11459,7 @@
         <v>2.22</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>2.54</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT62" t="n">
         <v>0.9</v>
@@ -14098,7 +14098,7 @@
         <v>1.22</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT78" t="n">
         <v>1.11</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>2.2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -19173,7 +19173,7 @@
         <v>1.1</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT94" t="n">
         <v>0.78</v>
@@ -19782,7 +19782,7 @@
         <v>2.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>2.04</v>
@@ -22824,7 +22824,7 @@
         <v>0.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT110" t="n">
         <v>0.67</v>
@@ -23233,7 +23233,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.82</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT116" t="n">
         <v>1.56</v>
@@ -24248,7 +24248,7 @@
         <v>1.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.6</v>
@@ -26275,10 +26275,10 @@
         <v>1.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT131" t="n">
         <v>1.86</v>
@@ -27902,7 +27902,7 @@
         <v>2.38</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>2.38</v>
@@ -29929,7 +29929,7 @@
         <v>0.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AT145" t="n">
         <v>0.7</v>
@@ -31150,7 +31150,7 @@
         <v>1.43</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU151" t="n">
         <v>1.72</v>
@@ -31350,7 +31350,7 @@
         <v>1.13</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT152" t="n">
         <v>1</v>
@@ -31556,7 +31556,7 @@
         <v>2.5</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>2.16</v>
@@ -34111,10 +34111,10 @@
         <v>5</v>
       </c>
       <c r="R166" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S166" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T166" t="n">
         <v>2.3</v>
@@ -34231,22 +34231,22 @@
         <v>3.75</v>
       </c>
       <c r="BF166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH166" t="n">
         <v>4</v>
       </c>
-      <c r="BG166" t="n">
-        <v>14</v>
-      </c>
-      <c r="BH166" t="n">
-        <v>3</v>
-      </c>
       <c r="BI166" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BJ166" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK166" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="167">
@@ -34311,13 +34311,13 @@
         </is>
       </c>
       <c r="Q167" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R167" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S167" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T167" t="n">
         <v>3.3</v>
@@ -34434,22 +34434,428 @@
         <v>3.4</v>
       </c>
       <c r="BF167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2831287</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44940.54166666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>2</v>
+      </c>
+      <c r="R168" t="n">
+        <v>10</v>
+      </c>
+      <c r="S168" t="n">
+        <v>12</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V168" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF168" t="n">
         <v>5</v>
       </c>
-      <c r="BG167" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH167" t="n">
+      <c r="BG168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2831285</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44941.3125</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>['30', '45+4']</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>7</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>8</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X169" t="n">
         <v>3</v>
       </c>
-      <c r="BI167" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ167" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK167" t="n">
-        <v>8</v>
+      <c r="Y169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT15" t="n">
         <v>0.89</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT34" t="n">
         <v>0.7</v>
@@ -7805,7 +7805,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>0.86</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>1.13</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT52" t="n">
         <v>2.3</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT65" t="n">
         <v>0.9</v>
@@ -15113,7 +15113,7 @@
         <v>2.22</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU72" t="n">
         <v>2.58</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT74" t="n">
         <v>1.3</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT85" t="n">
         <v>1.3</v>
@@ -18970,7 +18970,7 @@
         <v>1.22</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -22218,7 +22218,7 @@
         <v>0.63</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -23636,7 +23636,7 @@
         <v>1.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT114" t="n">
         <v>1.11</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT130" t="n">
         <v>0.78</v>
@@ -27090,7 +27090,7 @@
         <v>2.33</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU131" t="n">
         <v>2.11</v>
@@ -27493,7 +27493,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT133" t="n">
         <v>1.5</v>
@@ -30135,7 +30135,7 @@
         <v>1.1</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU146" t="n">
         <v>1.76</v>
@@ -30538,7 +30538,7 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT148" t="n">
         <v>0.67</v>
@@ -31147,7 +31147,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT151" t="n">
         <v>1.5</v>
@@ -34717,13 +34717,13 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S169" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T169" t="n">
         <v>2.55</v>
@@ -34840,22 +34840,428 @@
         <v>2.9</v>
       </c>
       <c r="BF169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2831290</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44941.41666666666</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['30', '90+10']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['51', '61']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>8</v>
+      </c>
+      <c r="S170" t="n">
+        <v>13</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2831288</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44941.54166666666</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
         <v>3</v>
       </c>
-      <c r="BG169" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH169" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI169" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ169" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK169" t="n">
-        <v>2</v>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['8', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>4</v>
+      </c>
+      <c r="R171" t="n">
+        <v>11</v>
+      </c>
+      <c r="S171" t="n">
+        <v>15</v>
+      </c>
+      <c r="T171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>0.78</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
         <v>1.13</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1.22</v>
@@ -14298,7 +14298,7 @@
         <v>2.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT68" t="n">
         <v>2.3</v>
@@ -20185,7 +20185,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT97" t="n">
         <v>1.56</v>
@@ -27290,7 +27290,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -31553,7 +31553,7 @@
         <v>0.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AT166" t="n">
         <v>0.89</v>
@@ -35262,6 +35262,209 @@
       </c>
       <c r="BK171" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2831301</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>44946.58333333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>17</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>18</v>
+      </c>
+      <c r="T172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V172" t="n">
+        <v>5</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT15" t="n">
         <v>0.89</v>
@@ -3745,7 +3745,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.44</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU29" t="n">
         <v>2.86</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>0.7</v>
@@ -8008,7 +8008,7 @@
         <v>2.22</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>2.55</v>
@@ -9632,7 +9632,7 @@
         <v>1.22</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU45" t="n">
         <v>1.69</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT46" t="n">
         <v>0.9</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT47" t="n">
         <v>0.89</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT51" t="n">
         <v>1.13</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>2.3</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU53" t="n">
         <v>1.51</v>
@@ -11459,7 +11459,7 @@
         <v>2.22</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU54" t="n">
         <v>2.54</v>
@@ -12065,7 +12065,7 @@
         <v>2.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT57" t="n">
         <v>1.56</v>
@@ -12474,7 +12474,7 @@
         <v>0.63</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU59" t="n">
         <v>1.27</v>
@@ -13286,7 +13286,7 @@
         <v>1.22</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.33</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT65" t="n">
         <v>0.9</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT66" t="n">
         <v>1.22</v>
@@ -14098,7 +14098,7 @@
         <v>1.22</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT74" t="n">
         <v>1.3</v>
@@ -16128,7 +16128,7 @@
         <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -17143,7 +17143,7 @@
         <v>2.2</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>1.62</v>
@@ -17343,10 +17343,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>1.3</v>
@@ -18155,7 +18155,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT87" t="n">
         <v>2.3</v>
@@ -19579,7 +19579,7 @@
         <v>2.33</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>2.15</v>
@@ -19782,7 +19782,7 @@
         <v>2.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU95" t="n">
         <v>2.04</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT98" t="n">
         <v>0.67</v>
@@ -20797,7 +20797,7 @@
         <v>1.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU100" t="n">
         <v>1.74</v>
@@ -21403,7 +21403,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT103" t="n">
         <v>0.9</v>
@@ -21809,7 +21809,7 @@
         <v>1.83</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT105" t="n">
         <v>1.3</v>
@@ -22624,7 +22624,7 @@
         <v>0.89</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU109" t="n">
         <v>1.82</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT111" t="n">
         <v>0.89</v>
@@ -23433,10 +23433,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU113" t="n">
         <v>2.39</v>
@@ -23636,7 +23636,7 @@
         <v>1.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT114" t="n">
         <v>1.11</v>
@@ -24248,7 +24248,7 @@
         <v>1.25</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU117" t="n">
         <v>1.6</v>
@@ -24451,7 +24451,7 @@
         <v>2.2</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.96</v>
@@ -24651,7 +24651,7 @@
         <v>1.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT119" t="n">
         <v>1.3</v>
@@ -26072,7 +26072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT126" t="n">
         <v>1.56</v>
@@ -26278,7 +26278,7 @@
         <v>0.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -26884,10 +26884,10 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.76</v>
@@ -27493,10 +27493,10 @@
         <v>1.33</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28105,7 +28105,7 @@
         <v>2.2</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU136" t="n">
         <v>1.7</v>
@@ -28914,7 +28914,7 @@
         <v>1.43</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT140" t="n">
         <v>1.11</v>
@@ -30335,7 +30335,7 @@
         <v>0.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT148" t="n">
         <v>0.67</v>
@@ -30741,7 +30741,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT149" t="n">
         <v>0.89</v>
@@ -30947,7 +30947,7 @@
         <v>1.44</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -31147,10 +31147,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.72</v>
@@ -31759,7 +31759,7 @@
         <v>1.25</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU154" t="n">
         <v>1.55</v>
@@ -33177,7 +33177,7 @@
         <v>1.38</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT161" t="n">
         <v>1.22</v>
@@ -33583,10 +33583,10 @@
         <v>0.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.61</v>
@@ -33786,7 +33786,7 @@
         <v>0.78</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT164" t="n">
         <v>0.7</v>
@@ -34398,7 +34398,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU167" t="n">
         <v>1.48</v>
@@ -34601,7 +34601,7 @@
         <v>2.33</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU168" t="n">
         <v>2.21</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT170" t="n">
         <v>1</v>
@@ -35207,7 +35207,7 @@
         <v>1.86</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT171" t="n">
         <v>2</v>
@@ -35465,6 +35465,1021 @@
       </c>
       <c r="BK172" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2831298</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>44947.41666666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>20</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['48', '90+9', '90+11']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>4</v>
+      </c>
+      <c r="R173" t="n">
+        <v>8</v>
+      </c>
+      <c r="S173" t="n">
+        <v>12</v>
+      </c>
+      <c r="T173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2831293</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>44947.54166666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>20</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>3</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['49', '59']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>16</v>
+      </c>
+      <c r="R174" t="n">
+        <v>1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>17</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V174" t="n">
+        <v>8</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2831296</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>44948.3125</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['17', '48']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>7</v>
+      </c>
+      <c r="R175" t="n">
+        <v>4</v>
+      </c>
+      <c r="S175" t="n">
+        <v>11</v>
+      </c>
+      <c r="T175" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X175" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2831294</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>44948.41666666666</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>4</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['6', '83']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['59', '79']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>7</v>
+      </c>
+      <c r="R176" t="n">
+        <v>2</v>
+      </c>
+      <c r="S176" t="n">
+        <v>9</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2831295</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>44948.41666666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['2', '42']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>5</v>
+      </c>
+      <c r="R177" t="n">
+        <v>3</v>
+      </c>
+      <c r="S177" t="n">
+        <v>8</v>
+      </c>
+      <c r="T177" t="n">
+        <v>4</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT11" t="n">
         <v>0.7</v>
@@ -2933,7 +2933,7 @@
         <v>1.6</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>1.9</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU31" t="n">
         <v>2.23</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT35" t="n">
         <v>2.3</v>
@@ -10647,7 +10647,7 @@
         <v>0.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU50" t="n">
         <v>1.28</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT62" t="n">
         <v>0.9</v>
@@ -15316,7 +15316,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -18361,7 +18361,7 @@
         <v>2.2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -19173,7 +19173,7 @@
         <v>1.1</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU112" t="n">
         <v>1.82</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT116" t="n">
         <v>1.56</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT131" t="n">
         <v>2</v>
@@ -27902,7 +27902,7 @@
         <v>2.44</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU135" t="n">
         <v>2.38</v>
@@ -31350,7 +31350,7 @@
         <v>1.13</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT152" t="n">
         <v>1</v>
@@ -31556,7 +31556,7 @@
         <v>2.33</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU153" t="n">
         <v>2.16</v>
@@ -34598,7 +34598,7 @@
         <v>1.71</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT168" t="n">
         <v>1.67</v>
@@ -34804,7 +34804,7 @@
         <v>0.5</v>
       </c>
       <c r="AT169" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU169" t="n">
         <v>1.67</v>
@@ -36479,6 +36479,209 @@
         <v>14</v>
       </c>
       <c r="BK177" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2831299</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>44948.54166666666</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>4</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['33', '48', '51', '64']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>6</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2</v>
+      </c>
+      <c r="S178" t="n">
+        <v>8</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK178" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK178"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3542,7 +3542,7 @@
         <v>1.11</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT16" t="n">
         <v>0.88</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT18" t="n">
         <v>1.67</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT20" t="n">
         <v>2.3</v>
@@ -6587,7 +6587,7 @@
         <v>1.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.64</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU36" t="n">
         <v>0.86</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT38" t="n">
         <v>1.22</v>
@@ -10038,7 +10038,7 @@
         <v>1.9</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU47" t="n">
         <v>2.12</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT48" t="n">
         <v>0.7</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT71" t="n">
         <v>1.13</v>
@@ -15113,7 +15113,7 @@
         <v>2.22</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU72" t="n">
         <v>2.58</v>
@@ -15722,7 +15722,7 @@
         <v>0.63</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.24</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT78" t="n">
         <v>1.11</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT86" t="n">
         <v>0.9</v>
@@ -18970,7 +18970,7 @@
         <v>1.22</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19373,7 +19373,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.71</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT102" t="n">
         <v>1</v>
@@ -22218,7 +22218,7 @@
         <v>0.63</v>
       </c>
       <c r="AT107" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -22824,7 +22824,7 @@
         <v>0.83</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT110" t="n">
         <v>0.67</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU111" t="n">
         <v>1.84</v>
@@ -26275,7 +26275,7 @@
         <v>1.6</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT127" t="n">
         <v>1.67</v>
@@ -26481,7 +26481,7 @@
         <v>1.1</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -27090,7 +27090,7 @@
         <v>2.4</v>
       </c>
       <c r="AT131" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU131" t="n">
         <v>2.11</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT134" t="n">
         <v>0.67</v>
@@ -29929,7 +29929,7 @@
         <v>0.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT145" t="n">
         <v>0.7</v>
@@ -30135,7 +30135,7 @@
         <v>1.1</v>
       </c>
       <c r="AT146" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU146" t="n">
         <v>1.76</v>
@@ -30744,7 +30744,7 @@
         <v>2.44</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU149" t="n">
         <v>2.32</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>2.33</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU166" t="n">
         <v>2.23</v>
@@ -34395,7 +34395,7 @@
         <v>1.29</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT167" t="n">
         <v>1.67</v>
@@ -34801,7 +34801,7 @@
         <v>0.78</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AT169" t="n">
         <v>0.91</v>
@@ -35210,7 +35210,7 @@
         <v>1.11</v>
       </c>
       <c r="AT171" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU171" t="n">
         <v>1.7</v>
@@ -36683,6 +36683,412 @@
       </c>
       <c r="BK178" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2831297</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>44949.58333333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>6</v>
+      </c>
+      <c r="R179" t="n">
+        <v>4</v>
+      </c>
+      <c r="S179" t="n">
+        <v>10</v>
+      </c>
+      <c r="T179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2831300</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>44949.58333333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>20</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['73', '89']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>1</v>
+      </c>
+      <c r="R180" t="n">
+        <v>6</v>
+      </c>
+      <c r="S180" t="n">
+        <v>7</v>
+      </c>
+      <c r="T180" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT4" t="n">
         <v>1.11</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>0.89</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.18</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>2.2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU40" t="n">
         <v>1.82</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT54" t="n">
         <v>1.67</v>
@@ -13489,7 +13489,7 @@
         <v>2.2</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT72" t="n">
         <v>2.11</v>
@@ -16534,7 +16534,7 @@
         <v>1.25</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -18561,7 +18561,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT89" t="n">
         <v>1.22</v>
@@ -20391,7 +20391,7 @@
         <v>2.44</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU98" t="n">
         <v>2.32</v>
@@ -22012,7 +22012,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT106" t="n">
         <v>1.13</v>
@@ -22827,7 +22827,7 @@
         <v>0.45</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU110" t="n">
         <v>1.63</v>
@@ -27699,7 +27699,7 @@
         <v>1.3</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU134" t="n">
         <v>1.48</v>
@@ -29726,7 +29726,7 @@
         <v>1.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT144" t="n">
         <v>1.3</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU148" t="n">
         <v>1.71</v>
@@ -31959,7 +31959,7 @@
         <v>1.14</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT155" t="n">
         <v>1</v>
@@ -37089,6 +37089,209 @@
       </c>
       <c r="BK180" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2831302</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>44953.58333333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>21</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>3</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>3</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['20', '50', '59']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>3</v>
+      </c>
+      <c r="R181" t="n">
+        <v>3</v>
+      </c>
+      <c r="S181" t="n">
+        <v>6</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V181" t="n">
+        <v>5</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.56</v>
@@ -2527,7 +2527,7 @@
         <v>2.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.45</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU20" t="n">
         <v>1.97</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT23" t="n">
         <v>1.1</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1.22</v>
       </c>
       <c r="AU23" t="n">
         <v>1.54</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT26" t="n">
         <v>0.6</v>
@@ -6181,7 +6181,7 @@
         <v>2.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU28" t="n">
         <v>1.95</v>
@@ -6993,7 +6993,7 @@
         <v>2.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>3.35</v>
@@ -7602,7 +7602,7 @@
         <v>2.4</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU35" t="n">
         <v>2.23</v>
@@ -8211,7 +8211,7 @@
         <v>0.45</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.88</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT42" t="n">
         <v>1.56</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU43" t="n">
         <v>1.75</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT45" t="n">
         <v>1.67</v>
@@ -9835,7 +9835,7 @@
         <v>2.44</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU46" t="n">
         <v>2.06</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT50" t="n">
         <v>0.91</v>
@@ -10850,7 +10850,7 @@
         <v>1.11</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.3</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU52" t="n">
         <v>1.04</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU55" t="n">
         <v>2.46</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT56" t="n">
         <v>1.11</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU60" t="n">
         <v>1.8</v>
@@ -13083,7 +13083,7 @@
         <v>2.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU62" t="n">
         <v>1.85</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU65" t="n">
         <v>1.31</v>
@@ -13895,7 +13895,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT67" t="n">
         <v>1.67</v>
@@ -14301,7 +14301,7 @@
         <v>2.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU68" t="n">
         <v>2.39</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT69" t="n">
         <v>0.7</v>
@@ -14910,7 +14910,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15519,7 +15519,7 @@
         <v>1.11</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU74" t="n">
         <v>1.89</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT76" t="n">
         <v>1.56</v>
@@ -16125,7 +16125,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT79" t="n">
         <v>0.6</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU85" t="n">
         <v>1.4</v>
@@ -17955,7 +17955,7 @@
         <v>1.3</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU86" t="n">
         <v>1.34</v>
@@ -18158,7 +18158,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU87" t="n">
         <v>1.39</v>
@@ -18564,7 +18564,7 @@
         <v>2.3</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU89" t="n">
         <v>2.33</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT90" t="n">
         <v>1</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT91" t="n">
         <v>2.11</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT92" t="n">
         <v>0.91</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT99" t="n">
         <v>1.1</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT100" t="n">
         <v>1.67</v>
@@ -21000,7 +21000,7 @@
         <v>1.33</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>1.9</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU103" t="n">
         <v>1.83</v>
@@ -21606,7 +21606,7 @@
         <v>0.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT104" t="n">
         <v>0.7</v>
@@ -21812,7 +21812,7 @@
         <v>1.6</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU105" t="n">
         <v>1.5</v>
@@ -22015,7 +22015,7 @@
         <v>2.3</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>2.38</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT109" t="n">
         <v>0.88</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT112" t="n">
         <v>0.91</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24245,7 +24245,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT117" t="n">
         <v>1.67</v>
@@ -24654,7 +24654,7 @@
         <v>1.9</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU119" t="n">
         <v>1.8</v>
@@ -24854,10 +24854,10 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25057,10 +25057,10 @@
         <v>0.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25466,7 +25466,7 @@
         <v>2.2</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU123" t="n">
         <v>1.76</v>
@@ -25669,7 +25669,7 @@
         <v>1.33</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT128" t="n">
         <v>1.1</v>
@@ -26681,7 +26681,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT129" t="n">
         <v>1</v>
@@ -28305,10 +28305,10 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -29120,7 +29120,7 @@
         <v>1.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.62</v>
@@ -29320,10 +29320,10 @@
         <v>2.13</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU143" t="n">
         <v>1.88</v>
@@ -29729,7 +29729,7 @@
         <v>2.3</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU144" t="n">
         <v>2.37</v>
@@ -30132,7 +30132,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT146" t="n">
         <v>2.11</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT154" t="n">
         <v>0.88</v>
@@ -32365,7 +32365,7 @@
         <v>1.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT157" t="n">
         <v>1.11</v>
@@ -32568,10 +32568,10 @@
         <v>0.86</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32774,7 +32774,7 @@
         <v>2.2</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AU159" t="n">
         <v>2.01</v>
@@ -32977,7 +32977,7 @@
         <v>2.2</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU160" t="n">
         <v>1.61</v>
@@ -33180,7 +33180,7 @@
         <v>1.9</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.69</v>
@@ -33383,7 +33383,7 @@
         <v>0.63</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT165" t="n">
         <v>1</v>
@@ -37292,6 +37292,1021 @@
       </c>
       <c r="BK181" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2831307</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>44954.3125</v>
+      </c>
+      <c r="F182" t="n">
+        <v>21</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>2</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['41', '56']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>7</v>
+      </c>
+      <c r="R182" t="n">
+        <v>6</v>
+      </c>
+      <c r="S182" t="n">
+        <v>13</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2831306</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>21</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['47', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>5</v>
+      </c>
+      <c r="R183" t="n">
+        <v>11</v>
+      </c>
+      <c r="S183" t="n">
+        <v>16</v>
+      </c>
+      <c r="T183" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V183" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2831305</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>44954.41666666666</v>
+      </c>
+      <c r="F184" t="n">
+        <v>21</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['47', '50']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>4</v>
+      </c>
+      <c r="R184" t="n">
+        <v>9</v>
+      </c>
+      <c r="S184" t="n">
+        <v>13</v>
+      </c>
+      <c r="T184" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2831303</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>44954.54166666666</v>
+      </c>
+      <c r="F185" t="n">
+        <v>21</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>5</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['38', '48', '90+3']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['33', '56']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>8</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2</v>
+      </c>
+      <c r="S185" t="n">
+        <v>10</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2831304</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>44954.54166666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>21</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>4</v>
+      </c>
+      <c r="N186" t="n">
+        <v>4</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['45+3', '60', '88', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>9</v>
+      </c>
+      <c r="R186" t="n">
+        <v>3</v>
+      </c>
+      <c r="S186" t="n">
+        <v>12</v>
+      </c>
+      <c r="T186" t="n">
+        <v>5</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT2" t="n">
         <v>1.1</v>
@@ -1309,7 +1309,7 @@
         <v>2.3</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1.11</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5975,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>0.73</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT28" t="n">
         <v>1.45</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT40" t="n">
         <v>0.6</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU41" t="n">
         <v>1.86</v>
@@ -9023,7 +9023,7 @@
         <v>1.11</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU42" t="n">
         <v>2.13</v>
@@ -9429,7 +9429,7 @@
         <v>1.27</v>
       </c>
       <c r="AT44" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU44" t="n">
         <v>1.51</v>
@@ -11865,7 +11865,7 @@
         <v>1.44</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU56" t="n">
         <v>1.66</v>
@@ -12068,7 +12068,7 @@
         <v>2.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU57" t="n">
         <v>2.33</v>
@@ -12271,7 +12271,7 @@
         <v>0.45</v>
       </c>
       <c r="AT58" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU58" t="n">
         <v>1.64</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT59" t="n">
         <v>1.67</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT61" t="n">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT64" t="n">
         <v>0.6</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT75" t="n">
         <v>1.1</v>
@@ -15925,7 +15925,7 @@
         <v>1.27</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.61</v>
@@ -16331,7 +16331,7 @@
         <v>0.45</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16734,7 +16734,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -16940,7 +16940,7 @@
         <v>2.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU81" t="n">
         <v>2.11</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -18358,7 +18358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT88" t="n">
         <v>0.91</v>
@@ -19779,7 +19779,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT95" t="n">
         <v>1.67</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20188,7 +20188,7 @@
         <v>2.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU97" t="n">
         <v>2.15</v>
@@ -21203,7 +21203,7 @@
         <v>1.3</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU102" t="n">
         <v>1.42</v>
@@ -22215,7 +22215,7 @@
         <v>1.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT107" t="n">
         <v>2.11</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23639,7 +23639,7 @@
         <v>1.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU114" t="n">
         <v>1.66</v>
@@ -24045,7 +24045,7 @@
         <v>2.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU116" t="n">
         <v>2.04</v>
@@ -24448,7 +24448,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -25260,7 +25260,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT122" t="n">
         <v>1</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT123" t="n">
         <v>2.36</v>
@@ -25869,7 +25869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT125" t="n">
         <v>0.7</v>
@@ -26075,7 +26075,7 @@
         <v>1.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU126" t="n">
         <v>1.51</v>
@@ -28102,7 +28102,7 @@
         <v>1.2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT136" t="n">
         <v>0.88</v>
@@ -28508,7 +28508,7 @@
         <v>0.86</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT138" t="n">
         <v>0.7</v>
@@ -28711,10 +28711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU139" t="n">
         <v>1.18</v>
@@ -28917,7 +28917,7 @@
         <v>1.9</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.77</v>
@@ -31962,7 +31962,7 @@
         <v>2.3</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU155" t="n">
         <v>2.32</v>
@@ -32165,7 +32165,7 @@
         <v>1.33</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU156" t="n">
         <v>1.61</v>
@@ -32368,7 +32368,7 @@
         <v>1.1</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU157" t="n">
         <v>1.48</v>
@@ -32771,7 +32771,7 @@
         <v>2.22</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT159" t="n">
         <v>2.36</v>
@@ -32974,7 +32974,7 @@
         <v>1.44</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT160" t="n">
         <v>1.45</v>
@@ -33380,7 +33380,7 @@
         <v>0.89</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT162" t="n">
         <v>1.09</v>
@@ -38307,6 +38307,615 @@
       </c>
       <c r="BK186" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2831310</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>44955.3125</v>
+      </c>
+      <c r="F187" t="n">
+        <v>21</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>4</v>
+      </c>
+      <c r="N187" t="n">
+        <v>6</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['10', '32']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['18', '52', '83', '89']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>1</v>
+      </c>
+      <c r="R187" t="n">
+        <v>7</v>
+      </c>
+      <c r="S187" t="n">
+        <v>8</v>
+      </c>
+      <c r="T187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2831308</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>44955.54166666666</v>
+      </c>
+      <c r="F188" t="n">
+        <v>21</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>5</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="n">
+        <v>6</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['37', '39', '52', '69', '90+2']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>6</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1</v>
+      </c>
+      <c r="S188" t="n">
+        <v>7</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V188" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2831309</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>44955.54166666666</v>
+      </c>
+      <c r="F189" t="n">
+        <v>21</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['43', '64']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>6</v>
+      </c>
+      <c r="R189" t="n">
+        <v>3</v>
+      </c>
+      <c r="S189" t="n">
+        <v>9</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT17" t="n">
         <v>1.67</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT31" t="n">
         <v>0.91</v>
@@ -8008,7 +8008,7 @@
         <v>2.3</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU37" t="n">
         <v>2.55</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT47" t="n">
         <v>1.1</v>
@@ -13286,7 +13286,7 @@
         <v>1.1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU63" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>2.27</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU82" t="n">
         <v>1.62</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT83" t="n">
         <v>0.88</v>
@@ -19579,7 +19579,7 @@
         <v>2.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU94" t="n">
         <v>2.15</v>
@@ -21403,7 +21403,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT103" t="n">
         <v>1.09</v>
@@ -24451,7 +24451,7 @@
         <v>2.27</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU118" t="n">
         <v>1.96</v>
@@ -24651,7 +24651,7 @@
         <v>1.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT119" t="n">
         <v>1.45</v>
@@ -26887,7 +26887,7 @@
         <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU130" t="n">
         <v>1.76</v>
@@ -28914,7 +28914,7 @@
         <v>1.43</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT140" t="n">
         <v>1.3</v>
@@ -30947,7 +30947,7 @@
         <v>1.3</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU150" t="n">
         <v>1.45</v>
@@ -33177,7 +33177,7 @@
         <v>1.38</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT161" t="n">
         <v>1.1</v>
@@ -33586,7 +33586,7 @@
         <v>1.6</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU163" t="n">
         <v>1.61</v>
@@ -36022,7 +36022,7 @@
         <v>1.11</v>
       </c>
       <c r="AT175" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU175" t="n">
         <v>1.67</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT176" t="n">
         <v>1</v>
@@ -38916,6 +38916,209 @@
       </c>
       <c r="BK189" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2831314</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>44957.45833333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>22</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>3</v>
+      </c>
+      <c r="N190" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>['32', '45+2', '50']</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>4</v>
+      </c>
+      <c r="R190" t="n">
+        <v>4</v>
+      </c>
+      <c r="S190" t="n">
+        <v>8</v>
+      </c>
+      <c r="T190" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X190" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK190"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT5" t="n">
         <v>0.6</v>
@@ -3948,7 +3948,7 @@
         <v>1.73</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT30" t="n">
         <v>1.1</v>
@@ -9632,7 +9632,7 @@
         <v>1.1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU45" t="n">
         <v>1.69</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -12474,7 +12474,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU59" t="n">
         <v>1.27</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT73" t="n">
         <v>0.91</v>
@@ -16128,7 +16128,7 @@
         <v>1.11</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -17546,7 +17546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT84" t="n">
         <v>0.7</v>
@@ -20797,7 +20797,7 @@
         <v>1.44</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU100" t="n">
         <v>1.74</v>
@@ -20997,7 +20997,7 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT101" t="n">
         <v>2.36</v>
@@ -23436,7 +23436,7 @@
         <v>2.44</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU113" t="n">
         <v>2.39</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT124" t="n">
         <v>1.09</v>
@@ -27496,7 +27496,7 @@
         <v>1.11</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -29117,7 +29117,7 @@
         <v>1.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT141" t="n">
         <v>1.1</v>
@@ -32162,7 +32162,7 @@
         <v>1.63</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT156" t="n">
         <v>1.4</v>
@@ -34398,7 +34398,7 @@
         <v>1.3</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU167" t="n">
         <v>1.48</v>
@@ -36428,7 +36428,7 @@
         <v>1.6</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU177" t="n">
         <v>1.68</v>
@@ -39119,6 +39119,209 @@
       </c>
       <c r="BK190" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2831313</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>44957.58333333334</v>
+      </c>
+      <c r="F191" t="n">
+        <v>22</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+      <c r="R191" t="n">
+        <v>8</v>
+      </c>
+      <c r="S191" t="n">
+        <v>14</v>
+      </c>
+      <c r="T191" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X191" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>2.27</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT15" t="n">
         <v>1.1</v>
@@ -3745,7 +3745,7 @@
         <v>0.45</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT19" t="n">
         <v>2.11</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU29" t="n">
         <v>2.86</v>
@@ -6790,7 +6790,7 @@
         <v>1.73</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU31" t="n">
         <v>2.23</v>
@@ -6993,7 +6993,7 @@
         <v>2.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU32" t="n">
         <v>3.35</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU33" t="n">
         <v>1.52</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU34" t="n">
         <v>0.82</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT35" t="n">
         <v>2.36</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT36" t="n">
         <v>2.11</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1.09</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10444,7 +10444,7 @@
         <v>1.3</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49" t="n">
         <v>1.76</v>
@@ -10647,7 +10647,7 @@
         <v>0.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU50" t="n">
         <v>1.28</v>
@@ -10847,10 +10847,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU51" t="n">
         <v>2.3</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT52" t="n">
         <v>2.36</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU53" t="n">
         <v>1.51</v>
@@ -11459,7 +11459,7 @@
         <v>2.3</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>2.54</v>
@@ -12065,7 +12065,7 @@
         <v>2.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.4</v>
@@ -13080,7 +13080,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT62" t="n">
         <v>1.09</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT65" t="n">
         <v>1.09</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT66" t="n">
         <v>1.1</v>
@@ -14098,7 +14098,7 @@
         <v>1.1</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.39</v>
@@ -14504,7 +14504,7 @@
         <v>0.8</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU69" t="n">
         <v>1.43</v>
@@ -14707,7 +14707,7 @@
         <v>1.73</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU70" t="n">
         <v>1.99</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15316,7 +15316,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT74" t="n">
         <v>1.45</v>
@@ -16937,7 +16937,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT81" t="n">
         <v>0.89</v>
@@ -17346,7 +17346,7 @@
         <v>1.73</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17549,7 +17549,7 @@
         <v>1.3</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU84" t="n">
         <v>1.56</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT85" t="n">
         <v>1.45</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT86" t="n">
         <v>1.09</v>
@@ -18155,7 +18155,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT87" t="n">
         <v>2.36</v>
@@ -18361,7 +18361,7 @@
         <v>2.27</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18767,7 +18767,7 @@
         <v>0.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU90" t="n">
         <v>1.79</v>
@@ -19173,7 +19173,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19576,7 +19576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT94" t="n">
         <v>1.18</v>
@@ -19782,7 +19782,7 @@
         <v>2.27</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>2.04</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT96" t="n">
         <v>1.3</v>
@@ -20388,7 +20388,7 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT98" t="n">
         <v>0.6</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT102" t="n">
         <v>0.89</v>
@@ -21609,7 +21609,7 @@
         <v>1.1</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -21809,7 +21809,7 @@
         <v>1.83</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT105" t="n">
         <v>1.45</v>
@@ -22015,7 +22015,7 @@
         <v>2.3</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU106" t="n">
         <v>2.38</v>
@@ -22421,7 +22421,7 @@
         <v>2.27</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU108" t="n">
         <v>1.76</v>
@@ -22624,7 +22624,7 @@
         <v>0.8</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU109" t="n">
         <v>1.82</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT111" t="n">
         <v>1.1</v>
@@ -23233,7 +23233,7 @@
         <v>1.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU112" t="n">
         <v>1.82</v>
@@ -23433,7 +23433,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT113" t="n">
         <v>1.6</v>
@@ -23636,7 +23636,7 @@
         <v>1.17</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT114" t="n">
         <v>1.3</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT116" t="n">
         <v>1.4</v>
@@ -24248,7 +24248,7 @@
         <v>1.44</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU117" t="n">
         <v>1.6</v>
@@ -25060,7 +25060,7 @@
         <v>0.8</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25263,7 +25263,7 @@
         <v>2.27</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU122" t="n">
         <v>1.87</v>
@@ -25872,7 +25872,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU125" t="n">
         <v>1.2</v>
@@ -26072,7 +26072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT126" t="n">
         <v>1.4</v>
@@ -26278,7 +26278,7 @@
         <v>0.45</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.68</v>
@@ -26684,7 +26684,7 @@
         <v>1.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU129" t="n">
         <v>1.53</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT130" t="n">
         <v>1.18</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT131" t="n">
         <v>2.11</v>
@@ -27493,7 +27493,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT133" t="n">
         <v>1.6</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT134" t="n">
         <v>0.6</v>
@@ -27899,10 +27899,10 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU135" t="n">
         <v>2.38</v>
@@ -28105,7 +28105,7 @@
         <v>2.27</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU136" t="n">
         <v>1.7</v>
@@ -28308,7 +28308,7 @@
         <v>1.1</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -28511,7 +28511,7 @@
         <v>2.27</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU138" t="n">
         <v>1.86</v>
@@ -29932,7 +29932,7 @@
         <v>0.45</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU145" t="n">
         <v>1.66</v>
@@ -30335,7 +30335,7 @@
         <v>0.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT147" t="n">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT148" t="n">
         <v>0.6</v>
@@ -30741,7 +30741,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT149" t="n">
         <v>1.1</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT150" t="n">
         <v>1.18</v>
@@ -31147,10 +31147,10 @@
         <v>1.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU151" t="n">
         <v>1.72</v>
@@ -31350,10 +31350,10 @@
         <v>1.13</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT152" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU152" t="n">
         <v>2.17</v>
@@ -31556,7 +31556,7 @@
         <v>2.33</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU153" t="n">
         <v>2.16</v>
@@ -31759,7 +31759,7 @@
         <v>1.44</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU154" t="n">
         <v>1.55</v>
@@ -32571,7 +32571,7 @@
         <v>1.11</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -33583,7 +33583,7 @@
         <v>0.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT163" t="n">
         <v>1.18</v>
@@ -33786,10 +33786,10 @@
         <v>0.78</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU164" t="n">
         <v>2.24</v>
@@ -33992,7 +33992,7 @@
         <v>1.27</v>
       </c>
       <c r="AT165" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU165" t="n">
         <v>1.73</v>
@@ -34395,7 +34395,7 @@
         <v>1.29</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT167" t="n">
         <v>1.6</v>
@@ -34598,10 +34598,10 @@
         <v>1.71</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU168" t="n">
         <v>2.21</v>
@@ -34804,7 +34804,7 @@
         <v>0.45</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU169" t="n">
         <v>1.67</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT170" t="n">
         <v>1</v>
@@ -35207,7 +35207,7 @@
         <v>1.86</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT171" t="n">
         <v>2.11</v>
@@ -35413,7 +35413,7 @@
         <v>2.33</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU172" t="n">
         <v>2.14</v>
@@ -35613,10 +35613,10 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AU173" t="n">
         <v>1.69</v>
@@ -35816,10 +35816,10 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU174" t="n">
         <v>2.34</v>
@@ -36019,7 +36019,7 @@
         <v>0.78</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT175" t="n">
         <v>1.18</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT177" t="n">
         <v>1.6</v>
@@ -36628,10 +36628,10 @@
         <v>1</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU178" t="n">
         <v>2.11</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT179" t="n">
         <v>1.1</v>
@@ -38052,7 +38052,7 @@
         <v>1.27</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU185" t="n">
         <v>1.73</v>
@@ -39322,6 +39322,1224 @@
       </c>
       <c r="BK191" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2831319</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>44958.45833333334</v>
+      </c>
+      <c r="F192" t="n">
+        <v>22</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2</v>
+      </c>
+      <c r="L192" t="n">
+        <v>4</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>5</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['38', '56', '77', '88']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>4</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2</v>
+      </c>
+      <c r="S192" t="n">
+        <v>6</v>
+      </c>
+      <c r="T192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X192" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2831318</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>44958.45833333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>22</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Giresunspor</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>3</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>4</v>
+      </c>
+      <c r="L193" t="n">
+        <v>5</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>6</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['14', '29', '45+5', '50', '66']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>6</v>
+      </c>
+      <c r="S193" t="n">
+        <v>10</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2831311</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>44958.58333333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>22</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['34', '90+4']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>3</v>
+      </c>
+      <c r="R194" t="n">
+        <v>4</v>
+      </c>
+      <c r="S194" t="n">
+        <v>7</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2831312</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>44958.58333333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2</v>
+      </c>
+      <c r="K195" t="n">
+        <v>3</v>
+      </c>
+      <c r="L195" t="n">
+        <v>3</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>5</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['32', '60', '83']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['11', '39']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>13</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1</v>
+      </c>
+      <c r="S195" t="n">
+        <v>14</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="V195" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2831315</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>44959.45833333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>22</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>5</v>
+      </c>
+      <c r="R196" t="n">
+        <v>4</v>
+      </c>
+      <c r="S196" t="n">
+        <v>9</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X196" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2831316</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>44959.45833333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>22</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>8</v>
+      </c>
+      <c r="R197" t="n">
+        <v>3</v>
+      </c>
+      <c r="S197" t="n">
+        <v>11</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V197" t="n">
+        <v>5</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT7" t="n">
         <v>2.36</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
         <v>1.4</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.18</v>
@@ -3948,7 +3948,7 @@
         <v>1.73</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.44</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT23" t="n">
         <v>1.1</v>
@@ -5572,7 +5572,7 @@
         <v>2.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU25" t="n">
         <v>2.6</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>0.6</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT32" t="n">
         <v>0.9</v>
@@ -7805,7 +7805,7 @@
         <v>1.18</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>0.86</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU39" t="n">
         <v>1.26</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT44" t="n">
         <v>0.89</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU45" t="n">
         <v>1.69</v>
@@ -9835,7 +9835,7 @@
         <v>2.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>2.06</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>1.08</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT55" t="n">
         <v>1.1</v>
@@ -12474,7 +12474,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU59" t="n">
         <v>1.27</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT60" t="n">
         <v>1.45</v>
@@ -12880,7 +12880,7 @@
         <v>2.27</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU61" t="n">
         <v>1.66</v>
@@ -13083,7 +13083,7 @@
         <v>2.45</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.85</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT63" t="n">
         <v>1.18</v>
@@ -13692,7 +13692,7 @@
         <v>1.17</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU65" t="n">
         <v>1.31</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
         <v>1.5</v>
@@ -14298,7 +14298,7 @@
         <v>2.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT68" t="n">
         <v>2.36</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
         <v>0.64</v>
@@ -15113,7 +15113,7 @@
         <v>2.3</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU72" t="n">
         <v>2.58</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT76" t="n">
         <v>1.4</v>
@@ -16128,7 +16128,7 @@
         <v>1.11</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -16737,7 +16737,7 @@
         <v>2.27</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU80" t="n">
         <v>2</v>
@@ -17955,7 +17955,7 @@
         <v>1.18</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.34</v>
@@ -18764,7 +18764,7 @@
         <v>1.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
         <v>0.92</v>
@@ -18967,10 +18967,10 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT92" t="n">
         <v>1.08</v>
@@ -19376,7 +19376,7 @@
         <v>0.45</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU93" t="n">
         <v>1.69</v>
@@ -20185,7 +20185,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT97" t="n">
         <v>1.4</v>
@@ -20797,7 +20797,7 @@
         <v>1.44</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU100" t="n">
         <v>1.74</v>
@@ -21406,7 +21406,7 @@
         <v>1.73</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU103" t="n">
         <v>1.83</v>
@@ -21606,7 +21606,7 @@
         <v>0.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT104" t="n">
         <v>0.64</v>
@@ -22218,7 +22218,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -22621,7 +22621,7 @@
         <v>0.75</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>0.78</v>
@@ -23436,7 +23436,7 @@
         <v>2.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU113" t="n">
         <v>2.39</v>
@@ -23839,10 +23839,10 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU115" t="n">
         <v>1.77</v>
@@ -24854,7 +24854,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT120" t="n">
         <v>1.1</v>
@@ -25057,7 +25057,7 @@
         <v>0.4</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT121" t="n">
         <v>0.9</v>
@@ -25669,7 +25669,7 @@
         <v>1.3</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.52</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT128" t="n">
         <v>1.1</v>
@@ -27090,7 +27090,7 @@
         <v>2.45</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU131" t="n">
         <v>2.11</v>
@@ -27290,10 +27290,10 @@
         <v>0.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU132" t="n">
         <v>2.19</v>
@@ -27496,7 +27496,7 @@
         <v>1.3</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU133" t="n">
         <v>1.82</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
         <v>0.9</v>
@@ -29320,7 +29320,7 @@
         <v>2.13</v>
       </c>
       <c r="AS142" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT142" t="n">
         <v>2.36</v>
@@ -29526,7 +29526,7 @@
         <v>1.11</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.88</v>
@@ -30132,10 +30132,10 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU146" t="n">
         <v>1.76</v>
@@ -30338,7 +30338,7 @@
         <v>1.73</v>
       </c>
       <c r="AT147" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU147" t="n">
         <v>1.56</v>
@@ -31553,7 +31553,7 @@
         <v>0.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT153" t="n">
         <v>1.08</v>
@@ -32365,7 +32365,7 @@
         <v>1.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT157" t="n">
         <v>1.3</v>
@@ -33383,7 +33383,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT165" t="n">
         <v>0.92</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT166" t="n">
         <v>1.1</v>
@@ -34398,7 +34398,7 @@
         <v>1.18</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU167" t="n">
         <v>1.48</v>
@@ -35007,7 +35007,7 @@
         <v>1.17</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU170" t="n">
         <v>1.7</v>
@@ -35210,7 +35210,7 @@
         <v>1.3</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.7</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT172" t="n">
         <v>0.92</v>
@@ -36225,7 +36225,7 @@
         <v>1.73</v>
       </c>
       <c r="AT176" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU176" t="n">
         <v>1.64</v>
@@ -36428,7 +36428,7 @@
         <v>1.73</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU177" t="n">
         <v>1.68</v>
@@ -37037,7 +37037,7 @@
         <v>0.45</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AU180" t="n">
         <v>1.78</v>
@@ -37440,7 +37440,7 @@
         <v>1.3</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT182" t="n">
         <v>1.45</v>
@@ -37643,10 +37643,10 @@
         <v>0.9</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU183" t="n">
         <v>1.53</v>
@@ -38049,7 +38049,7 @@
         <v>1.13</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT185" t="n">
         <v>0.9</v>
@@ -39270,7 +39270,7 @@
         <v>1.3</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU191" t="n">
         <v>1.58</v>
@@ -40539,6 +40539,818 @@
         <v>23</v>
       </c>
       <c r="BK197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2831317</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>44959.58333333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>22</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>10</v>
+      </c>
+      <c r="S198" t="n">
+        <v>15</v>
+      </c>
+      <c r="T198" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V198" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2831321</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>44961.3125</v>
+      </c>
+      <c r="F199" t="n">
+        <v>23</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>2</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>['45+1', '65']</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>9</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2</v>
+      </c>
+      <c r="S199" t="n">
+        <v>11</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V199" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2831322</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>44961.41666666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>23</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3</v>
+      </c>
+      <c r="R200" t="n">
+        <v>5</v>
+      </c>
+      <c r="S200" t="n">
+        <v>8</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2831324</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>44961.54166666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>23</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Gazişehir Gaziantep</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>4</v>
+      </c>
+      <c r="R201" t="n">
+        <v>7</v>
+      </c>
+      <c r="S201" t="n">
+        <v>11</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK201" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.3</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.27</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT14" t="n">
         <v>0.92</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1.11</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -5166,7 +5166,7 @@
         <v>1.42</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.54</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU26" t="n">
         <v>1.18</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT27" t="n">
         <v>1.4</v>
@@ -8211,7 +8211,7 @@
         <v>0.45</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.88</v>
@@ -8617,7 +8617,7 @@
         <v>2.27</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU40" t="n">
         <v>1.82</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT43" t="n">
         <v>1.45</v>
@@ -9429,7 +9429,7 @@
         <v>1.42</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU44" t="n">
         <v>1.51</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT46" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>2.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>2.46</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT56" t="n">
         <v>1.3</v>
@@ -12065,7 +12065,7 @@
         <v>2.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT57" t="n">
         <v>1.4</v>
@@ -12271,7 +12271,7 @@
         <v>0.45</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU58" t="n">
         <v>1.64</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT59" t="n">
         <v>1.45</v>
@@ -13489,7 +13489,7 @@
         <v>2.27</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -13895,7 +13895,7 @@
         <v>1.73</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT75" t="n">
         <v>1.1</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -16940,7 +16940,7 @@
         <v>2.45</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU81" t="n">
         <v>2.11</v>
@@ -18564,7 +18564,7 @@
         <v>2.3</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>2.33</v>
@@ -20388,10 +20388,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU98" t="n">
         <v>2.32</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT100" t="n">
         <v>1.45</v>
@@ -21203,7 +21203,7 @@
         <v>1.18</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU102" t="n">
         <v>1.42</v>
@@ -22215,7 +22215,7 @@
         <v>1.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT107" t="n">
         <v>2</v>
@@ -22827,7 +22827,7 @@
         <v>0.45</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU110" t="n">
         <v>1.63</v>
@@ -23433,7 +23433,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT113" t="n">
         <v>1.45</v>
@@ -24245,7 +24245,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT117" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -25869,7 +25869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT125" t="n">
         <v>0.64</v>
@@ -26681,7 +26681,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT129" t="n">
         <v>0.92</v>
@@ -27699,7 +27699,7 @@
         <v>1.18</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU134" t="n">
         <v>1.48</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT135" t="n">
         <v>1.08</v>
@@ -28711,10 +28711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU139" t="n">
         <v>1.18</v>
@@ -29120,7 +29120,7 @@
         <v>1.3</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU141" t="n">
         <v>1.62</v>
@@ -30541,7 +30541,7 @@
         <v>1.17</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU148" t="n">
         <v>1.71</v>
@@ -30741,7 +30741,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT149" t="n">
         <v>1.1</v>
@@ -31756,7 +31756,7 @@
         <v>1</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT154" t="n">
         <v>0.78</v>
@@ -31962,7 +31962,7 @@
         <v>2.3</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU155" t="n">
         <v>2.32</v>
@@ -33180,7 +33180,7 @@
         <v>1.73</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU161" t="n">
         <v>1.69</v>
@@ -33380,7 +33380,7 @@
         <v>0.89</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -33786,7 +33786,7 @@
         <v>0.78</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT164" t="n">
         <v>0.64</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT174" t="n">
         <v>0.78</v>
@@ -37240,7 +37240,7 @@
         <v>2.3</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU181" t="n">
         <v>2.29</v>
@@ -37846,10 +37846,10 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU184" t="n">
         <v>1.55</v>
@@ -38455,7 +38455,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT187" t="n">
         <v>1.3</v>
@@ -38661,7 +38661,7 @@
         <v>2.27</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU188" t="n">
         <v>1.99</v>
@@ -40079,7 +40079,7 @@
         <v>1</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT195" t="n">
         <v>0.9</v>
@@ -40807,13 +40807,13 @@
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R199" t="n">
         <v>2</v>
       </c>
       <c r="S199" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T199" t="n">
         <v>2.45</v>
@@ -41352,6 +41352,615 @@
       </c>
       <c r="BK201" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2831320</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>44962.3125</v>
+      </c>
+      <c r="F202" t="n">
+        <v>23</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['67', '77']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>11</v>
+      </c>
+      <c r="S202" t="n">
+        <v>12</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2831326</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>44962.41666666666</v>
+      </c>
+      <c r="F203" t="n">
+        <v>23</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>8</v>
+      </c>
+      <c r="S203" t="n">
+        <v>13</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X203" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2831323</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>44962.54166666666</v>
+      </c>
+      <c r="F204" t="n">
+        <v>23</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['18', '53']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>6</v>
+      </c>
+      <c r="R204" t="n">
+        <v>5</v>
+      </c>
+      <c r="S204" t="n">
+        <v>11</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -688,16 +688,16 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['14', '29', '45+5', '50', '66']</t>
+  </si>
+  <si>
     <t>['38', '56', '77', '88']</t>
   </si>
   <si>
-    <t>['14', '29', '45+5', '50', '66']</t>
+    <t>['32', '60', '83']</t>
   </si>
   <si>
     <t>['34', '90+4']</t>
-  </si>
-  <si>
-    <t>['32', '60', '83']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -36162,7 +36162,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2831306</v>
+        <v>2831305</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -36177,142 +36177,142 @@
         <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H183" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O183" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="P183" t="s">
-        <v>327</v>
+        <v>149</v>
       </c>
       <c r="Q183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R183">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S183">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T183">
-        <v>2.41</v>
+        <v>4.33</v>
       </c>
       <c r="U183">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V183">
-        <v>4.65</v>
+        <v>2.3</v>
       </c>
       <c r="W183">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X183">
-        <v>3.04</v>
+        <v>3.25</v>
       </c>
       <c r="Y183">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="Z183">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AA183">
-        <v>6.85</v>
+        <v>5.5</v>
       </c>
       <c r="AB183">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC183">
-        <v>2.13</v>
+        <v>3.5</v>
       </c>
       <c r="AD183">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AE183">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AF183">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG183">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH183">
+        <v>1.25</v>
+      </c>
+      <c r="AI183">
+        <v>3.75</v>
+      </c>
+      <c r="AJ183">
+        <v>1.78</v>
+      </c>
+      <c r="AK183">
+        <v>2.04</v>
+      </c>
+      <c r="AL183">
+        <v>1.65</v>
+      </c>
+      <c r="AM183">
+        <v>2.05</v>
+      </c>
+      <c r="AN183">
+        <v>2</v>
+      </c>
+      <c r="AO183">
         <v>1.26</v>
       </c>
-      <c r="AI183">
-        <v>3.62</v>
-      </c>
-      <c r="AJ183">
-        <v>1.83</v>
-      </c>
-      <c r="AK183">
-        <v>1.98</v>
-      </c>
-      <c r="AL183">
-        <v>1.78</v>
-      </c>
-      <c r="AM183">
-        <v>2.04</v>
-      </c>
-      <c r="AN183">
+      <c r="AP183">
+        <v>1.21</v>
+      </c>
+      <c r="AQ183">
         <v>1.25</v>
       </c>
-      <c r="AO183">
-        <v>1.29</v>
-      </c>
-      <c r="AP183">
-        <v>2.02</v>
-      </c>
-      <c r="AQ183">
+      <c r="AR183">
         <v>1.22</v>
       </c>
-      <c r="AR183">
-        <v>0.9</v>
-      </c>
       <c r="AS183">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AT183">
         <v>1</v>
       </c>
       <c r="AU183">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AV183">
-        <v>1.34</v>
+        <v>1.88</v>
       </c>
       <c r="AW183">
-        <v>2.87</v>
+        <v>3.43</v>
       </c>
       <c r="AX183">
-        <v>1.5</v>
+        <v>2.88</v>
       </c>
       <c r="AY183">
         <v>8.5</v>
       </c>
       <c r="AZ183">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="BA183">
         <v>1.26</v>
@@ -36330,22 +36330,22 @@
         <v>3.5</v>
       </c>
       <c r="BF183">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG183">
         <v>9</v>
       </c>
       <c r="BH183">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BI183">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ183">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BK183">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36353,7 +36353,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>2831305</v>
+        <v>2831306</v>
       </c>
       <c r="C184" t="s">
         <v>63</v>
@@ -36368,142 +36368,142 @@
         <v>21</v>
       </c>
       <c r="G184" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H184" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O184" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="Q184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R184">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S184">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T184">
-        <v>4.33</v>
+        <v>2.41</v>
       </c>
       <c r="U184">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V184">
-        <v>2.3</v>
+        <v>4.65</v>
       </c>
       <c r="W184">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X184">
-        <v>3.25</v>
+        <v>3.04</v>
       </c>
       <c r="Y184">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="Z184">
+        <v>1.46</v>
+      </c>
+      <c r="AA184">
+        <v>6.85</v>
+      </c>
+      <c r="AB184">
+        <v>1.1</v>
+      </c>
+      <c r="AC184">
+        <v>2.13</v>
+      </c>
+      <c r="AD184">
+        <v>3.45</v>
+      </c>
+      <c r="AE184">
+        <v>3.1</v>
+      </c>
+      <c r="AF184">
+        <v>1.01</v>
+      </c>
+      <c r="AG184">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH184">
+        <v>1.26</v>
+      </c>
+      <c r="AI184">
+        <v>3.62</v>
+      </c>
+      <c r="AJ184">
+        <v>1.83</v>
+      </c>
+      <c r="AK184">
+        <v>1.98</v>
+      </c>
+      <c r="AL184">
+        <v>1.78</v>
+      </c>
+      <c r="AM184">
+        <v>2.04</v>
+      </c>
+      <c r="AN184">
+        <v>1.25</v>
+      </c>
+      <c r="AO184">
+        <v>1.29</v>
+      </c>
+      <c r="AP184">
+        <v>2.02</v>
+      </c>
+      <c r="AQ184">
+        <v>1.22</v>
+      </c>
+      <c r="AR184">
+        <v>0.9</v>
+      </c>
+      <c r="AS184">
+        <v>1</v>
+      </c>
+      <c r="AT184">
+        <v>1</v>
+      </c>
+      <c r="AU184">
+        <v>1.53</v>
+      </c>
+      <c r="AV184">
+        <v>1.34</v>
+      </c>
+      <c r="AW184">
+        <v>2.87</v>
+      </c>
+      <c r="AX184">
         <v>1.5</v>
-      </c>
-      <c r="AA184">
-        <v>5.5</v>
-      </c>
-      <c r="AB184">
-        <v>1.12</v>
-      </c>
-      <c r="AC184">
-        <v>3.5</v>
-      </c>
-      <c r="AD184">
-        <v>3.4</v>
-      </c>
-      <c r="AE184">
-        <v>2</v>
-      </c>
-      <c r="AF184">
-        <v>1.04</v>
-      </c>
-      <c r="AG184">
-        <v>10</v>
-      </c>
-      <c r="AH184">
-        <v>1.25</v>
-      </c>
-      <c r="AI184">
-        <v>3.75</v>
-      </c>
-      <c r="AJ184">
-        <v>1.78</v>
-      </c>
-      <c r="AK184">
-        <v>2.04</v>
-      </c>
-      <c r="AL184">
-        <v>1.65</v>
-      </c>
-      <c r="AM184">
-        <v>2.05</v>
-      </c>
-      <c r="AN184">
-        <v>2</v>
-      </c>
-      <c r="AO184">
-        <v>1.26</v>
-      </c>
-      <c r="AP184">
-        <v>1.21</v>
-      </c>
-      <c r="AQ184">
-        <v>1.25</v>
-      </c>
-      <c r="AR184">
-        <v>1.22</v>
-      </c>
-      <c r="AS184">
-        <v>1.6</v>
-      </c>
-      <c r="AT184">
-        <v>1</v>
-      </c>
-      <c r="AU184">
-        <v>1.55</v>
-      </c>
-      <c r="AV184">
-        <v>1.88</v>
-      </c>
-      <c r="AW184">
-        <v>3.43</v>
-      </c>
-      <c r="AX184">
-        <v>2.88</v>
       </c>
       <c r="AY184">
         <v>8.5</v>
       </c>
       <c r="AZ184">
-        <v>1.53</v>
+        <v>3</v>
       </c>
       <c r="BA184">
         <v>1.26</v>
@@ -36521,22 +36521,22 @@
         <v>3.5</v>
       </c>
       <c r="BF184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG184">
         <v>9</v>
       </c>
       <c r="BH184">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BI184">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ184">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK184">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:63">
@@ -37881,7 +37881,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>2831319</v>
+        <v>2831318</v>
       </c>
       <c r="C192" t="s">
         <v>63</v>
@@ -37896,76 +37896,76 @@
         <v>22</v>
       </c>
       <c r="G192" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H192" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J192">
         <v>1</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M192">
         <v>1</v>
       </c>
       <c r="N192">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O192" t="s">
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>251</v>
+        <v>333</v>
       </c>
       <c r="Q192">
         <v>4</v>
       </c>
       <c r="R192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S192">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T192">
         <v>2.6</v>
       </c>
       <c r="U192">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="V192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="W192">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X192">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y192">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Z192">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA192">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB192">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC192">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="AD192">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AE192">
         <v>3.2</v>
@@ -37977,94 +37977,94 @@
         <v>13</v>
       </c>
       <c r="AH192">
+        <v>1.22</v>
+      </c>
+      <c r="AI192">
+        <v>4.12</v>
+      </c>
+      <c r="AJ192">
+        <v>1.67</v>
+      </c>
+      <c r="AK192">
+        <v>2.05</v>
+      </c>
+      <c r="AL192">
+        <v>1.62</v>
+      </c>
+      <c r="AM192">
+        <v>2.2</v>
+      </c>
+      <c r="AN192">
+        <v>1.33</v>
+      </c>
+      <c r="AO192">
         <v>1.25</v>
       </c>
-      <c r="AI192">
-        <v>3.82</v>
-      </c>
-      <c r="AJ192">
-        <v>1.8</v>
-      </c>
-      <c r="AK192">
-        <v>1.98</v>
-      </c>
-      <c r="AL192">
+      <c r="AP192">
         <v>1.7</v>
       </c>
-      <c r="AM192">
-        <v>2.05</v>
-      </c>
-      <c r="AN192">
-        <v>1.25</v>
-      </c>
-      <c r="AO192">
-        <v>1.29</v>
-      </c>
-      <c r="AP192">
-        <v>1.8</v>
-      </c>
       <c r="AQ192">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR192">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AS192">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AT192">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="AU192">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AV192">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AW192">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="AX192">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AY192">
         <v>8.5</v>
       </c>
       <c r="AZ192">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BA192">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BB192">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="BC192">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BD192">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BE192">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BF192">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG192">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH192">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI192">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ192">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK192">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:63">
@@ -38072,7 +38072,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2831318</v>
+        <v>2831319</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -38087,76 +38087,76 @@
         <v>22</v>
       </c>
       <c r="G193" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H193" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
         <v>4</v>
       </c>
-      <c r="L193">
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
         <v>5</v>
-      </c>
-      <c r="M193">
-        <v>1</v>
-      </c>
-      <c r="N193">
-        <v>6</v>
       </c>
       <c r="O193" t="s">
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="Q193">
         <v>4</v>
       </c>
       <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
         <v>6</v>
-      </c>
-      <c r="S193">
-        <v>10</v>
       </c>
       <c r="T193">
         <v>2.6</v>
       </c>
       <c r="U193">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W193">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X193">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y193">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Z193">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA193">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB193">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC193">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AD193">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AE193">
         <v>3.2</v>
@@ -38168,94 +38168,94 @@
         <v>13</v>
       </c>
       <c r="AH193">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI193">
-        <v>4.12</v>
+        <v>3.82</v>
       </c>
       <c r="AJ193">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK193">
+        <v>1.98</v>
+      </c>
+      <c r="AL193">
+        <v>1.7</v>
+      </c>
+      <c r="AM193">
         <v>2.05</v>
       </c>
-      <c r="AL193">
-        <v>1.62</v>
-      </c>
-      <c r="AM193">
-        <v>2.2</v>
-      </c>
       <c r="AN193">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO193">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP193">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AQ193">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR193">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS193">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AT193">
-        <v>0.92</v>
+        <v>0.64</v>
       </c>
       <c r="AU193">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AV193">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AW193">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="AX193">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AY193">
         <v>8.5</v>
       </c>
       <c r="AZ193">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="BA193">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BB193">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="BC193">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BD193">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BE193">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BF193">
+        <v>5</v>
+      </c>
+      <c r="BG193">
+        <v>4</v>
+      </c>
+      <c r="BH193">
+        <v>5</v>
+      </c>
+      <c r="BI193">
         <v>8</v>
       </c>
-      <c r="BG193">
-        <v>8</v>
-      </c>
-      <c r="BH193">
-        <v>7</v>
-      </c>
-      <c r="BI193">
-        <v>6</v>
-      </c>
       <c r="BJ193">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK193">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38263,7 +38263,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2831311</v>
+        <v>2831312</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
@@ -38278,175 +38278,175 @@
         <v>22</v>
       </c>
       <c r="G194" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H194" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O194" t="s">
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="Q194">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S194">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T194">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="U194">
-        <v>2.25</v>
+        <v>2.79</v>
       </c>
       <c r="V194">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="W194">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X194">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y194">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="Z194">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AA194">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB194">
+        <v>1.2</v>
+      </c>
+      <c r="AC194">
         <v>1.1</v>
       </c>
-      <c r="AC194">
-        <v>1.24</v>
-      </c>
       <c r="AD194">
-        <v>2.62</v>
+        <v>5.57</v>
       </c>
       <c r="AE194">
-        <v>3.69</v>
+        <v>10.7</v>
       </c>
       <c r="AF194">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AG194">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AH194">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AI194">
-        <v>3.61</v>
+        <v>6.09</v>
       </c>
       <c r="AJ194">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="AK194">
-        <v>2.08</v>
+        <v>2.65</v>
       </c>
       <c r="AL194">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="AM194">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AN194">
+        <v>1.07</v>
+      </c>
+      <c r="AO194">
         <v>1.14</v>
       </c>
-      <c r="AO194">
-        <v>1.24</v>
-      </c>
       <c r="AP194">
+        <v>3.84</v>
+      </c>
+      <c r="AQ194">
+        <v>2.44</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>2.55</v>
+      </c>
+      <c r="AT194">
+        <v>0.9</v>
+      </c>
+      <c r="AU194">
         <v>2.34</v>
       </c>
-      <c r="AQ194">
-        <v>2.4</v>
-      </c>
-      <c r="AR194">
-        <v>0.88</v>
-      </c>
-      <c r="AS194">
-        <v>2.45</v>
-      </c>
-      <c r="AT194">
-        <v>0.78</v>
-      </c>
-      <c r="AU194">
-        <v>2.15</v>
-      </c>
       <c r="AV194">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AW194">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="AX194">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AY194">
+        <v>15</v>
+      </c>
+      <c r="AZ194">
         <v>8.5</v>
       </c>
-      <c r="AZ194">
-        <v>3.1</v>
-      </c>
       <c r="BA194">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="BB194">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="BC194">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="BD194">
-        <v>2.63</v>
+        <v>1.93</v>
       </c>
       <c r="BE194">
-        <v>4</v>
+        <v>2.37</v>
       </c>
       <c r="BF194">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BG194">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH194">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BI194">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ194">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BK194">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195" spans="1:63">
@@ -38454,7 +38454,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>2831312</v>
+        <v>2831311</v>
       </c>
       <c r="C195" t="s">
         <v>63</v>
@@ -38469,175 +38469,175 @@
         <v>22</v>
       </c>
       <c r="G195" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H195" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N195">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O195" t="s">
         <v>227</v>
       </c>
       <c r="P195" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="Q195">
+        <v>3</v>
+      </c>
+      <c r="R195">
+        <v>4</v>
+      </c>
+      <c r="S195">
+        <v>7</v>
+      </c>
+      <c r="T195">
+        <v>2.14</v>
+      </c>
+      <c r="U195">
+        <v>2.25</v>
+      </c>
+      <c r="V195">
+        <v>5.5</v>
+      </c>
+      <c r="W195">
+        <v>1.36</v>
+      </c>
+      <c r="X195">
+        <v>3</v>
+      </c>
+      <c r="Y195">
+        <v>2.62</v>
+      </c>
+      <c r="Z195">
+        <v>1.44</v>
+      </c>
+      <c r="AA195">
+        <v>6.5</v>
+      </c>
+      <c r="AB195">
+        <v>1.1</v>
+      </c>
+      <c r="AC195">
+        <v>1.24</v>
+      </c>
+      <c r="AD195">
+        <v>2.62</v>
+      </c>
+      <c r="AE195">
+        <v>3.69</v>
+      </c>
+      <c r="AF195">
+        <v>1.05</v>
+      </c>
+      <c r="AG195">
         <v>13</v>
       </c>
-      <c r="R195">
-        <v>1</v>
-      </c>
-      <c r="S195">
-        <v>14</v>
-      </c>
-      <c r="T195">
-        <v>1.66</v>
-      </c>
-      <c r="U195">
-        <v>2.79</v>
-      </c>
-      <c r="V195">
-        <v>7.6</v>
-      </c>
-      <c r="W195">
-        <v>1.25</v>
-      </c>
-      <c r="X195">
-        <v>3.75</v>
-      </c>
-      <c r="Y195">
+      <c r="AH195">
+        <v>1.27</v>
+      </c>
+      <c r="AI195">
+        <v>3.61</v>
+      </c>
+      <c r="AJ195">
+        <v>1.75</v>
+      </c>
+      <c r="AK195">
+        <v>2.08</v>
+      </c>
+      <c r="AL195">
+        <v>1.89</v>
+      </c>
+      <c r="AM195">
+        <v>1.85</v>
+      </c>
+      <c r="AN195">
+        <v>1.14</v>
+      </c>
+      <c r="AO195">
+        <v>1.24</v>
+      </c>
+      <c r="AP195">
+        <v>2.34</v>
+      </c>
+      <c r="AQ195">
+        <v>2.4</v>
+      </c>
+      <c r="AR195">
+        <v>0.88</v>
+      </c>
+      <c r="AS195">
+        <v>2.45</v>
+      </c>
+      <c r="AT195">
+        <v>0.78</v>
+      </c>
+      <c r="AU195">
+        <v>2.15</v>
+      </c>
+      <c r="AV195">
+        <v>1.35</v>
+      </c>
+      <c r="AW195">
+        <v>3.5</v>
+      </c>
+      <c r="AX195">
+        <v>1.5</v>
+      </c>
+      <c r="AY195">
+        <v>8.5</v>
+      </c>
+      <c r="AZ195">
+        <v>3.1</v>
+      </c>
+      <c r="BA195">
+        <v>1.4</v>
+      </c>
+      <c r="BB195">
+        <v>1.67</v>
+      </c>
+      <c r="BC195">
         <v>2.1</v>
       </c>
-      <c r="Z195">
-        <v>1.67</v>
-      </c>
-      <c r="AA195">
-        <v>4.33</v>
-      </c>
-      <c r="AB195">
-        <v>1.2</v>
-      </c>
-      <c r="AC195">
-        <v>1.1</v>
-      </c>
-      <c r="AD195">
-        <v>5.57</v>
-      </c>
-      <c r="AE195">
-        <v>10.7</v>
-      </c>
-      <c r="AF195">
-        <v>1.01</v>
-      </c>
-      <c r="AG195">
-        <v>26</v>
-      </c>
-      <c r="AH195">
-        <v>1.11</v>
-      </c>
-      <c r="AI195">
-        <v>6.09</v>
-      </c>
-      <c r="AJ195">
-        <v>1.46</v>
-      </c>
-      <c r="AK195">
-        <v>2.65</v>
-      </c>
-      <c r="AL195">
-        <v>1.83</v>
-      </c>
-      <c r="AM195">
-        <v>1.93</v>
-      </c>
-      <c r="AN195">
-        <v>1.07</v>
-      </c>
-      <c r="AO195">
-        <v>1.14</v>
-      </c>
-      <c r="AP195">
-        <v>3.84</v>
-      </c>
-      <c r="AQ195">
-        <v>2.44</v>
-      </c>
-      <c r="AR195">
-        <v>1</v>
-      </c>
-      <c r="AS195">
-        <v>2.55</v>
-      </c>
-      <c r="AT195">
-        <v>0.9</v>
-      </c>
-      <c r="AU195">
-        <v>2.34</v>
-      </c>
-      <c r="AV195">
-        <v>1.54</v>
-      </c>
-      <c r="AW195">
-        <v>3.88</v>
-      </c>
-      <c r="AX195">
-        <v>1.08</v>
-      </c>
-      <c r="AY195">
-        <v>15</v>
-      </c>
-      <c r="AZ195">
-        <v>8.5</v>
-      </c>
-      <c r="BA195">
-        <v>1.15</v>
-      </c>
-      <c r="BB195">
-        <v>1.26</v>
-      </c>
-      <c r="BC195">
-        <v>1.47</v>
-      </c>
       <c r="BD195">
-        <v>1.93</v>
+        <v>2.63</v>
       </c>
       <c r="BE195">
-        <v>2.37</v>
+        <v>4</v>
       </c>
       <c r="BF195">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BG195">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH195">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BI195">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ195">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BK195">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="340">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,9 @@
     <t>['18', '53']</t>
   </si>
   <si>
+    <t>['13', '45+6', '61', '78']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -1028,6 +1031,9 @@
   </si>
   <si>
     <t>['45+1', '65']</t>
+  </si>
+  <si>
+    <t>['6', '40']</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK204"/>
+  <dimension ref="A1:BK206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1639,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1824,7 +1830,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2105,7 +2111,7 @@
         <v>2.3</v>
       </c>
       <c r="AT4">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2206,7 +2212,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2397,7 +2403,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2484,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>1.45</v>
@@ -3060,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3161,7 +3167,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3248,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT10">
         <v>0.9</v>
@@ -3925,7 +3931,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4498,7 +4504,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4880,7 +4886,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5071,7 +5077,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5262,7 +5268,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5540,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>0.8</v>
@@ -5644,7 +5650,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5925,7 +5931,7 @@
         <v>2.27</v>
       </c>
       <c r="AT24">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU24">
         <v>1.84</v>
@@ -6026,7 +6032,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6217,7 +6223,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6408,7 +6414,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6498,7 +6504,7 @@
         <v>0.8</v>
       </c>
       <c r="AT27">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU27">
         <v>0.73</v>
@@ -6599,7 +6605,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6686,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
         <v>1.45</v>
@@ -6790,7 +6796,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6981,7 +6987,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7172,7 +7178,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -8318,7 +8324,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9169,10 +9175,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT41">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU41">
         <v>1.86</v>
@@ -9360,10 +9366,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT42">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU42">
         <v>2.13</v>
@@ -9655,7 +9661,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9846,7 +9852,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10037,7 +10043,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -11183,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11756,7 +11762,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11947,7 +11953,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12037,7 +12043,7 @@
         <v>1.6</v>
       </c>
       <c r="AT56">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU56">
         <v>1.66</v>
@@ -12138,7 +12144,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12228,7 +12234,7 @@
         <v>2.55</v>
       </c>
       <c r="AT57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU57">
         <v>2.33</v>
@@ -12329,7 +12335,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12520,7 +12526,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12711,7 +12717,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13093,7 +13099,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13284,7 +13290,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13562,7 +13568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT64">
         <v>0.55</v>
@@ -13857,7 +13863,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14048,7 +14054,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14430,7 +14436,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14621,7 +14627,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q70">
         <v>11</v>
@@ -15194,7 +15200,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15576,7 +15582,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15857,7 +15863,7 @@
         <v>1.42</v>
       </c>
       <c r="AT76">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU76">
         <v>1.61</v>
@@ -15958,7 +15964,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16045,7 +16051,7 @@
         <v>1.67</v>
       </c>
       <c r="AS77">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT77">
         <v>1.45</v>
@@ -16149,7 +16155,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16239,7 +16245,7 @@
         <v>0.45</v>
       </c>
       <c r="AT78">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16531,7 +16537,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16618,7 +16624,7 @@
         <v>0.67</v>
       </c>
       <c r="AS80">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT80">
         <v>1.18</v>
@@ -16913,7 +16919,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17104,7 +17110,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17486,7 +17492,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17868,7 +17874,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -18250,7 +18256,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18632,7 +18638,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18823,7 +18829,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -19014,7 +19020,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19483,7 +19489,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT95">
         <v>1.5</v>
@@ -19587,7 +19593,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19677,7 +19683,7 @@
         <v>1.17</v>
       </c>
       <c r="AT96">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19778,7 +19784,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19868,7 +19874,7 @@
         <v>2.2</v>
       </c>
       <c r="AT97">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU97">
         <v>2.15</v>
@@ -19969,7 +19975,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20247,7 +20253,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>1.1</v>
@@ -20542,7 +20548,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20733,7 +20739,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21115,7 +21121,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21306,7 +21312,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21497,7 +21503,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21688,7 +21694,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -22070,7 +22076,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22643,7 +22649,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22730,7 +22736,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT112">
         <v>1.08</v>
@@ -22834,7 +22840,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>10</v>
@@ -23025,7 +23031,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23115,7 +23121,7 @@
         <v>1.3</v>
       </c>
       <c r="AT114">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU114">
         <v>1.66</v>
@@ -23216,7 +23222,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23407,7 +23413,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23497,7 +23503,7 @@
         <v>2.45</v>
       </c>
       <c r="AT116">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU116">
         <v>2.04</v>
@@ -23598,7 +23604,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -23876,7 +23882,7 @@
         <v>0.6</v>
       </c>
       <c r="AS118">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT118">
         <v>1.18</v>
@@ -24171,7 +24177,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24362,7 +24368,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24553,7 +24559,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24640,7 +24646,7 @@
         <v>0.83</v>
       </c>
       <c r="AS122">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT122">
         <v>0.92</v>
@@ -24744,7 +24750,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24935,7 +24941,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25317,7 +25323,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25407,7 +25413,7 @@
         <v>1.73</v>
       </c>
       <c r="AT126">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU126">
         <v>1.51</v>
@@ -25508,7 +25514,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25699,7 +25705,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25890,7 +25896,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26081,7 +26087,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26654,7 +26660,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26845,7 +26851,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27418,7 +27424,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27696,7 +27702,7 @@
         <v>0.86</v>
       </c>
       <c r="AS138">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT138">
         <v>0.64</v>
@@ -27800,7 +27806,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -28081,7 +28087,7 @@
         <v>1.73</v>
       </c>
       <c r="AT140">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU140">
         <v>1.77</v>
@@ -28182,7 +28188,7 @@
         <v>187</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28373,7 +28379,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28651,7 +28657,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28946,7 +28952,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29137,7 +29143,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29328,7 +29334,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29519,7 +29525,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29710,7 +29716,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29901,7 +29907,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30092,7 +30098,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -31047,7 +31053,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -31137,7 +31143,7 @@
         <v>1.3</v>
       </c>
       <c r="AT156">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU156">
         <v>1.61</v>
@@ -31238,7 +31244,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31328,7 +31334,7 @@
         <v>1</v>
       </c>
       <c r="AT157">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU157">
         <v>1.48</v>
@@ -31516,7 +31522,7 @@
         <v>0.86</v>
       </c>
       <c r="AS158">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT158">
         <v>0.9</v>
@@ -31620,7 +31626,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31707,7 +31713,7 @@
         <v>2.22</v>
       </c>
       <c r="AS159">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT159">
         <v>2.36</v>
@@ -32193,7 +32199,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32766,7 +32772,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32957,7 +32963,7 @@
         <v>207</v>
       </c>
       <c r="P166" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33148,7 +33154,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33530,7 +33536,7 @@
         <v>84</v>
       </c>
       <c r="P169" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q169">
         <v>12</v>
@@ -33721,7 +33727,7 @@
         <v>209</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33912,7 +33918,7 @@
         <v>130</v>
       </c>
       <c r="P171" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34103,7 +34109,7 @@
         <v>150</v>
       </c>
       <c r="P172" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>17</v>
@@ -34294,7 +34300,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34676,7 +34682,7 @@
         <v>212</v>
       </c>
       <c r="P175" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34867,7 +34873,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35058,7 +35064,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35631,7 +35637,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36013,7 +36019,7 @@
         <v>217</v>
       </c>
       <c r="P182" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36395,7 +36401,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36586,7 +36592,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36777,7 +36783,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -36864,7 +36870,7 @@
         <v>2.3</v>
       </c>
       <c r="AS186">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT186">
         <v>2.36</v>
@@ -36968,7 +36974,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37058,7 +37064,7 @@
         <v>0.8</v>
       </c>
       <c r="AT187">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37246,7 +37252,7 @@
         <v>1</v>
       </c>
       <c r="AS188">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT188">
         <v>0.8</v>
@@ -37440,7 +37446,7 @@
         <v>2.27</v>
       </c>
       <c r="AT189">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU189">
         <v>1.64</v>
@@ -37541,7 +37547,7 @@
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37732,7 +37738,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37923,7 +37929,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38114,7 +38120,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38305,7 +38311,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38878,7 +38884,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39069,7 +39075,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39260,7 +39266,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -40357,6 +40363,388 @@
       </c>
       <c r="BK204">
         <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2831327</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44982.54166666666</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>73</v>
+      </c>
+      <c r="H205" t="s">
+        <v>81</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>2</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205" t="s">
+        <v>232</v>
+      </c>
+      <c r="P205" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q205">
+        <v>3</v>
+      </c>
+      <c r="R205">
+        <v>1</v>
+      </c>
+      <c r="S205">
+        <v>4</v>
+      </c>
+      <c r="T205">
+        <v>2.2</v>
+      </c>
+      <c r="U205">
+        <v>2.4</v>
+      </c>
+      <c r="V205">
+        <v>4.75</v>
+      </c>
+      <c r="W205">
+        <v>1.35</v>
+      </c>
+      <c r="X205">
+        <v>3.5</v>
+      </c>
+      <c r="Y205">
+        <v>2.55</v>
+      </c>
+      <c r="Z205">
+        <v>1.57</v>
+      </c>
+      <c r="AA205">
+        <v>6</v>
+      </c>
+      <c r="AB205">
+        <v>1.15</v>
+      </c>
+      <c r="AC205">
+        <v>1.45</v>
+      </c>
+      <c r="AD205">
+        <v>4.2</v>
+      </c>
+      <c r="AE205">
+        <v>6</v>
+      </c>
+      <c r="AF205">
+        <v>1.04</v>
+      </c>
+      <c r="AG205">
+        <v>15</v>
+      </c>
+      <c r="AH205">
+        <v>1.19</v>
+      </c>
+      <c r="AI205">
+        <v>4.5</v>
+      </c>
+      <c r="AJ205">
+        <v>1.62</v>
+      </c>
+      <c r="AK205">
+        <v>2.25</v>
+      </c>
+      <c r="AL205">
+        <v>1.68</v>
+      </c>
+      <c r="AM205">
+        <v>2.2</v>
+      </c>
+      <c r="AN205">
+        <v>1.2</v>
+      </c>
+      <c r="AO205">
+        <v>1.25</v>
+      </c>
+      <c r="AP205">
+        <v>2.35</v>
+      </c>
+      <c r="AQ205">
+        <v>2.27</v>
+      </c>
+      <c r="AR205">
+        <v>1.4</v>
+      </c>
+      <c r="AS205">
+        <v>2.33</v>
+      </c>
+      <c r="AT205">
+        <v>1.27</v>
+      </c>
+      <c r="AU205">
+        <v>2.07</v>
+      </c>
+      <c r="AV205">
+        <v>1.63</v>
+      </c>
+      <c r="AW205">
+        <v>3.7</v>
+      </c>
+      <c r="AX205">
+        <v>1.35</v>
+      </c>
+      <c r="AY205">
+        <v>8</v>
+      </c>
+      <c r="AZ205">
+        <v>4.33</v>
+      </c>
+      <c r="BA205">
+        <v>1.28</v>
+      </c>
+      <c r="BB205">
+        <v>1.53</v>
+      </c>
+      <c r="BC205">
+        <v>1.91</v>
+      </c>
+      <c r="BD205">
+        <v>2.46</v>
+      </c>
+      <c r="BE205">
+        <v>3.28</v>
+      </c>
+      <c r="BF205">
+        <v>7</v>
+      </c>
+      <c r="BG205">
+        <v>3</v>
+      </c>
+      <c r="BH205">
+        <v>9</v>
+      </c>
+      <c r="BI205">
+        <v>1</v>
+      </c>
+      <c r="BJ205">
+        <v>16</v>
+      </c>
+      <c r="BK205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2831328</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44982.54166666666</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>69</v>
+      </c>
+      <c r="H206" t="s">
+        <v>75</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>163</v>
+      </c>
+      <c r="P206" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q206">
+        <v>9</v>
+      </c>
+      <c r="R206">
+        <v>4</v>
+      </c>
+      <c r="S206">
+        <v>13</v>
+      </c>
+      <c r="T206">
+        <v>2.9</v>
+      </c>
+      <c r="U206">
+        <v>2.15</v>
+      </c>
+      <c r="V206">
+        <v>3.2</v>
+      </c>
+      <c r="W206">
+        <v>1.36</v>
+      </c>
+      <c r="X206">
+        <v>3</v>
+      </c>
+      <c r="Y206">
+        <v>2.62</v>
+      </c>
+      <c r="Z206">
+        <v>1.44</v>
+      </c>
+      <c r="AA206">
+        <v>6</v>
+      </c>
+      <c r="AB206">
+        <v>1.11</v>
+      </c>
+      <c r="AC206">
+        <v>2.3</v>
+      </c>
+      <c r="AD206">
+        <v>3.25</v>
+      </c>
+      <c r="AE206">
+        <v>2.8</v>
+      </c>
+      <c r="AF206">
+        <v>1.05</v>
+      </c>
+      <c r="AG206">
+        <v>13</v>
+      </c>
+      <c r="AH206">
+        <v>1.25</v>
+      </c>
+      <c r="AI206">
+        <v>3.82</v>
+      </c>
+      <c r="AJ206">
+        <v>1.9</v>
+      </c>
+      <c r="AK206">
+        <v>1.87</v>
+      </c>
+      <c r="AL206">
+        <v>1.64</v>
+      </c>
+      <c r="AM206">
+        <v>2.2</v>
+      </c>
+      <c r="AN206">
+        <v>1.44</v>
+      </c>
+      <c r="AO206">
+        <v>1.3</v>
+      </c>
+      <c r="AP206">
+        <v>1.53</v>
+      </c>
+      <c r="AQ206">
+        <v>1.11</v>
+      </c>
+      <c r="AR206">
+        <v>1.3</v>
+      </c>
+      <c r="AS206">
+        <v>1</v>
+      </c>
+      <c r="AT206">
+        <v>1.45</v>
+      </c>
+      <c r="AU206">
+        <v>1.83</v>
+      </c>
+      <c r="AV206">
+        <v>1.35</v>
+      </c>
+      <c r="AW206">
+        <v>3.18</v>
+      </c>
+      <c r="AX206">
+        <v>1.85</v>
+      </c>
+      <c r="AY206">
+        <v>6.5</v>
+      </c>
+      <c r="AZ206">
+        <v>2.45</v>
+      </c>
+      <c r="BA206">
+        <v>1.24</v>
+      </c>
+      <c r="BB206">
+        <v>1.48</v>
+      </c>
+      <c r="BC206">
+        <v>1.73</v>
+      </c>
+      <c r="BD206">
+        <v>2.1</v>
+      </c>
+      <c r="BE206">
+        <v>2.7</v>
+      </c>
+      <c r="BF206">
+        <v>9</v>
+      </c>
+      <c r="BG206">
+        <v>7</v>
+      </c>
+      <c r="BH206">
+        <v>16</v>
+      </c>
+      <c r="BI206">
+        <v>4</v>
+      </c>
+      <c r="BJ206">
+        <v>25</v>
+      </c>
+      <c r="BK206">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1035,6 +1035,9 @@
   <si>
     <t>['6', '40']</t>
   </si>
+  <si>
+    <t>['79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1395,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT4">
         <v>1.45</v>
@@ -2493,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -4400,10 +4403,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT16">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -5164,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT20">
         <v>2.36</v>
@@ -6119,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT25">
         <v>1.18</v>
@@ -6695,7 +6698,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU28">
         <v>1.95</v>
@@ -6886,7 +6889,7 @@
         <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU29">
         <v>2.86</v>
@@ -8411,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT37">
         <v>1.18</v>
@@ -8602,7 +8605,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -9560,7 +9563,7 @@
         <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU43">
         <v>1.75</v>
@@ -11470,7 +11473,7 @@
         <v>1.73</v>
       </c>
       <c r="AT53">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU53">
         <v>1.51</v>
@@ -11658,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT54">
         <v>1.5</v>
@@ -12422,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT58">
         <v>0.8</v>
@@ -12807,7 +12810,7 @@
         <v>1.42</v>
       </c>
       <c r="AT60">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU60">
         <v>1.8</v>
@@ -15096,7 +15099,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT72">
         <v>2</v>
@@ -15481,7 +15484,7 @@
         <v>1.3</v>
       </c>
       <c r="AT74">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU74">
         <v>1.89</v>
@@ -16242,7 +16245,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT78">
         <v>1.45</v>
@@ -17200,7 +17203,7 @@
         <v>1.73</v>
       </c>
       <c r="AT83">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -17582,7 +17585,7 @@
         <v>1.17</v>
       </c>
       <c r="AT85">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU85">
         <v>1.4</v>
@@ -18343,7 +18346,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -19107,7 +19110,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT93">
         <v>1.18</v>
@@ -21402,7 +21405,7 @@
         <v>1.73</v>
       </c>
       <c r="AT105">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU105">
         <v>1.5</v>
@@ -21590,7 +21593,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT106">
         <v>0.9</v>
@@ -22166,7 +22169,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU109">
         <v>1.82</v>
@@ -22354,7 +22357,7 @@
         <v>0.83</v>
       </c>
       <c r="AS110">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT110">
         <v>0.55</v>
@@ -24076,7 +24079,7 @@
         <v>1.73</v>
       </c>
       <c r="AT119">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU119">
         <v>1.8</v>
@@ -25601,7 +25604,7 @@
         <v>1.6</v>
       </c>
       <c r="AS127">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT127">
         <v>1.5</v>
@@ -27323,7 +27326,7 @@
         <v>2.27</v>
       </c>
       <c r="AT136">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU136">
         <v>1.7</v>
@@ -28848,10 +28851,10 @@
         <v>1.63</v>
       </c>
       <c r="AS144">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT144">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU144">
         <v>2.37</v>
@@ -29039,7 +29042,7 @@
         <v>0.75</v>
       </c>
       <c r="AS145">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT145">
         <v>0.64</v>
@@ -30761,7 +30764,7 @@
         <v>1.6</v>
       </c>
       <c r="AT154">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU154">
         <v>1.55</v>
@@ -30949,7 +30952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS155">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT155">
         <v>0.8</v>
@@ -31907,7 +31910,7 @@
         <v>2.27</v>
       </c>
       <c r="AT160">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU160">
         <v>1.61</v>
@@ -33623,7 +33626,7 @@
         <v>0.78</v>
       </c>
       <c r="AS169">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT169">
         <v>1.08</v>
@@ -34581,7 +34584,7 @@
         <v>2.55</v>
       </c>
       <c r="AT174">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU174">
         <v>2.34</v>
@@ -35724,7 +35727,7 @@
         <v>2</v>
       </c>
       <c r="AS180">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AT180">
         <v>2</v>
@@ -35915,7 +35918,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT181">
         <v>0.55</v>
@@ -36109,7 +36112,7 @@
         <v>1</v>
       </c>
       <c r="AT182">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU182">
         <v>1.69</v>
@@ -38592,7 +38595,7 @@
         <v>2.45</v>
       </c>
       <c r="AT195">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU195">
         <v>2.15</v>
@@ -40745,6 +40748,388 @@
       </c>
       <c r="BK206">
         <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2831325</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44983.41666666666</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>79</v>
+      </c>
+      <c r="H207" t="s">
+        <v>76</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>97</v>
+      </c>
+      <c r="P207" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q207">
+        <v>7</v>
+      </c>
+      <c r="R207">
+        <v>7</v>
+      </c>
+      <c r="S207">
+        <v>14</v>
+      </c>
+      <c r="T207">
+        <v>3.6</v>
+      </c>
+      <c r="U207">
+        <v>2.35</v>
+      </c>
+      <c r="V207">
+        <v>2.65</v>
+      </c>
+      <c r="W207">
+        <v>1.33</v>
+      </c>
+      <c r="X207">
+        <v>3.6</v>
+      </c>
+      <c r="Y207">
+        <v>2.5</v>
+      </c>
+      <c r="Z207">
+        <v>1.6</v>
+      </c>
+      <c r="AA207">
+        <v>6</v>
+      </c>
+      <c r="AB207">
+        <v>1.16</v>
+      </c>
+      <c r="AC207">
+        <v>3</v>
+      </c>
+      <c r="AD207">
+        <v>3.8</v>
+      </c>
+      <c r="AE207">
+        <v>2.1</v>
+      </c>
+      <c r="AF207">
+        <v>1.04</v>
+      </c>
+      <c r="AG207">
+        <v>15</v>
+      </c>
+      <c r="AH207">
+        <v>1.19</v>
+      </c>
+      <c r="AI207">
+        <v>4.5</v>
+      </c>
+      <c r="AJ207">
+        <v>1.64</v>
+      </c>
+      <c r="AK207">
+        <v>2.28</v>
+      </c>
+      <c r="AL207">
+        <v>1.55</v>
+      </c>
+      <c r="AM207">
+        <v>2.45</v>
+      </c>
+      <c r="AN207">
+        <v>1.83</v>
+      </c>
+      <c r="AO207">
+        <v>1.3</v>
+      </c>
+      <c r="AP207">
+        <v>1.38</v>
+      </c>
+      <c r="AQ207">
+        <v>0.45</v>
+      </c>
+      <c r="AR207">
+        <v>1.45</v>
+      </c>
+      <c r="AS207">
+        <v>0.5</v>
+      </c>
+      <c r="AT207">
+        <v>1.42</v>
+      </c>
+      <c r="AU207">
+        <v>1.73</v>
+      </c>
+      <c r="AV207">
+        <v>1.76</v>
+      </c>
+      <c r="AW207">
+        <v>3.49</v>
+      </c>
+      <c r="AX207">
+        <v>2.2</v>
+      </c>
+      <c r="AY207">
+        <v>6.5</v>
+      </c>
+      <c r="AZ207">
+        <v>2.05</v>
+      </c>
+      <c r="BA207">
+        <v>1.18</v>
+      </c>
+      <c r="BB207">
+        <v>1.36</v>
+      </c>
+      <c r="BC207">
+        <v>1.88</v>
+      </c>
+      <c r="BD207">
+        <v>2.11</v>
+      </c>
+      <c r="BE207">
+        <v>2.76</v>
+      </c>
+      <c r="BF207">
+        <v>8</v>
+      </c>
+      <c r="BG207">
+        <v>8</v>
+      </c>
+      <c r="BH207">
+        <v>7</v>
+      </c>
+      <c r="BI207">
+        <v>12</v>
+      </c>
+      <c r="BJ207">
+        <v>15</v>
+      </c>
+      <c r="BK207">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2831241</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44983.54166666666</v>
+      </c>
+      <c r="F208">
+        <v>14</v>
+      </c>
+      <c r="G208" t="s">
+        <v>67</v>
+      </c>
+      <c r="H208" t="s">
+        <v>70</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208" t="s">
+        <v>84</v>
+      </c>
+      <c r="P208" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q208">
+        <v>8</v>
+      </c>
+      <c r="R208">
+        <v>1</v>
+      </c>
+      <c r="S208">
+        <v>9</v>
+      </c>
+      <c r="T208">
+        <v>2.1</v>
+      </c>
+      <c r="U208">
+        <v>2.25</v>
+      </c>
+      <c r="V208">
+        <v>5</v>
+      </c>
+      <c r="W208">
+        <v>1.32</v>
+      </c>
+      <c r="X208">
+        <v>3.1</v>
+      </c>
+      <c r="Y208">
+        <v>2.4</v>
+      </c>
+      <c r="Z208">
+        <v>1.5</v>
+      </c>
+      <c r="AA208">
+        <v>5.75</v>
+      </c>
+      <c r="AB208">
+        <v>1.12</v>
+      </c>
+      <c r="AC208">
+        <v>1.67</v>
+      </c>
+      <c r="AD208">
+        <v>3.8</v>
+      </c>
+      <c r="AE208">
+        <v>5</v>
+      </c>
+      <c r="AF208">
+        <v>1.03</v>
+      </c>
+      <c r="AG208">
+        <v>14.75</v>
+      </c>
+      <c r="AH208">
+        <v>1.22</v>
+      </c>
+      <c r="AI208">
+        <v>4.15</v>
+      </c>
+      <c r="AJ208">
+        <v>1.7</v>
+      </c>
+      <c r="AK208">
+        <v>1.95</v>
+      </c>
+      <c r="AL208">
+        <v>1.73</v>
+      </c>
+      <c r="AM208">
+        <v>1.95</v>
+      </c>
+      <c r="AN208">
+        <v>1.15</v>
+      </c>
+      <c r="AO208">
+        <v>1.23</v>
+      </c>
+      <c r="AP208">
+        <v>2.3</v>
+      </c>
+      <c r="AQ208">
+        <v>2.3</v>
+      </c>
+      <c r="AR208">
+        <v>0.78</v>
+      </c>
+      <c r="AS208">
+        <v>2.18</v>
+      </c>
+      <c r="AT208">
+        <v>0.8</v>
+      </c>
+      <c r="AU208">
+        <v>2.35</v>
+      </c>
+      <c r="AV208">
+        <v>1.27</v>
+      </c>
+      <c r="AW208">
+        <v>3.62</v>
+      </c>
+      <c r="AX208">
+        <v>1.35</v>
+      </c>
+      <c r="AY208">
+        <v>9</v>
+      </c>
+      <c r="AZ208">
+        <v>4.24</v>
+      </c>
+      <c r="BA208">
+        <v>1.31</v>
+      </c>
+      <c r="BB208">
+        <v>1.61</v>
+      </c>
+      <c r="BC208">
+        <v>2.07</v>
+      </c>
+      <c r="BD208">
+        <v>2.73</v>
+      </c>
+      <c r="BE208">
+        <v>3.74</v>
+      </c>
+      <c r="BF208">
+        <v>6</v>
+      </c>
+      <c r="BG208">
+        <v>2</v>
+      </c>
+      <c r="BH208">
+        <v>10</v>
+      </c>
+      <c r="BI208">
+        <v>2</v>
+      </c>
+      <c r="BJ208">
+        <v>16</v>
+      </c>
+      <c r="BK208">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1398,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT17">
         <v>1.45</v>
@@ -4788,7 +4788,7 @@
         <v>1.18</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT31">
         <v>1.08</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT47">
         <v>1.1</v>
@@ -11664,7 +11664,7 @@
         <v>2.18</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU54">
         <v>2.54</v>
@@ -14147,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU67">
         <v>1.39</v>
@@ -14717,7 +14717,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT70">
         <v>0.92</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT83">
         <v>0.8</v>
@@ -19495,7 +19495,7 @@
         <v>2.33</v>
       </c>
       <c r="AT95">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU95">
         <v>2.04</v>
@@ -21020,7 +21020,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -23697,7 +23697,7 @@
         <v>1.6</v>
       </c>
       <c r="AT117">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU117">
         <v>1.6</v>
@@ -24076,7 +24076,7 @@
         <v>1.71</v>
       </c>
       <c r="AS119">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT119">
         <v>1.42</v>
@@ -25607,7 +25607,7 @@
         <v>0.5</v>
       </c>
       <c r="AT127">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU127">
         <v>1.68</v>
@@ -28087,7 +28087,7 @@
         <v>1.43</v>
       </c>
       <c r="AS140">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT140">
         <v>1.45</v>
@@ -30191,7 +30191,7 @@
         <v>1.3</v>
       </c>
       <c r="AT151">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU151">
         <v>1.72</v>
@@ -32098,7 +32098,7 @@
         <v>1.38</v>
       </c>
       <c r="AS161">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT161">
         <v>1</v>
@@ -33438,7 +33438,7 @@
         <v>2.45</v>
       </c>
       <c r="AT168">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU168">
         <v>2.21</v>
@@ -34393,7 +34393,7 @@
         <v>1.17</v>
       </c>
       <c r="AT173">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU173">
         <v>1.69</v>
@@ -34963,7 +34963,7 @@
         <v>1</v>
       </c>
       <c r="AS176">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT176">
         <v>1.18</v>
@@ -37637,7 +37637,7 @@
         <v>1</v>
       </c>
       <c r="AS190">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT190">
         <v>1.18</v>
@@ -38786,7 +38786,7 @@
         <v>1.73</v>
       </c>
       <c r="AT196">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU196">
         <v>1.67</v>
@@ -41130,6 +41130,197 @@
       </c>
       <c r="BK208">
         <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2831334</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44988.58333333334</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>80</v>
+      </c>
+      <c r="H209" t="s">
+        <v>71</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>120</v>
+      </c>
+      <c r="P209" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q209">
+        <v>2</v>
+      </c>
+      <c r="R209">
+        <v>10</v>
+      </c>
+      <c r="S209">
+        <v>12</v>
+      </c>
+      <c r="T209">
+        <v>3.4</v>
+      </c>
+      <c r="U209">
+        <v>2.2</v>
+      </c>
+      <c r="V209">
+        <v>3</v>
+      </c>
+      <c r="W209">
+        <v>1.36</v>
+      </c>
+      <c r="X209">
+        <v>3</v>
+      </c>
+      <c r="Y209">
+        <v>2.75</v>
+      </c>
+      <c r="Z209">
+        <v>1.4</v>
+      </c>
+      <c r="AA209">
+        <v>7</v>
+      </c>
+      <c r="AB209">
+        <v>1.1</v>
+      </c>
+      <c r="AC209">
+        <v>2.74</v>
+      </c>
+      <c r="AD209">
+        <v>3.52</v>
+      </c>
+      <c r="AE209">
+        <v>2.47</v>
+      </c>
+      <c r="AF209">
+        <v>1.05</v>
+      </c>
+      <c r="AG209">
+        <v>13</v>
+      </c>
+      <c r="AH209">
+        <v>1.27</v>
+      </c>
+      <c r="AI209">
+        <v>3.61</v>
+      </c>
+      <c r="AJ209">
+        <v>1.83</v>
+      </c>
+      <c r="AK209">
+        <v>1.98</v>
+      </c>
+      <c r="AL209">
+        <v>1.67</v>
+      </c>
+      <c r="AM209">
+        <v>2.1</v>
+      </c>
+      <c r="AN209">
+        <v>1.55</v>
+      </c>
+      <c r="AO209">
+        <v>1.31</v>
+      </c>
+      <c r="AP209">
+        <v>1.4</v>
+      </c>
+      <c r="AQ209">
+        <v>1.73</v>
+      </c>
+      <c r="AR209">
+        <v>1.5</v>
+      </c>
+      <c r="AS209">
+        <v>1.83</v>
+      </c>
+      <c r="AT209">
+        <v>1.36</v>
+      </c>
+      <c r="AU209">
+        <v>1.64</v>
+      </c>
+      <c r="AV209">
+        <v>1.6</v>
+      </c>
+      <c r="AW209">
+        <v>3.24</v>
+      </c>
+      <c r="AX209">
+        <v>1.97</v>
+      </c>
+      <c r="AY209">
+        <v>7.5</v>
+      </c>
+      <c r="AZ209">
+        <v>2.21</v>
+      </c>
+      <c r="BA209">
+        <v>1.25</v>
+      </c>
+      <c r="BB209">
+        <v>1.57</v>
+      </c>
+      <c r="BC209">
+        <v>2</v>
+      </c>
+      <c r="BD209">
+        <v>2.4</v>
+      </c>
+      <c r="BE209">
+        <v>3.28</v>
+      </c>
+      <c r="BF209">
+        <v>4</v>
+      </c>
+      <c r="BG209">
+        <v>4</v>
+      </c>
+      <c r="BH209">
+        <v>5</v>
+      </c>
+      <c r="BI209">
+        <v>4</v>
+      </c>
+      <c r="BJ209">
+        <v>9</v>
+      </c>
+      <c r="BK209">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,15 @@
     <t>['13', '45+6', '61', '78']</t>
   </si>
   <si>
+    <t>['45+4', '53', '69', '80']</t>
+  </si>
+  <si>
+    <t>['40', '55']</t>
+  </si>
+  <si>
+    <t>['-1', '-1', '-1']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -1037,6 +1046,15 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['27', '90+1', '90+6']</t>
+  </si>
+  <si>
+    <t>['51', '65']</t>
+  </si>
+  <si>
+    <t>['6', '67']</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1642,7 +1660,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1833,7 +1851,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2111,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT4">
         <v>1.45</v>
@@ -2215,7 +2233,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2302,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT5">
         <v>0.55</v>
@@ -2406,7 +2424,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2687,7 +2705,7 @@
         <v>1.42</v>
       </c>
       <c r="AT7">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3170,7 +3188,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3260,7 +3278,7 @@
         <v>2.33</v>
       </c>
       <c r="AT10">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3448,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT11">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3639,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT12">
         <v>1.08</v>
@@ -3830,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT13">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3934,7 +3952,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4212,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT15">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4507,7 +4525,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4785,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT18">
         <v>1.36</v>
@@ -4889,7 +4907,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4979,7 +4997,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5080,7 +5098,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5170,7 +5188,7 @@
         <v>0.5</v>
       </c>
       <c r="AT20">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU20">
         <v>1.97</v>
@@ -5271,7 +5289,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5653,7 +5671,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6035,7 +6053,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6122,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT25">
         <v>1.18</v>
@@ -6226,7 +6244,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6417,7 +6435,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6608,7 +6626,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6799,7 +6817,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6886,7 +6904,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT29">
         <v>0.8</v>
@@ -6990,7 +7008,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7077,10 +7095,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT30">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.64</v>
@@ -7181,7 +7199,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7459,10 +7477,10 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT32">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU32">
         <v>3.35</v>
@@ -7650,7 +7668,7 @@
         <v>3</v>
       </c>
       <c r="AS33">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT33">
         <v>0.92</v>
@@ -7844,7 +7862,7 @@
         <v>1.17</v>
       </c>
       <c r="AT34">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU34">
         <v>0.82</v>
@@ -8032,10 +8050,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT35">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU35">
         <v>2.23</v>
@@ -8223,10 +8241,10 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU36">
         <v>0.86</v>
@@ -8327,7 +8345,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8414,10 +8432,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT37">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU37">
         <v>2.55</v>
@@ -9664,7 +9682,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9855,7 +9873,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10046,7 +10064,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10327,7 +10345,7 @@
         <v>1.83</v>
       </c>
       <c r="AT47">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU47">
         <v>2.12</v>
@@ -10515,10 +10533,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT48">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10706,7 +10724,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT49">
         <v>0.92</v>
@@ -11088,10 +11106,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT51">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU51">
         <v>2.3</v>
@@ -11192,7 +11210,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11282,7 +11300,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU52">
         <v>1.04</v>
@@ -11470,7 +11488,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT53">
         <v>0.8</v>
@@ -11661,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT54">
         <v>1.36</v>
@@ -11765,7 +11783,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11852,7 +11870,7 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11956,7 +11974,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12147,7 +12165,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12338,7 +12356,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12529,7 +12547,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12720,7 +12738,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13102,7 +13120,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13189,7 +13207,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13293,7 +13311,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13383,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU63">
         <v>1.33</v>
@@ -13866,7 +13884,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13953,7 +13971,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT66">
         <v>1</v>
@@ -14057,7 +14075,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14335,10 +14353,10 @@
         <v>2.5</v>
       </c>
       <c r="AS68">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT68">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU68">
         <v>2.39</v>
@@ -14439,7 +14457,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14529,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU69">
         <v>1.43</v>
@@ -14630,7 +14648,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q70">
         <v>11</v>
@@ -14908,10 +14926,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT71">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU71">
         <v>1.35</v>
@@ -15099,10 +15117,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU72">
         <v>2.58</v>
@@ -15203,7 +15221,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15290,7 +15308,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT73">
         <v>1.08</v>
@@ -15481,7 +15499,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT74">
         <v>1.42</v>
@@ -15585,7 +15603,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15675,7 +15693,7 @@
         <v>0.8</v>
       </c>
       <c r="AT75">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.24</v>
@@ -15967,7 +15985,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16158,7 +16176,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16540,7 +16558,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16818,7 +16836,7 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT81">
         <v>0.8</v>
@@ -16922,7 +16940,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17012,7 +17030,7 @@
         <v>2.27</v>
       </c>
       <c r="AT82">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU82">
         <v>1.62</v>
@@ -17113,7 +17131,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17391,10 +17409,10 @@
         <v>0.75</v>
       </c>
       <c r="AS84">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT84">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU84">
         <v>1.56</v>
@@ -17495,7 +17513,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17773,7 +17791,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17877,7 +17895,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17964,10 +17982,10 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT87">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU87">
         <v>1.39</v>
@@ -18259,7 +18277,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18346,7 +18364,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18641,7 +18659,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18731,7 +18749,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU91">
         <v>1.41</v>
@@ -18832,7 +18850,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -19023,7 +19041,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19301,10 +19319,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT94">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU94">
         <v>2.15</v>
@@ -19596,7 +19614,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19787,7 +19805,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19874,7 +19892,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT97">
         <v>1.27</v>
@@ -19978,7 +19996,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20259,7 +20277,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU99">
         <v>1.71</v>
@@ -20551,7 +20569,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20638,10 +20656,10 @@
         <v>1.83</v>
       </c>
       <c r="AS101">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT101">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -20742,7 +20760,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20829,7 +20847,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT102">
         <v>0.8</v>
@@ -21124,7 +21142,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21214,7 +21232,7 @@
         <v>1</v>
       </c>
       <c r="AT104">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU104">
         <v>1.42</v>
@@ -21315,7 +21333,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21402,7 +21420,7 @@
         <v>1.83</v>
       </c>
       <c r="AS105">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
         <v>1.42</v>
@@ -21506,7 +21524,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21593,10 +21611,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT106">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU106">
         <v>2.38</v>
@@ -21697,7 +21715,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21787,7 +21805,7 @@
         <v>0.8</v>
       </c>
       <c r="AT107">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU107">
         <v>1.24</v>
@@ -22079,7 +22097,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22551,7 +22569,7 @@
         <v>1.17</v>
       </c>
       <c r="AT111">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>1.84</v>
@@ -22652,7 +22670,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22843,7 +22861,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q113">
         <v>10</v>
@@ -23034,7 +23052,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23121,7 +23139,7 @@
         <v>1.17</v>
       </c>
       <c r="AS114">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT114">
         <v>1.45</v>
@@ -23225,7 +23243,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23416,7 +23434,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23503,7 +23521,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT116">
         <v>1.27</v>
@@ -23607,7 +23625,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -23888,7 +23906,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -24180,7 +24198,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24371,7 +24389,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24461,7 +24479,7 @@
         <v>1</v>
       </c>
       <c r="AT121">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU121">
         <v>1.68</v>
@@ -24562,7 +24580,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24753,7 +24771,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24843,7 +24861,7 @@
         <v>2.27</v>
       </c>
       <c r="AT123">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU123">
         <v>1.76</v>
@@ -24944,7 +24962,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25031,7 +25049,7 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT124">
         <v>1</v>
@@ -25225,7 +25243,7 @@
         <v>0.8</v>
       </c>
       <c r="AT125">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU125">
         <v>1.2</v>
@@ -25326,7 +25344,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25413,7 +25431,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT126">
         <v>1.27</v>
@@ -25517,7 +25535,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25708,7 +25726,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25798,7 +25816,7 @@
         <v>1.42</v>
       </c>
       <c r="AT128">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>1.78</v>
@@ -25899,7 +25917,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26090,7 +26108,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26180,7 +26198,7 @@
         <v>1.17</v>
       </c>
       <c r="AT130">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -26368,10 +26386,10 @@
         <v>2</v>
       </c>
       <c r="AS131">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT131">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU131">
         <v>2.11</v>
@@ -26559,7 +26577,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT132">
         <v>1.18</v>
@@ -26663,7 +26681,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26750,7 +26768,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT133">
         <v>1.45</v>
@@ -26854,7 +26872,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26941,7 +26959,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT134">
         <v>0.55</v>
@@ -27427,7 +27445,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27517,7 +27535,7 @@
         <v>1</v>
       </c>
       <c r="AT137">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU137">
         <v>1.39</v>
@@ -27708,7 +27726,7 @@
         <v>2.33</v>
       </c>
       <c r="AT138">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU138">
         <v>1.86</v>
@@ -27809,7 +27827,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -28191,7 +28209,7 @@
         <v>187</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28278,7 +28296,7 @@
         <v>1.57</v>
       </c>
       <c r="AS141">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28382,7 +28400,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28472,7 +28490,7 @@
         <v>1</v>
       </c>
       <c r="AT142">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU142">
         <v>1.69</v>
@@ -28851,7 +28869,7 @@
         <v>1.63</v>
       </c>
       <c r="AS144">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT144">
         <v>1.42</v>
@@ -28955,7 +28973,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29045,7 +29063,7 @@
         <v>0.5</v>
       </c>
       <c r="AT145">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU145">
         <v>1.66</v>
@@ -29146,7 +29164,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29236,7 +29254,7 @@
         <v>1.42</v>
       </c>
       <c r="AT146">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU146">
         <v>1.76</v>
@@ -29337,7 +29355,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29424,7 +29442,7 @@
         <v>0.71</v>
       </c>
       <c r="AS147">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT147">
         <v>1.18</v>
@@ -29528,7 +29546,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29719,7 +29737,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29809,7 +29827,7 @@
         <v>2.55</v>
       </c>
       <c r="AT149">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU149">
         <v>2.32</v>
@@ -29910,7 +29928,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29997,10 +30015,10 @@
         <v>0.86</v>
       </c>
       <c r="AS150">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU150">
         <v>1.45</v>
@@ -30101,7 +30119,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30188,7 +30206,7 @@
         <v>1.83</v>
       </c>
       <c r="AS151">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT151">
         <v>1.36</v>
@@ -30379,7 +30397,7 @@
         <v>1.13</v>
       </c>
       <c r="AS152">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT152">
         <v>0.92</v>
@@ -30570,7 +30588,7 @@
         <v>0.88</v>
       </c>
       <c r="AS153">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT153">
         <v>1.08</v>
@@ -30952,7 +30970,7 @@
         <v>1.14</v>
       </c>
       <c r="AS155">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT155">
         <v>0.8</v>
@@ -31056,7 +31074,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -31143,7 +31161,7 @@
         <v>1.63</v>
       </c>
       <c r="AS156">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT156">
         <v>1.27</v>
@@ -31247,7 +31265,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31528,7 +31546,7 @@
         <v>1</v>
       </c>
       <c r="AT158">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU158">
         <v>1.85</v>
@@ -31629,7 +31647,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31719,7 +31737,7 @@
         <v>2.33</v>
       </c>
       <c r="AT159">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU159">
         <v>2.01</v>
@@ -32202,7 +32220,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32480,10 +32498,10 @@
         <v>0.88</v>
       </c>
       <c r="AS163">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT163">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32674,7 +32692,7 @@
         <v>2.55</v>
       </c>
       <c r="AT164">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU164">
         <v>2.24</v>
@@ -32775,7 +32793,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32966,7 +32984,7 @@
         <v>207</v>
       </c>
       <c r="P166" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33053,10 +33071,10 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT166">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>2.23</v>
@@ -33157,7 +33175,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33244,7 +33262,7 @@
         <v>1.29</v>
       </c>
       <c r="AS167">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT167">
         <v>1.45</v>
@@ -33435,7 +33453,7 @@
         <v>1.71</v>
       </c>
       <c r="AS168">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT168">
         <v>1.36</v>
@@ -33539,7 +33557,7 @@
         <v>84</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>12</v>
@@ -33730,7 +33748,7 @@
         <v>209</v>
       </c>
       <c r="P170" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33921,7 +33939,7 @@
         <v>130</v>
       </c>
       <c r="P171" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34008,10 +34026,10 @@
         <v>1.86</v>
       </c>
       <c r="AS171">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT171">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU171">
         <v>1.7</v>
@@ -34112,7 +34130,7 @@
         <v>150</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q172">
         <v>17</v>
@@ -34199,7 +34217,7 @@
         <v>1</v>
       </c>
       <c r="AS172">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT172">
         <v>0.92</v>
@@ -34303,7 +34321,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34685,7 +34703,7 @@
         <v>212</v>
       </c>
       <c r="P175" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34772,10 +34790,10 @@
         <v>0.78</v>
       </c>
       <c r="AS175">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT175">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU175">
         <v>1.67</v>
@@ -34876,7 +34894,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35067,7 +35085,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35154,7 +35172,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT177">
         <v>1.45</v>
@@ -35345,7 +35363,7 @@
         <v>1</v>
       </c>
       <c r="AS178">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT178">
         <v>1.08</v>
@@ -35536,10 +35554,10 @@
         <v>0.89</v>
       </c>
       <c r="AS179">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT179">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AU179">
         <v>1.53</v>
@@ -35640,7 +35658,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -35730,7 +35748,7 @@
         <v>0.5</v>
       </c>
       <c r="AT180">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU180">
         <v>1.78</v>
@@ -35918,7 +35936,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT181">
         <v>0.55</v>
@@ -36022,7 +36040,7 @@
         <v>217</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36404,7 +36422,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36595,7 +36613,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36685,7 +36703,7 @@
         <v>1.42</v>
       </c>
       <c r="AT185">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU185">
         <v>1.73</v>
@@ -36786,7 +36804,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -36876,7 +36894,7 @@
         <v>1</v>
       </c>
       <c r="AT186">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AU186">
         <v>1.85</v>
@@ -36977,7 +36995,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37550,7 +37568,7 @@
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37640,7 +37658,7 @@
         <v>1.83</v>
       </c>
       <c r="AT190">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU190">
         <v>1.66</v>
@@ -37741,7 +37759,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37828,7 +37846,7 @@
         <v>1.67</v>
       </c>
       <c r="AS191">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT191">
         <v>1.45</v>
@@ -37932,7 +37950,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38123,7 +38141,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38210,10 +38228,10 @@
         <v>0.7</v>
       </c>
       <c r="AS193">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT193">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU193">
         <v>1.63</v>
@@ -38314,7 +38332,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38404,7 +38422,7 @@
         <v>2.55</v>
       </c>
       <c r="AT194">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU194">
         <v>2.34</v>
@@ -38592,7 +38610,7 @@
         <v>0.88</v>
       </c>
       <c r="AS195">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT195">
         <v>0.8</v>
@@ -38783,7 +38801,7 @@
         <v>1.67</v>
       </c>
       <c r="AS196">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT196">
         <v>1.36</v>
@@ -38887,7 +38905,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -38974,7 +38992,7 @@
         <v>0.91</v>
       </c>
       <c r="AS197">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT197">
         <v>1.08</v>
@@ -39078,7 +39096,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39165,10 +39183,10 @@
         <v>2.11</v>
       </c>
       <c r="AS198">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT198">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AU198">
         <v>2.28</v>
@@ -39269,7 +39287,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -40606,7 +40624,7 @@
         <v>163</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40797,7 +40815,7 @@
         <v>97</v>
       </c>
       <c r="P207" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -41075,7 +41093,7 @@
         <v>0.78</v>
       </c>
       <c r="AS208">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT208">
         <v>0.8</v>
@@ -41321,6 +41339,1343 @@
       </c>
       <c r="BK209">
         <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2831332</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44989.3125</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" t="s">
+        <v>66</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>2</v>
+      </c>
+      <c r="L210">
+        <v>4</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>7</v>
+      </c>
+      <c r="O210" t="s">
+        <v>233</v>
+      </c>
+      <c r="P210" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q210">
+        <v>4</v>
+      </c>
+      <c r="R210">
+        <v>5</v>
+      </c>
+      <c r="S210">
+        <v>9</v>
+      </c>
+      <c r="T210">
+        <v>2.88</v>
+      </c>
+      <c r="U210">
+        <v>2.3</v>
+      </c>
+      <c r="V210">
+        <v>3.4</v>
+      </c>
+      <c r="W210">
+        <v>1.33</v>
+      </c>
+      <c r="X210">
+        <v>3.25</v>
+      </c>
+      <c r="Y210">
+        <v>2.63</v>
+      </c>
+      <c r="Z210">
+        <v>1.44</v>
+      </c>
+      <c r="AA210">
+        <v>6.5</v>
+      </c>
+      <c r="AB210">
+        <v>1.11</v>
+      </c>
+      <c r="AC210">
+        <v>2.1</v>
+      </c>
+      <c r="AD210">
+        <v>3.25</v>
+      </c>
+      <c r="AE210">
+        <v>3</v>
+      </c>
+      <c r="AF210">
+        <v>1.05</v>
+      </c>
+      <c r="AG210">
+        <v>13</v>
+      </c>
+      <c r="AH210">
+        <v>1.25</v>
+      </c>
+      <c r="AI210">
+        <v>3.82</v>
+      </c>
+      <c r="AJ210">
+        <v>1.7</v>
+      </c>
+      <c r="AK210">
+        <v>1.95</v>
+      </c>
+      <c r="AL210">
+        <v>1.62</v>
+      </c>
+      <c r="AM210">
+        <v>2.2</v>
+      </c>
+      <c r="AN210">
+        <v>1.4</v>
+      </c>
+      <c r="AO210">
+        <v>1.29</v>
+      </c>
+      <c r="AP210">
+        <v>1.57</v>
+      </c>
+      <c r="AQ210">
+        <v>1.3</v>
+      </c>
+      <c r="AR210">
+        <v>1.18</v>
+      </c>
+      <c r="AS210">
+        <v>1.45</v>
+      </c>
+      <c r="AT210">
+        <v>1.08</v>
+      </c>
+      <c r="AU210">
+        <v>1.54</v>
+      </c>
+      <c r="AV210">
+        <v>1.43</v>
+      </c>
+      <c r="AW210">
+        <v>2.97</v>
+      </c>
+      <c r="AX210">
+        <v>1.98</v>
+      </c>
+      <c r="AY210">
+        <v>7.5</v>
+      </c>
+      <c r="AZ210">
+        <v>2.2</v>
+      </c>
+      <c r="BA210">
+        <v>1.4</v>
+      </c>
+      <c r="BB210">
+        <v>1.67</v>
+      </c>
+      <c r="BC210">
+        <v>2.1</v>
+      </c>
+      <c r="BD210">
+        <v>2.63</v>
+      </c>
+      <c r="BE210">
+        <v>3.42</v>
+      </c>
+      <c r="BF210">
+        <v>10</v>
+      </c>
+      <c r="BG210">
+        <v>8</v>
+      </c>
+      <c r="BH210">
+        <v>4</v>
+      </c>
+      <c r="BI210">
+        <v>8</v>
+      </c>
+      <c r="BJ210">
+        <v>14</v>
+      </c>
+      <c r="BK210">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2831330</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>74</v>
+      </c>
+      <c r="H211" t="s">
+        <v>79</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>228</v>
+      </c>
+      <c r="P211" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q211">
+        <v>7</v>
+      </c>
+      <c r="R211">
+        <v>3</v>
+      </c>
+      <c r="S211">
+        <v>10</v>
+      </c>
+      <c r="T211">
+        <v>1.75</v>
+      </c>
+      <c r="U211">
+        <v>2.5</v>
+      </c>
+      <c r="V211">
+        <v>6.5</v>
+      </c>
+      <c r="W211">
+        <v>1.33</v>
+      </c>
+      <c r="X211">
+        <v>3.25</v>
+      </c>
+      <c r="Y211">
+        <v>2.38</v>
+      </c>
+      <c r="Z211">
+        <v>1.53</v>
+      </c>
+      <c r="AA211">
+        <v>5.5</v>
+      </c>
+      <c r="AB211">
+        <v>1.12</v>
+      </c>
+      <c r="AC211">
+        <v>1.4</v>
+      </c>
+      <c r="AD211">
+        <v>5</v>
+      </c>
+      <c r="AE211">
+        <v>7.5</v>
+      </c>
+      <c r="AF211">
+        <v>1.04</v>
+      </c>
+      <c r="AG211">
+        <v>15</v>
+      </c>
+      <c r="AH211">
+        <v>1.19</v>
+      </c>
+      <c r="AI211">
+        <v>4.5</v>
+      </c>
+      <c r="AJ211">
+        <v>1.63</v>
+      </c>
+      <c r="AK211">
+        <v>2.1</v>
+      </c>
+      <c r="AL211">
+        <v>1.85</v>
+      </c>
+      <c r="AM211">
+        <v>1.85</v>
+      </c>
+      <c r="AN211">
+        <v>1.07</v>
+      </c>
+      <c r="AO211">
+        <v>1.17</v>
+      </c>
+      <c r="AP211">
+        <v>3</v>
+      </c>
+      <c r="AQ211">
+        <v>2.45</v>
+      </c>
+      <c r="AR211">
+        <v>0.9</v>
+      </c>
+      <c r="AS211">
+        <v>2.25</v>
+      </c>
+      <c r="AT211">
+        <v>1.09</v>
+      </c>
+      <c r="AU211">
+        <v>2.14</v>
+      </c>
+      <c r="AV211">
+        <v>1.5</v>
+      </c>
+      <c r="AW211">
+        <v>3.64</v>
+      </c>
+      <c r="AX211">
+        <v>1.1</v>
+      </c>
+      <c r="AY211">
+        <v>13.5</v>
+      </c>
+      <c r="AZ211">
+        <v>8.9</v>
+      </c>
+      <c r="BA211">
+        <v>1.2</v>
+      </c>
+      <c r="BB211">
+        <v>1.41</v>
+      </c>
+      <c r="BC211">
+        <v>1.75</v>
+      </c>
+      <c r="BD211">
+        <v>2.21</v>
+      </c>
+      <c r="BE211">
+        <v>2.93</v>
+      </c>
+      <c r="BF211">
+        <v>8</v>
+      </c>
+      <c r="BG211">
+        <v>6</v>
+      </c>
+      <c r="BH211">
+        <v>18</v>
+      </c>
+      <c r="BI211">
+        <v>6</v>
+      </c>
+      <c r="BJ211">
+        <v>26</v>
+      </c>
+      <c r="BK211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2831335</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44989.54166666666</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>75</v>
+      </c>
+      <c r="H212" t="s">
+        <v>73</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212">
+        <v>3</v>
+      </c>
+      <c r="O212" t="s">
+        <v>86</v>
+      </c>
+      <c r="P212" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q212">
+        <v>10</v>
+      </c>
+      <c r="R212">
+        <v>7</v>
+      </c>
+      <c r="S212">
+        <v>17</v>
+      </c>
+      <c r="T212">
+        <v>4.5</v>
+      </c>
+      <c r="U212">
+        <v>2.38</v>
+      </c>
+      <c r="V212">
+        <v>2.3</v>
+      </c>
+      <c r="W212">
+        <v>1.3</v>
+      </c>
+      <c r="X212">
+        <v>3.4</v>
+      </c>
+      <c r="Y212">
+        <v>2.38</v>
+      </c>
+      <c r="Z212">
+        <v>1.53</v>
+      </c>
+      <c r="AA212">
+        <v>6</v>
+      </c>
+      <c r="AB212">
+        <v>1.13</v>
+      </c>
+      <c r="AC212">
+        <v>3.65</v>
+      </c>
+      <c r="AD212">
+        <v>3.6</v>
+      </c>
+      <c r="AE212">
+        <v>1.95</v>
+      </c>
+      <c r="AF212">
+        <v>1.04</v>
+      </c>
+      <c r="AG212">
+        <v>15</v>
+      </c>
+      <c r="AH212">
+        <v>1.19</v>
+      </c>
+      <c r="AI212">
+        <v>4.5</v>
+      </c>
+      <c r="AJ212">
+        <v>1.68</v>
+      </c>
+      <c r="AK212">
+        <v>2.02</v>
+      </c>
+      <c r="AL212">
+        <v>1.62</v>
+      </c>
+      <c r="AM212">
+        <v>2.2</v>
+      </c>
+      <c r="AN212">
+        <v>2.2</v>
+      </c>
+      <c r="AO212">
+        <v>1.28</v>
+      </c>
+      <c r="AP212">
+        <v>1.22</v>
+      </c>
+      <c r="AQ212">
+        <v>1.73</v>
+      </c>
+      <c r="AR212">
+        <v>2</v>
+      </c>
+      <c r="AS212">
+        <v>1.58</v>
+      </c>
+      <c r="AT212">
+        <v>2.09</v>
+      </c>
+      <c r="AU212">
+        <v>1.67</v>
+      </c>
+      <c r="AV212">
+        <v>1.92</v>
+      </c>
+      <c r="AW212">
+        <v>3.59</v>
+      </c>
+      <c r="AX212">
+        <v>2.78</v>
+      </c>
+      <c r="AY212">
+        <v>7.8</v>
+      </c>
+      <c r="AZ212">
+        <v>1.65</v>
+      </c>
+      <c r="BA212">
+        <v>1.25</v>
+      </c>
+      <c r="BB212">
+        <v>1.62</v>
+      </c>
+      <c r="BC212">
+        <v>2</v>
+      </c>
+      <c r="BD212">
+        <v>2.5</v>
+      </c>
+      <c r="BE212">
+        <v>3.28</v>
+      </c>
+      <c r="BF212">
+        <v>4</v>
+      </c>
+      <c r="BG212">
+        <v>5</v>
+      </c>
+      <c r="BH212">
+        <v>7</v>
+      </c>
+      <c r="BI212">
+        <v>7</v>
+      </c>
+      <c r="BJ212">
+        <v>11</v>
+      </c>
+      <c r="BK212">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2831336</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44990.41666666666</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>81</v>
+      </c>
+      <c r="H213" t="s">
+        <v>69</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213" t="s">
+        <v>84</v>
+      </c>
+      <c r="P213" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q213">
+        <v>2</v>
+      </c>
+      <c r="R213">
+        <v>1</v>
+      </c>
+      <c r="S213">
+        <v>3</v>
+      </c>
+      <c r="T213">
+        <v>2.45</v>
+      </c>
+      <c r="U213">
+        <v>2.3</v>
+      </c>
+      <c r="V213">
+        <v>4.33</v>
+      </c>
+      <c r="W213">
+        <v>1.38</v>
+      </c>
+      <c r="X213">
+        <v>3.25</v>
+      </c>
+      <c r="Y213">
+        <v>2.75</v>
+      </c>
+      <c r="Z213">
+        <v>1.5</v>
+      </c>
+      <c r="AA213">
+        <v>7.5</v>
+      </c>
+      <c r="AB213">
+        <v>1.12</v>
+      </c>
+      <c r="AC213">
+        <v>1.81</v>
+      </c>
+      <c r="AD213">
+        <v>3.72</v>
+      </c>
+      <c r="AE213">
+        <v>4.12</v>
+      </c>
+      <c r="AF213">
+        <v>1.05</v>
+      </c>
+      <c r="AG213">
+        <v>13</v>
+      </c>
+      <c r="AH213">
+        <v>1.25</v>
+      </c>
+      <c r="AI213">
+        <v>3.82</v>
+      </c>
+      <c r="AJ213">
+        <v>1.87</v>
+      </c>
+      <c r="AK213">
+        <v>1.87</v>
+      </c>
+      <c r="AL213">
+        <v>1.72</v>
+      </c>
+      <c r="AM213">
+        <v>2.1</v>
+      </c>
+      <c r="AN213">
+        <v>1.25</v>
+      </c>
+      <c r="AO213">
+        <v>1.3</v>
+      </c>
+      <c r="AP213">
+        <v>2.05</v>
+      </c>
+      <c r="AQ213">
+        <v>1.18</v>
+      </c>
+      <c r="AR213">
+        <v>0.92</v>
+      </c>
+      <c r="AS213">
+        <v>1.17</v>
+      </c>
+      <c r="AT213">
+        <v>0.92</v>
+      </c>
+      <c r="AU213">
+        <v>1.69</v>
+      </c>
+      <c r="AV213">
+        <v>1.43</v>
+      </c>
+      <c r="AW213">
+        <v>3.12</v>
+      </c>
+      <c r="AX213">
+        <v>1.38</v>
+      </c>
+      <c r="AY213">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ213">
+        <v>3.94</v>
+      </c>
+      <c r="BA213">
+        <v>1.25</v>
+      </c>
+      <c r="BB213">
+        <v>1.48</v>
+      </c>
+      <c r="BC213">
+        <v>1.87</v>
+      </c>
+      <c r="BD213">
+        <v>2.41</v>
+      </c>
+      <c r="BE213">
+        <v>3.28</v>
+      </c>
+      <c r="BF213">
+        <v>7</v>
+      </c>
+      <c r="BG213">
+        <v>2</v>
+      </c>
+      <c r="BH213">
+        <v>7</v>
+      </c>
+      <c r="BI213">
+        <v>4</v>
+      </c>
+      <c r="BJ213">
+        <v>14</v>
+      </c>
+      <c r="BK213">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2831331</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44990.54166666666</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" t="s">
+        <v>77</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>3</v>
+      </c>
+      <c r="N214">
+        <v>3</v>
+      </c>
+      <c r="O214" t="s">
+        <v>84</v>
+      </c>
+      <c r="P214" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q214">
+        <v>-1</v>
+      </c>
+      <c r="R214">
+        <v>-1</v>
+      </c>
+      <c r="S214">
+        <v>-1</v>
+      </c>
+      <c r="T214">
+        <v>4.95</v>
+      </c>
+      <c r="U214">
+        <v>2.36</v>
+      </c>
+      <c r="V214">
+        <v>2.11</v>
+      </c>
+      <c r="W214">
+        <v>1.29</v>
+      </c>
+      <c r="X214">
+        <v>3.2</v>
+      </c>
+      <c r="Y214">
+        <v>2.36</v>
+      </c>
+      <c r="Z214">
+        <v>1.55</v>
+      </c>
+      <c r="AA214">
+        <v>5.45</v>
+      </c>
+      <c r="AB214">
+        <v>1.13</v>
+      </c>
+      <c r="AC214">
+        <v>4.6</v>
+      </c>
+      <c r="AD214">
+        <v>3.95</v>
+      </c>
+      <c r="AE214">
+        <v>1.61</v>
+      </c>
+      <c r="AF214">
+        <v>0</v>
+      </c>
+      <c r="AG214">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>1.16</v>
+      </c>
+      <c r="AI214">
+        <v>4.4</v>
+      </c>
+      <c r="AJ214">
+        <v>1.57</v>
+      </c>
+      <c r="AK214">
+        <v>2.2</v>
+      </c>
+      <c r="AL214">
+        <v>1.7</v>
+      </c>
+      <c r="AM214">
+        <v>2.13</v>
+      </c>
+      <c r="AN214">
+        <v>2.35</v>
+      </c>
+      <c r="AO214">
+        <v>1.21</v>
+      </c>
+      <c r="AP214">
+        <v>1.16</v>
+      </c>
+      <c r="AQ214">
+        <v>1.3</v>
+      </c>
+      <c r="AR214">
+        <v>2.36</v>
+      </c>
+      <c r="AS214">
+        <v>1.18</v>
+      </c>
+      <c r="AT214">
+        <v>2.42</v>
+      </c>
+      <c r="AU214">
+        <v>1.6</v>
+      </c>
+      <c r="AV214">
+        <v>2.27</v>
+      </c>
+      <c r="AW214">
+        <v>3.87</v>
+      </c>
+      <c r="AX214">
+        <v>0</v>
+      </c>
+      <c r="AY214">
+        <v>0</v>
+      </c>
+      <c r="AZ214">
+        <v>0</v>
+      </c>
+      <c r="BA214">
+        <v>0</v>
+      </c>
+      <c r="BB214">
+        <v>0</v>
+      </c>
+      <c r="BC214">
+        <v>0</v>
+      </c>
+      <c r="BD214">
+        <v>0</v>
+      </c>
+      <c r="BE214">
+        <v>0</v>
+      </c>
+      <c r="BF214">
+        <v>-1</v>
+      </c>
+      <c r="BG214">
+        <v>-1</v>
+      </c>
+      <c r="BH214">
+        <v>-1</v>
+      </c>
+      <c r="BI214">
+        <v>-1</v>
+      </c>
+      <c r="BJ214">
+        <v>-1</v>
+      </c>
+      <c r="BK214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2831333</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44990.54166666666</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>67</v>
+      </c>
+      <c r="H215" t="s">
+        <v>72</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>234</v>
+      </c>
+      <c r="P215" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q215">
+        <v>2</v>
+      </c>
+      <c r="R215">
+        <v>6</v>
+      </c>
+      <c r="S215">
+        <v>8</v>
+      </c>
+      <c r="T215">
+        <v>2</v>
+      </c>
+      <c r="U215">
+        <v>2.45</v>
+      </c>
+      <c r="V215">
+        <v>4.6</v>
+      </c>
+      <c r="W215">
+        <v>1.3</v>
+      </c>
+      <c r="X215">
+        <v>3.4</v>
+      </c>
+      <c r="Y215">
+        <v>2.38</v>
+      </c>
+      <c r="Z215">
+        <v>1.53</v>
+      </c>
+      <c r="AA215">
+        <v>5</v>
+      </c>
+      <c r="AB215">
+        <v>1.14</v>
+      </c>
+      <c r="AC215">
+        <v>1.62</v>
+      </c>
+      <c r="AD215">
+        <v>4.22</v>
+      </c>
+      <c r="AE215">
+        <v>4.77</v>
+      </c>
+      <c r="AF215">
+        <v>1.03</v>
+      </c>
+      <c r="AG215">
+        <v>17</v>
+      </c>
+      <c r="AH215">
+        <v>1.19</v>
+      </c>
+      <c r="AI215">
+        <v>4.5</v>
+      </c>
+      <c r="AJ215">
+        <v>1.57</v>
+      </c>
+      <c r="AK215">
+        <v>2.21</v>
+      </c>
+      <c r="AL215">
+        <v>1.67</v>
+      </c>
+      <c r="AM215">
+        <v>2.1</v>
+      </c>
+      <c r="AN215">
+        <v>1.18</v>
+      </c>
+      <c r="AO215">
+        <v>1.24</v>
+      </c>
+      <c r="AP215">
+        <v>2.42</v>
+      </c>
+      <c r="AQ215">
+        <v>2.18</v>
+      </c>
+      <c r="AR215">
+        <v>1.1</v>
+      </c>
+      <c r="AS215">
+        <v>2.25</v>
+      </c>
+      <c r="AT215">
+        <v>1</v>
+      </c>
+      <c r="AU215">
+        <v>2.31</v>
+      </c>
+      <c r="AV215">
+        <v>1.59</v>
+      </c>
+      <c r="AW215">
+        <v>3.9</v>
+      </c>
+      <c r="AX215">
+        <v>1.4</v>
+      </c>
+      <c r="AY215">
+        <v>8.5</v>
+      </c>
+      <c r="AZ215">
+        <v>3.82</v>
+      </c>
+      <c r="BA215">
+        <v>1.25</v>
+      </c>
+      <c r="BB215">
+        <v>1.55</v>
+      </c>
+      <c r="BC215">
+        <v>1.9</v>
+      </c>
+      <c r="BD215">
+        <v>2.3</v>
+      </c>
+      <c r="BE215">
+        <v>3.28</v>
+      </c>
+      <c r="BF215">
+        <v>11</v>
+      </c>
+      <c r="BG215">
+        <v>5</v>
+      </c>
+      <c r="BH215">
+        <v>8</v>
+      </c>
+      <c r="BI215">
+        <v>4</v>
+      </c>
+      <c r="BJ215">
+        <v>19</v>
+      </c>
+      <c r="BK215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2831337</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44990.54166666666</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>83</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>235</v>
+      </c>
+      <c r="P216" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>-1</v>
+      </c>
+      <c r="S216">
+        <v>-1</v>
+      </c>
+      <c r="T216">
+        <v>1.95</v>
+      </c>
+      <c r="U216">
+        <v>2.6</v>
+      </c>
+      <c r="V216">
+        <v>5.5</v>
+      </c>
+      <c r="W216">
+        <v>1.25</v>
+      </c>
+      <c r="X216">
+        <v>3.75</v>
+      </c>
+      <c r="Y216">
+        <v>2.2</v>
+      </c>
+      <c r="Z216">
+        <v>1.62</v>
+      </c>
+      <c r="AA216">
+        <v>5</v>
+      </c>
+      <c r="AB216">
+        <v>1.17</v>
+      </c>
+      <c r="AC216">
+        <v>1.61</v>
+      </c>
+      <c r="AD216">
+        <v>3.7</v>
+      </c>
+      <c r="AE216">
+        <v>4.5</v>
+      </c>
+      <c r="AF216">
+        <v>1.02</v>
+      </c>
+      <c r="AG216">
+        <v>23</v>
+      </c>
+      <c r="AH216">
+        <v>1.13</v>
+      </c>
+      <c r="AI216">
+        <v>5.61</v>
+      </c>
+      <c r="AJ216">
+        <v>1.6</v>
+      </c>
+      <c r="AK216">
+        <v>2.2</v>
+      </c>
+      <c r="AL216">
+        <v>1.62</v>
+      </c>
+      <c r="AM216">
+        <v>2.2</v>
+      </c>
+      <c r="AN216">
+        <v>1.14</v>
+      </c>
+      <c r="AO216">
+        <v>1.2</v>
+      </c>
+      <c r="AP216">
+        <v>3</v>
+      </c>
+      <c r="AQ216">
+        <v>2.2</v>
+      </c>
+      <c r="AR216">
+        <v>0.64</v>
+      </c>
+      <c r="AS216">
+        <v>2.27</v>
+      </c>
+      <c r="AT216">
+        <v>0.58</v>
+      </c>
+      <c r="AU216">
+        <v>2.29</v>
+      </c>
+      <c r="AV216">
+        <v>1.37</v>
+      </c>
+      <c r="AW216">
+        <v>3.66</v>
+      </c>
+      <c r="AX216">
+        <v>0</v>
+      </c>
+      <c r="AY216">
+        <v>0</v>
+      </c>
+      <c r="AZ216">
+        <v>0</v>
+      </c>
+      <c r="BA216">
+        <v>0</v>
+      </c>
+      <c r="BB216">
+        <v>1.55</v>
+      </c>
+      <c r="BC216">
+        <v>1.85</v>
+      </c>
+      <c r="BD216">
+        <v>2.3</v>
+      </c>
+      <c r="BE216">
+        <v>0</v>
+      </c>
+      <c r="BF216">
+        <v>-1</v>
+      </c>
+      <c r="BG216">
+        <v>-1</v>
+      </c>
+      <c r="BH216">
+        <v>-1</v>
+      </c>
+      <c r="BI216">
+        <v>-1</v>
+      </c>
+      <c r="BJ216">
+        <v>-1</v>
+      </c>
+      <c r="BK216">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="348">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,9 @@
     <t>['-1', '-1', '-1']</t>
   </si>
   <si>
+    <t>['22', '39', '60']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -1416,7 +1419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1663,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1851,7 +1854,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2233,7 +2236,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2424,7 +2427,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -3188,7 +3191,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3952,7 +3955,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4424,7 +4427,7 @@
         <v>0.5</v>
       </c>
       <c r="AT16">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4525,7 +4528,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4907,7 +4910,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4994,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT19">
         <v>2.09</v>
@@ -5098,7 +5101,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5289,7 +5292,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5671,7 +5674,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6053,7 +6056,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6244,7 +6247,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6435,7 +6438,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6626,7 +6629,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6817,7 +6820,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6907,7 +6910,7 @@
         <v>1.18</v>
       </c>
       <c r="AT29">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU29">
         <v>2.86</v>
@@ -7008,7 +7011,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7199,7 +7202,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7859,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT34">
         <v>0.58</v>
@@ -8345,7 +8348,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9682,7 +9685,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9873,7 +9876,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10064,7 +10067,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -11210,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11297,7 +11300,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT52">
         <v>2.42</v>
@@ -11491,7 +11494,7 @@
         <v>1.58</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU53">
         <v>1.51</v>
@@ -11783,7 +11786,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11974,7 +11977,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12165,7 +12168,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12356,7 +12359,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12547,7 +12550,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12738,7 +12741,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13120,7 +13123,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13311,7 +13314,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13780,7 +13783,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13884,7 +13887,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14075,7 +14078,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14457,7 +14460,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14648,7 +14651,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q70">
         <v>11</v>
@@ -15221,7 +15224,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15603,7 +15606,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15985,7 +15988,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16176,7 +16179,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16558,7 +16561,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16940,7 +16943,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17131,7 +17134,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17221,7 +17224,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU83">
         <v>1.98</v>
@@ -17513,7 +17516,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17600,7 +17603,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT85">
         <v>1.42</v>
@@ -17895,7 +17898,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -18277,7 +18280,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18659,7 +18662,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18850,7 +18853,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -19041,7 +19044,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19614,7 +19617,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19701,7 +19704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT96">
         <v>1.45</v>
@@ -19805,7 +19808,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19996,7 +19999,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20569,7 +20572,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20760,7 +20763,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21142,7 +21145,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21333,7 +21336,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21524,7 +21527,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21715,7 +21718,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -22097,7 +22100,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22187,7 +22190,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU109">
         <v>1.82</v>
@@ -22566,7 +22569,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22670,7 +22673,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22861,7 +22864,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q113">
         <v>10</v>
@@ -23052,7 +23055,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23243,7 +23246,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23434,7 +23437,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23625,7 +23628,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -24198,7 +24201,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24389,7 +24392,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24580,7 +24583,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24771,7 +24774,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24962,7 +24965,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25344,7 +25347,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25535,7 +25538,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25726,7 +25729,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25917,7 +25920,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26108,7 +26111,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26195,7 +26198,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT130">
         <v>1.08</v>
@@ -26681,7 +26684,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26872,7 +26875,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27344,7 +27347,7 @@
         <v>2.27</v>
       </c>
       <c r="AT136">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU136">
         <v>1.7</v>
@@ -27445,7 +27448,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27827,7 +27830,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -28209,7 +28212,7 @@
         <v>187</v>
       </c>
       <c r="P141" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28400,7 +28403,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28973,7 +28976,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29164,7 +29167,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29355,7 +29358,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29546,7 +29549,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29633,7 +29636,7 @@
         <v>0.75</v>
       </c>
       <c r="AS148">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT148">
         <v>0.55</v>
@@ -29737,7 +29740,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29928,7 +29931,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30119,7 +30122,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30782,7 +30785,7 @@
         <v>1.6</v>
       </c>
       <c r="AT154">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU154">
         <v>1.55</v>
@@ -31074,7 +31077,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -31265,7 +31268,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31647,7 +31650,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -32220,7 +32223,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32793,7 +32796,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32984,7 +32987,7 @@
         <v>207</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33175,7 +33178,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33557,7 +33560,7 @@
         <v>84</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q169">
         <v>12</v>
@@ -33748,7 +33751,7 @@
         <v>209</v>
       </c>
       <c r="P170" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33835,7 +33838,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT170">
         <v>1.18</v>
@@ -33939,7 +33942,7 @@
         <v>130</v>
       </c>
       <c r="P171" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34130,7 +34133,7 @@
         <v>150</v>
       </c>
       <c r="P172" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q172">
         <v>17</v>
@@ -34321,7 +34324,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34408,7 +34411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT173">
         <v>1.36</v>
@@ -34602,7 +34605,7 @@
         <v>2.55</v>
       </c>
       <c r="AT174">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU174">
         <v>2.34</v>
@@ -34703,7 +34706,7 @@
         <v>212</v>
       </c>
       <c r="P175" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34894,7 +34897,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35085,7 +35088,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35658,7 +35661,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36040,7 +36043,7 @@
         <v>217</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36422,7 +36425,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36613,7 +36616,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36804,7 +36807,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -36995,7 +36998,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37568,7 +37571,7 @@
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37759,7 +37762,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37950,7 +37953,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38037,7 +38040,7 @@
         <v>1</v>
       </c>
       <c r="AS192">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT192">
         <v>0.92</v>
@@ -38141,7 +38144,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38332,7 +38335,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38613,7 +38616,7 @@
         <v>2.25</v>
       </c>
       <c r="AT195">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU195">
         <v>2.15</v>
@@ -38905,7 +38908,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39096,7 +39099,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39287,7 +39290,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -40624,7 +40627,7 @@
         <v>163</v>
       </c>
       <c r="P206" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40815,7 +40818,7 @@
         <v>97</v>
       </c>
       <c r="P207" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -41096,7 +41099,7 @@
         <v>2.25</v>
       </c>
       <c r="AT208">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU208">
         <v>2.35</v>
@@ -41388,7 +41391,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41579,7 +41582,7 @@
         <v>228</v>
       </c>
       <c r="P211" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41770,7 +41773,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q212">
         <v>10</v>
@@ -42343,7 +42346,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42676,6 +42679,197 @@
       </c>
       <c r="BK216">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2831329</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44991.58333333334</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>82</v>
+      </c>
+      <c r="H217" t="s">
+        <v>70</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>3</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>236</v>
+      </c>
+      <c r="P217" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q217">
+        <v>3</v>
+      </c>
+      <c r="R217">
+        <v>7</v>
+      </c>
+      <c r="S217">
+        <v>10</v>
+      </c>
+      <c r="T217">
+        <v>2.9</v>
+      </c>
+      <c r="U217">
+        <v>2.15</v>
+      </c>
+      <c r="V217">
+        <v>3.2</v>
+      </c>
+      <c r="W217">
+        <v>1.36</v>
+      </c>
+      <c r="X217">
+        <v>3</v>
+      </c>
+      <c r="Y217">
+        <v>2.5</v>
+      </c>
+      <c r="Z217">
+        <v>1.5</v>
+      </c>
+      <c r="AA217">
+        <v>5.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.12</v>
+      </c>
+      <c r="AC217">
+        <v>2.35</v>
+      </c>
+      <c r="AD217">
+        <v>3.6</v>
+      </c>
+      <c r="AE217">
+        <v>2.64</v>
+      </c>
+      <c r="AF217">
+        <v>1.05</v>
+      </c>
+      <c r="AG217">
+        <v>13</v>
+      </c>
+      <c r="AH217">
+        <v>1.22</v>
+      </c>
+      <c r="AI217">
+        <v>4.12</v>
+      </c>
+      <c r="AJ217">
+        <v>1.88</v>
+      </c>
+      <c r="AK217">
+        <v>2.02</v>
+      </c>
+      <c r="AL217">
+        <v>1.67</v>
+      </c>
+      <c r="AM217">
+        <v>2.1</v>
+      </c>
+      <c r="AN217">
+        <v>1.46</v>
+      </c>
+      <c r="AO217">
+        <v>1.32</v>
+      </c>
+      <c r="AP217">
+        <v>1.61</v>
+      </c>
+      <c r="AQ217">
+        <v>1.17</v>
+      </c>
+      <c r="AR217">
+        <v>0.8</v>
+      </c>
+      <c r="AS217">
+        <v>1.31</v>
+      </c>
+      <c r="AT217">
+        <v>0.73</v>
+      </c>
+      <c r="AU217">
+        <v>1.68</v>
+      </c>
+      <c r="AV217">
+        <v>1.2</v>
+      </c>
+      <c r="AW217">
+        <v>2.88</v>
+      </c>
+      <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>7.6</v>
+      </c>
+      <c r="AZ217">
+        <v>2.17</v>
+      </c>
+      <c r="BA217">
+        <v>1.25</v>
+      </c>
+      <c r="BB217">
+        <v>1.55</v>
+      </c>
+      <c r="BC217">
+        <v>1.95</v>
+      </c>
+      <c r="BD217">
+        <v>2.3</v>
+      </c>
+      <c r="BE217">
+        <v>3.28</v>
+      </c>
+      <c r="BF217">
+        <v>5</v>
+      </c>
+      <c r="BG217">
+        <v>3</v>
+      </c>
+      <c r="BH217">
+        <v>4</v>
+      </c>
+      <c r="BI217">
+        <v>5</v>
+      </c>
+      <c r="BJ217">
+        <v>9</v>
+      </c>
+      <c r="BK217">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,9 @@
     <t>['22', '39', '60']</t>
   </si>
   <si>
+    <t>['20', '39']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -1419,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1666,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1854,7 +1857,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2236,7 +2239,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2427,7 +2430,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -3191,7 +3194,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3955,7 +3958,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4528,7 +4531,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4910,7 +4913,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5101,7 +5104,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5292,7 +5295,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5674,7 +5677,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6056,7 +6059,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6146,7 +6149,7 @@
         <v>2.25</v>
       </c>
       <c r="AT25">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU25">
         <v>2.6</v>
@@ -6247,7 +6250,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6438,7 +6441,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6629,7 +6632,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6820,7 +6823,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7011,7 +7014,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7202,7 +7205,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -8348,7 +8351,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8820,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU39">
         <v>1.26</v>
@@ -9685,7 +9688,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9876,7 +9879,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10067,7 +10070,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -11213,7 +11216,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11786,7 +11789,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11977,7 +11980,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12168,7 +12171,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12359,7 +12362,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12550,7 +12553,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12741,7 +12744,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13022,7 +13025,7 @@
         <v>2.27</v>
       </c>
       <c r="AT61">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU61">
         <v>1.66</v>
@@ -13123,7 +13126,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13314,7 +13317,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13887,7 +13890,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14078,7 +14081,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14460,7 +14463,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14651,7 +14654,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q70">
         <v>11</v>
@@ -15224,7 +15227,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15606,7 +15609,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15988,7 +15991,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16179,7 +16182,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16561,7 +16564,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16651,7 +16654,7 @@
         <v>2.33</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU80">
         <v>2</v>
@@ -16943,7 +16946,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17134,7 +17137,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17516,7 +17519,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17898,7 +17901,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -18280,7 +18283,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18662,7 +18665,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18853,7 +18856,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -19044,7 +19047,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19134,7 +19137,7 @@
         <v>0.5</v>
       </c>
       <c r="AT93">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU93">
         <v>1.69</v>
@@ -19617,7 +19620,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19808,7 +19811,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19999,7 +20002,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20572,7 +20575,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20763,7 +20766,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21145,7 +21148,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21336,7 +21339,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21527,7 +21530,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21718,7 +21721,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -22100,7 +22103,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22673,7 +22676,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22864,7 +22867,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>10</v>
@@ -23055,7 +23058,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23246,7 +23249,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23336,7 +23339,7 @@
         <v>1.42</v>
       </c>
       <c r="AT115">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU115">
         <v>1.77</v>
@@ -23437,7 +23440,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23628,7 +23631,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -24201,7 +24204,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24392,7 +24395,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24583,7 +24586,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24774,7 +24777,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24965,7 +24968,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25347,7 +25350,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25538,7 +25541,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25729,7 +25732,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25920,7 +25923,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26111,7 +26114,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26583,7 +26586,7 @@
         <v>2.27</v>
       </c>
       <c r="AT132">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU132">
         <v>2.19</v>
@@ -26684,7 +26687,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26875,7 +26878,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27448,7 +27451,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27830,7 +27833,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -28212,7 +28215,7 @@
         <v>187</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28403,7 +28406,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28976,7 +28979,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29167,7 +29170,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29358,7 +29361,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29448,7 +29451,7 @@
         <v>1.58</v>
       </c>
       <c r="AT147">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU147">
         <v>1.56</v>
@@ -29549,7 +29552,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29740,7 +29743,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29931,7 +29934,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30122,7 +30125,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -31077,7 +31080,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -31268,7 +31271,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31650,7 +31653,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -32223,7 +32226,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32796,7 +32799,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32987,7 +32990,7 @@
         <v>207</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33178,7 +33181,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33560,7 +33563,7 @@
         <v>84</v>
       </c>
       <c r="P169" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q169">
         <v>12</v>
@@ -33751,7 +33754,7 @@
         <v>209</v>
       </c>
       <c r="P170" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33841,7 +33844,7 @@
         <v>1.31</v>
       </c>
       <c r="AT170">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU170">
         <v>1.7</v>
@@ -33942,7 +33945,7 @@
         <v>130</v>
       </c>
       <c r="P171" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34133,7 +34136,7 @@
         <v>150</v>
       </c>
       <c r="P172" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>17</v>
@@ -34324,7 +34327,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34706,7 +34709,7 @@
         <v>212</v>
       </c>
       <c r="P175" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34897,7 +34900,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -34987,7 +34990,7 @@
         <v>1.83</v>
       </c>
       <c r="AT176">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU176">
         <v>1.64</v>
@@ -35088,7 +35091,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35661,7 +35664,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36043,7 +36046,7 @@
         <v>217</v>
       </c>
       <c r="P182" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36425,7 +36428,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36616,7 +36619,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36807,7 +36810,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -36998,7 +37001,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37571,7 +37574,7 @@
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37762,7 +37765,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37953,7 +37956,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38144,7 +38147,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38335,7 +38338,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38908,7 +38911,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39099,7 +39102,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39290,7 +39293,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -39380,7 +39383,7 @@
         <v>1</v>
       </c>
       <c r="AT199">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU199">
         <v>1.59</v>
@@ -40627,7 +40630,7 @@
         <v>163</v>
       </c>
       <c r="P206" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40818,7 +40821,7 @@
         <v>97</v>
       </c>
       <c r="P207" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -41391,7 +41394,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41582,7 +41585,7 @@
         <v>228</v>
       </c>
       <c r="P211" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41773,7 +41776,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q212">
         <v>10</v>
@@ -42346,7 +42349,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42870,6 +42873,197 @@
       </c>
       <c r="BK217">
         <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2831339</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44995.58333333334</v>
+      </c>
+      <c r="F218">
+        <v>25</v>
+      </c>
+      <c r="G218" t="s">
+        <v>69</v>
+      </c>
+      <c r="H218" t="s">
+        <v>68</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>3</v>
+      </c>
+      <c r="L218">
+        <v>2</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218">
+        <v>4</v>
+      </c>
+      <c r="O218" t="s">
+        <v>237</v>
+      </c>
+      <c r="P218" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q218">
+        <v>2</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>4</v>
+      </c>
+      <c r="T218">
+        <v>2.95</v>
+      </c>
+      <c r="U218">
+        <v>2.15</v>
+      </c>
+      <c r="V218">
+        <v>3.1</v>
+      </c>
+      <c r="W218">
+        <v>1.33</v>
+      </c>
+      <c r="X218">
+        <v>3</v>
+      </c>
+      <c r="Y218">
+        <v>2.5</v>
+      </c>
+      <c r="Z218">
+        <v>1.46</v>
+      </c>
+      <c r="AA218">
+        <v>6</v>
+      </c>
+      <c r="AB218">
+        <v>1.11</v>
+      </c>
+      <c r="AC218">
+        <v>2.57</v>
+      </c>
+      <c r="AD218">
+        <v>3.65</v>
+      </c>
+      <c r="AE218">
+        <v>2.4</v>
+      </c>
+      <c r="AF218">
+        <v>1.03</v>
+      </c>
+      <c r="AG218">
+        <v>14</v>
+      </c>
+      <c r="AH218">
+        <v>1.22</v>
+      </c>
+      <c r="AI218">
+        <v>3.92</v>
+      </c>
+      <c r="AJ218">
+        <v>1.7</v>
+      </c>
+      <c r="AK218">
+        <v>2.11</v>
+      </c>
+      <c r="AL218">
+        <v>1.6</v>
+      </c>
+      <c r="AM218">
+        <v>2.2</v>
+      </c>
+      <c r="AN218">
+        <v>1.47</v>
+      </c>
+      <c r="AO218">
+        <v>1.28</v>
+      </c>
+      <c r="AP218">
+        <v>1.51</v>
+      </c>
+      <c r="AQ218">
+        <v>1</v>
+      </c>
+      <c r="AR218">
+        <v>1.18</v>
+      </c>
+      <c r="AS218">
+        <v>1</v>
+      </c>
+      <c r="AT218">
+        <v>1.17</v>
+      </c>
+      <c r="AU218">
+        <v>1.96</v>
+      </c>
+      <c r="AV218">
+        <v>1.45</v>
+      </c>
+      <c r="AW218">
+        <v>3.41</v>
+      </c>
+      <c r="AX218">
+        <v>1.75</v>
+      </c>
+      <c r="AY218">
+        <v>10.25</v>
+      </c>
+      <c r="AZ218">
+        <v>2.36</v>
+      </c>
+      <c r="BA218">
+        <v>1.2</v>
+      </c>
+      <c r="BB218">
+        <v>1.4</v>
+      </c>
+      <c r="BC218">
+        <v>1.74</v>
+      </c>
+      <c r="BD218">
+        <v>2.19</v>
+      </c>
+      <c r="BE218">
+        <v>2.91</v>
+      </c>
+      <c r="BF218">
+        <v>4</v>
+      </c>
+      <c r="BG218">
+        <v>6</v>
+      </c>
+      <c r="BH218">
+        <v>0</v>
+      </c>
+      <c r="BI218">
+        <v>5</v>
+      </c>
+      <c r="BJ218">
+        <v>4</v>
+      </c>
+      <c r="BK218">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['20', '39']</t>
   </si>
   <si>
+    <t>['33', '52', '68', '90+7']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -1422,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK218"/>
+  <dimension ref="A1:BK219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1669,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1857,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2138,7 +2141,7 @@
         <v>2.25</v>
       </c>
       <c r="AT4">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2239,7 +2242,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2430,7 +2433,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2708,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT7">
         <v>2.42</v>
@@ -3194,7 +3197,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3958,7 +3961,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4531,7 +4534,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4913,7 +4916,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5104,7 +5107,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5295,7 +5298,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5677,7 +5680,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5764,7 +5767,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5958,7 +5961,7 @@
         <v>2.27</v>
       </c>
       <c r="AT24">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU24">
         <v>1.84</v>
@@ -6059,7 +6062,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6250,7 +6253,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6441,7 +6444,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6632,7 +6635,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6823,7 +6826,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7014,7 +7017,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7205,7 +7208,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -8351,7 +8354,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9205,7 +9208,7 @@
         <v>2.33</v>
       </c>
       <c r="AT41">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>1.86</v>
@@ -9688,7 +9691,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9775,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT44">
         <v>0.8</v>
@@ -9879,7 +9882,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10070,7 +10073,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -11216,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11789,7 +11792,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11980,7 +11983,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12070,7 +12073,7 @@
         <v>1.6</v>
       </c>
       <c r="AT56">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>1.66</v>
@@ -12171,7 +12174,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12362,7 +12365,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12553,7 +12556,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12744,7 +12747,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12831,7 +12834,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT60">
         <v>1.42</v>
@@ -13126,7 +13129,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13317,7 +13320,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13890,7 +13893,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14081,7 +14084,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14463,7 +14466,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14654,7 +14657,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q70">
         <v>11</v>
@@ -15227,7 +15230,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15609,7 +15612,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15887,7 +15890,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT76">
         <v>1.27</v>
@@ -15991,7 +15994,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16182,7 +16185,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16272,7 +16275,7 @@
         <v>0.5</v>
       </c>
       <c r="AT78">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU78">
         <v>1.76</v>
@@ -16564,7 +16567,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16946,7 +16949,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17137,7 +17140,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17519,7 +17522,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17901,7 +17904,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -18283,7 +18286,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18665,7 +18668,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18856,7 +18859,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -18943,7 +18946,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT92">
         <v>1.08</v>
@@ -19047,7 +19050,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19620,7 +19623,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19710,7 +19713,7 @@
         <v>1.31</v>
       </c>
       <c r="AT96">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19811,7 +19814,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20002,7 +20005,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20575,7 +20578,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20766,7 +20769,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21148,7 +21151,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21339,7 +21342,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21530,7 +21533,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21721,7 +21724,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -22103,7 +22106,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22676,7 +22679,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22867,7 +22870,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q113">
         <v>10</v>
@@ -23058,7 +23061,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23148,7 +23151,7 @@
         <v>1.18</v>
       </c>
       <c r="AT114">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>1.66</v>
@@ -23249,7 +23252,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23336,7 +23339,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT115">
         <v>1.17</v>
@@ -23440,7 +23443,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23631,7 +23634,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -24204,7 +24207,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24395,7 +24398,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24586,7 +24589,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24777,7 +24780,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24968,7 +24971,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25350,7 +25353,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25541,7 +25544,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25732,7 +25735,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25819,7 +25822,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT128">
         <v>1</v>
@@ -25923,7 +25926,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26114,7 +26117,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26687,7 +26690,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26878,7 +26881,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27451,7 +27454,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27833,7 +27836,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -28114,7 +28117,7 @@
         <v>1.83</v>
       </c>
       <c r="AT140">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>1.77</v>
@@ -28215,7 +28218,7 @@
         <v>187</v>
       </c>
       <c r="P141" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28406,7 +28409,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28979,7 +28982,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29170,7 +29173,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29257,7 +29260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT146">
         <v>2.09</v>
@@ -29361,7 +29364,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29552,7 +29555,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29743,7 +29746,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29934,7 +29937,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30125,7 +30128,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -31080,7 +31083,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -31271,7 +31274,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31361,7 +31364,7 @@
         <v>1</v>
       </c>
       <c r="AT157">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU157">
         <v>1.48</v>
@@ -31653,7 +31656,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -32226,7 +32229,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32799,7 +32802,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32886,7 +32889,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT165">
         <v>0.92</v>
@@ -32990,7 +32993,7 @@
         <v>207</v>
       </c>
       <c r="P166" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33181,7 +33184,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33563,7 +33566,7 @@
         <v>84</v>
       </c>
       <c r="P169" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q169">
         <v>12</v>
@@ -33754,7 +33757,7 @@
         <v>209</v>
       </c>
       <c r="P170" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33945,7 +33948,7 @@
         <v>130</v>
       </c>
       <c r="P171" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34136,7 +34139,7 @@
         <v>150</v>
       </c>
       <c r="P172" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q172">
         <v>17</v>
@@ -34327,7 +34330,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34709,7 +34712,7 @@
         <v>212</v>
       </c>
       <c r="P175" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34900,7 +34903,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35091,7 +35094,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35664,7 +35667,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -36046,7 +36049,7 @@
         <v>217</v>
       </c>
       <c r="P182" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36428,7 +36431,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36619,7 +36622,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36706,7 +36709,7 @@
         <v>1.13</v>
       </c>
       <c r="AS185">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT185">
         <v>1.09</v>
@@ -36810,7 +36813,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -37001,7 +37004,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37091,7 +37094,7 @@
         <v>0.8</v>
       </c>
       <c r="AT187">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU187">
         <v>1.19</v>
@@ -37574,7 +37577,7 @@
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37765,7 +37768,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37956,7 +37959,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38147,7 +38150,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38338,7 +38341,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38911,7 +38914,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39102,7 +39105,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39293,7 +39296,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -39762,7 +39765,7 @@
         <v>1.09</v>
       </c>
       <c r="AS201">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT201">
         <v>1</v>
@@ -40630,7 +40633,7 @@
         <v>163</v>
       </c>
       <c r="P206" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40720,7 +40723,7 @@
         <v>1</v>
       </c>
       <c r="AT206">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU206">
         <v>1.83</v>
@@ -40821,7 +40824,7 @@
         <v>97</v>
       </c>
       <c r="P207" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -41394,7 +41397,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41585,7 +41588,7 @@
         <v>228</v>
       </c>
       <c r="P211" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41776,7 +41779,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q212">
         <v>10</v>
@@ -42349,7 +42352,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42922,7 +42925,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43064,6 +43067,197 @@
       </c>
       <c r="BK218">
         <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2831346</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F219">
+        <v>25</v>
+      </c>
+      <c r="G219" t="s">
+        <v>70</v>
+      </c>
+      <c r="H219" t="s">
+        <v>75</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>4</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>4</v>
+      </c>
+      <c r="O219" t="s">
+        <v>238</v>
+      </c>
+      <c r="P219" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q219">
+        <v>7</v>
+      </c>
+      <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>9</v>
+      </c>
+      <c r="T219">
+        <v>2.88</v>
+      </c>
+      <c r="U219">
+        <v>2.13</v>
+      </c>
+      <c r="V219">
+        <v>3.62</v>
+      </c>
+      <c r="W219">
+        <v>1.39</v>
+      </c>
+      <c r="X219">
+        <v>2.88</v>
+      </c>
+      <c r="Y219">
+        <v>2.82</v>
+      </c>
+      <c r="Z219">
+        <v>1.4</v>
+      </c>
+      <c r="AA219">
+        <v>7.2</v>
+      </c>
+      <c r="AB219">
+        <v>1.08</v>
+      </c>
+      <c r="AC219">
+        <v>2.2</v>
+      </c>
+      <c r="AD219">
+        <v>3.45</v>
+      </c>
+      <c r="AE219">
+        <v>3.25</v>
+      </c>
+      <c r="AF219">
+        <v>1.04</v>
+      </c>
+      <c r="AG219">
+        <v>10.06</v>
+      </c>
+      <c r="AH219">
+        <v>1.31</v>
+      </c>
+      <c r="AI219">
+        <v>3.33</v>
+      </c>
+      <c r="AJ219">
+        <v>1.91</v>
+      </c>
+      <c r="AK219">
+        <v>1.75</v>
+      </c>
+      <c r="AL219">
+        <v>1.74</v>
+      </c>
+      <c r="AM219">
+        <v>2.04</v>
+      </c>
+      <c r="AN219">
+        <v>1.41</v>
+      </c>
+      <c r="AO219">
+        <v>1.34</v>
+      </c>
+      <c r="AP219">
+        <v>1.64</v>
+      </c>
+      <c r="AQ219">
+        <v>1.42</v>
+      </c>
+      <c r="AR219">
+        <v>1.45</v>
+      </c>
+      <c r="AS219">
+        <v>1.54</v>
+      </c>
+      <c r="AT219">
+        <v>1.33</v>
+      </c>
+      <c r="AU219">
+        <v>1.76</v>
+      </c>
+      <c r="AV219">
+        <v>1.39</v>
+      </c>
+      <c r="AW219">
+        <v>3.15</v>
+      </c>
+      <c r="AX219">
+        <v>1.7</v>
+      </c>
+      <c r="AY219">
+        <v>6.5</v>
+      </c>
+      <c r="AZ219">
+        <v>2.8</v>
+      </c>
+      <c r="BA219">
+        <v>1.28</v>
+      </c>
+      <c r="BB219">
+        <v>1.52</v>
+      </c>
+      <c r="BC219">
+        <v>1.83</v>
+      </c>
+      <c r="BD219">
+        <v>2.35</v>
+      </c>
+      <c r="BE219">
+        <v>3</v>
+      </c>
+      <c r="BF219">
+        <v>11</v>
+      </c>
+      <c r="BG219">
+        <v>3</v>
+      </c>
+      <c r="BH219">
+        <v>6</v>
+      </c>
+      <c r="BI219">
+        <v>3</v>
+      </c>
+      <c r="BJ219">
+        <v>17</v>
+      </c>
+      <c r="BK219">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="354">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,12 @@
     <t>['33', '52', '68', '90+7']</t>
   </si>
   <si>
+    <t>['18', '76']</t>
+  </si>
+  <si>
+    <t>['8', '78', '81', '90+4']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -1064,6 +1070,12 @@
   </si>
   <si>
     <t>['6', '67']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['15', '55']</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK219"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1669,7 +1681,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1860,7 +1872,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2242,7 +2254,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2332,7 +2344,7 @@
         <v>1.45</v>
       </c>
       <c r="AT5">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2433,7 +2445,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2523,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2902,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3093,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT9">
         <v>1.27</v>
@@ -3197,7 +3209,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3475,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT11">
         <v>0.58</v>
@@ -3961,7 +3973,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4048,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT14">
         <v>0.92</v>
@@ -4534,7 +4546,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4624,7 +4636,7 @@
         <v>1.83</v>
       </c>
       <c r="AT17">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4916,7 +4928,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5107,7 +5119,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5298,7 +5310,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5579,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU22">
         <v>2.07</v>
@@ -5680,7 +5692,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5958,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT24">
         <v>1.33</v>
@@ -6062,7 +6074,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6253,7 +6265,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6343,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="AT26">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>1.18</v>
@@ -6444,7 +6456,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6635,7 +6647,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6725,7 +6737,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU28">
         <v>1.95</v>
@@ -6826,7 +6838,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7017,7 +7029,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7208,7 +7220,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -8059,7 +8071,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT35">
         <v>2.42</v>
@@ -8354,7 +8366,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9014,10 +9026,10 @@
         <v>2</v>
       </c>
       <c r="AS40">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT40">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU40">
         <v>1.82</v>
@@ -9590,7 +9602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT43">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU43">
         <v>1.75</v>
@@ -9691,7 +9703,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9781,7 +9793,7 @@
         <v>1.54</v>
       </c>
       <c r="AT44">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU44">
         <v>1.51</v>
@@ -9882,7 +9894,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9969,10 +9981,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT45">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU45">
         <v>1.69</v>
@@ -10073,7 +10085,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10160,7 +10172,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -11219,7 +11231,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11792,7 +11804,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11983,7 +11995,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12174,7 +12186,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12261,7 +12273,7 @@
         <v>2.33</v>
       </c>
       <c r="AS57">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT57">
         <v>1.27</v>
@@ -12365,7 +12377,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12455,7 +12467,7 @@
         <v>0.5</v>
       </c>
       <c r="AT58">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU58">
         <v>1.64</v>
@@ -12556,7 +12568,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12646,7 +12658,7 @@
         <v>0.8</v>
       </c>
       <c r="AT59">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU59">
         <v>1.27</v>
@@ -12747,7 +12759,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12837,7 +12849,7 @@
         <v>1.54</v>
       </c>
       <c r="AT60">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU60">
         <v>1.8</v>
@@ -13025,7 +13037,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT61">
         <v>1.17</v>
@@ -13129,7 +13141,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13216,7 +13228,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13320,7 +13332,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13407,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT63">
         <v>1.08</v>
@@ -13601,7 +13613,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU64">
         <v>1.93</v>
@@ -13893,7 +13905,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14084,7 +14096,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14171,7 +14183,7 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT67">
         <v>1.36</v>
@@ -14466,7 +14478,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14657,7 +14669,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q70">
         <v>11</v>
@@ -15230,7 +15242,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15511,7 +15523,7 @@
         <v>1.18</v>
       </c>
       <c r="AT74">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU74">
         <v>1.89</v>
@@ -15612,7 +15624,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15994,7 +16006,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16084,7 +16096,7 @@
         <v>1</v>
       </c>
       <c r="AT77">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -16185,7 +16197,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16466,7 +16478,7 @@
         <v>1.6</v>
       </c>
       <c r="AT79">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU79">
         <v>1.78</v>
@@ -16567,7 +16579,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16845,10 +16857,10 @@
         <v>1.5</v>
       </c>
       <c r="AS81">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT81">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU81">
         <v>2.11</v>
@@ -16949,7 +16961,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17036,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT82">
         <v>1.08</v>
@@ -17140,7 +17152,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17522,7 +17534,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17612,7 +17624,7 @@
         <v>1.31</v>
       </c>
       <c r="AT85">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU85">
         <v>1.4</v>
@@ -17904,7 +17916,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -18182,7 +18194,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT88">
         <v>1.08</v>
@@ -18286,7 +18298,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18668,7 +18680,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18755,7 +18767,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT91">
         <v>2.09</v>
@@ -18859,7 +18871,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -19050,7 +19062,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19328,7 +19340,7 @@
         <v>0.75</v>
       </c>
       <c r="AS94">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT94">
         <v>1.08</v>
@@ -19623,7 +19635,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19814,7 +19826,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -20005,7 +20017,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20092,10 +20104,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT98">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU98">
         <v>2.32</v>
@@ -20477,7 +20489,7 @@
         <v>1.6</v>
       </c>
       <c r="AT100">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU100">
         <v>1.74</v>
@@ -20578,7 +20590,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20769,7 +20781,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -20859,7 +20871,7 @@
         <v>1.17</v>
       </c>
       <c r="AT102">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU102">
         <v>1.42</v>
@@ -21151,7 +21163,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21238,7 +21250,7 @@
         <v>0.6</v>
       </c>
       <c r="AS104">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT104">
         <v>0.58</v>
@@ -21342,7 +21354,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21432,7 +21444,7 @@
         <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU105">
         <v>1.5</v>
@@ -21533,7 +21545,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21724,7 +21736,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -22002,7 +22014,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT108">
         <v>0.92</v>
@@ -22106,7 +22118,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22387,7 +22399,7 @@
         <v>0.5</v>
       </c>
       <c r="AT110">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU110">
         <v>1.63</v>
@@ -22679,7 +22691,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22870,7 +22882,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>10</v>
@@ -22957,10 +22969,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT113">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU113">
         <v>2.39</v>
@@ -23061,7 +23073,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23252,7 +23264,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23443,7 +23455,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23530,7 +23542,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT116">
         <v>1.27</v>
@@ -23634,7 +23646,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -24106,7 +24118,7 @@
         <v>1.83</v>
       </c>
       <c r="AT119">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU119">
         <v>1.8</v>
@@ -24207,7 +24219,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24294,7 +24306,7 @@
         <v>1.67</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT120">
         <v>1</v>
@@ -24398,7 +24410,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24589,7 +24601,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24780,7 +24792,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24867,7 +24879,7 @@
         <v>2</v>
       </c>
       <c r="AS123">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT123">
         <v>2.42</v>
@@ -24971,7 +24983,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25353,7 +25365,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25544,7 +25556,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25735,7 +25747,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25926,7 +25938,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26117,7 +26129,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26395,7 +26407,7 @@
         <v>2</v>
       </c>
       <c r="AS131">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT131">
         <v>2.09</v>
@@ -26690,7 +26702,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26780,7 +26792,7 @@
         <v>1.18</v>
       </c>
       <c r="AT133">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU133">
         <v>1.82</v>
@@ -26881,7 +26893,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -26971,7 +26983,7 @@
         <v>1.17</v>
       </c>
       <c r="AT134">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU134">
         <v>1.48</v>
@@ -27159,7 +27171,7 @@
         <v>1</v>
       </c>
       <c r="AS135">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT135">
         <v>1.08</v>
@@ -27350,7 +27362,7 @@
         <v>1.2</v>
       </c>
       <c r="AS136">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT136">
         <v>0.73</v>
@@ -27454,7 +27466,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27541,7 +27553,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT137">
         <v>1.09</v>
@@ -27836,7 +27848,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27926,7 +27938,7 @@
         <v>0.8</v>
       </c>
       <c r="AT139">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU139">
         <v>1.18</v>
@@ -28218,7 +28230,7 @@
         <v>187</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28409,7 +28421,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28881,7 +28893,7 @@
         <v>2.25</v>
       </c>
       <c r="AT144">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU144">
         <v>2.37</v>
@@ -28982,7 +28994,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29173,7 +29185,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29364,7 +29376,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29555,7 +29567,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29645,7 +29657,7 @@
         <v>1.31</v>
       </c>
       <c r="AT148">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU148">
         <v>1.71</v>
@@ -29746,7 +29758,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29833,7 +29845,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT149">
         <v>1</v>
@@ -29937,7 +29949,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30128,7 +30140,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30406,7 +30418,7 @@
         <v>1.13</v>
       </c>
       <c r="AS152">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT152">
         <v>0.92</v>
@@ -30982,7 +30994,7 @@
         <v>2.25</v>
       </c>
       <c r="AT155">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU155">
         <v>2.32</v>
@@ -31083,7 +31095,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -31274,7 +31286,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31361,7 +31373,7 @@
         <v>1.25</v>
       </c>
       <c r="AS157">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT157">
         <v>1.33</v>
@@ -31656,7 +31668,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31934,10 +31946,10 @@
         <v>1.44</v>
       </c>
       <c r="AS160">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT160">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU160">
         <v>1.61</v>
@@ -32229,7 +32241,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32698,7 +32710,7 @@
         <v>0.78</v>
       </c>
       <c r="AS164">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT164">
         <v>0.58</v>
@@ -32802,7 +32814,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -32993,7 +33005,7 @@
         <v>207</v>
       </c>
       <c r="P166" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33184,7 +33196,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33274,7 +33286,7 @@
         <v>1.17</v>
       </c>
       <c r="AT167">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU167">
         <v>1.48</v>
@@ -33462,7 +33474,7 @@
         <v>1.71</v>
       </c>
       <c r="AS168">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT168">
         <v>1.36</v>
@@ -33566,7 +33578,7 @@
         <v>84</v>
       </c>
       <c r="P169" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q169">
         <v>12</v>
@@ -33757,7 +33769,7 @@
         <v>209</v>
       </c>
       <c r="P170" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33948,7 +33960,7 @@
         <v>130</v>
       </c>
       <c r="P171" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34139,7 +34151,7 @@
         <v>150</v>
       </c>
       <c r="P172" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q172">
         <v>17</v>
@@ -34330,7 +34342,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34608,7 +34620,7 @@
         <v>1</v>
       </c>
       <c r="AS174">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT174">
         <v>0.73</v>
@@ -34712,7 +34724,7 @@
         <v>212</v>
       </c>
       <c r="P175" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34903,7 +34915,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35094,7 +35106,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35184,7 +35196,7 @@
         <v>1.58</v>
       </c>
       <c r="AT177">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU177">
         <v>1.68</v>
@@ -35372,7 +35384,7 @@
         <v>1</v>
       </c>
       <c r="AS178">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT178">
         <v>1.08</v>
@@ -35667,7 +35679,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -35948,7 +35960,7 @@
         <v>2.25</v>
       </c>
       <c r="AT181">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU181">
         <v>2.29</v>
@@ -36049,7 +36061,7 @@
         <v>217</v>
       </c>
       <c r="P182" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36139,7 +36151,7 @@
         <v>1</v>
       </c>
       <c r="AT182">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU182">
         <v>1.69</v>
@@ -36431,7 +36443,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36518,7 +36530,7 @@
         <v>0.9</v>
       </c>
       <c r="AS184">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT184">
         <v>1</v>
@@ -36622,7 +36634,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36813,7 +36825,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -37004,7 +37016,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37285,7 +37297,7 @@
         <v>2.33</v>
       </c>
       <c r="AT188">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU188">
         <v>1.99</v>
@@ -37473,7 +37485,7 @@
         <v>1.56</v>
       </c>
       <c r="AS189">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AT189">
         <v>1.27</v>
@@ -37577,7 +37589,7 @@
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37768,7 +37780,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37858,7 +37870,7 @@
         <v>1.45</v>
       </c>
       <c r="AT191">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU191">
         <v>1.58</v>
@@ -37959,7 +37971,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38150,7 +38162,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38341,7 +38353,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38428,7 +38440,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT194">
         <v>1.09</v>
@@ -38619,7 +38631,7 @@
         <v>0.88</v>
       </c>
       <c r="AS195">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT195">
         <v>0.73</v>
@@ -38914,7 +38926,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39105,7 +39117,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39296,7 +39308,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -39383,7 +39395,7 @@
         <v>1</v>
       </c>
       <c r="AS199">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT199">
         <v>1.17</v>
@@ -39577,7 +39589,7 @@
         <v>1</v>
       </c>
       <c r="AT200">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AU200">
         <v>1.69</v>
@@ -39959,7 +39971,7 @@
         <v>0.8</v>
       </c>
       <c r="AT202">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU202">
         <v>1.2</v>
@@ -40150,7 +40162,7 @@
         <v>1.6</v>
       </c>
       <c r="AT203">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU203">
         <v>1.54</v>
@@ -40338,7 +40350,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT204">
         <v>1</v>
@@ -40633,7 +40645,7 @@
         <v>163</v>
       </c>
       <c r="P206" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40824,7 +40836,7 @@
         <v>97</v>
       </c>
       <c r="P207" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -40914,7 +40926,7 @@
         <v>0.5</v>
       </c>
       <c r="AT207">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU207">
         <v>1.73</v>
@@ -41397,7 +41409,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41588,7 +41600,7 @@
         <v>228</v>
       </c>
       <c r="P211" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41675,7 +41687,7 @@
         <v>0.9</v>
       </c>
       <c r="AS211">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT211">
         <v>1.09</v>
@@ -41779,7 +41791,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q212">
         <v>10</v>
@@ -42352,7 +42364,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42925,7 +42937,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43258,6 +43270,770 @@
       </c>
       <c r="BK219">
         <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2831344</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44996.54166666666</v>
+      </c>
+      <c r="F220">
+        <v>25</v>
+      </c>
+      <c r="G220" t="s">
+        <v>77</v>
+      </c>
+      <c r="H220" t="s">
+        <v>82</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>1</v>
+      </c>
+      <c r="O220" t="s">
+        <v>128</v>
+      </c>
+      <c r="P220" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q220">
+        <v>7</v>
+      </c>
+      <c r="R220">
+        <v>1</v>
+      </c>
+      <c r="S220">
+        <v>8</v>
+      </c>
+      <c r="T220">
+        <v>1.7</v>
+      </c>
+      <c r="U220">
+        <v>2.6</v>
+      </c>
+      <c r="V220">
+        <v>6.75</v>
+      </c>
+      <c r="W220">
+        <v>1.25</v>
+      </c>
+      <c r="X220">
+        <v>3.6</v>
+      </c>
+      <c r="Y220">
+        <v>2.1</v>
+      </c>
+      <c r="Z220">
+        <v>1.62</v>
+      </c>
+      <c r="AA220">
+        <v>4.6</v>
+      </c>
+      <c r="AB220">
+        <v>1.16</v>
+      </c>
+      <c r="AC220">
+        <v>1.3</v>
+      </c>
+      <c r="AD220">
+        <v>5.75</v>
+      </c>
+      <c r="AE220">
+        <v>8.5</v>
+      </c>
+      <c r="AF220">
+        <v>1.02</v>
+      </c>
+      <c r="AG220">
+        <v>23</v>
+      </c>
+      <c r="AH220">
+        <v>1.11</v>
+      </c>
+      <c r="AI220">
+        <v>6.09</v>
+      </c>
+      <c r="AJ220">
+        <v>1.6</v>
+      </c>
+      <c r="AK220">
+        <v>2.19</v>
+      </c>
+      <c r="AL220">
+        <v>1.8</v>
+      </c>
+      <c r="AM220">
+        <v>1.9</v>
+      </c>
+      <c r="AN220">
+        <v>1.07</v>
+      </c>
+      <c r="AO220">
+        <v>1.13</v>
+      </c>
+      <c r="AP220">
+        <v>3.5</v>
+      </c>
+      <c r="AQ220">
+        <v>2.55</v>
+      </c>
+      <c r="AR220">
+        <v>0.8</v>
+      </c>
+      <c r="AS220">
+        <v>2.58</v>
+      </c>
+      <c r="AT220">
+        <v>0.73</v>
+      </c>
+      <c r="AU220">
+        <v>2.43</v>
+      </c>
+      <c r="AV220">
+        <v>1.32</v>
+      </c>
+      <c r="AW220">
+        <v>3.75</v>
+      </c>
+      <c r="AX220">
+        <v>1.07</v>
+      </c>
+      <c r="AY220">
+        <v>13</v>
+      </c>
+      <c r="AZ220">
+        <v>10.25</v>
+      </c>
+      <c r="BA220">
+        <v>1.14</v>
+      </c>
+      <c r="BB220">
+        <v>1.18</v>
+      </c>
+      <c r="BC220">
+        <v>1.36</v>
+      </c>
+      <c r="BD220">
+        <v>1.73</v>
+      </c>
+      <c r="BE220">
+        <v>2.08</v>
+      </c>
+      <c r="BF220">
+        <v>4</v>
+      </c>
+      <c r="BG220">
+        <v>3</v>
+      </c>
+      <c r="BH220">
+        <v>8</v>
+      </c>
+      <c r="BI220">
+        <v>3</v>
+      </c>
+      <c r="BJ220">
+        <v>12</v>
+      </c>
+      <c r="BK220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2831338</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44997.3125</v>
+      </c>
+      <c r="F221">
+        <v>25</v>
+      </c>
+      <c r="G221" t="s">
+        <v>72</v>
+      </c>
+      <c r="H221" t="s">
+        <v>80</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>239</v>
+      </c>
+      <c r="P221" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q221">
+        <v>4</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>6</v>
+      </c>
+      <c r="T221">
+        <v>2.95</v>
+      </c>
+      <c r="U221">
+        <v>2.25</v>
+      </c>
+      <c r="V221">
+        <v>3.4</v>
+      </c>
+      <c r="W221">
+        <v>1.38</v>
+      </c>
+      <c r="X221">
+        <v>3.3</v>
+      </c>
+      <c r="Y221">
+        <v>2.65</v>
+      </c>
+      <c r="Z221">
+        <v>1.53</v>
+      </c>
+      <c r="AA221">
+        <v>6.5</v>
+      </c>
+      <c r="AB221">
+        <v>1.14</v>
+      </c>
+      <c r="AC221">
+        <v>2.42</v>
+      </c>
+      <c r="AD221">
+        <v>3.65</v>
+      </c>
+      <c r="AE221">
+        <v>2.56</v>
+      </c>
+      <c r="AF221">
+        <v>1.04</v>
+      </c>
+      <c r="AG221">
+        <v>15</v>
+      </c>
+      <c r="AH221">
+        <v>1.22</v>
+      </c>
+      <c r="AI221">
+        <v>4.12</v>
+      </c>
+      <c r="AJ221">
+        <v>1.75</v>
+      </c>
+      <c r="AK221">
+        <v>2.08</v>
+      </c>
+      <c r="AL221">
+        <v>1.6</v>
+      </c>
+      <c r="AM221">
+        <v>2.3</v>
+      </c>
+      <c r="AN221">
+        <v>1.47</v>
+      </c>
+      <c r="AO221">
+        <v>1.3</v>
+      </c>
+      <c r="AP221">
+        <v>1.65</v>
+      </c>
+      <c r="AQ221">
+        <v>1</v>
+      </c>
+      <c r="AR221">
+        <v>0.55</v>
+      </c>
+      <c r="AS221">
+        <v>1.17</v>
+      </c>
+      <c r="AT221">
+        <v>0.5</v>
+      </c>
+      <c r="AU221">
+        <v>1.6</v>
+      </c>
+      <c r="AV221">
+        <v>1.59</v>
+      </c>
+      <c r="AW221">
+        <v>3.19</v>
+      </c>
+      <c r="AX221">
+        <v>2.1</v>
+      </c>
+      <c r="AY221">
+        <v>7</v>
+      </c>
+      <c r="AZ221">
+        <v>2.1</v>
+      </c>
+      <c r="BA221">
+        <v>1.15</v>
+      </c>
+      <c r="BB221">
+        <v>1.28</v>
+      </c>
+      <c r="BC221">
+        <v>1.5</v>
+      </c>
+      <c r="BD221">
+        <v>1.8</v>
+      </c>
+      <c r="BE221">
+        <v>2.25</v>
+      </c>
+      <c r="BF221">
+        <v>7</v>
+      </c>
+      <c r="BG221">
+        <v>2</v>
+      </c>
+      <c r="BH221">
+        <v>8</v>
+      </c>
+      <c r="BI221">
+        <v>6</v>
+      </c>
+      <c r="BJ221">
+        <v>15</v>
+      </c>
+      <c r="BK221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2831343</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F222">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>74</v>
+      </c>
+      <c r="H222" t="s">
+        <v>76</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>5</v>
+      </c>
+      <c r="O222" t="s">
+        <v>240</v>
+      </c>
+      <c r="P222" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q222">
+        <v>7</v>
+      </c>
+      <c r="R222">
+        <v>6</v>
+      </c>
+      <c r="S222">
+        <v>13</v>
+      </c>
+      <c r="T222">
+        <v>2.2</v>
+      </c>
+      <c r="U222">
+        <v>2.2</v>
+      </c>
+      <c r="V222">
+        <v>4.75</v>
+      </c>
+      <c r="W222">
+        <v>1.34</v>
+      </c>
+      <c r="X222">
+        <v>2.95</v>
+      </c>
+      <c r="Y222">
+        <v>2.55</v>
+      </c>
+      <c r="Z222">
+        <v>1.44</v>
+      </c>
+      <c r="AA222">
+        <v>6.25</v>
+      </c>
+      <c r="AB222">
+        <v>1.1</v>
+      </c>
+      <c r="AC222">
+        <v>2.21</v>
+      </c>
+      <c r="AD222">
+        <v>3.5</v>
+      </c>
+      <c r="AE222">
+        <v>2.91</v>
+      </c>
+      <c r="AF222">
+        <v>1.05</v>
+      </c>
+      <c r="AG222">
+        <v>13</v>
+      </c>
+      <c r="AH222">
+        <v>1.22</v>
+      </c>
+      <c r="AI222">
+        <v>4.12</v>
+      </c>
+      <c r="AJ222">
+        <v>1.95</v>
+      </c>
+      <c r="AK222">
+        <v>1.91</v>
+      </c>
+      <c r="AL222">
+        <v>1.77</v>
+      </c>
+      <c r="AM222">
+        <v>1.93</v>
+      </c>
+      <c r="AN222">
+        <v>1.18</v>
+      </c>
+      <c r="AO222">
+        <v>1.23</v>
+      </c>
+      <c r="AP222">
+        <v>2.15</v>
+      </c>
+      <c r="AQ222">
+        <v>2.25</v>
+      </c>
+      <c r="AR222">
+        <v>1.42</v>
+      </c>
+      <c r="AS222">
+        <v>2.31</v>
+      </c>
+      <c r="AT222">
+        <v>1.31</v>
+      </c>
+      <c r="AU222">
+        <v>2.22</v>
+      </c>
+      <c r="AV222">
+        <v>1.82</v>
+      </c>
+      <c r="AW222">
+        <v>4.04</v>
+      </c>
+      <c r="AX222">
+        <v>1.31</v>
+      </c>
+      <c r="AY222">
+        <v>6.75</v>
+      </c>
+      <c r="AZ222">
+        <v>4</v>
+      </c>
+      <c r="BA222">
+        <v>1.19</v>
+      </c>
+      <c r="BB222">
+        <v>1.45</v>
+      </c>
+      <c r="BC222">
+        <v>1.76</v>
+      </c>
+      <c r="BD222">
+        <v>2.17</v>
+      </c>
+      <c r="BE222">
+        <v>2.84</v>
+      </c>
+      <c r="BF222">
+        <v>7</v>
+      </c>
+      <c r="BG222">
+        <v>4</v>
+      </c>
+      <c r="BH222">
+        <v>10</v>
+      </c>
+      <c r="BI222">
+        <v>13</v>
+      </c>
+      <c r="BJ222">
+        <v>17</v>
+      </c>
+      <c r="BK222">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2831340</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F223">
+        <v>25</v>
+      </c>
+      <c r="G223" t="s">
+        <v>71</v>
+      </c>
+      <c r="H223" t="s">
+        <v>67</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>2</v>
+      </c>
+      <c r="N223">
+        <v>2</v>
+      </c>
+      <c r="O223" t="s">
+        <v>84</v>
+      </c>
+      <c r="P223" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q223">
+        <v>10</v>
+      </c>
+      <c r="R223">
+        <v>5</v>
+      </c>
+      <c r="S223">
+        <v>15</v>
+      </c>
+      <c r="T223">
+        <v>3.1</v>
+      </c>
+      <c r="U223">
+        <v>2.1</v>
+      </c>
+      <c r="V223">
+        <v>3.1</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>2.75</v>
+      </c>
+      <c r="Y223">
+        <v>2.75</v>
+      </c>
+      <c r="Z223">
+        <v>1.4</v>
+      </c>
+      <c r="AA223">
+        <v>7</v>
+      </c>
+      <c r="AB223">
+        <v>1.08</v>
+      </c>
+      <c r="AC223">
+        <v>2.5</v>
+      </c>
+      <c r="AD223">
+        <v>3.6</v>
+      </c>
+      <c r="AE223">
+        <v>2.6</v>
+      </c>
+      <c r="AF223">
+        <v>1.04</v>
+      </c>
+      <c r="AG223">
+        <v>10.06</v>
+      </c>
+      <c r="AH223">
+        <v>1.31</v>
+      </c>
+      <c r="AI223">
+        <v>3.33</v>
+      </c>
+      <c r="AJ223">
+        <v>1.79</v>
+      </c>
+      <c r="AK223">
+        <v>1.98</v>
+      </c>
+      <c r="AL223">
+        <v>1.73</v>
+      </c>
+      <c r="AM223">
+        <v>2</v>
+      </c>
+      <c r="AN223">
+        <v>1.5</v>
+      </c>
+      <c r="AO223">
+        <v>1.29</v>
+      </c>
+      <c r="AP223">
+        <v>1.44</v>
+      </c>
+      <c r="AQ223">
+        <v>2.27</v>
+      </c>
+      <c r="AR223">
+        <v>1.45</v>
+      </c>
+      <c r="AS223">
+        <v>2.08</v>
+      </c>
+      <c r="AT223">
+        <v>1.58</v>
+      </c>
+      <c r="AU223">
+        <v>1.66</v>
+      </c>
+      <c r="AV223">
+        <v>1.62</v>
+      </c>
+      <c r="AW223">
+        <v>3.28</v>
+      </c>
+      <c r="AX223">
+        <v>2.45</v>
+      </c>
+      <c r="AY223">
+        <v>6.5</v>
+      </c>
+      <c r="AZ223">
+        <v>1.85</v>
+      </c>
+      <c r="BA223">
+        <v>1.28</v>
+      </c>
+      <c r="BB223">
+        <v>1.52</v>
+      </c>
+      <c r="BC223">
+        <v>1.83</v>
+      </c>
+      <c r="BD223">
+        <v>2.35</v>
+      </c>
+      <c r="BE223">
+        <v>3.1</v>
+      </c>
+      <c r="BF223">
+        <v>3</v>
+      </c>
+      <c r="BG223">
+        <v>5</v>
+      </c>
+      <c r="BH223">
+        <v>7</v>
+      </c>
+      <c r="BI223">
+        <v>8</v>
+      </c>
+      <c r="BJ223">
+        <v>10</v>
+      </c>
+      <c r="BK223">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,9 @@
     <t>['8', '78', '81', '90+4']</t>
   </si>
   <si>
+    <t>['7', '59', '88']</t>
+  </si>
+  <si>
     <t>['16', '86']</t>
   </si>
   <si>
@@ -1437,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK223"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1684,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1768,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1872,7 +1875,7 @@
         <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1962,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2254,7 +2257,7 @@
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -2445,7 +2448,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -3108,7 +3111,7 @@
         <v>1.17</v>
       </c>
       <c r="AT9">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3209,7 +3212,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -3872,7 +3875,7 @@
         <v>2.27</v>
       </c>
       <c r="AT13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3973,7 +3976,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -4442,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT16">
         <v>0.73</v>
@@ -4546,7 +4549,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>12</v>
@@ -4928,7 +4931,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -5119,7 +5122,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5206,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT20">
         <v>2.42</v>
@@ -5310,7 +5313,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5397,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5692,7 +5695,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6074,7 +6077,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -6265,7 +6268,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6456,7 +6459,7 @@
         <v>84</v>
       </c>
       <c r="P27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -6543,10 +6546,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT27">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU27">
         <v>0.73</v>
@@ -6647,7 +6650,7 @@
         <v>102</v>
       </c>
       <c r="P28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6838,7 +6841,7 @@
         <v>103</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -7029,7 +7032,7 @@
         <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7220,7 +7223,7 @@
         <v>84</v>
       </c>
       <c r="P31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -8366,7 +8369,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8456,7 +8459,7 @@
         <v>2.25</v>
       </c>
       <c r="AT37">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>2.55</v>
@@ -8644,7 +8647,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -9411,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="AT42">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU42">
         <v>2.13</v>
@@ -9599,7 +9602,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
         <v>1.31</v>
@@ -9703,7 +9706,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9894,7 +9897,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10085,7 +10088,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10175,7 +10178,7 @@
         <v>2.58</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU46">
         <v>2.06</v>
@@ -11231,7 +11234,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q52">
         <v>6</v>
@@ -11804,7 +11807,7 @@
         <v>121</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11995,7 +11998,7 @@
         <v>84</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q56">
         <v>8</v>
@@ -12082,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="AS56">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -12186,7 +12189,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12276,7 +12279,7 @@
         <v>2.58</v>
       </c>
       <c r="AT57">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU57">
         <v>2.33</v>
@@ -12377,7 +12380,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12464,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT58">
         <v>0.73</v>
@@ -12568,7 +12571,7 @@
         <v>124</v>
       </c>
       <c r="P59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12655,7 +12658,7 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT59">
         <v>1.58</v>
@@ -12759,7 +12762,7 @@
         <v>84</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -13141,7 +13144,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -13231,7 +13234,7 @@
         <v>2.31</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU62">
         <v>1.85</v>
@@ -13332,7 +13335,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13422,7 +13425,7 @@
         <v>1.17</v>
       </c>
       <c r="AT63">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.33</v>
@@ -13804,7 +13807,7 @@
         <v>1.31</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU65">
         <v>1.31</v>
@@ -13905,7 +13908,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -14096,7 +14099,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14478,7 +14481,7 @@
         <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14669,7 +14672,7 @@
         <v>132</v>
       </c>
       <c r="P70" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>11</v>
@@ -15242,7 +15245,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15624,7 +15627,7 @@
         <v>130</v>
       </c>
       <c r="P75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15711,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -15905,7 +15908,7 @@
         <v>1.54</v>
       </c>
       <c r="AT76">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU76">
         <v>1.61</v>
@@ -16006,7 +16009,7 @@
         <v>84</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16197,7 +16200,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>3</v>
@@ -16284,7 +16287,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT78">
         <v>1.33</v>
@@ -16475,7 +16478,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT79">
         <v>0.5</v>
@@ -16579,7 +16582,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16961,7 +16964,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>9</v>
@@ -17051,7 +17054,7 @@
         <v>2.08</v>
       </c>
       <c r="AT82">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.62</v>
@@ -17152,7 +17155,7 @@
         <v>140</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>7</v>
@@ -17534,7 +17537,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q85">
         <v>9</v>
@@ -17815,7 +17818,7 @@
         <v>1.17</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU86">
         <v>1.34</v>
@@ -17916,7 +17919,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -18298,7 +18301,7 @@
         <v>145</v>
       </c>
       <c r="P89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18680,7 +18683,7 @@
         <v>84</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18871,7 +18874,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q92">
         <v>11</v>
@@ -19062,7 +19065,7 @@
         <v>148</v>
       </c>
       <c r="P93" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -19149,7 +19152,7 @@
         <v>0.5</v>
       </c>
       <c r="AS93">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT93">
         <v>1.17</v>
@@ -19343,7 +19346,7 @@
         <v>2.31</v>
       </c>
       <c r="AT94">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>2.15</v>
@@ -19635,7 +19638,7 @@
         <v>84</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q96">
         <v>10</v>
@@ -19826,7 +19829,7 @@
         <v>151</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -19916,7 +19919,7 @@
         <v>2.27</v>
       </c>
       <c r="AT97">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU97">
         <v>2.15</v>
@@ -20017,7 +20020,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20486,7 +20489,7 @@
         <v>2</v>
       </c>
       <c r="AS100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT100">
         <v>1.58</v>
@@ -20590,7 +20593,7 @@
         <v>84</v>
       </c>
       <c r="P101" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20781,7 +20784,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21062,7 +21065,7 @@
         <v>1.83</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU103">
         <v>1.83</v>
@@ -21163,7 +21166,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21354,7 +21357,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21545,7 +21548,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q106">
         <v>9</v>
@@ -21736,7 +21739,7 @@
         <v>160</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -21823,7 +21826,7 @@
         <v>1.75</v>
       </c>
       <c r="AS107">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT107">
         <v>2.09</v>
@@ -22118,7 +22121,7 @@
         <v>84</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>2</v>
@@ -22396,7 +22399,7 @@
         <v>0.83</v>
       </c>
       <c r="AS110">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT110">
         <v>0.5</v>
@@ -22691,7 +22694,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>9</v>
@@ -22882,7 +22885,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>10</v>
@@ -23073,7 +23076,7 @@
         <v>166</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -23264,7 +23267,7 @@
         <v>167</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>9</v>
@@ -23455,7 +23458,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23545,7 +23548,7 @@
         <v>2.31</v>
       </c>
       <c r="AT116">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU116">
         <v>2.04</v>
@@ -23646,7 +23649,7 @@
         <v>169</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q117">
         <v>1</v>
@@ -23733,7 +23736,7 @@
         <v>1.75</v>
       </c>
       <c r="AS117">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT117">
         <v>1.36</v>
@@ -23927,7 +23930,7 @@
         <v>2.33</v>
       </c>
       <c r="AT118">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -24219,7 +24222,7 @@
         <v>170</v>
       </c>
       <c r="P120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24410,7 +24413,7 @@
         <v>171</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24601,7 +24604,7 @@
         <v>172</v>
       </c>
       <c r="P122" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q122">
         <v>6</v>
@@ -24792,7 +24795,7 @@
         <v>84</v>
       </c>
       <c r="P123" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>2</v>
@@ -24983,7 +24986,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>7</v>
@@ -25073,7 +25076,7 @@
         <v>1.45</v>
       </c>
       <c r="AT124">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU124">
         <v>1.52</v>
@@ -25261,7 +25264,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT125">
         <v>0.58</v>
@@ -25365,7 +25368,7 @@
         <v>174</v>
       </c>
       <c r="P126" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>9</v>
@@ -25455,7 +25458,7 @@
         <v>1.58</v>
       </c>
       <c r="AT126">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU126">
         <v>1.51</v>
@@ -25556,7 +25559,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25643,7 +25646,7 @@
         <v>1.6</v>
       </c>
       <c r="AS127">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT127">
         <v>1.36</v>
@@ -25747,7 +25750,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>1</v>
@@ -25938,7 +25941,7 @@
         <v>176</v>
       </c>
       <c r="P129" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -26025,7 +26028,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT129">
         <v>0.92</v>
@@ -26129,7 +26132,7 @@
         <v>177</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26219,7 +26222,7 @@
         <v>1.31</v>
       </c>
       <c r="AT130">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -26702,7 +26705,7 @@
         <v>91</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26893,7 +26896,7 @@
         <v>180</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>4</v>
@@ -27466,7 +27469,7 @@
         <v>183</v>
       </c>
       <c r="P137" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27848,7 +27851,7 @@
         <v>185</v>
       </c>
       <c r="P139" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27935,7 +27938,7 @@
         <v>1.33</v>
       </c>
       <c r="AS139">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT139">
         <v>0.73</v>
@@ -28230,7 +28233,7 @@
         <v>187</v>
       </c>
       <c r="P141" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q141">
         <v>4</v>
@@ -28421,7 +28424,7 @@
         <v>117</v>
       </c>
       <c r="P142" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28702,7 +28705,7 @@
         <v>1</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU143">
         <v>1.88</v>
@@ -28994,7 +28997,7 @@
         <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29081,7 +29084,7 @@
         <v>0.75</v>
       </c>
       <c r="AS145">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT145">
         <v>0.58</v>
@@ -29185,7 +29188,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29376,7 +29379,7 @@
         <v>191</v>
       </c>
       <c r="P147" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29567,7 +29570,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29758,7 +29761,7 @@
         <v>193</v>
       </c>
       <c r="P149" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29949,7 +29952,7 @@
         <v>194</v>
       </c>
       <c r="P150" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -30039,7 +30042,7 @@
         <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU150">
         <v>1.45</v>
@@ -30140,7 +30143,7 @@
         <v>195</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30800,7 +30803,7 @@
         <v>1</v>
       </c>
       <c r="AS154">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT154">
         <v>0.73</v>
@@ -31095,7 +31098,7 @@
         <v>199</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>1</v>
@@ -31185,7 +31188,7 @@
         <v>1.45</v>
       </c>
       <c r="AT156">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU156">
         <v>1.61</v>
@@ -31286,7 +31289,7 @@
         <v>200</v>
       </c>
       <c r="P157" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q157">
         <v>8</v>
@@ -31668,7 +31671,7 @@
         <v>84</v>
       </c>
       <c r="P159" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -32241,7 +32244,7 @@
         <v>203</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32328,10 +32331,10 @@
         <v>0.89</v>
       </c>
       <c r="AS162">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT162">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU162">
         <v>1.2</v>
@@ -32522,7 +32525,7 @@
         <v>1.58</v>
       </c>
       <c r="AT163">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU163">
         <v>1.61</v>
@@ -32814,7 +32817,7 @@
         <v>206</v>
       </c>
       <c r="P165" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -33005,7 +33008,7 @@
         <v>207</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33196,7 +33199,7 @@
         <v>208</v>
       </c>
       <c r="P167" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -33578,7 +33581,7 @@
         <v>84</v>
       </c>
       <c r="P169" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q169">
         <v>12</v>
@@ -33665,7 +33668,7 @@
         <v>0.78</v>
       </c>
       <c r="AS169">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT169">
         <v>1.08</v>
@@ -33769,7 +33772,7 @@
         <v>209</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q170">
         <v>5</v>
@@ -33960,7 +33963,7 @@
         <v>130</v>
       </c>
       <c r="P171" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q171">
         <v>4</v>
@@ -34151,7 +34154,7 @@
         <v>150</v>
       </c>
       <c r="P172" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q172">
         <v>17</v>
@@ -34342,7 +34345,7 @@
         <v>210</v>
       </c>
       <c r="P173" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34724,7 +34727,7 @@
         <v>212</v>
       </c>
       <c r="P175" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q175">
         <v>7</v>
@@ -34814,7 +34817,7 @@
         <v>1.18</v>
       </c>
       <c r="AT175">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU175">
         <v>1.67</v>
@@ -34915,7 +34918,7 @@
         <v>213</v>
       </c>
       <c r="P176" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q176">
         <v>7</v>
@@ -35106,7 +35109,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35679,7 +35682,7 @@
         <v>215</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q180">
         <v>1</v>
@@ -35766,7 +35769,7 @@
         <v>2</v>
       </c>
       <c r="AS180">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT180">
         <v>2.09</v>
@@ -36061,7 +36064,7 @@
         <v>217</v>
       </c>
       <c r="P182" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q182">
         <v>7</v>
@@ -36339,7 +36342,7 @@
         <v>1.22</v>
       </c>
       <c r="AS183">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT183">
         <v>1</v>
@@ -36443,7 +36446,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q184">
         <v>5</v>
@@ -36533,7 +36536,7 @@
         <v>1.17</v>
       </c>
       <c r="AT184">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU184">
         <v>1.53</v>
@@ -36634,7 +36637,7 @@
         <v>219</v>
       </c>
       <c r="P185" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q185">
         <v>8</v>
@@ -36825,7 +36828,7 @@
         <v>84</v>
       </c>
       <c r="P186" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q186">
         <v>9</v>
@@ -37016,7 +37019,7 @@
         <v>220</v>
       </c>
       <c r="P187" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q187">
         <v>1</v>
@@ -37103,7 +37106,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT187">
         <v>1.33</v>
@@ -37488,7 +37491,7 @@
         <v>2.08</v>
       </c>
       <c r="AT189">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU189">
         <v>1.64</v>
@@ -37589,7 +37592,7 @@
         <v>84</v>
       </c>
       <c r="P190" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q190">
         <v>4</v>
@@ -37679,7 +37682,7 @@
         <v>1.83</v>
       </c>
       <c r="AT190">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU190">
         <v>1.66</v>
@@ -37780,7 +37783,7 @@
         <v>223</v>
       </c>
       <c r="P191" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q191">
         <v>6</v>
@@ -37971,7 +37974,7 @@
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38162,7 +38165,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38353,7 +38356,7 @@
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q194">
         <v>13</v>
@@ -38926,7 +38929,7 @@
         <v>84</v>
       </c>
       <c r="P197" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q197">
         <v>8</v>
@@ -39117,7 +39120,7 @@
         <v>228</v>
       </c>
       <c r="P198" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q198">
         <v>5</v>
@@ -39308,7 +39311,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q199">
         <v>10</v>
@@ -39780,7 +39783,7 @@
         <v>1.54</v>
       </c>
       <c r="AT201">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU201">
         <v>1.81</v>
@@ -39968,7 +39971,7 @@
         <v>0.6</v>
       </c>
       <c r="AS202">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT202">
         <v>0.5</v>
@@ -40159,7 +40162,7 @@
         <v>0.89</v>
       </c>
       <c r="AS203">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT203">
         <v>0.73</v>
@@ -40544,7 +40547,7 @@
         <v>2.33</v>
       </c>
       <c r="AT205">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU205">
         <v>2.07</v>
@@ -40645,7 +40648,7 @@
         <v>163</v>
       </c>
       <c r="P206" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q206">
         <v>9</v>
@@ -40836,7 +40839,7 @@
         <v>97</v>
       </c>
       <c r="P207" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q207">
         <v>7</v>
@@ -40923,7 +40926,7 @@
         <v>1.45</v>
       </c>
       <c r="AS207">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT207">
         <v>1.31</v>
@@ -41409,7 +41412,7 @@
         <v>233</v>
       </c>
       <c r="P210" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41499,7 +41502,7 @@
         <v>1.45</v>
       </c>
       <c r="AT210">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU210">
         <v>1.54</v>
@@ -41600,7 +41603,7 @@
         <v>228</v>
       </c>
       <c r="P211" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q211">
         <v>7</v>
@@ -41791,7 +41794,7 @@
         <v>86</v>
       </c>
       <c r="P212" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q212">
         <v>10</v>
@@ -42364,7 +42367,7 @@
         <v>234</v>
       </c>
       <c r="P215" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q215">
         <v>2</v>
@@ -42937,7 +42940,7 @@
         <v>237</v>
       </c>
       <c r="P218" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q218">
         <v>2</v>
@@ -43701,7 +43704,7 @@
         <v>240</v>
       </c>
       <c r="P222" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -43892,7 +43895,7 @@
         <v>84</v>
       </c>
       <c r="P223" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q223">
         <v>10</v>
@@ -44034,6 +44037,579 @@
       </c>
       <c r="BK223">
         <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2831345</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F224">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>83</v>
+      </c>
+      <c r="H224" t="s">
+        <v>81</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>3</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>84</v>
+      </c>
+      <c r="P224" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q224">
+        <v>-1</v>
+      </c>
+      <c r="R224">
+        <v>-1</v>
+      </c>
+      <c r="S224">
+        <v>-1</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>2.7</v>
+      </c>
+      <c r="AD224">
+        <v>3.55</v>
+      </c>
+      <c r="AE224">
+        <v>2.45</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>1.84</v>
+      </c>
+      <c r="AK224">
+        <v>1.92</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>0</v>
+      </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
+      <c r="AP224">
+        <v>0</v>
+      </c>
+      <c r="AQ224">
+        <v>1.6</v>
+      </c>
+      <c r="AR224">
+        <v>1.27</v>
+      </c>
+      <c r="AS224">
+        <v>1.45</v>
+      </c>
+      <c r="AT224">
+        <v>1.42</v>
+      </c>
+      <c r="AU224">
+        <v>1.57</v>
+      </c>
+      <c r="AV224">
+        <v>1.54</v>
+      </c>
+      <c r="AW224">
+        <v>3.11</v>
+      </c>
+      <c r="AX224">
+        <v>0</v>
+      </c>
+      <c r="AY224">
+        <v>0</v>
+      </c>
+      <c r="AZ224">
+        <v>0</v>
+      </c>
+      <c r="BA224">
+        <v>0</v>
+      </c>
+      <c r="BB224">
+        <v>0</v>
+      </c>
+      <c r="BC224">
+        <v>0</v>
+      </c>
+      <c r="BD224">
+        <v>0</v>
+      </c>
+      <c r="BE224">
+        <v>0</v>
+      </c>
+      <c r="BF224">
+        <v>-1</v>
+      </c>
+      <c r="BG224">
+        <v>-1</v>
+      </c>
+      <c r="BH224">
+        <v>-1</v>
+      </c>
+      <c r="BI224">
+        <v>-1</v>
+      </c>
+      <c r="BJ224">
+        <v>-1</v>
+      </c>
+      <c r="BK224">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2831342</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44997.54166666666</v>
+      </c>
+      <c r="F225">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>79</v>
+      </c>
+      <c r="H225" t="s">
+        <v>78</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>3</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>3</v>
+      </c>
+      <c r="O225" t="s">
+        <v>235</v>
+      </c>
+      <c r="P225" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q225">
+        <v>-1</v>
+      </c>
+      <c r="R225">
+        <v>-1</v>
+      </c>
+      <c r="S225">
+        <v>-1</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>3.05</v>
+      </c>
+      <c r="AD225">
+        <v>3.6</v>
+      </c>
+      <c r="AE225">
+        <v>2.18</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>1.83</v>
+      </c>
+      <c r="AK225">
+        <v>2.03</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>0</v>
+      </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <v>0</v>
+      </c>
+      <c r="AQ225">
+        <v>0.5</v>
+      </c>
+      <c r="AR225">
+        <v>1</v>
+      </c>
+      <c r="AS225">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT225">
+        <v>0.92</v>
+      </c>
+      <c r="AU225">
+        <v>1.74</v>
+      </c>
+      <c r="AV225">
+        <v>1.42</v>
+      </c>
+      <c r="AW225">
+        <v>3.16</v>
+      </c>
+      <c r="AX225">
+        <v>0</v>
+      </c>
+      <c r="AY225">
+        <v>0</v>
+      </c>
+      <c r="AZ225">
+        <v>0</v>
+      </c>
+      <c r="BA225">
+        <v>0</v>
+      </c>
+      <c r="BB225">
+        <v>0</v>
+      </c>
+      <c r="BC225">
+        <v>0</v>
+      </c>
+      <c r="BD225">
+        <v>0</v>
+      </c>
+      <c r="BE225">
+        <v>0</v>
+      </c>
+      <c r="BF225">
+        <v>-1</v>
+      </c>
+      <c r="BG225">
+        <v>-1</v>
+      </c>
+      <c r="BH225">
+        <v>-1</v>
+      </c>
+      <c r="BI225">
+        <v>-1</v>
+      </c>
+      <c r="BJ225">
+        <v>-1</v>
+      </c>
+      <c r="BK225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2831341</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44998.58333333334</v>
+      </c>
+      <c r="F226">
+        <v>25</v>
+      </c>
+      <c r="G226" t="s">
+        <v>65</v>
+      </c>
+      <c r="H226" t="s">
+        <v>66</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226" t="s">
+        <v>241</v>
+      </c>
+      <c r="P226" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q226">
+        <v>3</v>
+      </c>
+      <c r="R226">
+        <v>3</v>
+      </c>
+      <c r="S226">
+        <v>6</v>
+      </c>
+      <c r="T226">
+        <v>3.64</v>
+      </c>
+      <c r="U226">
+        <v>2.12</v>
+      </c>
+      <c r="V226">
+        <v>2.88</v>
+      </c>
+      <c r="W226">
+        <v>1.34</v>
+      </c>
+      <c r="X226">
+        <v>3</v>
+      </c>
+      <c r="Y226">
+        <v>2.8</v>
+      </c>
+      <c r="Z226">
+        <v>1.38</v>
+      </c>
+      <c r="AA226">
+        <v>7.5</v>
+      </c>
+      <c r="AB226">
+        <v>1.07</v>
+      </c>
+      <c r="AC226">
+        <v>3.25</v>
+      </c>
+      <c r="AD226">
+        <v>3.65</v>
+      </c>
+      <c r="AE226">
+        <v>2.08</v>
+      </c>
+      <c r="AF226">
+        <v>1.05</v>
+      </c>
+      <c r="AG226">
+        <v>11.5</v>
+      </c>
+      <c r="AH226">
+        <v>1.27</v>
+      </c>
+      <c r="AI226">
+        <v>3.75</v>
+      </c>
+      <c r="AJ226">
+        <v>1.75</v>
+      </c>
+      <c r="AK226">
+        <v>2.03</v>
+      </c>
+      <c r="AL226">
+        <v>1.68</v>
+      </c>
+      <c r="AM226">
+        <v>2.1</v>
+      </c>
+      <c r="AN226">
+        <v>1.58</v>
+      </c>
+      <c r="AO226">
+        <v>1.32</v>
+      </c>
+      <c r="AP226">
+        <v>1.4</v>
+      </c>
+      <c r="AQ226">
+        <v>0.8</v>
+      </c>
+      <c r="AR226">
+        <v>1.08</v>
+      </c>
+      <c r="AS226">
+        <v>1</v>
+      </c>
+      <c r="AT226">
+        <v>1</v>
+      </c>
+      <c r="AU226">
+        <v>1.2</v>
+      </c>
+      <c r="AV226">
+        <v>1.47</v>
+      </c>
+      <c r="AW226">
+        <v>2.67</v>
+      </c>
+      <c r="AX226">
+        <v>2.6</v>
+      </c>
+      <c r="AY226">
+        <v>6.5</v>
+      </c>
+      <c r="AZ226">
+        <v>1.78</v>
+      </c>
+      <c r="BA226">
+        <v>1.3</v>
+      </c>
+      <c r="BB226">
+        <v>1.53</v>
+      </c>
+      <c r="BC226">
+        <v>1.87</v>
+      </c>
+      <c r="BD226">
+        <v>2.4</v>
+      </c>
+      <c r="BE226">
+        <v>3.2</v>
+      </c>
+      <c r="BF226">
+        <v>5</v>
+      </c>
+      <c r="BG226">
+        <v>3</v>
+      </c>
+      <c r="BH226">
+        <v>1</v>
+      </c>
+      <c r="BI226">
+        <v>3</v>
+      </c>
+      <c r="BJ226">
+        <v>6</v>
+      </c>
+      <c r="BK226">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT4" t="n">
         <v>1.33</v>
@@ -1918,7 +1918,7 @@
         <v>1.54</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.58</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT18" t="n">
         <v>1.36</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT19" t="n">
         <v>2.09</v>
@@ -4557,7 +4557,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU20" t="n">
         <v>1.97</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT25" t="n">
         <v>1.17</v>
@@ -6384,7 +6384,7 @@
         <v>1.18</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU29" t="n">
         <v>2.86</v>
@@ -6790,7 +6790,7 @@
         <v>1.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>2.23</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU32" t="n">
         <v>3.35</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT34" t="n">
         <v>0.58</v>
@@ -7602,7 +7602,7 @@
         <v>2.31</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU35" t="n">
         <v>2.23</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT36" t="n">
         <v>2.09</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT48" t="n">
         <v>0.58</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.28</v>
@@ -10850,7 +10850,7 @@
         <v>1.18</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU51" t="n">
         <v>2.3</v>
@@ -11050,10 +11050,10 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU52" t="n">
         <v>1.04</v>
@@ -11256,7 +11256,7 @@
         <v>1.58</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU53" t="n">
         <v>1.51</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT54" t="n">
         <v>1.36</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT65" t="n">
         <v>0.92</v>
@@ -14298,10 +14298,10 @@
         <v>2.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU68" t="n">
         <v>2.39</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT72" t="n">
         <v>2.09</v>
@@ -15316,7 +15316,7 @@
         <v>1.45</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -17346,7 +17346,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT85" t="n">
         <v>1.31</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT86" t="n">
         <v>0.92</v>
@@ -18158,7 +18158,7 @@
         <v>1.58</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU87" t="n">
         <v>1.39</v>
@@ -18361,7 +18361,7 @@
         <v>2.08</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18561,7 +18561,7 @@
         <v>1.8</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -19173,7 +19173,7 @@
         <v>1.54</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT96" t="n">
         <v>1.33</v>
@@ -20185,7 +20185,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT97" t="n">
         <v>1.42</v>
@@ -21000,7 +21000,7 @@
         <v>1.45</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT102" t="n">
         <v>0.73</v>
@@ -22012,10 +22012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU106" t="n">
         <v>2.38</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU109" t="n">
         <v>1.82</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU112" t="n">
         <v>1.82</v>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25466,7 +25466,7 @@
         <v>2.08</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU123" t="n">
         <v>1.76</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27290,7 +27290,7 @@
         <v>0.83</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT132" t="n">
         <v>1.17</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT134" t="n">
         <v>0.5</v>
@@ -27902,7 +27902,7 @@
         <v>2.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>2.38</v>
@@ -28105,7 +28105,7 @@
         <v>2.08</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU136" t="n">
         <v>1.7</v>
@@ -28308,7 +28308,7 @@
         <v>1.17</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -29323,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -29726,7 +29726,7 @@
         <v>1.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT144" t="n">
         <v>1.31</v>
@@ -30538,7 +30538,7 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT148" t="n">
         <v>0.5</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31553,10 +31553,10 @@
         <v>0.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>2.16</v>
@@ -31759,7 +31759,7 @@
         <v>1.45</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU154" t="n">
         <v>1.55</v>
@@ -31959,7 +31959,7 @@
         <v>1.14</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT155" t="n">
         <v>0.73</v>
@@ -32571,7 +32571,7 @@
         <v>1</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32774,7 +32774,7 @@
         <v>2.33</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU159" t="n">
         <v>2.01</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34395,7 +34395,7 @@
         <v>1.29</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT167" t="n">
         <v>1.58</v>
@@ -34804,7 +34804,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU169" t="n">
         <v>1.67</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT170" t="n">
         <v>1.17</v>
@@ -35410,7 +35410,7 @@
         <v>1</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT172" t="n">
         <v>0.92</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT173" t="n">
         <v>1.36</v>
@@ -35819,7 +35819,7 @@
         <v>2.58</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU174" t="n">
         <v>2.34</v>
@@ -36631,7 +36631,7 @@
         <v>2.31</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>2.11</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37237,7 +37237,7 @@
         <v>0.67</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT181" t="n">
         <v>0.5</v>
@@ -38052,7 +38052,7 @@
         <v>1.54</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU185" t="n">
         <v>1.73</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU186" t="n">
         <v>1.85</v>
@@ -39470,7 +39470,7 @@
         <v>1</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT192" t="n">
         <v>0.92</v>
@@ -39879,7 +39879,7 @@
         <v>2.58</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU194" t="n">
         <v>2.34</v>
@@ -40082,7 +40082,7 @@
         <v>2.31</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU195" t="n">
         <v>2.15</v>
@@ -40485,10 +40485,10 @@
         <v>0.91</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.57</v>
@@ -40688,7 +40688,7 @@
         <v>2.11</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT198" t="n">
         <v>2.09</v>
@@ -42718,10 +42718,10 @@
         <v>0.78</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU208" t="n">
         <v>2.35</v>
@@ -43330,7 +43330,7 @@
         <v>2.31</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU211" t="n">
         <v>2.14</v>
@@ -43733,7 +43733,7 @@
         <v>0.92</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT213" t="n">
         <v>0.92</v>
@@ -43939,7 +43939,7 @@
         <v>1.18</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AU214" t="n">
         <v>1.6</v>
@@ -44139,7 +44139,7 @@
         <v>1.1</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT215" t="n">
         <v>1</v>
@@ -44342,7 +44342,7 @@
         <v>0.64</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT216" t="n">
         <v>0.58</v>
@@ -44545,10 +44545,10 @@
         <v>0.8</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -46427,6 +46427,818 @@
       </c>
       <c r="BK226" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2831349</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="n">
+        <v>3</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['62', '90+3']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>4</v>
+      </c>
+      <c r="R227" t="n">
+        <v>6</v>
+      </c>
+      <c r="S227" t="n">
+        <v>10</v>
+      </c>
+      <c r="T227" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2831348</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45003.3125</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>9</v>
+      </c>
+      <c r="R228" t="n">
+        <v>5</v>
+      </c>
+      <c r="S228" t="n">
+        <v>14</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2831347</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['33', '45+2']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>4</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>6</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V229" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2831353</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45003.54166666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Beşiktaş</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>4</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['42', '56', '90+3']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>8</v>
+      </c>
+      <c r="R230" t="n">
+        <v>2</v>
+      </c>
+      <c r="S230" t="n">
+        <v>10</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V230" t="n">
+        <v>8</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X230" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -688,16 +688,16 @@
     <t>['49']</t>
   </si>
   <si>
+    <t>['38', '56', '77', '88']</t>
+  </si>
+  <si>
     <t>['14', '29', '45+5', '50', '66']</t>
   </si>
   <si>
-    <t>['38', '56', '77', '88']</t>
+    <t>['34', '90+4']</t>
   </si>
   <si>
     <t>['32', '60', '83']</t>
-  </si>
-  <si>
-    <t>['34', '90+4']</t>
   </si>
   <si>
     <t>['83']</t>
@@ -36237,7 +36237,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2831305</v>
+        <v>2831306</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -36252,142 +36252,142 @@
         <v>21</v>
       </c>
       <c r="G183" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H183" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O183" t="s">
-        <v>218</v>
+        <v>84</v>
       </c>
       <c r="P183" t="s">
-        <v>149</v>
+        <v>342</v>
       </c>
       <c r="Q183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R183">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S183">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T183">
-        <v>4.33</v>
+        <v>2.41</v>
       </c>
       <c r="U183">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V183">
-        <v>2.3</v>
+        <v>4.65</v>
       </c>
       <c r="W183">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X183">
-        <v>3.25</v>
+        <v>3.04</v>
       </c>
       <c r="Y183">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="Z183">
+        <v>1.46</v>
+      </c>
+      <c r="AA183">
+        <v>6.85</v>
+      </c>
+      <c r="AB183">
+        <v>1.1</v>
+      </c>
+      <c r="AC183">
+        <v>2.13</v>
+      </c>
+      <c r="AD183">
+        <v>3.45</v>
+      </c>
+      <c r="AE183">
+        <v>3.1</v>
+      </c>
+      <c r="AF183">
+        <v>1.01</v>
+      </c>
+      <c r="AG183">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH183">
+        <v>1.26</v>
+      </c>
+      <c r="AI183">
+        <v>3.62</v>
+      </c>
+      <c r="AJ183">
+        <v>1.83</v>
+      </c>
+      <c r="AK183">
+        <v>1.98</v>
+      </c>
+      <c r="AL183">
+        <v>1.78</v>
+      </c>
+      <c r="AM183">
+        <v>2.04</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.29</v>
+      </c>
+      <c r="AP183">
+        <v>2.02</v>
+      </c>
+      <c r="AQ183">
+        <v>1.22</v>
+      </c>
+      <c r="AR183">
+        <v>0.9</v>
+      </c>
+      <c r="AS183">
+        <v>1.17</v>
+      </c>
+      <c r="AT183">
+        <v>0.92</v>
+      </c>
+      <c r="AU183">
+        <v>1.53</v>
+      </c>
+      <c r="AV183">
+        <v>1.34</v>
+      </c>
+      <c r="AW183">
+        <v>2.87</v>
+      </c>
+      <c r="AX183">
         <v>1.5</v>
-      </c>
-      <c r="AA183">
-        <v>5.5</v>
-      </c>
-      <c r="AB183">
-        <v>1.12</v>
-      </c>
-      <c r="AC183">
-        <v>3.5</v>
-      </c>
-      <c r="AD183">
-        <v>3.4</v>
-      </c>
-      <c r="AE183">
-        <v>2</v>
-      </c>
-      <c r="AF183">
-        <v>1.04</v>
-      </c>
-      <c r="AG183">
-        <v>10</v>
-      </c>
-      <c r="AH183">
-        <v>1.25</v>
-      </c>
-      <c r="AI183">
-        <v>3.75</v>
-      </c>
-      <c r="AJ183">
-        <v>1.78</v>
-      </c>
-      <c r="AK183">
-        <v>2.04</v>
-      </c>
-      <c r="AL183">
-        <v>1.65</v>
-      </c>
-      <c r="AM183">
-        <v>2.05</v>
-      </c>
-      <c r="AN183">
-        <v>2</v>
-      </c>
-      <c r="AO183">
-        <v>1.26</v>
-      </c>
-      <c r="AP183">
-        <v>1.21</v>
-      </c>
-      <c r="AQ183">
-        <v>1.25</v>
-      </c>
-      <c r="AR183">
-        <v>1.22</v>
-      </c>
-      <c r="AS183">
-        <v>1.45</v>
-      </c>
-      <c r="AT183">
-        <v>1.17</v>
-      </c>
-      <c r="AU183">
-        <v>1.55</v>
-      </c>
-      <c r="AV183">
-        <v>1.88</v>
-      </c>
-      <c r="AW183">
-        <v>3.43</v>
-      </c>
-      <c r="AX183">
-        <v>2.88</v>
       </c>
       <c r="AY183">
         <v>8.5</v>
       </c>
       <c r="AZ183">
-        <v>1.53</v>
+        <v>3</v>
       </c>
       <c r="BA183">
         <v>1.26</v>
@@ -36405,22 +36405,22 @@
         <v>3.5</v>
       </c>
       <c r="BF183">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG183">
         <v>9</v>
       </c>
       <c r="BH183">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BI183">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ183">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BK183">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36428,7 +36428,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>2831306</v>
+        <v>2831305</v>
       </c>
       <c r="C184" t="s">
         <v>63</v>
@@ -36443,142 +36443,142 @@
         <v>21</v>
       </c>
       <c r="G184" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H184" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O184" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="P184" t="s">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="Q184">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R184">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S184">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T184">
-        <v>2.41</v>
+        <v>4.33</v>
       </c>
       <c r="U184">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V184">
-        <v>4.65</v>
+        <v>2.3</v>
       </c>
       <c r="W184">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X184">
-        <v>3.04</v>
+        <v>3.25</v>
       </c>
       <c r="Y184">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="Z184">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AA184">
-        <v>6.85</v>
+        <v>5.5</v>
       </c>
       <c r="AB184">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AC184">
-        <v>2.13</v>
+        <v>3.5</v>
       </c>
       <c r="AD184">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AE184">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="AF184">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG184">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH184">
+        <v>1.25</v>
+      </c>
+      <c r="AI184">
+        <v>3.75</v>
+      </c>
+      <c r="AJ184">
+        <v>1.78</v>
+      </c>
+      <c r="AK184">
+        <v>2.04</v>
+      </c>
+      <c r="AL184">
+        <v>1.65</v>
+      </c>
+      <c r="AM184">
+        <v>2.05</v>
+      </c>
+      <c r="AN184">
+        <v>2</v>
+      </c>
+      <c r="AO184">
         <v>1.26</v>
       </c>
-      <c r="AI184">
-        <v>3.62</v>
-      </c>
-      <c r="AJ184">
-        <v>1.83</v>
-      </c>
-      <c r="AK184">
-        <v>1.98</v>
-      </c>
-      <c r="AL184">
-        <v>1.78</v>
-      </c>
-      <c r="AM184">
-        <v>2.04</v>
-      </c>
-      <c r="AN184">
+      <c r="AP184">
+        <v>1.21</v>
+      </c>
+      <c r="AQ184">
         <v>1.25</v>
       </c>
-      <c r="AO184">
-        <v>1.29</v>
-      </c>
-      <c r="AP184">
-        <v>2.02</v>
-      </c>
-      <c r="AQ184">
+      <c r="AR184">
         <v>1.22</v>
       </c>
-      <c r="AR184">
-        <v>0.9</v>
-      </c>
       <c r="AS184">
+        <v>1.45</v>
+      </c>
+      <c r="AT184">
         <v>1.17</v>
       </c>
-      <c r="AT184">
-        <v>0.92</v>
-      </c>
       <c r="AU184">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AV184">
-        <v>1.34</v>
+        <v>1.88</v>
       </c>
       <c r="AW184">
-        <v>2.87</v>
+        <v>3.43</v>
       </c>
       <c r="AX184">
-        <v>1.5</v>
+        <v>2.88</v>
       </c>
       <c r="AY184">
         <v>8.5</v>
       </c>
       <c r="AZ184">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="BA184">
         <v>1.26</v>
@@ -36596,22 +36596,22 @@
         <v>3.5</v>
       </c>
       <c r="BF184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG184">
         <v>9</v>
       </c>
       <c r="BH184">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BI184">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ184">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BK184">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:63">
@@ -37956,7 +37956,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>2831318</v>
+        <v>2831319</v>
       </c>
       <c r="C192" t="s">
         <v>63</v>
@@ -37971,76 +37971,76 @@
         <v>22</v>
       </c>
       <c r="G192" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H192" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>1</v>
       </c>
       <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
         <v>4</v>
       </c>
-      <c r="L192">
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
         <v>5</v>
-      </c>
-      <c r="M192">
-        <v>1</v>
-      </c>
-      <c r="N192">
-        <v>6</v>
       </c>
       <c r="O192" t="s">
         <v>224</v>
       </c>
       <c r="P192" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="Q192">
         <v>4</v>
       </c>
       <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
         <v>6</v>
-      </c>
-      <c r="S192">
-        <v>10</v>
       </c>
       <c r="T192">
         <v>2.6</v>
       </c>
       <c r="U192">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W192">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X192">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y192">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Z192">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA192">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB192">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AC192">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AD192">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AE192">
         <v>3.2</v>
@@ -38052,94 +38052,94 @@
         <v>13</v>
       </c>
       <c r="AH192">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AI192">
-        <v>4.12</v>
+        <v>3.82</v>
       </c>
       <c r="AJ192">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK192">
+        <v>1.98</v>
+      </c>
+      <c r="AL192">
+        <v>1.7</v>
+      </c>
+      <c r="AM192">
         <v>2.05</v>
       </c>
-      <c r="AL192">
-        <v>1.62</v>
-      </c>
-      <c r="AM192">
-        <v>2.2</v>
-      </c>
       <c r="AN192">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO192">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AP192">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AR192">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="AS192">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AT192">
-        <v>0.92</v>
+        <v>0.54</v>
       </c>
       <c r="AU192">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="AV192">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AW192">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="AX192">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AY192">
         <v>8.5</v>
       </c>
       <c r="AZ192">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="BA192">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="BB192">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="BC192">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BD192">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="BE192">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="BF192">
+        <v>5</v>
+      </c>
+      <c r="BG192">
+        <v>4</v>
+      </c>
+      <c r="BH192">
+        <v>5</v>
+      </c>
+      <c r="BI192">
         <v>8</v>
       </c>
-      <c r="BG192">
-        <v>8</v>
-      </c>
-      <c r="BH192">
-        <v>7</v>
-      </c>
-      <c r="BI192">
-        <v>6</v>
-      </c>
       <c r="BJ192">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK192">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:63">
@@ -38147,7 +38147,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2831319</v>
+        <v>2831318</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -38162,76 +38162,76 @@
         <v>22</v>
       </c>
       <c r="G193" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H193" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M193">
         <v>1</v>
       </c>
       <c r="N193">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O193" t="s">
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="Q193">
         <v>4</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S193">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T193">
         <v>2.6</v>
       </c>
       <c r="U193">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="V193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="W193">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X193">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y193">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Z193">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AA193">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB193">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AC193">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="AD193">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AE193">
         <v>3.2</v>
@@ -38243,94 +38243,94 @@
         <v>13</v>
       </c>
       <c r="AH193">
+        <v>1.22</v>
+      </c>
+      <c r="AI193">
+        <v>4.12</v>
+      </c>
+      <c r="AJ193">
+        <v>1.67</v>
+      </c>
+      <c r="AK193">
+        <v>2.05</v>
+      </c>
+      <c r="AL193">
+        <v>1.62</v>
+      </c>
+      <c r="AM193">
+        <v>2.2</v>
+      </c>
+      <c r="AN193">
+        <v>1.33</v>
+      </c>
+      <c r="AO193">
         <v>1.25</v>
       </c>
-      <c r="AI193">
-        <v>3.82</v>
-      </c>
-      <c r="AJ193">
-        <v>1.8</v>
-      </c>
-      <c r="AK193">
-        <v>1.98</v>
-      </c>
-      <c r="AL193">
+      <c r="AP193">
         <v>1.7</v>
       </c>
-      <c r="AM193">
-        <v>2.05</v>
-      </c>
-      <c r="AN193">
-        <v>1.25</v>
-      </c>
-      <c r="AO193">
+      <c r="AQ193">
+        <v>1</v>
+      </c>
+      <c r="AR193">
+        <v>1</v>
+      </c>
+      <c r="AS193">
         <v>1.29</v>
       </c>
-      <c r="AP193">
-        <v>1.8</v>
-      </c>
-      <c r="AQ193">
-        <v>1.11</v>
-      </c>
-      <c r="AR193">
-        <v>0.7</v>
-      </c>
-      <c r="AS193">
-        <v>1.08</v>
-      </c>
       <c r="AT193">
-        <v>0.54</v>
+        <v>0.92</v>
       </c>
       <c r="AU193">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AV193">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AW193">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="AX193">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AY193">
         <v>8.5</v>
       </c>
       <c r="AZ193">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="BA193">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="BB193">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="BC193">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BD193">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BE193">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="BF193">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG193">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH193">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI193">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ193">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK193">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38338,7 +38338,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2831312</v>
+        <v>2831311</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
@@ -38353,175 +38353,175 @@
         <v>22</v>
       </c>
       <c r="G194" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H194" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N194">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O194" t="s">
         <v>226</v>
       </c>
       <c r="P194" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
       <c r="Q194">
+        <v>3</v>
+      </c>
+      <c r="R194">
+        <v>4</v>
+      </c>
+      <c r="S194">
+        <v>7</v>
+      </c>
+      <c r="T194">
+        <v>2.14</v>
+      </c>
+      <c r="U194">
+        <v>2.25</v>
+      </c>
+      <c r="V194">
+        <v>5.5</v>
+      </c>
+      <c r="W194">
+        <v>1.36</v>
+      </c>
+      <c r="X194">
+        <v>3</v>
+      </c>
+      <c r="Y194">
+        <v>2.62</v>
+      </c>
+      <c r="Z194">
+        <v>1.44</v>
+      </c>
+      <c r="AA194">
+        <v>6.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.1</v>
+      </c>
+      <c r="AC194">
+        <v>1.24</v>
+      </c>
+      <c r="AD194">
+        <v>2.62</v>
+      </c>
+      <c r="AE194">
+        <v>3.69</v>
+      </c>
+      <c r="AF194">
+        <v>1.05</v>
+      </c>
+      <c r="AG194">
         <v>13</v>
       </c>
-      <c r="R194">
-        <v>1</v>
-      </c>
-      <c r="S194">
-        <v>14</v>
-      </c>
-      <c r="T194">
-        <v>1.66</v>
-      </c>
-      <c r="U194">
-        <v>2.79</v>
-      </c>
-      <c r="V194">
-        <v>7.6</v>
-      </c>
-      <c r="W194">
-        <v>1.25</v>
-      </c>
-      <c r="X194">
-        <v>3.75</v>
-      </c>
-      <c r="Y194">
+      <c r="AH194">
+        <v>1.27</v>
+      </c>
+      <c r="AI194">
+        <v>3.61</v>
+      </c>
+      <c r="AJ194">
+        <v>1.75</v>
+      </c>
+      <c r="AK194">
+        <v>2.08</v>
+      </c>
+      <c r="AL194">
+        <v>1.89</v>
+      </c>
+      <c r="AM194">
+        <v>1.85</v>
+      </c>
+      <c r="AN194">
+        <v>1.14</v>
+      </c>
+      <c r="AO194">
+        <v>1.24</v>
+      </c>
+      <c r="AP194">
+        <v>2.34</v>
+      </c>
+      <c r="AQ194">
+        <v>2.4</v>
+      </c>
+      <c r="AR194">
+        <v>0.88</v>
+      </c>
+      <c r="AS194">
+        <v>2.31</v>
+      </c>
+      <c r="AT194">
+        <v>0.67</v>
+      </c>
+      <c r="AU194">
+        <v>2.15</v>
+      </c>
+      <c r="AV194">
+        <v>1.35</v>
+      </c>
+      <c r="AW194">
+        <v>3.5</v>
+      </c>
+      <c r="AX194">
+        <v>1.5</v>
+      </c>
+      <c r="AY194">
+        <v>8.5</v>
+      </c>
+      <c r="AZ194">
+        <v>3.1</v>
+      </c>
+      <c r="BA194">
+        <v>1.4</v>
+      </c>
+      <c r="BB194">
+        <v>1.67</v>
+      </c>
+      <c r="BC194">
         <v>2.1</v>
       </c>
-      <c r="Z194">
-        <v>1.67</v>
-      </c>
-      <c r="AA194">
-        <v>4.33</v>
-      </c>
-      <c r="AB194">
-        <v>1.2</v>
-      </c>
-      <c r="AC194">
-        <v>1.1</v>
-      </c>
-      <c r="AD194">
-        <v>5.57</v>
-      </c>
-      <c r="AE194">
-        <v>10.7</v>
-      </c>
-      <c r="AF194">
-        <v>1.01</v>
-      </c>
-      <c r="AG194">
-        <v>26</v>
-      </c>
-      <c r="AH194">
-        <v>1.11</v>
-      </c>
-      <c r="AI194">
-        <v>6.09</v>
-      </c>
-      <c r="AJ194">
-        <v>1.46</v>
-      </c>
-      <c r="AK194">
-        <v>2.65</v>
-      </c>
-      <c r="AL194">
-        <v>1.83</v>
-      </c>
-      <c r="AM194">
-        <v>1.93</v>
-      </c>
-      <c r="AN194">
-        <v>1.07</v>
-      </c>
-      <c r="AO194">
-        <v>1.14</v>
-      </c>
-      <c r="AP194">
-        <v>3.84</v>
-      </c>
-      <c r="AQ194">
-        <v>2.44</v>
-      </c>
-      <c r="AR194">
-        <v>1</v>
-      </c>
-      <c r="AS194">
-        <v>2.58</v>
-      </c>
-      <c r="AT194">
-        <v>1.08</v>
-      </c>
-      <c r="AU194">
-        <v>2.34</v>
-      </c>
-      <c r="AV194">
-        <v>1.54</v>
-      </c>
-      <c r="AW194">
-        <v>3.88</v>
-      </c>
-      <c r="AX194">
-        <v>1.08</v>
-      </c>
-      <c r="AY194">
-        <v>15</v>
-      </c>
-      <c r="AZ194">
-        <v>8.5</v>
-      </c>
-      <c r="BA194">
-        <v>1.15</v>
-      </c>
-      <c r="BB194">
-        <v>1.26</v>
-      </c>
-      <c r="BC194">
-        <v>1.47</v>
-      </c>
       <c r="BD194">
-        <v>1.93</v>
+        <v>2.63</v>
       </c>
       <c r="BE194">
-        <v>2.37</v>
+        <v>4</v>
       </c>
       <c r="BF194">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BG194">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BH194">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BI194">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ194">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="BK194">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:63">
@@ -38529,7 +38529,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>2831311</v>
+        <v>2831312</v>
       </c>
       <c r="C195" t="s">
         <v>63</v>
@@ -38544,175 +38544,175 @@
         <v>22</v>
       </c>
       <c r="G195" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H195" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O195" t="s">
         <v>227</v>
       </c>
       <c r="P195" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="Q195">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="R195">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S195">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T195">
-        <v>2.14</v>
+        <v>1.66</v>
       </c>
       <c r="U195">
-        <v>2.25</v>
+        <v>2.79</v>
       </c>
       <c r="V195">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="W195">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X195">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Y195">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="Z195">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AA195">
-        <v>6.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB195">
+        <v>1.2</v>
+      </c>
+      <c r="AC195">
         <v>1.1</v>
       </c>
-      <c r="AC195">
-        <v>1.24</v>
-      </c>
       <c r="AD195">
-        <v>2.62</v>
+        <v>5.57</v>
       </c>
       <c r="AE195">
-        <v>3.69</v>
+        <v>10.7</v>
       </c>
       <c r="AF195">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AG195">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AH195">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AI195">
-        <v>3.61</v>
+        <v>6.09</v>
       </c>
       <c r="AJ195">
-        <v>1.75</v>
+        <v>1.46</v>
       </c>
       <c r="AK195">
-        <v>2.08</v>
+        <v>2.65</v>
       </c>
       <c r="AL195">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="AM195">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AN195">
+        <v>1.07</v>
+      </c>
+      <c r="AO195">
         <v>1.14</v>
       </c>
-      <c r="AO195">
-        <v>1.24</v>
-      </c>
       <c r="AP195">
+        <v>3.84</v>
+      </c>
+      <c r="AQ195">
+        <v>2.44</v>
+      </c>
+      <c r="AR195">
+        <v>1</v>
+      </c>
+      <c r="AS195">
+        <v>2.58</v>
+      </c>
+      <c r="AT195">
+        <v>1.08</v>
+      </c>
+      <c r="AU195">
         <v>2.34</v>
       </c>
-      <c r="AQ195">
-        <v>2.4</v>
-      </c>
-      <c r="AR195">
-        <v>0.88</v>
-      </c>
-      <c r="AS195">
-        <v>2.31</v>
-      </c>
-      <c r="AT195">
-        <v>0.67</v>
-      </c>
-      <c r="AU195">
-        <v>2.15</v>
-      </c>
       <c r="AV195">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="AW195">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="AX195">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="AY195">
+        <v>15</v>
+      </c>
+      <c r="AZ195">
         <v>8.5</v>
       </c>
-      <c r="AZ195">
-        <v>3.1</v>
-      </c>
       <c r="BA195">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="BB195">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="BC195">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="BD195">
-        <v>2.63</v>
+        <v>1.93</v>
       </c>
       <c r="BE195">
-        <v>4</v>
+        <v>2.37</v>
       </c>
       <c r="BF195">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BG195">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH195">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BI195">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ195">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BK195">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="196" spans="1:63">
@@ -44068,7 +44068,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>2831345</v>
+        <v>2831342</v>
       </c>
       <c r="C224" t="s">
         <v>63</v>
@@ -44083,10 +44083,10 @@
         <v>25</v>
       </c>
       <c r="G224" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H224" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -44098,19 +44098,19 @@
         <v>0</v>
       </c>
       <c r="L224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N224">
         <v>3</v>
       </c>
       <c r="O224" t="s">
+        <v>235</v>
+      </c>
+      <c r="P224" t="s">
         <v>84</v>
-      </c>
-      <c r="P224" t="s">
-        <v>235</v>
       </c>
       <c r="Q224">
         <v>-1</v>
@@ -44149,13 +44149,13 @@
         <v>0</v>
       </c>
       <c r="AC224">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="AD224">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AE224">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="AF224">
         <v>0</v>
@@ -44170,10 +44170,10 @@
         <v>0</v>
       </c>
       <c r="AJ224">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AK224">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="AL224">
         <v>0</v>
@@ -44191,25 +44191,25 @@
         <v>0</v>
       </c>
       <c r="AQ224">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR224">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AS224">
-        <v>1.45</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT224">
+        <v>0.92</v>
+      </c>
+      <c r="AU224">
+        <v>1.74</v>
+      </c>
+      <c r="AV224">
         <v>1.42</v>
       </c>
-      <c r="AU224">
-        <v>1.57</v>
-      </c>
-      <c r="AV224">
-        <v>1.54</v>
-      </c>
       <c r="AW224">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="AX224">
         <v>0</v>
@@ -44259,7 +44259,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>2831342</v>
+        <v>2831345</v>
       </c>
       <c r="C225" t="s">
         <v>63</v>
@@ -44274,10 +44274,10 @@
         <v>25</v>
       </c>
       <c r="G225" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H225" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I225">
         <v>0</v>
@@ -44289,19 +44289,19 @@
         <v>0</v>
       </c>
       <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
         <v>3</v>
-      </c>
-      <c r="M225">
-        <v>0</v>
       </c>
       <c r="N225">
         <v>3</v>
       </c>
       <c r="O225" t="s">
+        <v>84</v>
+      </c>
+      <c r="P225" t="s">
         <v>235</v>
-      </c>
-      <c r="P225" t="s">
-        <v>84</v>
       </c>
       <c r="Q225">
         <v>-1</v>
@@ -44340,13 +44340,13 @@
         <v>0</v>
       </c>
       <c r="AC225">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="AD225">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AE225">
-        <v>2.18</v>
+        <v>2.45</v>
       </c>
       <c r="AF225">
         <v>0</v>
@@ -44361,10 +44361,10 @@
         <v>0</v>
       </c>
       <c r="AJ225">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AK225">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="AL225">
         <v>0</v>
@@ -44382,25 +44382,25 @@
         <v>0</v>
       </c>
       <c r="AQ225">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR225">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AS225">
-        <v>0.6899999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="AT225">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AU225">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AV225">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AW225">
-        <v>3.16</v>
+        <v>3.11</v>
       </c>
       <c r="AX225">
         <v>0</v>
@@ -45787,7 +45787,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>2831354</v>
+        <v>2831355</v>
       </c>
       <c r="C233" t="s">
         <v>63</v>
@@ -45802,175 +45802,175 @@
         <v>26</v>
       </c>
       <c r="G233" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H233" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J233">
         <v>0</v>
       </c>
       <c r="K233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
         <v>3</v>
       </c>
-      <c r="N233">
-        <v>4</v>
-      </c>
       <c r="O233" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="P233" t="s">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="Q233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="S233">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="T233">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="U233">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V233">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="W233">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="X233">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="Y233">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="Z233">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AA233">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="AB233">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AC233">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AD233">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE233">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AF233">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG233">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH233">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI233">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AJ233">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AK233">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AL233">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AM233">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AN233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO233">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AP233">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AQ233">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AR233">
-        <v>2.09</v>
+        <v>0.58</v>
       </c>
       <c r="AS233">
         <v>1.69</v>
       </c>
       <c r="AT233">
-        <v>2.17</v>
+        <v>0.54</v>
       </c>
       <c r="AU233">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="AV233">
-        <v>1.9</v>
+        <v>1.37</v>
       </c>
       <c r="AW233">
-        <v>3.49</v>
+        <v>3.03</v>
       </c>
       <c r="AX233">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AY233">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AZ233">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="BA233">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BB233">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BC233">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BD233">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BE233">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="BF233">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BG233">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BH233">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BI233">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BJ233">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BK233">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:63">
@@ -45978,7 +45978,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>2831350</v>
+        <v>2831354</v>
       </c>
       <c r="C234" t="s">
         <v>63</v>
@@ -45993,175 +45993,175 @@
         <v>26</v>
       </c>
       <c r="G234" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H234" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234">
         <v>0</v>
       </c>
       <c r="K234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M234">
         <v>3</v>
       </c>
       <c r="N234">
+        <v>4</v>
+      </c>
+      <c r="O234" t="s">
+        <v>92</v>
+      </c>
+      <c r="P234" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q234">
+        <v>1</v>
+      </c>
+      <c r="R234">
+        <v>7</v>
+      </c>
+      <c r="S234">
+        <v>8</v>
+      </c>
+      <c r="T234">
+        <v>4.2</v>
+      </c>
+      <c r="U234">
+        <v>2.3</v>
+      </c>
+      <c r="V234">
+        <v>2.25</v>
+      </c>
+      <c r="W234">
+        <v>1.29</v>
+      </c>
+      <c r="X234">
+        <v>3.25</v>
+      </c>
+      <c r="Y234">
+        <v>2.3</v>
+      </c>
+      <c r="Z234">
+        <v>1.53</v>
+      </c>
+      <c r="AA234">
+        <v>5.25</v>
+      </c>
+      <c r="AB234">
+        <v>1.13</v>
+      </c>
+      <c r="AC234">
+        <v>4.1</v>
+      </c>
+      <c r="AD234">
+        <v>4</v>
+      </c>
+      <c r="AE234">
+        <v>1.75</v>
+      </c>
+      <c r="AF234">
+        <v>1.03</v>
+      </c>
+      <c r="AG234">
+        <v>13</v>
+      </c>
+      <c r="AH234">
+        <v>1.18</v>
+      </c>
+      <c r="AI234">
+        <v>4.5</v>
+      </c>
+      <c r="AJ234">
+        <v>1.6</v>
+      </c>
+      <c r="AK234">
+        <v>2.27</v>
+      </c>
+      <c r="AL234">
+        <v>1.53</v>
+      </c>
+      <c r="AM234">
+        <v>2.38</v>
+      </c>
+      <c r="AN234">
+        <v>2</v>
+      </c>
+      <c r="AO234">
+        <v>1.24</v>
+      </c>
+      <c r="AP234">
+        <v>1.22</v>
+      </c>
+      <c r="AQ234">
+        <v>1.83</v>
+      </c>
+      <c r="AR234">
+        <v>2.09</v>
+      </c>
+      <c r="AS234">
+        <v>1.69</v>
+      </c>
+      <c r="AT234">
+        <v>2.17</v>
+      </c>
+      <c r="AU234">
+        <v>1.59</v>
+      </c>
+      <c r="AV234">
+        <v>1.9</v>
+      </c>
+      <c r="AW234">
+        <v>3.49</v>
+      </c>
+      <c r="AX234">
+        <v>2.88</v>
+      </c>
+      <c r="AY234">
+        <v>8.5</v>
+      </c>
+      <c r="AZ234">
+        <v>1.57</v>
+      </c>
+      <c r="BA234">
+        <v>1.2</v>
+      </c>
+      <c r="BB234">
+        <v>1.48</v>
+      </c>
+      <c r="BC234">
+        <v>1.73</v>
+      </c>
+      <c r="BD234">
+        <v>2.1</v>
+      </c>
+      <c r="BE234">
+        <v>2.7</v>
+      </c>
+      <c r="BF234">
         <v>3</v>
       </c>
-      <c r="O234" t="s">
-        <v>84</v>
-      </c>
-      <c r="P234" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q234">
-        <v>-1</v>
-      </c>
-      <c r="R234">
-        <v>-1</v>
-      </c>
-      <c r="S234">
-        <v>-1</v>
-      </c>
-      <c r="T234">
-        <v>0</v>
-      </c>
-      <c r="U234">
-        <v>0</v>
-      </c>
-      <c r="V234">
-        <v>0</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
-        <v>0</v>
-      </c>
-      <c r="AB234">
-        <v>0</v>
-      </c>
-      <c r="AC234">
-        <v>0</v>
-      </c>
-      <c r="AD234">
-        <v>0</v>
-      </c>
-      <c r="AE234">
-        <v>0</v>
-      </c>
-      <c r="AF234">
-        <v>0</v>
-      </c>
-      <c r="AG234">
-        <v>0</v>
-      </c>
-      <c r="AH234">
-        <v>0</v>
-      </c>
-      <c r="AI234">
-        <v>0</v>
-      </c>
-      <c r="AJ234">
-        <v>0</v>
-      </c>
-      <c r="AK234">
-        <v>0</v>
-      </c>
-      <c r="AL234">
-        <v>0</v>
-      </c>
-      <c r="AM234">
-        <v>0</v>
-      </c>
-      <c r="AN234">
-        <v>0</v>
-      </c>
-      <c r="AO234">
-        <v>0</v>
-      </c>
-      <c r="AP234">
-        <v>0</v>
-      </c>
-      <c r="AQ234">
-        <v>1.18</v>
-      </c>
-      <c r="AR234">
-        <v>1</v>
-      </c>
-      <c r="AS234">
-        <v>1.08</v>
-      </c>
-      <c r="AT234">
-        <v>1.17</v>
-      </c>
-      <c r="AU234">
-        <v>1.6</v>
-      </c>
-      <c r="AV234">
-        <v>1.86</v>
-      </c>
-      <c r="AW234">
-        <v>3.46</v>
-      </c>
-      <c r="AX234">
-        <v>0</v>
-      </c>
-      <c r="AY234">
-        <v>0</v>
-      </c>
-      <c r="AZ234">
-        <v>0</v>
-      </c>
-      <c r="BA234">
-        <v>0</v>
-      </c>
-      <c r="BB234">
-        <v>0</v>
-      </c>
-      <c r="BC234">
-        <v>0</v>
-      </c>
-      <c r="BD234">
-        <v>0</v>
-      </c>
-      <c r="BE234">
-        <v>0</v>
-      </c>
-      <c r="BF234">
-        <v>-1</v>
-      </c>
       <c r="BG234">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH234">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BI234">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ234">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BK234">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:63">
@@ -46169,7 +46169,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>2831355</v>
+        <v>2831350</v>
       </c>
       <c r="C235" t="s">
         <v>63</v>
@@ -46184,10 +46184,10 @@
         <v>26</v>
       </c>
       <c r="G235" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H235" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -46199,19 +46199,19 @@
         <v>0</v>
       </c>
       <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235">
         <v>3</v>
-      </c>
-      <c r="M235">
-        <v>0</v>
       </c>
       <c r="N235">
         <v>3</v>
       </c>
       <c r="O235" t="s">
+        <v>84</v>
+      </c>
+      <c r="P235" t="s">
         <v>235</v>
-      </c>
-      <c r="P235" t="s">
-        <v>84</v>
       </c>
       <c r="Q235">
         <v>-1</v>
@@ -46292,25 +46292,25 @@
         <v>0</v>
       </c>
       <c r="AQ235">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="AR235">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AS235">
-        <v>1.69</v>
+        <v>1.08</v>
       </c>
       <c r="AT235">
-        <v>0.54</v>
+        <v>1.17</v>
       </c>
       <c r="AU235">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AV235">
-        <v>1.37</v>
+        <v>1.86</v>
       </c>
       <c r="AW235">
-        <v>3.03</v>
+        <v>3.46</v>
       </c>
       <c r="AX235">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.92</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT9" t="n">
         <v>1.38</v>
@@ -2933,7 +2933,7 @@
         <v>1.69</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>2.17</v>
@@ -5166,7 +5166,7 @@
         <v>1.54</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU23" t="n">
         <v>1.54</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU29" t="n">
         <v>2.86</v>
@@ -6790,7 +6790,7 @@
         <v>1.69</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU31" t="n">
         <v>2.23</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT34" t="n">
         <v>0.54</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT36" t="n">
         <v>2.17</v>
@@ -8211,7 +8211,7 @@
         <v>0.71</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU38" t="n">
         <v>1.88</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT45" t="n">
         <v>1.69</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT48" t="n">
         <v>0.54</v>
@@ -10647,7 +10647,7 @@
         <v>1.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU50" t="n">
         <v>1.28</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT52" t="n">
         <v>2.23</v>
@@ -11256,7 +11256,7 @@
         <v>1.69</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU53" t="n">
         <v>1.51</v>
@@ -11662,7 +11662,7 @@
         <v>2.33</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU55" t="n">
         <v>2.46</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT63" t="n">
         <v>1.14</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT65" t="n">
         <v>0.92</v>
@@ -13895,7 +13895,7 @@
         <v>1.69</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU66" t="n">
         <v>1.42</v>
@@ -14095,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT67" t="n">
         <v>1.33</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT71" t="n">
         <v>1.08</v>
@@ -15316,7 +15316,7 @@
         <v>1.42</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU73" t="n">
         <v>1.61</v>
@@ -17346,7 +17346,7 @@
         <v>1.69</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17749,7 +17749,7 @@
         <v>1.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT85" t="n">
         <v>1.21</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT86" t="n">
         <v>0.92</v>
@@ -18361,7 +18361,7 @@
         <v>2.15</v>
       </c>
       <c r="AT88" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU88" t="n">
         <v>1.79</v>
@@ -18564,7 +18564,7 @@
         <v>2.31</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU89" t="n">
         <v>2.33</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT91" t="n">
         <v>2.17</v>
@@ -19173,7 +19173,7 @@
         <v>1.54</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU92" t="n">
         <v>1.56</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT96" t="n">
         <v>1.46</v>
@@ -21200,7 +21200,7 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT102" t="n">
         <v>0.92</v>
@@ -21606,7 +21606,7 @@
         <v>0.6</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT104" t="n">
         <v>0.54</v>
@@ -22624,7 +22624,7 @@
         <v>1.17</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU109" t="n">
         <v>1.82</v>
@@ -23027,7 +23027,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
         <v>0.85</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU112" t="n">
         <v>1.82</v>
@@ -24854,10 +24854,10 @@
         <v>1.67</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU120" t="n">
         <v>1.37</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT130" t="n">
         <v>1.14</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT134" t="n">
         <v>0.54</v>
@@ -27902,7 +27902,7 @@
         <v>2.62</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU135" t="n">
         <v>2.38</v>
@@ -28105,7 +28105,7 @@
         <v>2.15</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU136" t="n">
         <v>1.7</v>
@@ -28305,7 +28305,7 @@
         <v>0.5</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT137" t="n">
         <v>1.08</v>
@@ -29120,7 +29120,7 @@
         <v>1.42</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU141" t="n">
         <v>1.62</v>
@@ -30538,7 +30538,7 @@
         <v>0.75</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT148" t="n">
         <v>0.54</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT150" t="n">
         <v>1.14</v>
@@ -31556,7 +31556,7 @@
         <v>2.33</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU153" t="n">
         <v>2.16</v>
@@ -31759,7 +31759,7 @@
         <v>1.33</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU154" t="n">
         <v>1.55</v>
@@ -32365,7 +32365,7 @@
         <v>1.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT157" t="n">
         <v>1.46</v>
@@ -33180,7 +33180,7 @@
         <v>1.69</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU161" t="n">
         <v>1.69</v>
@@ -34395,7 +34395,7 @@
         <v>1.29</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT167" t="n">
         <v>1.69</v>
@@ -34804,7 +34804,7 @@
         <v>0.71</v>
       </c>
       <c r="AT169" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU169" t="n">
         <v>1.67</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT170" t="n">
         <v>1.31</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT173" t="n">
         <v>1.33</v>
@@ -35819,7 +35819,7 @@
         <v>2.62</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU174" t="n">
         <v>2.34</v>
@@ -36631,7 +36631,7 @@
         <v>2.14</v>
       </c>
       <c r="AT178" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU178" t="n">
         <v>2.11</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT179" t="n">
         <v>0.85</v>
@@ -37643,7 +37643,7 @@
         <v>0.9</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT183" t="n">
         <v>0.92</v>
@@ -37849,7 +37849,7 @@
         <v>1.33</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU184" t="n">
         <v>1.55</v>
@@ -39673,7 +39673,7 @@
         <v>1</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT193" t="n">
         <v>0.92</v>
@@ -39879,7 +39879,7 @@
         <v>2.14</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU194" t="n">
         <v>2.15</v>
@@ -40485,10 +40485,10 @@
         <v>0.91</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU197" t="n">
         <v>1.57</v>
@@ -40891,7 +40891,7 @@
         <v>1</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT199" t="n">
         <v>1.31</v>
@@ -41909,7 +41909,7 @@
         <v>2.62</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU204" t="n">
         <v>2.42</v>
@@ -42721,7 +42721,7 @@
         <v>2.31</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU208" t="n">
         <v>2.35</v>
@@ -43733,7 +43733,7 @@
         <v>0.92</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT213" t="n">
         <v>0.92</v>
@@ -44545,10 +44545,10 @@
         <v>0.8</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -45357,7 +45357,7 @@
         <v>0.55</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT221" t="n">
         <v>0.54</v>
@@ -46575,7 +46575,7 @@
         <v>2.42</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT227" t="n">
         <v>2.23</v>
@@ -46778,7 +46778,7 @@
         <v>1.09</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AT228" t="n">
         <v>1.08</v>
@@ -46984,7 +46984,7 @@
         <v>2.33</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU229" t="n">
         <v>2.29</v>
@@ -47187,7 +47187,7 @@
         <v>2.31</v>
       </c>
       <c r="AT230" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU230" t="n">
         <v>2.32</v>
@@ -48202,7 +48202,7 @@
         <v>1</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU235" t="n">
         <v>1.6</v>
@@ -50081,6 +50081,615 @@
       </c>
       <c r="BK244" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2831365</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>2</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>2</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>6</v>
+      </c>
+      <c r="R245" t="n">
+        <v>4</v>
+      </c>
+      <c r="S245" t="n">
+        <v>10</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2831370</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Ankaragücü</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>3</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>5</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['10', '24', '53']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['47', '55']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>8</v>
+      </c>
+      <c r="R246" t="n">
+        <v>4</v>
+      </c>
+      <c r="S246" t="n">
+        <v>12</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X246" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2831367</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45024.60416666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['29', '76']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>5</v>
+      </c>
+      <c r="R247" t="n">
+        <v>5</v>
+      </c>
+      <c r="S247" t="n">
+        <v>10</v>
+      </c>
+      <c r="T247" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V247" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK251"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT5" t="n">
         <v>0.54</v>
@@ -2527,7 +2527,7 @@
         <v>2.15</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT12" t="n">
         <v>0.93</v>
@@ -4354,7 +4354,7 @@
         <v>1.4</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT30" t="n">
         <v>0.85</v>
@@ -6993,7 +6993,7 @@
         <v>2.38</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>3.35</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT33" t="n">
         <v>0.86</v>
@@ -7805,7 +7805,7 @@
         <v>1.29</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU36" t="n">
         <v>0.86</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT49" t="n">
         <v>0.86</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>2.3</v>
@@ -11253,7 +11253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT53" t="n">
         <v>0.6899999999999999</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT66" t="n">
         <v>1.08</v>
@@ -14910,7 +14910,7 @@
         <v>1.29</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15113,7 +15113,7 @@
         <v>2.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU72" t="n">
         <v>2.58</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT73" t="n">
         <v>0.93</v>
@@ -17546,7 +17546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5</v>
@@ -18155,7 +18155,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT87" t="n">
         <v>2.23</v>
@@ -18970,7 +18970,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -20997,7 +20997,7 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT101" t="n">
         <v>2.23</v>
@@ -21809,7 +21809,7 @@
         <v>1.83</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT105" t="n">
         <v>1.21</v>
@@ -22015,7 +22015,7 @@
         <v>2.36</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>2.38</v>
@@ -22218,7 +22218,7 @@
         <v>0.92</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -25060,7 +25060,7 @@
         <v>1.15</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT124" t="n">
         <v>0.86</v>
@@ -26072,7 +26072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT126" t="n">
         <v>1.38</v>
@@ -27090,7 +27090,7 @@
         <v>2.14</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU131" t="n">
         <v>2.11</v>
@@ -28308,7 +28308,7 @@
         <v>1.31</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -29117,7 +29117,7 @@
         <v>1.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT141" t="n">
         <v>1.08</v>
@@ -30135,7 +30135,7 @@
         <v>1.54</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU146" t="n">
         <v>1.76</v>
@@ -30335,7 +30335,7 @@
         <v>0.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT147" t="n">
         <v>1.31</v>
@@ -32162,7 +32162,7 @@
         <v>1.63</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT156" t="n">
         <v>1.38</v>
@@ -32571,7 +32571,7 @@
         <v>1</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -33583,7 +33583,7 @@
         <v>0.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT163" t="n">
         <v>1.14</v>
@@ -35210,7 +35210,7 @@
         <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU171" t="n">
         <v>1.7</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT177" t="n">
         <v>1.69</v>
@@ -37037,7 +37037,7 @@
         <v>0.71</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU180" t="n">
         <v>1.78</v>
@@ -38052,7 +38052,7 @@
         <v>1.54</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU185" t="n">
         <v>1.73</v>
@@ -39267,7 +39267,7 @@
         <v>1.67</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT191" t="n">
         <v>1.69</v>
@@ -40082,7 +40082,7 @@
         <v>2.62</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU195" t="n">
         <v>2.34</v>
@@ -40282,7 +40282,7 @@
         <v>1.67</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT196" t="n">
         <v>1.31</v>
@@ -40691,7 +40691,7 @@
         <v>2.38</v>
       </c>
       <c r="AT198" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU198" t="n">
         <v>2.28</v>
@@ -43124,7 +43124,7 @@
         <v>1.18</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT210" t="n">
         <v>1.14</v>
@@ -43330,7 +43330,7 @@
         <v>2.14</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU211" t="n">
         <v>2.14</v>
@@ -43530,10 +43530,10 @@
         <v>2</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT212" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -46781,7 +46781,7 @@
         <v>1.4</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU228" t="n">
         <v>1.66</v>
@@ -47590,7 +47590,7 @@
         <v>1.36</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AT232" t="n">
         <v>1.31</v>
@@ -47793,7 +47793,7 @@
         <v>0.58</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT233" t="n">
         <v>0.5</v>
@@ -47999,7 +47999,7 @@
         <v>1.79</v>
       </c>
       <c r="AT234" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU234" t="n">
         <v>1.59</v>
@@ -51502,6 +51502,412 @@
       </c>
       <c r="BK251" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2831366</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45026.41666666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2</v>
+      </c>
+      <c r="L252" t="n">
+        <v>3</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>4</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['31', '53', '90+9']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>5</v>
+      </c>
+      <c r="R252" t="n">
+        <v>7</v>
+      </c>
+      <c r="S252" t="n">
+        <v>12</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2831371</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45026.60416666666</v>
+      </c>
+      <c r="F253" t="n">
+        <v>28</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>2</v>
+      </c>
+      <c r="N253" t="n">
+        <v>3</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['51', '78']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>1</v>
+      </c>
+      <c r="R253" t="n">
+        <v>4</v>
+      </c>
+      <c r="S253" t="n">
+        <v>5</v>
+      </c>
+      <c r="T253" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X253" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK253"/>
+  <dimension ref="A1:BK255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2.36</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.31</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT7" t="n">
         <v>2.23</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT14" t="n">
         <v>0.86</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT23" t="n">
         <v>1.08</v>
@@ -5369,7 +5369,7 @@
         <v>2.15</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU24" t="n">
         <v>1.84</v>
@@ -5775,7 +5775,7 @@
         <v>1.15</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.18</v>
@@ -8617,7 +8617,7 @@
         <v>2.15</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.82</v>
@@ -8820,7 +8820,7 @@
         <v>2.15</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU41" t="n">
         <v>1.86</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT44" t="n">
         <v>0.92</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT46" t="n">
         <v>0.86</v>
@@ -11865,7 +11865,7 @@
         <v>1.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU56" t="n">
         <v>1.66</v>
@@ -12065,7 +12065,7 @@
         <v>2.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT57" t="n">
         <v>1.38</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT60" t="n">
         <v>1.21</v>
@@ -13489,7 +13489,7 @@
         <v>2.15</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.93</v>
@@ -15922,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT76" t="n">
         <v>1.38</v>
@@ -16331,7 +16331,7 @@
         <v>0.71</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU78" t="n">
         <v>1.76</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.78</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT92" t="n">
         <v>0.93</v>
@@ -19985,7 +19985,7 @@
         <v>1.4</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU96" t="n">
         <v>1.64</v>
@@ -20388,10 +20388,10 @@
         <v>0.8</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU98" t="n">
         <v>2.32</v>
@@ -22827,7 +22827,7 @@
         <v>0.71</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU110" t="n">
         <v>1.63</v>
@@ -23433,7 +23433,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT113" t="n">
         <v>1.69</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.66</v>
@@ -23839,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT115" t="n">
         <v>1.31</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT128" t="n">
         <v>0.85</v>
@@ -27699,7 +27699,7 @@
         <v>1.29</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU134" t="n">
         <v>1.48</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT135" t="n">
         <v>0.93</v>
@@ -28917,7 +28917,7 @@
         <v>1.79</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU140" t="n">
         <v>1.77</v>
@@ -30132,7 +30132,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT146" t="n">
         <v>2.23</v>
@@ -30541,7 +30541,7 @@
         <v>1.4</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU148" t="n">
         <v>1.71</v>
@@ -30741,7 +30741,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT149" t="n">
         <v>0.85</v>
@@ -32368,7 +32368,7 @@
         <v>1.31</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU157" t="n">
         <v>1.48</v>
@@ -33786,7 +33786,7 @@
         <v>0.78</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT164" t="n">
         <v>0.5</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT165" t="n">
         <v>0.86</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT174" t="n">
         <v>0.6899999999999999</v>
@@ -37240,7 +37240,7 @@
         <v>2.36</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU181" t="n">
         <v>2.29</v>
@@ -38049,7 +38049,7 @@
         <v>1.13</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT185" t="n">
         <v>1</v>
@@ -38458,7 +38458,7 @@
         <v>0.92</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU187" t="n">
         <v>1.19</v>
@@ -40079,7 +40079,7 @@
         <v>1</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT195" t="n">
         <v>1</v>
@@ -41297,7 +41297,7 @@
         <v>1.09</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT201" t="n">
         <v>0.86</v>
@@ -41503,7 +41503,7 @@
         <v>0.92</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU202" t="n">
         <v>1.2</v>
@@ -41906,7 +41906,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT204" t="n">
         <v>1.08</v>
@@ -42315,7 +42315,7 @@
         <v>1</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU206" t="n">
         <v>1.83</v>
@@ -44951,10 +44951,10 @@
         <v>1.45</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU219" t="n">
         <v>1.76</v>
@@ -45154,7 +45154,7 @@
         <v>0.8</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT220" t="n">
         <v>0.92</v>
@@ -45360,7 +45360,7 @@
         <v>1.31</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU221" t="n">
         <v>1.6</v>
@@ -48608,7 +48608,7 @@
         <v>2.14</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU237" t="n">
         <v>2.22</v>
@@ -48808,7 +48808,7 @@
         <v>1.31</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT238" t="n">
         <v>1.21</v>
@@ -49217,7 +49217,7 @@
         <v>1</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AU240" t="n">
         <v>1.86</v>
@@ -51908,6 +51908,412 @@
       </c>
       <c r="BK253" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2831374</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45030.60416666666</v>
+      </c>
+      <c r="F254" t="n">
+        <v>29</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>2</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>3</v>
+      </c>
+      <c r="L254" t="n">
+        <v>3</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="n">
+        <v>4</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['27', '39', '85']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>4</v>
+      </c>
+      <c r="R254" t="n">
+        <v>1</v>
+      </c>
+      <c r="S254" t="n">
+        <v>5</v>
+      </c>
+      <c r="T254" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X254" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2831382</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45030.60416666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>29</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>4</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>4</v>
+      </c>
+      <c r="L255" t="n">
+        <v>6</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>6</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['18', '23', '42', '45+12', '59', '71']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>2</v>
+      </c>
+      <c r="R255" t="n">
+        <v>7</v>
+      </c>
+      <c r="S255" t="n">
+        <v>9</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V255" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X255" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>16</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>29</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK262"/>
+  <dimension ref="A1:BK264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT5" t="n">
         <v>0.5</v>
@@ -1918,7 +1918,7 @@
         <v>1.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.21</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>1.64</v>
@@ -4557,7 +4557,7 @@
         <v>0.71</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU20" t="n">
         <v>1.97</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT30" t="n">
         <v>0.79</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
         <v>0.93</v>
@@ -6993,7 +6993,7 @@
         <v>2.43</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU32" t="n">
         <v>3.35</v>
@@ -7602,7 +7602,7 @@
         <v>2.07</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU35" t="n">
         <v>2.23</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
         <v>0.79</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
         <v>0.86</v>
@@ -10850,7 +10850,7 @@
         <v>0.93</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU51" t="n">
         <v>2.3</v>
@@ -11053,7 +11053,7 @@
         <v>1.4</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU52" t="n">
         <v>1.04</v>
@@ -14301,7 +14301,7 @@
         <v>2.43</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU68" t="n">
         <v>2.39</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT70" t="n">
         <v>0.86</v>
@@ -14910,7 +14910,7 @@
         <v>1.29</v>
       </c>
       <c r="AT71" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU71" t="n">
         <v>1.35</v>
@@ -15313,7 +15313,7 @@
         <v>1.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT73" t="n">
         <v>0.93</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT83" t="n">
         <v>0.6899999999999999</v>
@@ -17546,7 +17546,7 @@
         <v>0.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5</v>
@@ -18158,7 +18158,7 @@
         <v>1.79</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU87" t="n">
         <v>1.39</v>
@@ -20997,10 +20997,10 @@
         <v>1.83</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21403,7 +21403,7 @@
         <v>1.17</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>0.86</v>
@@ -22015,7 +22015,7 @@
         <v>2.36</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU106" t="n">
         <v>2.38</v>
@@ -24651,7 +24651,7 @@
         <v>1.71</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT119" t="n">
         <v>1.21</v>
@@ -25060,7 +25060,7 @@
         <v>1.15</v>
       </c>
       <c r="AT121" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU121" t="n">
         <v>1.68</v>
@@ -25466,7 +25466,7 @@
         <v>2.15</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU123" t="n">
         <v>1.76</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT124" t="n">
         <v>0.86</v>
@@ -28308,7 +28308,7 @@
         <v>1.31</v>
       </c>
       <c r="AT137" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -28914,7 +28914,7 @@
         <v>1.43</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT140" t="n">
         <v>1.36</v>
@@ -29117,7 +29117,7 @@
         <v>1.57</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT141" t="n">
         <v>1.08</v>
@@ -29323,7 +29323,7 @@
         <v>1.15</v>
       </c>
       <c r="AT142" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU142" t="n">
         <v>1.69</v>
@@ -32162,7 +32162,7 @@
         <v>1.63</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT156" t="n">
         <v>1.5</v>
@@ -32571,7 +32571,7 @@
         <v>1.15</v>
       </c>
       <c r="AT158" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU158" t="n">
         <v>1.85</v>
@@ -32774,7 +32774,7 @@
         <v>2.21</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU159" t="n">
         <v>2.01</v>
@@ -33177,7 +33177,7 @@
         <v>1.38</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT161" t="n">
         <v>1.08</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT176" t="n">
         <v>1.43</v>
@@ -38052,7 +38052,7 @@
         <v>1.64</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU185" t="n">
         <v>1.73</v>
@@ -38255,7 +38255,7 @@
         <v>1.15</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU186" t="n">
         <v>1.85</v>
@@ -39064,7 +39064,7 @@
         <v>1</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT190" t="n">
         <v>1.07</v>
@@ -39267,7 +39267,7 @@
         <v>1.67</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT191" t="n">
         <v>1.64</v>
@@ -40082,7 +40082,7 @@
         <v>2.64</v>
       </c>
       <c r="AT195" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU195" t="n">
         <v>2.34</v>
@@ -42921,7 +42921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT209" t="n">
         <v>1.21</v>
@@ -43124,7 +43124,7 @@
         <v>1.18</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT210" t="n">
         <v>1.07</v>
@@ -43330,7 +43330,7 @@
         <v>2.07</v>
       </c>
       <c r="AT211" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU211" t="n">
         <v>2.14</v>
@@ -43939,7 +43939,7 @@
         <v>0.93</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU214" t="n">
         <v>1.6</v>
@@ -46578,7 +46578,7 @@
         <v>1.29</v>
       </c>
       <c r="AT227" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU227" t="n">
         <v>1.71</v>
@@ -46781,7 +46781,7 @@
         <v>1.4</v>
       </c>
       <c r="AT228" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU228" t="n">
         <v>1.66</v>
@@ -47590,7 +47590,7 @@
         <v>1.36</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT232" t="n">
         <v>1.21</v>
@@ -47996,7 +47996,7 @@
         <v>2.09</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT234" t="n">
         <v>2.23</v>
@@ -51041,7 +51041,7 @@
         <v>0.54</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT249" t="n">
         <v>0.5</v>
@@ -51653,7 +51653,7 @@
         <v>1.79</v>
       </c>
       <c r="AT252" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU252" t="n">
         <v>1.66</v>
@@ -51853,7 +51853,7 @@
         <v>2.17</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AT253" t="n">
         <v>2.23</v>
@@ -53734,6 +53734,412 @@
         <v>11</v>
       </c>
       <c r="BK262" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2831385</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45034.60416666666</v>
+      </c>
+      <c r="F263" t="n">
+        <v>30</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>2</v>
+      </c>
+      <c r="K263" t="n">
+        <v>3</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="n">
+        <v>4</v>
+      </c>
+      <c r="N263" t="n">
+        <v>5</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['14', '42', '48', '63']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>6</v>
+      </c>
+      <c r="R263" t="n">
+        <v>3</v>
+      </c>
+      <c r="S263" t="n">
+        <v>9</v>
+      </c>
+      <c r="T263" t="n">
+        <v>4</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X263" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2831384</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45034.60416666666</v>
+      </c>
+      <c r="F264" t="n">
+        <v>30</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Fatih Karagümrük</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Ümraniyespor</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>2</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="n">
+        <v>3</v>
+      </c>
+      <c r="L264" t="n">
+        <v>4</v>
+      </c>
+      <c r="M264" t="n">
+        <v>2</v>
+      </c>
+      <c r="N264" t="n">
+        <v>6</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['45+1', '45+6', '52', '75']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['36', '62']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>5</v>
+      </c>
+      <c r="R264" t="n">
+        <v>8</v>
+      </c>
+      <c r="S264" t="n">
+        <v>13</v>
+      </c>
+      <c r="T264" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V264" t="n">
+        <v>4</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X264" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK264" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Turkey Süper Lig_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK264"/>
+  <dimension ref="A1:BK268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT2" t="n">
         <v>1.08</v>
@@ -1715,7 +1715,7 @@
         <v>1.15</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT12" t="n">
         <v>0.93</v>
@@ -3745,7 +3745,7 @@
         <v>0.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT18" t="n">
         <v>1.21</v>
@@ -4354,7 +4354,7 @@
         <v>1.4</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.15</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU22" t="n">
         <v>2.07</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.36</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6181,7 +6181,7 @@
         <v>2.21</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.95</v>
@@ -6384,7 +6384,7 @@
         <v>0.93</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU29" t="n">
         <v>2.86</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT33" t="n">
         <v>0.86</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU36" t="n">
         <v>0.86</v>
@@ -8614,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>0.5</v>
@@ -9226,7 +9226,7 @@
         <v>1.23</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.75</v>
@@ -9429,7 +9429,7 @@
         <v>1.64</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU44" t="n">
         <v>1.51</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT48" t="n">
         <v>0.5</v>
@@ -11253,10 +11253,10 @@
         <v>1.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU53" t="n">
         <v>1.51</v>
@@ -12271,7 +12271,7 @@
         <v>0.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU58" t="n">
         <v>1.64</v>
@@ -12471,7 +12471,7 @@
         <v>2</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT59" t="n">
         <v>1.64</v>
@@ -12677,7 +12677,7 @@
         <v>1.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.8</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.43</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT66" t="n">
         <v>1.08</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT71" t="n">
         <v>0.93</v>
@@ -15113,7 +15113,7 @@
         <v>2.36</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU72" t="n">
         <v>2.58</v>
@@ -15519,7 +15519,7 @@
         <v>0.93</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.89</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT75" t="n">
         <v>0.79</v>
@@ -16940,7 +16940,7 @@
         <v>2.07</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU81" t="n">
         <v>2.11</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.07</v>
@@ -17346,7 +17346,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU83" t="n">
         <v>1.98</v>
@@ -17752,7 +17752,7 @@
         <v>1.4</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.4</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT86" t="n">
         <v>0.86</v>
@@ -18155,7 +18155,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT87" t="n">
         <v>2.29</v>
@@ -18358,7 +18358,7 @@
         <v>1.75</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT88" t="n">
         <v>0.93</v>
@@ -18970,7 +18970,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -21200,10 +21200,10 @@
         <v>1.4</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU102" t="n">
         <v>1.42</v>
@@ -21809,10 +21809,10 @@
         <v>1.83</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU105" t="n">
         <v>1.5</v>
@@ -22215,10 +22215,10 @@
         <v>1.75</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU107" t="n">
         <v>1.24</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
         <v>0.86</v>
@@ -22624,7 +22624,7 @@
         <v>1.15</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU109" t="n">
         <v>1.82</v>
@@ -24654,7 +24654,7 @@
         <v>1.67</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU119" t="n">
         <v>1.8</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT123" t="n">
         <v>2.29</v>
@@ -25869,7 +25869,7 @@
         <v>0.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT125" t="n">
         <v>0.5</v>
@@ -26072,7 +26072,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT126" t="n">
         <v>1.5</v>
@@ -27090,7 +27090,7 @@
         <v>2.07</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU131" t="n">
         <v>2.11</v>
@@ -27696,7 +27696,7 @@
         <v>0.71</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT134" t="n">
         <v>0.5</v>
@@ -28102,10 +28102,10 @@
         <v>1.2</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU136" t="n">
         <v>1.7</v>
@@ -28711,10 +28711,10 @@
         <v>1.33</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU139" t="n">
         <v>1.18</v>
@@ -29729,7 +29729,7 @@
         <v>2.36</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU144" t="n">
         <v>2.37</v>
@@ -30135,7 +30135,7 @@
         <v>1.64</v>
       </c>
       <c r="AT146" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU146" t="n">
         <v>1.76</v>
@@ -30335,7 +30335,7 @@
         <v>0.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT147" t="n">
         <v>1.43</v>
@@ -30944,7 +30944,7 @@
         <v>0.86</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT150" t="n">
         <v>1.07</v>
@@ -31759,7 +31759,7 @@
         <v>1.23</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU154" t="n">
         <v>1.55</v>
@@ -31962,7 +31962,7 @@
         <v>2.36</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU155" t="n">
         <v>2.32</v>
@@ -32974,10 +32974,10 @@
         <v>1.44</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU160" t="n">
         <v>1.61</v>
@@ -33380,7 +33380,7 @@
         <v>0.89</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT162" t="n">
         <v>0.86</v>
@@ -33583,7 +33583,7 @@
         <v>0.88</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT163" t="n">
         <v>1.07</v>
@@ -34395,7 +34395,7 @@
         <v>1.29</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT167" t="n">
         <v>1.64</v>
@@ -35210,7 +35210,7 @@
         <v>0.93</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU171" t="n">
         <v>1.7</v>
@@ -35819,7 +35819,7 @@
         <v>2.64</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU174" t="n">
         <v>2.34</v>
@@ -36425,7 +36425,7 @@
         <v>1.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT177" t="n">
         <v>1.64</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT179" t="n">
         <v>0.79</v>
@@ -37037,7 +37037,7 @@
         <v>0.71</v>
       </c>
       <c r="AT180" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU180" t="n">
         <v>1.78</v>
@@ -37443,7 +37443,7 @@
         <v>1.15</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU182" t="n">
         <v>1.69</v>
@@ -38455,7 +38455,7 @@
         <v>1.11</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT187" t="n">
         <v>1.36</v>
@@ -38661,7 +38661,7 @@
         <v>2.21</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU188" t="n">
         <v>1.99</v>
@@ -38861,7 +38861,7 @@
         <v>1.56</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
         <v>1.5</v>
@@ -39879,7 +39879,7 @@
         <v>2.07</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU194" t="n">
         <v>2.15</v>
@@ -40282,7 +40282,7 @@
         <v>1.67</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT196" t="n">
         <v>1.21</v>
@@ -40485,7 +40485,7 @@
         <v>0.91</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT197" t="n">
         <v>0.93</v>
@@ -40691,7 +40691,7 @@
         <v>2.43</v>
       </c>
       <c r="AT198" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU198" t="n">
         <v>2.28</v>
@@ -41500,7 +41500,7 @@
         <v>0.6</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT202" t="n">
         <v>0.5</v>
@@ -41706,7 +41706,7 @@
         <v>1.23</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU203" t="n">
         <v>1.54</v>
@@ -42518,7 +42518,7 @@
         <v>0.71</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU207" t="n">
         <v>1.73</v>
@@ -42721,7 +42721,7 @@
         <v>2.36</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU208" t="n">
         <v>2.35</v>
@@ -43530,10 +43530,10 @@
         <v>2</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT212" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -43733,7 +43733,7 @@
         <v>0.92</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT213" t="n">
         <v>0.86</v>
@@ -44548,7 +44548,7 @@
         <v>1.4</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -45157,7 +45157,7 @@
         <v>2.64</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU220" t="n">
         <v>2.43</v>
@@ -45563,7 +45563,7 @@
         <v>2.07</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU222" t="n">
         <v>2.22</v>
@@ -45763,7 +45763,7 @@
         <v>1.45</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT223" t="n">
         <v>1.64</v>
@@ -46372,7 +46372,7 @@
         <v>1.08</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT226" t="n">
         <v>1.07</v>
@@ -46575,7 +46575,7 @@
         <v>2.42</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT227" t="n">
         <v>2.29</v>
@@ -46984,7 +46984,7 @@
         <v>2.43</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU229" t="n">
         <v>2.29</v>
@@ -47793,7 +47793,7 @@
         <v>0.58</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT233" t="n">
         <v>0.5</v>
@@ -47999,7 +47999,7 @@
         <v>1.67</v>
       </c>
       <c r="AT234" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU234" t="n">
         <v>1.59</v>
@@ -48402,7 +48402,7 @@
         <v>0.92</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AT236" t="n">
         <v>0.79</v>
@@ -48811,7 +48811,7 @@
         <v>2.64</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU238" t="n">
         <v>2.37</v>
@@ -49623,7 +49623,7 @@
         <v>0.93</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU242" t="n">
         <v>1.6</v>
@@ -50026,7 +50026,7 @@
         <v>1.17</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT244" t="n">
         <v>1.43</v>
@@ -50229,10 +50229,10 @@
         <v>0.67</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU245" t="n">
         <v>1.71</v>
@@ -51650,7 +51650,7 @@
         <v>1.08</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT252" t="n">
         <v>0.93</v>
@@ -51856,7 +51856,7 @@
         <v>1.43</v>
       </c>
       <c r="AT253" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AU253" t="n">
         <v>1.56</v>
@@ -52462,7 +52462,7 @@
         <v>1.31</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT256" t="n">
         <v>1.21</v>
@@ -52668,7 +52668,7 @@
         <v>2.43</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU257" t="n">
         <v>2.24</v>
@@ -54141,6 +54141,818 @@
       </c>
       <c r="BK264" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2831388</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45035.45833333334</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Kasımpaşa</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>3</v>
+      </c>
+      <c r="R265" t="n">
+        <v>3</v>
+      </c>
+      <c r="S265" t="n">
+        <v>6</v>
+      </c>
+      <c r="T265" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V265" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2831383</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45035.45833333334</v>
+      </c>
+      <c r="F266" t="n">
+        <v>30</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>İstanbulspor</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>2</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>3</v>
+      </c>
+      <c r="L266" t="n">
+        <v>3</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3</v>
+      </c>
+      <c r="N266" t="n">
+        <v>6</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['6', '45', '55']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['42', '51', '88']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>3</v>
+      </c>
+      <c r="R266" t="n">
+        <v>5</v>
+      </c>
+      <c r="S266" t="n">
+        <v>8</v>
+      </c>
+      <c r="T266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X266" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2831387</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45035.60416666666</v>
+      </c>
+      <c r="F267" t="n">
+        <v>30</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="n">
+        <v>2</v>
+      </c>
+      <c r="N267" t="n">
+        <v>3</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>['28', '56']</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>6</v>
+      </c>
+      <c r="R267" t="n">
+        <v>3</v>
+      </c>
+      <c r="S267" t="n">
+        <v>9</v>
+      </c>
+      <c r="T267" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V267" t="n">
+        <v>3</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2831389</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Turkey Süper Lig</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45035.60416666666</v>
+      </c>
+      <c r="F268" t="n">
+        <v>30</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>İstanbul Başakşehir</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2</v>
+      </c>
+      <c r="N268" t="n">
+        <v>3</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['88', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>5</v>
+      </c>
+      <c r="R268" t="n">
+        <v>4</v>
+      </c>
+      <c r="S268" t="n">
+        <v>9</v>
+      </c>
+      <c r="T268" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V268" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X268" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
